--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -39531,7 +39531,7 @@
         <v>707</v>
       </c>
       <c r="D93" s="1">
-        <v>210.44449562413635</v>
+        <v>210.44448852539063</v>
       </c>
       <c r="E93" t="s">
         <v>717</v>
@@ -39548,7 +39548,7 @@
         <v>707</v>
       </c>
       <c r="D94" s="1">
-        <v>193.14677327241577</v>
+        <v>193.14677429199219</v>
       </c>
       <c r="E94" t="s">
         <v>717</v>
@@ -39565,7 +39565,7 @@
         <v>707</v>
       </c>
       <c r="D95" s="1">
-        <v>195.01238265276737</v>
+        <v>195.01239013671875</v>
       </c>
       <c r="E95" t="s">
         <v>717</v>
@@ -39582,7 +39582,7 @@
         <v>707</v>
       </c>
       <c r="D96" s="1">
-        <v>205.20359480750028</v>
+        <v>205.20359802246094</v>
       </c>
       <c r="E96" t="s">
         <v>717</v>
@@ -39599,7 +39599,7 @@
         <v>707</v>
       </c>
       <c r="D97" s="1">
-        <v>212.72298889262873</v>
+        <v>212.72299194335938</v>
       </c>
       <c r="E97" t="s">
         <v>717</v>
@@ -39616,7 +39616,7 @@
         <v>707</v>
       </c>
       <c r="D98" s="1">
-        <v>206.19373832304817</v>
+        <v>206.19374084472656</v>
       </c>
       <c r="E98" t="s">
         <v>717</v>
@@ -39633,7 +39633,7 @@
         <v>707</v>
       </c>
       <c r="D99" s="1">
-        <v>216.90818489031446</v>
+        <v>216.90818786621094</v>
       </c>
       <c r="E99" t="s">
         <v>717</v>
@@ -39650,7 +39650,7 @@
         <v>707</v>
       </c>
       <c r="D100" s="1">
-        <v>215.47245218384242</v>
+        <v>215.47245788574219</v>
       </c>
       <c r="E100" t="s">
         <v>717</v>
@@ -39667,7 +39667,7 @@
         <v>707</v>
       </c>
       <c r="D101" s="1">
-        <v>203.86572882712872</v>
+        <v>203.86572265625</v>
       </c>
       <c r="E101" t="s">
         <v>717</v>
@@ -39684,7 +39684,7 @@
         <v>707</v>
       </c>
       <c r="D102" s="1">
-        <v>214.71308906490398</v>
+        <v>214.71308898925781</v>
       </c>
       <c r="E102" t="s">
         <v>717</v>
@@ -39701,7 +39701,7 @@
         <v>707</v>
       </c>
       <c r="D103" s="1">
-        <v>205.28327722941748</v>
+        <v>205.28327941894531</v>
       </c>
       <c r="E103" t="s">
         <v>717</v>
@@ -39718,7 +39718,7 @@
         <v>707</v>
       </c>
       <c r="D104" s="1">
-        <v>197.01048049939865</v>
+        <v>197.01048278808594</v>
       </c>
       <c r="E104" t="s">
         <v>717</v>
@@ -39735,7 +39735,7 @@
         <v>707</v>
       </c>
       <c r="D105" s="1">
-        <v>213.33108715184187</v>
+        <v>213.33108520507813</v>
       </c>
       <c r="E105" t="s">
         <v>717</v>
@@ -39752,7 +39752,7 @@
         <v>707</v>
       </c>
       <c r="D106" s="1">
-        <v>196.59027389603131</v>
+        <v>196.59027099609375</v>
       </c>
       <c r="E106" t="s">
         <v>717</v>
@@ -39769,7 +39769,7 @@
         <v>707</v>
       </c>
       <c r="D107" s="1">
-        <v>208.03596515875245</v>
+        <v>208.03596496582031</v>
       </c>
       <c r="E107" t="s">
         <v>717</v>
@@ -39786,7 +39786,7 @@
         <v>707</v>
       </c>
       <c r="D108" s="1">
-        <v>201.78970917225951</v>
+        <v>201.78970336914063</v>
       </c>
       <c r="E108" t="s">
         <v>717</v>
@@ -39803,7 +39803,7 @@
         <v>707</v>
       </c>
       <c r="D109" s="1">
-        <v>206.77361853832443</v>
+        <v>206.77362060546875</v>
       </c>
       <c r="E109" t="s">
         <v>717</v>
@@ -39820,7 +39820,7 @@
         <v>707</v>
       </c>
       <c r="D110" s="1">
-        <v>203.33589377811916</v>
+        <v>203.33589172363281</v>
       </c>
       <c r="E110" t="s">
         <v>717</v>
@@ -39837,7 +39837,7 @@
         <v>707</v>
       </c>
       <c r="D111" s="1">
-        <v>212.20708446866485</v>
+        <v>212.20707702636719</v>
       </c>
       <c r="E111" t="s">
         <v>717</v>
@@ -39854,7 +39854,7 @@
         <v>707</v>
       </c>
       <c r="D112" s="1">
-        <v>205.81270182992466</v>
+        <v>205.81269836425781</v>
       </c>
       <c r="E112" t="s">
         <v>717</v>
@@ -39871,7 +39871,7 @@
         <v>707</v>
       </c>
       <c r="D113" s="1">
-        <v>202.6535416220843</v>
+        <v>202.65354919433594</v>
       </c>
       <c r="E113" t="s">
         <v>717</v>
@@ -39888,7 +39888,7 @@
         <v>707</v>
       </c>
       <c r="D114" s="1">
-        <v>212.80267486383002</v>
+        <v>212.80267333984375</v>
       </c>
       <c r="E114" t="s">
         <v>717</v>
@@ -39905,7 +39905,7 @@
         <v>707</v>
       </c>
       <c r="D115" s="1">
-        <v>202.26293103448276</v>
+        <v>202.26292419433594</v>
       </c>
       <c r="E115" t="s">
         <v>717</v>
@@ -39922,7 +39922,7 @@
         <v>707</v>
       </c>
       <c r="D116" s="1">
-        <v>201.47994994286958</v>
+        <v>201.47994995117188</v>
       </c>
       <c r="E116" t="s">
         <v>717</v>
@@ -39939,7 +39939,7 @@
         <v>707</v>
       </c>
       <c r="D117" s="1">
-        <v>207.39942121091755</v>
+        <v>207.3994140625</v>
       </c>
       <c r="E117" t="s">
         <v>717</v>
@@ -39956,7 +39956,7 @@
         <v>707</v>
       </c>
       <c r="D118" s="1">
-        <v>195.53636516570404</v>
+        <v>195.53636169433594</v>
       </c>
       <c r="E118" t="s">
         <v>717</v>
@@ -39973,7 +39973,7 @@
         <v>707</v>
       </c>
       <c r="D119" s="1">
-        <v>204.49661101008431</v>
+        <v>204.49661254882813</v>
       </c>
       <c r="E119" t="s">
         <v>717</v>
@@ -39990,7 +39990,7 @@
         <v>707</v>
       </c>
       <c r="D120" s="1">
-        <v>202.08469766426543</v>
+        <v>202.08470153808594</v>
       </c>
       <c r="E120" t="s">
         <v>717</v>
@@ -40007,7 +40007,7 @@
         <v>707</v>
       </c>
       <c r="D121" s="1">
-        <v>207.71205418100388</v>
+        <v>207.71205139160156</v>
       </c>
       <c r="E121" t="s">
         <v>717</v>
@@ -40024,7 +40024,7 @@
         <v>707</v>
       </c>
       <c r="D122" s="1">
-        <v>211.07397023937889</v>
+        <v>211.073974609375</v>
       </c>
       <c r="E122" t="s">
         <v>717</v>
@@ -40041,7 +40041,7 @@
         <v>707</v>
       </c>
       <c r="D123" s="1">
-        <v>216.9260700389105</v>
+        <v>216.92607116699219</v>
       </c>
       <c r="E123" t="s">
         <v>717</v>
@@ -40058,7 +40058,7 @@
         <v>707</v>
       </c>
       <c r="D124" s="1">
-        <v>210.49667178699437</v>
+        <v>210.49667358398438</v>
       </c>
       <c r="E124" t="s">
         <v>717</v>
@@ -40075,7 +40075,7 @@
         <v>707</v>
       </c>
       <c r="D125" s="1">
-        <v>209.13884007029878</v>
+        <v>209.13883972167969</v>
       </c>
       <c r="E125" t="s">
         <v>717</v>
@@ -40092,7 +40092,7 @@
         <v>707</v>
       </c>
       <c r="D126" s="1">
-        <v>214.1758917589176</v>
+        <v>214.17588806152344</v>
       </c>
       <c r="E126" t="s">
         <v>717</v>
@@ -40109,7 +40109,7 @@
         <v>707</v>
       </c>
       <c r="D127" s="1">
-        <v>202.91187739463601</v>
+        <v>202.91188049316406</v>
       </c>
       <c r="E127" t="s">
         <v>717</v>
@@ -40126,7 +40126,7 @@
         <v>707</v>
       </c>
       <c r="D128" s="1">
-        <v>207.02525820636058</v>
+        <v>207.02525329589844</v>
       </c>
       <c r="E128" t="s">
         <v>717</v>
@@ -40143,7 +40143,7 @@
         <v>707</v>
       </c>
       <c r="D129" s="1">
-        <v>204.80097234883013</v>
+        <v>204.80097961425781</v>
       </c>
       <c r="E129" t="s">
         <v>717</v>
@@ -40160,7 +40160,7 @@
         <v>707</v>
       </c>
       <c r="D130" s="1">
-        <v>201.2146155390484</v>
+        <v>201.21461486816406</v>
       </c>
       <c r="E130" t="s">
         <v>717</v>
@@ -40177,7 +40177,7 @@
         <v>707</v>
       </c>
       <c r="D131" s="1">
-        <v>205.66885585896992</v>
+        <v>205.66885375976563</v>
       </c>
       <c r="E131" t="s">
         <v>717</v>
@@ -40194,7 +40194,7 @@
         <v>707</v>
       </c>
       <c r="D132" s="1">
-        <v>210.03616188636252</v>
+        <v>210.03616333007813</v>
       </c>
       <c r="E132" t="s">
         <v>717</v>
@@ -40211,7 +40211,7 @@
         <v>707</v>
       </c>
       <c r="D133" s="1">
-        <v>212.29077943943744</v>
+        <v>212.29078674316406</v>
       </c>
       <c r="E133" t="s">
         <v>717</v>
@@ -40228,7 +40228,7 @@
         <v>707</v>
       </c>
       <c r="D134" s="1">
-        <v>214.25769758776229</v>
+        <v>214.2576904296875</v>
       </c>
       <c r="E134" t="s">
         <v>717</v>
@@ -40245,7 +40245,7 @@
         <v>707</v>
       </c>
       <c r="D135" s="1">
-        <v>209.60094824180166</v>
+        <v>209.6009521484375</v>
       </c>
       <c r="E135" t="s">
         <v>717</v>
@@ -40262,7 +40262,7 @@
         <v>707</v>
       </c>
       <c r="D136" s="1">
-        <v>214.63248859112537</v>
+        <v>214.63249206542969</v>
       </c>
       <c r="E136" t="s">
         <v>717</v>
@@ -40279,7 +40279,7 @@
         <v>707</v>
       </c>
       <c r="D137" s="1">
-        <v>207.92794528465467</v>
+        <v>207.92794799804688</v>
       </c>
       <c r="E137" t="s">
         <v>717</v>
@@ -40296,7 +40296,7 @@
         <v>707</v>
       </c>
       <c r="D138" s="1">
-        <v>207.85110302801266</v>
+        <v>207.85110473632813</v>
       </c>
       <c r="E138" t="s">
         <v>717</v>
@@ -40313,7 +40313,7 @@
         <v>707</v>
       </c>
       <c r="D139" s="1">
-        <v>205.06222513333958</v>
+        <v>205.06222534179688</v>
       </c>
       <c r="E139" t="s">
         <v>717</v>
@@ -40330,7 +40330,7 @@
         <v>707</v>
       </c>
       <c r="D140" s="1">
-        <v>206.03158044478164</v>
+        <v>206.03158569335938</v>
       </c>
       <c r="E140" t="s">
         <v>717</v>
@@ -40347,7 +40347,7 @@
         <v>707</v>
       </c>
       <c r="D141" s="1">
-        <v>207.12954333643989</v>
+        <v>207.12954711914063</v>
       </c>
       <c r="E141" t="s">
         <v>717</v>
@@ -40364,7 +40364,7 @@
         <v>707</v>
       </c>
       <c r="D142" s="1">
-        <v>195.08112882979219</v>
+        <v>195.08113098144531</v>
       </c>
       <c r="E142" t="s">
         <v>717</v>
@@ -40381,7 +40381,7 @@
         <v>707</v>
       </c>
       <c r="D143" s="1">
-        <v>213.62564827911362</v>
+        <v>213.62564086914063</v>
       </c>
       <c r="E143" t="s">
         <v>717</v>
@@ -40398,7 +40398,7 @@
         <v>707</v>
       </c>
       <c r="D144" s="1">
-        <v>193.60341151385927</v>
+        <v>193.60340881347656</v>
       </c>
       <c r="E144" t="s">
         <v>717</v>
@@ -40415,7 +40415,7 @@
         <v>707</v>
       </c>
       <c r="D145" s="1">
-        <v>209.59642074506939</v>
+        <v>209.59642028808594</v>
       </c>
       <c r="E145" t="s">
         <v>717</v>
@@ -40432,7 +40432,7 @@
         <v>707</v>
       </c>
       <c r="D146" s="1">
-        <v>208.98886742110591</v>
+        <v>208.98886108398438</v>
       </c>
       <c r="E146" t="s">
         <v>717</v>
@@ -40449,7 +40449,7 @@
         <v>707</v>
       </c>
       <c r="D147" s="1">
-        <v>207.8413494415318</v>
+        <v>207.84135437011719</v>
       </c>
       <c r="E147" t="s">
         <v>717</v>
@@ -40466,7 +40466,7 @@
         <v>707</v>
       </c>
       <c r="D148" s="1">
-        <v>212.33582858935856</v>
+        <v>212.33583068847656</v>
       </c>
       <c r="E148" t="s">
         <v>717</v>
@@ -40483,7 +40483,7 @@
         <v>707</v>
       </c>
       <c r="D149" s="1">
-        <v>200.47808046184377</v>
+        <v>200.47807312011719</v>
       </c>
       <c r="E149" t="s">
         <v>717</v>
@@ -40500,7 +40500,7 @@
         <v>707</v>
       </c>
       <c r="D150" s="1">
-        <v>205.54758917368704</v>
+        <v>205.54759216308594</v>
       </c>
       <c r="E150" t="s">
         <v>717</v>
@@ -40517,7 +40517,7 @@
         <v>707</v>
       </c>
       <c r="D151" s="1">
-        <v>203.64944059669685</v>
+        <v>203.64944458007813</v>
       </c>
       <c r="E151" t="s">
         <v>717</v>
@@ -40534,7 +40534,7 @@
         <v>707</v>
       </c>
       <c r="D152" s="1">
-        <v>197.26125481070437</v>
+        <v>197.26126098632813</v>
       </c>
       <c r="E152" t="s">
         <v>717</v>
@@ -40551,7 +40551,7 @@
         <v>707</v>
       </c>
       <c r="D153" s="1">
-        <v>206.70089165090516</v>
+        <v>206.70089721679688</v>
       </c>
       <c r="E153" t="s">
         <v>717</v>
@@ -40568,7 +40568,7 @@
         <v>707</v>
       </c>
       <c r="D154" s="1">
-        <v>188.75136512559155</v>
+        <v>188.75135803222656</v>
       </c>
       <c r="E154" t="s">
         <v>717</v>
@@ -40585,7 +40585,7 @@
         <v>707</v>
       </c>
       <c r="D155" s="1">
-        <v>201.14942528735631</v>
+        <v>201.14942932128906</v>
       </c>
       <c r="E155" t="s">
         <v>717</v>
@@ -40602,7 +40602,7 @@
         <v>707</v>
       </c>
       <c r="D156" s="1">
-        <v>199.16560856158171</v>
+        <v>199.16560363769531</v>
       </c>
       <c r="E156" t="s">
         <v>717</v>
@@ -40619,7 +40619,7 @@
         <v>707</v>
       </c>
       <c r="D157" s="1">
-        <v>209.64115478010612</v>
+        <v>209.64115905761719</v>
       </c>
       <c r="E157" t="s">
         <v>717</v>
@@ -40636,7 +40636,7 @@
         <v>707</v>
       </c>
       <c r="D158" s="1">
-        <v>207.80435654149406</v>
+        <v>207.80435180664063</v>
       </c>
       <c r="E158" t="s">
         <v>717</v>
@@ -40653,7 +40653,7 @@
         <v>707</v>
       </c>
       <c r="D159" s="1">
-        <v>210.64958020327001</v>
+        <v>210.64958190917969</v>
       </c>
       <c r="E159" t="s">
         <v>717</v>
@@ -40670,7 +40670,7 @@
         <v>707</v>
       </c>
       <c r="D160" s="1">
-        <v>212.5770761359164</v>
+        <v>212.57707214355469</v>
       </c>
       <c r="E160" t="s">
         <v>717</v>
@@ -40687,7 +40687,7 @@
         <v>707</v>
       </c>
       <c r="D161" s="1">
-        <v>202.82024248813917</v>
+        <v>202.82023620605469</v>
       </c>
       <c r="E161" t="s">
         <v>717</v>
@@ -40704,7 +40704,7 @@
         <v>707</v>
       </c>
       <c r="D162" s="1">
-        <v>212.34088457389427</v>
+        <v>212.34088134765625</v>
       </c>
       <c r="E162" t="s">
         <v>717</v>
@@ -40721,7 +40721,7 @@
         <v>707</v>
       </c>
       <c r="D163" s="1">
-        <v>201.97528752832528</v>
+        <v>201.97528076171875</v>
       </c>
       <c r="E163" t="s">
         <v>717</v>
@@ -40738,7 +40738,7 @@
         <v>707</v>
       </c>
       <c r="D164" s="1">
-        <v>189.82555641488355</v>
+        <v>189.8255615234375</v>
       </c>
       <c r="E164" t="s">
         <v>717</v>
@@ -40755,7 +40755,7 @@
         <v>707</v>
       </c>
       <c r="D165" s="1">
-        <v>204.72909755890109</v>
+        <v>204.72909545898438</v>
       </c>
       <c r="E165" t="s">
         <v>717</v>
@@ -40772,7 +40772,7 @@
         <v>707</v>
       </c>
       <c r="D166" s="1">
-        <v>190.01854661945708</v>
+        <v>190.01853942871094</v>
       </c>
       <c r="E166" t="s">
         <v>717</v>
@@ -40789,7 +40789,7 @@
         <v>707</v>
       </c>
       <c r="D167" s="1">
-        <v>202.24719101123594</v>
+        <v>202.2471923828125</v>
       </c>
       <c r="E167" t="s">
         <v>717</v>
@@ -40806,7 +40806,7 @@
         <v>707</v>
       </c>
       <c r="D168" s="1">
-        <v>197.46965293212514</v>
+        <v>197.46965026855469</v>
       </c>
       <c r="E168" t="s">
         <v>717</v>
@@ -40823,7 +40823,7 @@
         <v>707</v>
       </c>
       <c r="D169" s="1">
-        <v>208.10477526895437</v>
+        <v>208.10478210449219</v>
       </c>
       <c r="E169" t="s">
         <v>717</v>
@@ -40840,7 +40840,7 @@
         <v>707</v>
       </c>
       <c r="D170" s="1">
-        <v>202.41848412869791</v>
+        <v>202.41848754882813</v>
       </c>
       <c r="E170" t="s">
         <v>717</v>
@@ -40857,7 +40857,7 @@
         <v>707</v>
       </c>
       <c r="D171" s="1">
-        <v>210.59788382271702</v>
+        <v>210.59788513183594</v>
       </c>
       <c r="E171" t="s">
         <v>717</v>
@@ -40874,7 +40874,7 @@
         <v>707</v>
       </c>
       <c r="D172" s="1">
-        <v>214.24921216250746</v>
+        <v>214.24920654296875</v>
       </c>
       <c r="E172" t="s">
         <v>717</v>
@@ -40891,7 +40891,7 @@
         <v>707</v>
       </c>
       <c r="D173" s="1">
-        <v>202.73231086480217</v>
+        <v>202.73231506347656</v>
       </c>
       <c r="E173" t="s">
         <v>717</v>
@@ -40908,7 +40908,7 @@
         <v>707</v>
       </c>
       <c r="D174" s="1">
-        <v>213.42976975092014</v>
+        <v>213.42976379394531</v>
       </c>
       <c r="E174" t="s">
         <v>717</v>
@@ -40925,7 +40925,7 @@
         <v>707</v>
       </c>
       <c r="D175" s="1">
-        <v>203.76270018942657</v>
+        <v>203.7626953125</v>
       </c>
       <c r="E175" t="s">
         <v>717</v>
@@ -40942,7 +40942,7 @@
         <v>707</v>
       </c>
       <c r="D176" s="1">
-        <v>194.10127022794501</v>
+        <v>194.10127258300781</v>
       </c>
       <c r="E176" t="s">
         <v>717</v>
@@ -40959,7 +40959,7 @@
         <v>707</v>
       </c>
       <c r="D177" s="1">
-        <v>212.17496646908666</v>
+        <v>212.17497253417969</v>
       </c>
       <c r="E177" t="s">
         <v>717</v>
@@ -40976,7 +40976,7 @@
         <v>707</v>
       </c>
       <c r="D178" s="1">
-        <v>197.392047883711</v>
+        <v>197.39204406738281</v>
       </c>
       <c r="E178" t="s">
         <v>717</v>
@@ -40993,7 +40993,7 @@
         <v>707</v>
       </c>
       <c r="D179" s="1">
-        <v>206.82705090269738</v>
+        <v>206.82705688476563</v>
       </c>
       <c r="E179" t="s">
         <v>717</v>
@@ -41010,7 +41010,7 @@
         <v>707</v>
       </c>
       <c r="D180" s="1">
-        <v>154.75824513635766</v>
+        <v>154.75823974609375</v>
       </c>
       <c r="E180" t="s">
         <v>717</v>
@@ -41027,7 +41027,7 @@
         <v>707</v>
       </c>
       <c r="D181" s="1">
-        <v>168.31501831501831</v>
+        <v>168.31501770019531</v>
       </c>
       <c r="E181" t="s">
         <v>717</v>
@@ -41044,7 +41044,7 @@
         <v>707</v>
       </c>
       <c r="D182" s="1">
-        <v>207.91139240506328</v>
+        <v>207.91139221191406</v>
       </c>
       <c r="E182" t="s">
         <v>717</v>
@@ -41061,7 +41061,7 @@
         <v>707</v>
       </c>
       <c r="D183" s="1">
-        <v>220.17844886753602</v>
+        <v>220.17845153808594</v>
       </c>
       <c r="E183" t="s">
         <v>717</v>
@@ -44172,7 +44172,7 @@
         <v>710</v>
       </c>
       <c r="D366" s="1">
-        <v>609.29307220815872</v>
+        <v>609.2930908203125</v>
       </c>
       <c r="E366" t="s">
         <v>720</v>
@@ -44189,7 +44189,7 @@
         <v>710</v>
       </c>
       <c r="D367" s="1">
-        <v>564.80979212904197</v>
+        <v>564.809814453125</v>
       </c>
       <c r="E367" t="s">
         <v>720</v>
@@ -44206,7 +44206,7 @@
         <v>710</v>
       </c>
       <c r="D368" s="1">
-        <v>538.81263314004264</v>
+        <v>538.8126220703125</v>
       </c>
       <c r="E368" t="s">
         <v>720</v>
@@ -44223,7 +44223,7 @@
         <v>710</v>
       </c>
       <c r="D369" s="1">
-        <v>552.94163605745939</v>
+        <v>552.941650390625</v>
       </c>
       <c r="E369" t="s">
         <v>720</v>
@@ -44240,7 +44240,7 @@
         <v>710</v>
       </c>
       <c r="D370" s="1">
-        <v>519.41214899911324</v>
+        <v>519.41217041015625</v>
       </c>
       <c r="E370" t="s">
         <v>720</v>
@@ -44257,7 +44257,7 @@
         <v>710</v>
       </c>
       <c r="D371" s="1">
-        <v>543.68282487391434</v>
+        <v>543.68280029296875</v>
       </c>
       <c r="E371" t="s">
         <v>720</v>
@@ -44274,7 +44274,7 @@
         <v>710</v>
       </c>
       <c r="D372" s="1">
-        <v>522.71485767897525</v>
+        <v>522.71484375</v>
       </c>
       <c r="E372" t="s">
         <v>720</v>
@@ -44291,7 +44291,7 @@
         <v>710</v>
       </c>
       <c r="D373" s="1">
-        <v>507.28537418580765</v>
+        <v>507.28536987304688</v>
       </c>
       <c r="E373" t="s">
         <v>720</v>
@@ -44308,7 +44308,7 @@
         <v>710</v>
       </c>
       <c r="D374" s="1">
-        <v>531.93113184033416</v>
+        <v>531.93115234375</v>
       </c>
       <c r="E374" t="s">
         <v>720</v>
@@ -44325,7 +44325,7 @@
         <v>710</v>
       </c>
       <c r="D375" s="1">
-        <v>569.03719772756597</v>
+        <v>569.03717041015625</v>
       </c>
       <c r="E375" t="s">
         <v>720</v>
@@ -44342,7 +44342,7 @@
         <v>710</v>
       </c>
       <c r="D376" s="1">
-        <v>576.54116924575806</v>
+        <v>576.54119873046875</v>
       </c>
       <c r="E376" t="s">
         <v>720</v>
@@ -44359,7 +44359,7 @@
         <v>710</v>
       </c>
       <c r="D377" s="1">
-        <v>542.07842098986725</v>
+        <v>542.07843017578125</v>
       </c>
       <c r="E377" t="s">
         <v>720</v>
@@ -44376,7 +44376,7 @@
         <v>710</v>
       </c>
       <c r="D378" s="1">
-        <v>479.99219163880764</v>
+        <v>479.9921875</v>
       </c>
       <c r="E378" t="s">
         <v>720</v>
@@ -44393,7 +44393,7 @@
         <v>710</v>
       </c>
       <c r="D379" s="1">
-        <v>529.92507518366938</v>
+        <v>529.925048828125</v>
       </c>
       <c r="E379" t="s">
         <v>720</v>
@@ -44410,7 +44410,7 @@
         <v>710</v>
       </c>
       <c r="D380" s="1">
-        <v>551.81288697317257</v>
+        <v>551.8128662109375</v>
       </c>
       <c r="E380" t="s">
         <v>720</v>
@@ -44427,7 +44427,7 @@
         <v>710</v>
       </c>
       <c r="D381" s="1">
-        <v>564.44089059579744</v>
+        <v>564.44091796875</v>
       </c>
       <c r="E381" t="s">
         <v>720</v>
@@ -44444,7 +44444,7 @@
         <v>710</v>
       </c>
       <c r="D382" s="1">
-        <v>549.03032894984165</v>
+        <v>549.03033447265625</v>
       </c>
       <c r="E382" t="s">
         <v>720</v>
@@ -44461,7 +44461,7 @@
         <v>710</v>
       </c>
       <c r="D383" s="1">
-        <v>530.16896597045638</v>
+        <v>530.1689453125</v>
       </c>
       <c r="E383" t="s">
         <v>720</v>
@@ -44478,7 +44478,7 @@
         <v>710</v>
       </c>
       <c r="D384" s="1">
-        <v>530.27990044118371</v>
+        <v>530.2799072265625</v>
       </c>
       <c r="E384" t="s">
         <v>720</v>
@@ -44495,7 +44495,7 @@
         <v>710</v>
       </c>
       <c r="D385" s="1">
-        <v>503.82294738672795</v>
+        <v>503.82293701171875</v>
       </c>
       <c r="E385" t="s">
         <v>720</v>
@@ -44512,7 +44512,7 @@
         <v>710</v>
       </c>
       <c r="D386" s="1">
-        <v>512.27793370911741</v>
+        <v>512.2779541015625</v>
       </c>
       <c r="E386" t="s">
         <v>720</v>
@@ -44529,7 +44529,7 @@
         <v>710</v>
       </c>
       <c r="D387" s="1">
-        <v>511.836950419441</v>
+        <v>511.83694458007813</v>
       </c>
       <c r="E387" t="s">
         <v>720</v>
@@ -44546,7 +44546,7 @@
         <v>710</v>
       </c>
       <c r="D388" s="1">
-        <v>523.10572484775571</v>
+        <v>523.105712890625</v>
       </c>
       <c r="E388" t="s">
         <v>720</v>
@@ -44563,7 +44563,7 @@
         <v>710</v>
       </c>
       <c r="D389" s="1">
-        <v>488.85899475209959</v>
+        <v>488.8590087890625</v>
       </c>
       <c r="E389" t="s">
         <v>720</v>
@@ -44580,7 +44580,7 @@
         <v>710</v>
       </c>
       <c r="D390" s="1">
-        <v>520.83073779105416</v>
+        <v>520.83074951171875</v>
       </c>
       <c r="E390" t="s">
         <v>720</v>
@@ -44597,7 +44597,7 @@
         <v>710</v>
       </c>
       <c r="D391" s="1">
-        <v>567.56030542007704</v>
+        <v>567.560302734375</v>
       </c>
       <c r="E391" t="s">
         <v>720</v>
@@ -44614,7 +44614,7 @@
         <v>710</v>
       </c>
       <c r="D392" s="1">
-        <v>597.94304617877992</v>
+        <v>597.94305419921875</v>
       </c>
       <c r="E392" t="s">
         <v>720</v>
@@ -44631,7 +44631,7 @@
         <v>710</v>
       </c>
       <c r="D393" s="1">
-        <v>552.48907805560157</v>
+        <v>552.48907470703125</v>
       </c>
       <c r="E393" t="s">
         <v>720</v>
@@ -44648,7 +44648,7 @@
         <v>710</v>
       </c>
       <c r="D394" s="1">
-        <v>583.46374954351836</v>
+        <v>583.4637451171875</v>
       </c>
       <c r="E394" t="s">
         <v>720</v>
@@ -44665,7 +44665,7 @@
         <v>710</v>
       </c>
       <c r="D395" s="1">
-        <v>559.51698475105684</v>
+        <v>559.5169677734375</v>
       </c>
       <c r="E395" t="s">
         <v>720</v>
@@ -44682,7 +44682,7 @@
         <v>710</v>
       </c>
       <c r="D396" s="1">
-        <v>507.27599659380746</v>
+        <v>507.2760009765625</v>
       </c>
       <c r="E396" t="s">
         <v>720</v>
@@ -44699,7 +44699,7 @@
         <v>710</v>
       </c>
       <c r="D397" s="1">
-        <v>530.05745731445006</v>
+        <v>530.05743408203125</v>
       </c>
       <c r="E397" t="s">
         <v>720</v>
@@ -44716,7 +44716,7 @@
         <v>710</v>
       </c>
       <c r="D398" s="1">
-        <v>514.97371093805577</v>
+        <v>514.97369384765625</v>
       </c>
       <c r="E398" t="s">
         <v>720</v>
@@ -44733,7 +44733,7 @@
         <v>710</v>
       </c>
       <c r="D399" s="1">
-        <v>519.30895878180127</v>
+        <v>519.3089599609375</v>
       </c>
       <c r="E399" t="s">
         <v>720</v>
@@ -44750,7 +44750,7 @@
         <v>710</v>
       </c>
       <c r="D400" s="1">
-        <v>530.61567623592987</v>
+        <v>530.61566162109375</v>
       </c>
       <c r="E400" t="s">
         <v>720</v>
@@ -44767,7 +44767,7 @@
         <v>710</v>
       </c>
       <c r="D401" s="1">
-        <v>502.8383252923465</v>
+        <v>502.83831787109375</v>
       </c>
       <c r="E401" t="s">
         <v>720</v>
@@ -44784,7 +44784,7 @@
         <v>710</v>
       </c>
       <c r="D402" s="1">
-        <v>502.88027087553951</v>
+        <v>502.88027954101563</v>
       </c>
       <c r="E402" t="s">
         <v>720</v>
@@ -44801,7 +44801,7 @@
         <v>710</v>
       </c>
       <c r="D403" s="1">
-        <v>513.52730505452837</v>
+        <v>513.52728271484375</v>
       </c>
       <c r="E403" t="s">
         <v>720</v>
@@ -44818,7 +44818,7 @@
         <v>710</v>
       </c>
       <c r="D404" s="1">
-        <v>500.98119794558971</v>
+        <v>500.981201171875</v>
       </c>
       <c r="E404" t="s">
         <v>720</v>
@@ -44835,7 +44835,7 @@
         <v>710</v>
       </c>
       <c r="D405" s="1">
-        <v>452.93583482050497</v>
+        <v>452.93582153320313</v>
       </c>
       <c r="E405" t="s">
         <v>720</v>
@@ -44852,7 +44852,7 @@
         <v>710</v>
       </c>
       <c r="D406" s="1">
-        <v>525.81467236844071</v>
+        <v>525.814697265625</v>
       </c>
       <c r="E406" t="s">
         <v>720</v>
@@ -44869,7 +44869,7 @@
         <v>710</v>
       </c>
       <c r="D407" s="1">
-        <v>509.86164418531956</v>
+        <v>509.86163330078125</v>
       </c>
       <c r="E407" t="s">
         <v>720</v>
@@ -44886,7 +44886,7 @@
         <v>710</v>
       </c>
       <c r="D408" s="1">
-        <v>519.19435211206962</v>
+        <v>519.1943359375</v>
       </c>
       <c r="E408" t="s">
         <v>720</v>
@@ -44903,7 +44903,7 @@
         <v>710</v>
       </c>
       <c r="D409" s="1">
-        <v>520.65779175798207</v>
+        <v>520.65777587890625</v>
       </c>
       <c r="E409" t="s">
         <v>720</v>
@@ -44920,7 +44920,7 @@
         <v>710</v>
       </c>
       <c r="D410" s="1">
-        <v>507.34080244159611</v>
+        <v>507.34078979492188</v>
       </c>
       <c r="E410" t="s">
         <v>720</v>
@@ -44937,7 +44937,7 @@
         <v>710</v>
       </c>
       <c r="D411" s="1">
-        <v>536.03430618530388</v>
+        <v>536.0343017578125</v>
       </c>
       <c r="E411" t="s">
         <v>720</v>
@@ -44954,7 +44954,7 @@
         <v>710</v>
       </c>
       <c r="D412" s="1">
-        <v>530.80084959975136</v>
+        <v>530.80084228515625</v>
       </c>
       <c r="E412" t="s">
         <v>720</v>
@@ -44971,7 +44971,7 @@
         <v>710</v>
       </c>
       <c r="D413" s="1">
-        <v>477.31211094115594</v>
+        <v>477.31210327148438</v>
       </c>
       <c r="E413" t="s">
         <v>720</v>
@@ -44988,7 +44988,7 @@
         <v>710</v>
       </c>
       <c r="D414" s="1">
-        <v>522.31022186154769</v>
+        <v>522.31024169921875</v>
       </c>
       <c r="E414" t="s">
         <v>720</v>
@@ -45005,7 +45005,7 @@
         <v>710</v>
       </c>
       <c r="D415" s="1">
-        <v>502.84133449036341</v>
+        <v>502.84133911132813</v>
       </c>
       <c r="E415" t="s">
         <v>720</v>
@@ -45022,7 +45022,7 @@
         <v>710</v>
       </c>
       <c r="D416" s="1">
-        <v>495.54962385907464</v>
+        <v>495.54962158203125</v>
       </c>
       <c r="E416" t="s">
         <v>720</v>
@@ -45039,7 +45039,7 @@
         <v>710</v>
       </c>
       <c r="D417" s="1">
-        <v>502.78444650168194</v>
+        <v>502.78445434570313</v>
       </c>
       <c r="E417" t="s">
         <v>720</v>
@@ -45056,7 +45056,7 @@
         <v>710</v>
       </c>
       <c r="D418" s="1">
-        <v>514.5266922070881</v>
+        <v>514.52667236328125</v>
       </c>
       <c r="E418" t="s">
         <v>720</v>
@@ -45073,7 +45073,7 @@
         <v>710</v>
       </c>
       <c r="D419" s="1">
-        <v>528.90174586474166</v>
+        <v>528.9017333984375</v>
       </c>
       <c r="E419" t="s">
         <v>720</v>
@@ -45090,7 +45090,7 @@
         <v>710</v>
       </c>
       <c r="D420" s="1">
-        <v>530.89067828801308</v>
+        <v>530.89068603515625</v>
       </c>
       <c r="E420" t="s">
         <v>720</v>
@@ -45107,7 +45107,7 @@
         <v>710</v>
       </c>
       <c r="D421" s="1">
-        <v>513.74067988229547</v>
+        <v>513.74066162109375</v>
       </c>
       <c r="E421" t="s">
         <v>720</v>
@@ -45124,7 +45124,7 @@
         <v>710</v>
       </c>
       <c r="D422" s="1">
-        <v>503.59549852670085</v>
+        <v>503.59548950195313</v>
       </c>
       <c r="E422" t="s">
         <v>720</v>
@@ -45141,7 +45141,7 @@
         <v>710</v>
       </c>
       <c r="D423" s="1">
-        <v>521.79862266135171</v>
+        <v>521.79864501953125</v>
       </c>
       <c r="E423" t="s">
         <v>720</v>
@@ -45158,7 +45158,7 @@
         <v>710</v>
       </c>
       <c r="D424" s="1">
-        <v>490.92623445101037</v>
+        <v>490.92623901367188</v>
       </c>
       <c r="E424" t="s">
         <v>720</v>
@@ -45175,7 +45175,7 @@
         <v>710</v>
       </c>
       <c r="D425" s="1">
-        <v>453.61282628487828</v>
+        <v>453.61282348632813</v>
       </c>
       <c r="E425" t="s">
         <v>720</v>
@@ -45192,7 +45192,7 @@
         <v>710</v>
       </c>
       <c r="D426" s="1">
-        <v>490.96522695375717</v>
+        <v>490.96524047851563</v>
       </c>
       <c r="E426" t="s">
         <v>720</v>
@@ -45209,7 +45209,7 @@
         <v>710</v>
       </c>
       <c r="D427" s="1">
-        <v>473.4199059625555</v>
+        <v>473.41989135742188</v>
       </c>
       <c r="E427" t="s">
         <v>720</v>
@@ -45226,7 +45226,7 @@
         <v>710</v>
       </c>
       <c r="D428" s="1">
-        <v>478.43884582828423</v>
+        <v>478.4388427734375</v>
       </c>
       <c r="E428" t="s">
         <v>720</v>
@@ -45243,7 +45243,7 @@
         <v>710</v>
       </c>
       <c r="D429" s="1">
-        <v>503.08677691670181</v>
+        <v>503.0867919921875</v>
       </c>
       <c r="E429" t="s">
         <v>720</v>
@@ -45260,7 +45260,7 @@
         <v>710</v>
       </c>
       <c r="D430" s="1">
-        <v>467.41745972393232</v>
+        <v>467.41744995117188</v>
       </c>
       <c r="E430" t="s">
         <v>720</v>
@@ -45277,7 +45277,7 @@
         <v>710</v>
       </c>
       <c r="D431" s="1">
-        <v>442.54972878233798</v>
+        <v>442.54974365234375</v>
       </c>
       <c r="E431" t="s">
         <v>720</v>
@@ -45294,7 +45294,7 @@
         <v>710</v>
       </c>
       <c r="D432" s="1">
-        <v>464.92878920720813</v>
+        <v>464.92880249023438</v>
       </c>
       <c r="E432" t="s">
         <v>720</v>
@@ -45311,7 +45311,7 @@
         <v>710</v>
       </c>
       <c r="D433" s="1">
-        <v>466.74742970365554</v>
+        <v>466.7474365234375</v>
       </c>
       <c r="E433" t="s">
         <v>720</v>
@@ -45328,7 +45328,7 @@
         <v>710</v>
       </c>
       <c r="D434" s="1">
-        <v>447.38822859231408</v>
+        <v>447.38821411132813</v>
       </c>
       <c r="E434" t="s">
         <v>720</v>
@@ -45345,7 +45345,7 @@
         <v>710</v>
       </c>
       <c r="D435" s="1">
-        <v>439.34618545530174</v>
+        <v>439.34619140625</v>
       </c>
       <c r="E435" t="s">
         <v>720</v>
@@ -45362,7 +45362,7 @@
         <v>710</v>
       </c>
       <c r="D436" s="1">
-        <v>454.77377260741787</v>
+        <v>454.77377319335938</v>
       </c>
       <c r="E436" t="s">
         <v>720</v>
@@ -45379,7 +45379,7 @@
         <v>710</v>
       </c>
       <c r="D437" s="1">
-        <v>428.02220956590907</v>
+        <v>428.022216796875</v>
       </c>
       <c r="E437" t="s">
         <v>720</v>
@@ -45396,7 +45396,7 @@
         <v>710</v>
       </c>
       <c r="D438" s="1">
-        <v>415.83660379652798</v>
+        <v>415.83660888671875</v>
       </c>
       <c r="E438" t="s">
         <v>720</v>
@@ -45413,7 +45413,7 @@
         <v>710</v>
       </c>
       <c r="D439" s="1">
-        <v>467.93873601817154</v>
+        <v>467.93875122070313</v>
       </c>
       <c r="E439" t="s">
         <v>720</v>
@@ -45430,7 +45430,7 @@
         <v>710</v>
       </c>
       <c r="D440" s="1">
-        <v>461.67528605728802</v>
+        <v>461.67529296875</v>
       </c>
       <c r="E440" t="s">
         <v>720</v>
@@ -45447,7 +45447,7 @@
         <v>710</v>
       </c>
       <c r="D441" s="1">
-        <v>467.28692227553961</v>
+        <v>467.28692626953125</v>
       </c>
       <c r="E441" t="s">
         <v>720</v>
@@ -45464,7 +45464,7 @@
         <v>710</v>
       </c>
       <c r="D442" s="1">
-        <v>467.08712853580101</v>
+        <v>467.08712768554688</v>
       </c>
       <c r="E442" t="s">
         <v>720</v>
@@ -45481,7 +45481,7 @@
         <v>710</v>
       </c>
       <c r="D443" s="1">
-        <v>475.73997974769765</v>
+        <v>475.739990234375</v>
       </c>
       <c r="E443" t="s">
         <v>720</v>
@@ -45498,7 +45498,7 @@
         <v>710</v>
       </c>
       <c r="D444" s="1">
-        <v>455.5728410008071</v>
+        <v>455.57284545898438</v>
       </c>
       <c r="E444" t="s">
         <v>720</v>
@@ -45515,7 +45515,7 @@
         <v>710</v>
       </c>
       <c r="D445" s="1">
-        <v>451.54809575894234</v>
+        <v>451.548095703125</v>
       </c>
       <c r="E445" t="s">
         <v>720</v>
@@ -45532,7 +45532,7 @@
         <v>710</v>
       </c>
       <c r="D446" s="1">
-        <v>463.93419482654451</v>
+        <v>463.9342041015625</v>
       </c>
       <c r="E446" t="s">
         <v>720</v>
@@ -45549,7 +45549,7 @@
         <v>710</v>
       </c>
       <c r="D447" s="1">
-        <v>441.90264672454123</v>
+        <v>441.90264892578125</v>
       </c>
       <c r="E447" t="s">
         <v>720</v>
@@ -45566,7 +45566,7 @@
         <v>710</v>
       </c>
       <c r="D448" s="1">
-        <v>431.63030547444828</v>
+        <v>431.63031005859375</v>
       </c>
       <c r="E448" t="s">
         <v>720</v>
@@ -45583,7 +45583,7 @@
         <v>710</v>
       </c>
       <c r="D449" s="1">
-        <v>406.54273630170371</v>
+        <v>406.542724609375</v>
       </c>
       <c r="E449" t="s">
         <v>720</v>
@@ -45600,7 +45600,7 @@
         <v>710</v>
       </c>
       <c r="D450" s="1">
-        <v>453.14955006647665</v>
+        <v>453.1495361328125</v>
       </c>
       <c r="E450" t="s">
         <v>720</v>
@@ -45617,7 +45617,7 @@
         <v>710</v>
       </c>
       <c r="D451" s="1">
-        <v>376.77665943185713</v>
+        <v>376.77667236328125</v>
       </c>
       <c r="E451" t="s">
         <v>720</v>
@@ -45634,7 +45634,7 @@
         <v>710</v>
       </c>
       <c r="D452" s="1">
-        <v>408.3637000304704</v>
+        <v>408.36370849609375</v>
       </c>
       <c r="E452" t="s">
         <v>720</v>
@@ -45651,7 +45651,7 @@
         <v>710</v>
       </c>
       <c r="D453" s="1">
-        <v>417.97500066140992</v>
+        <v>417.97500610351563</v>
       </c>
       <c r="E453" t="s">
         <v>720</v>
@@ -45668,7 +45668,7 @@
         <v>710</v>
       </c>
       <c r="D454" s="1">
-        <v>395.02865812688276</v>
+        <v>395.02865600585938</v>
       </c>
       <c r="E454" t="s">
         <v>720</v>
@@ -45685,7 +45685,7 @@
         <v>710</v>
       </c>
       <c r="D455" s="1">
-        <v>377.62290972050255</v>
+        <v>377.6229248046875</v>
       </c>
       <c r="E455" t="s">
         <v>720</v>
@@ -45702,7 +45702,7 @@
         <v>710</v>
       </c>
       <c r="D456" s="1">
-        <v>377.81209213651454</v>
+        <v>377.81210327148438</v>
       </c>
       <c r="E456" t="s">
         <v>720</v>
@@ -45719,7 +45719,7 @@
         <v>711</v>
       </c>
       <c r="D457" s="1">
-        <v>128.22237326812646</v>
+        <v>128.22238159179688</v>
       </c>
       <c r="E457" t="s">
         <v>721</v>
@@ -45736,7 +45736,7 @@
         <v>711</v>
       </c>
       <c r="D458" s="1">
-        <v>109.09118886238835</v>
+        <v>109.0911865234375</v>
       </c>
       <c r="E458" t="s">
         <v>721</v>
@@ -45753,7 +45753,7 @@
         <v>711</v>
       </c>
       <c r="D459" s="1">
-        <v>105.07513539205117</v>
+        <v>105.07513427734375</v>
       </c>
       <c r="E459" t="s">
         <v>721</v>
@@ -45770,7 +45770,7 @@
         <v>711</v>
       </c>
       <c r="D460" s="1">
-        <v>113.46561143773117</v>
+        <v>113.46560668945313</v>
       </c>
       <c r="E460" t="s">
         <v>721</v>
@@ -45787,7 +45787,7 @@
         <v>711</v>
       </c>
       <c r="D461" s="1">
-        <v>110.49090480223479</v>
+        <v>110.49090576171875</v>
       </c>
       <c r="E461" t="s">
         <v>721</v>
@@ -45804,7 +45804,7 @@
         <v>711</v>
       </c>
       <c r="D462" s="1">
-        <v>112.10399412278751</v>
+        <v>112.10398864746094</v>
       </c>
       <c r="E462" t="s">
         <v>721</v>
@@ -45821,7 +45821,7 @@
         <v>711</v>
       </c>
       <c r="D463" s="1">
-        <v>113.38113099434555</v>
+        <v>113.38113403320313</v>
       </c>
       <c r="E463" t="s">
         <v>721</v>
@@ -45838,7 +45838,7 @@
         <v>711</v>
       </c>
       <c r="D464" s="1">
-        <v>109.30602353281404</v>
+        <v>109.30602264404297</v>
       </c>
       <c r="E464" t="s">
         <v>721</v>
@@ -45855,7 +45855,7 @@
         <v>711</v>
       </c>
       <c r="D465" s="1">
-        <v>108.44252787846922</v>
+        <v>108.44252777099609</v>
       </c>
       <c r="E465" t="s">
         <v>721</v>
@@ -45872,7 +45872,7 @@
         <v>711</v>
       </c>
       <c r="D466" s="1">
-        <v>122.17973451692224</v>
+        <v>122.17973327636719</v>
       </c>
       <c r="E466" t="s">
         <v>721</v>
@@ -45889,7 +45889,7 @@
         <v>711</v>
       </c>
       <c r="D467" s="1">
-        <v>118.35426068044946</v>
+        <v>118.35425567626953</v>
       </c>
       <c r="E467" t="s">
         <v>721</v>
@@ -45906,7 +45906,7 @@
         <v>711</v>
       </c>
       <c r="D468" s="1">
-        <v>106.79513018756906</v>
+        <v>106.79513549804688</v>
       </c>
       <c r="E468" t="s">
         <v>721</v>
@@ -45923,7 +45923,7 @@
         <v>711</v>
       </c>
       <c r="D469" s="1">
-        <v>102.39725606670206</v>
+        <v>102.39725494384766</v>
       </c>
       <c r="E469" t="s">
         <v>721</v>
@@ -45940,7 +45940,7 @@
         <v>711</v>
       </c>
       <c r="D470" s="1">
-        <v>104.17811567473254</v>
+        <v>104.17811584472656</v>
       </c>
       <c r="E470" t="s">
         <v>721</v>
@@ -45957,7 +45957,7 @@
         <v>711</v>
       </c>
       <c r="D471" s="1">
-        <v>114.79692652850154</v>
+        <v>114.79692840576172</v>
       </c>
       <c r="E471" t="s">
         <v>721</v>
@@ -45974,7 +45974,7 @@
         <v>711</v>
       </c>
       <c r="D472" s="1">
-        <v>113.89836315825711</v>
+        <v>113.89836120605469</v>
       </c>
       <c r="E472" t="s">
         <v>721</v>
@@ -45991,7 +45991,7 @@
         <v>711</v>
       </c>
       <c r="D473" s="1">
-        <v>113.52498780424534</v>
+        <v>113.52498626708984</v>
       </c>
       <c r="E473" t="s">
         <v>721</v>
@@ -46008,7 +46008,7 @@
         <v>711</v>
       </c>
       <c r="D474" s="1">
-        <v>107.80238054902401</v>
+        <v>107.80238342285156</v>
       </c>
       <c r="E474" t="s">
         <v>721</v>
@@ -46025,7 +46025,7 @@
         <v>711</v>
       </c>
       <c r="D475" s="1">
-        <v>112.52915162495746</v>
+        <v>112.52915191650391</v>
       </c>
       <c r="E475" t="s">
         <v>721</v>
@@ -46042,7 +46042,7 @@
         <v>711</v>
       </c>
       <c r="D476" s="1">
-        <v>103.69316204557845</v>
+        <v>103.69316101074219</v>
       </c>
       <c r="E476" t="s">
         <v>721</v>
@@ -46059,7 +46059,7 @@
         <v>711</v>
       </c>
       <c r="D477" s="1">
-        <v>103.81493756099597</v>
+        <v>103.81493377685547</v>
       </c>
       <c r="E477" t="s">
         <v>721</v>
@@ -46076,7 +46076,7 @@
         <v>711</v>
       </c>
       <c r="D478" s="1">
-        <v>108.92027214340258</v>
+        <v>108.92027282714844</v>
       </c>
       <c r="E478" t="s">
         <v>721</v>
@@ -46093,7 +46093,7 @@
         <v>711</v>
       </c>
       <c r="D479" s="1">
-        <v>105.80489714862473</v>
+        <v>105.80490112304688</v>
       </c>
       <c r="E479" t="s">
         <v>721</v>
@@ -46110,7 +46110,7 @@
         <v>711</v>
       </c>
       <c r="D480" s="1">
-        <v>98.495285791774563</v>
+        <v>98.495292663574219</v>
       </c>
       <c r="E480" t="s">
         <v>721</v>
@@ -46127,7 +46127,7 @@
         <v>711</v>
       </c>
       <c r="D481" s="1">
-        <v>108.0199935667198</v>
+        <v>108.01998901367188</v>
       </c>
       <c r="E481" t="s">
         <v>721</v>
@@ -46144,7 +46144,7 @@
         <v>711</v>
       </c>
       <c r="D482" s="1">
-        <v>110.97867913417871</v>
+        <v>110.97868347167969</v>
       </c>
       <c r="E482" t="s">
         <v>721</v>
@@ -46161,7 +46161,7 @@
         <v>711</v>
       </c>
       <c r="D483" s="1">
-        <v>122.27732652060685</v>
+        <v>122.27732849121094</v>
       </c>
       <c r="E483" t="s">
         <v>721</v>
@@ -46178,7 +46178,7 @@
         <v>711</v>
       </c>
       <c r="D484" s="1">
-        <v>111.64958830167498</v>
+        <v>111.64958953857422</v>
       </c>
       <c r="E484" t="s">
         <v>721</v>
@@ -46195,7 +46195,7 @@
         <v>711</v>
       </c>
       <c r="D485" s="1">
-        <v>121.19245395783497</v>
+        <v>121.19245147705078</v>
       </c>
       <c r="E485" t="s">
         <v>721</v>
@@ -46212,7 +46212,7 @@
         <v>711</v>
       </c>
       <c r="D486" s="1">
-        <v>118.09947138777159</v>
+        <v>118.09947204589844</v>
       </c>
       <c r="E486" t="s">
         <v>721</v>
@@ -46229,7 +46229,7 @@
         <v>711</v>
       </c>
       <c r="D487" s="1">
-        <v>110.0413883661664</v>
+        <v>110.04138946533203</v>
       </c>
       <c r="E487" t="s">
         <v>721</v>
@@ -46246,7 +46246,7 @@
         <v>711</v>
       </c>
       <c r="D488" s="1">
-        <v>111.57533062056858</v>
+        <v>111.57532501220703</v>
       </c>
       <c r="E488" t="s">
         <v>721</v>
@@ -46263,7 +46263,7 @@
         <v>711</v>
       </c>
       <c r="D489" s="1">
-        <v>107.70100457228233</v>
+        <v>107.70100402832031</v>
       </c>
       <c r="E489" t="s">
         <v>721</v>
@@ -46280,7 +46280,7 @@
         <v>711</v>
       </c>
       <c r="D490" s="1">
-        <v>111.22345934548727</v>
+        <v>111.22345733642578</v>
       </c>
       <c r="E490" t="s">
         <v>721</v>
@@ -46297,7 +46297,7 @@
         <v>711</v>
       </c>
       <c r="D491" s="1">
-        <v>107.66822304005689</v>
+        <v>107.66822814941406</v>
       </c>
       <c r="E491" t="s">
         <v>721</v>
@@ -46314,7 +46314,7 @@
         <v>711</v>
       </c>
       <c r="D492" s="1">
-        <v>104.10023412970196</v>
+        <v>104.10023498535156</v>
       </c>
       <c r="E492" t="s">
         <v>721</v>
@@ -46331,7 +46331,7 @@
         <v>711</v>
       </c>
       <c r="D493" s="1">
-        <v>102.99036845035357</v>
+        <v>102.99036407470703</v>
       </c>
       <c r="E493" t="s">
         <v>721</v>
@@ -46348,7 +46348,7 @@
         <v>711</v>
       </c>
       <c r="D494" s="1">
-        <v>103.32919925535055</v>
+        <v>103.32920074462891</v>
       </c>
       <c r="E494" t="s">
         <v>721</v>
@@ -46365,7 +46365,7 @@
         <v>711</v>
       </c>
       <c r="D495" s="1">
-        <v>103.03622978832557</v>
+        <v>103.03622436523438</v>
       </c>
       <c r="E495" t="s">
         <v>721</v>
@@ -46382,7 +46382,7 @@
         <v>711</v>
       </c>
       <c r="D496" s="1">
-        <v>95.132904326494327</v>
+        <v>95.132904052734375</v>
       </c>
       <c r="E496" t="s">
         <v>721</v>
@@ -46399,7 +46399,7 @@
         <v>711</v>
       </c>
       <c r="D497" s="1">
-        <v>111.62560663778872</v>
+        <v>111.6256103515625</v>
       </c>
       <c r="E497" t="s">
         <v>721</v>
@@ -46416,7 +46416,7 @@
         <v>711</v>
       </c>
       <c r="D498" s="1">
-        <v>109.24178197145747</v>
+        <v>109.24178314208984</v>
       </c>
       <c r="E498" t="s">
         <v>721</v>
@@ -46433,7 +46433,7 @@
         <v>711</v>
       </c>
       <c r="D499" s="1">
-        <v>108.82362852447766</v>
+        <v>108.82362365722656</v>
       </c>
       <c r="E499" t="s">
         <v>721</v>
@@ -46450,7 +46450,7 @@
         <v>711</v>
       </c>
       <c r="D500" s="1">
-        <v>111.75007754937559</v>
+        <v>111.75007629394531</v>
       </c>
       <c r="E500" t="s">
         <v>721</v>
@@ -46467,7 +46467,7 @@
         <v>711</v>
       </c>
       <c r="D501" s="1">
-        <v>105.49033061074898</v>
+        <v>105.49032592773438</v>
       </c>
       <c r="E501" t="s">
         <v>721</v>
@@ -46484,7 +46484,7 @@
         <v>711</v>
       </c>
       <c r="D502" s="1">
-        <v>111.41532180147088</v>
+        <v>111.41532135009766</v>
       </c>
       <c r="E502" t="s">
         <v>721</v>
@@ -46501,7 +46501,7 @@
         <v>711</v>
       </c>
       <c r="D503" s="1">
-        <v>108.84720332159212</v>
+        <v>108.84720611572266</v>
       </c>
       <c r="E503" t="s">
         <v>721</v>
@@ -46518,7 +46518,7 @@
         <v>711</v>
       </c>
       <c r="D504" s="1">
-        <v>98.341368582641309</v>
+        <v>98.34136962890625</v>
       </c>
       <c r="E504" t="s">
         <v>721</v>
@@ -46535,7 +46535,7 @@
         <v>711</v>
       </c>
       <c r="D505" s="1">
-        <v>108.18587773413698</v>
+        <v>108.18587493896484</v>
       </c>
       <c r="E505" t="s">
         <v>721</v>
@@ -46552,7 +46552,7 @@
         <v>711</v>
       </c>
       <c r="D506" s="1">
-        <v>98.0948551546592</v>
+        <v>98.0948486328125</v>
       </c>
       <c r="E506" t="s">
         <v>721</v>
@@ -46569,7 +46569,7 @@
         <v>711</v>
       </c>
       <c r="D507" s="1">
-        <v>105.86210965136574</v>
+        <v>105.86210632324219</v>
       </c>
       <c r="E507" t="s">
         <v>721</v>
@@ -46586,7 +46586,7 @@
         <v>711</v>
       </c>
       <c r="D508" s="1">
-        <v>97.340784098833083</v>
+        <v>97.340782165527344</v>
       </c>
       <c r="E508" t="s">
         <v>721</v>
@@ -46603,7 +46603,7 @@
         <v>711</v>
       </c>
       <c r="D509" s="1">
-        <v>107.84295306440565</v>
+        <v>107.84295654296875</v>
       </c>
       <c r="E509" t="s">
         <v>721</v>
@@ -46620,7 +46620,7 @@
         <v>711</v>
       </c>
       <c r="D510" s="1">
-        <v>110.53457684531794</v>
+        <v>110.53457641601563</v>
       </c>
       <c r="E510" t="s">
         <v>721</v>
@@ -46637,7 +46637,7 @@
         <v>711</v>
       </c>
       <c r="D511" s="1">
-        <v>110.34103498131076</v>
+        <v>110.34103393554688</v>
       </c>
       <c r="E511" t="s">
         <v>721</v>
@@ -46654,7 +46654,7 @@
         <v>711</v>
       </c>
       <c r="D512" s="1">
-        <v>109.08555294286762</v>
+        <v>109.08555603027344</v>
       </c>
       <c r="E512" t="s">
         <v>721</v>
@@ -46671,7 +46671,7 @@
         <v>711</v>
       </c>
       <c r="D513" s="1">
-        <v>100.95985887385827</v>
+        <v>100.95986175537109</v>
       </c>
       <c r="E513" t="s">
         <v>721</v>
@@ -46688,7 +46688,7 @@
         <v>711</v>
       </c>
       <c r="D514" s="1">
-        <v>107.25444892219127</v>
+        <v>107.25444793701172</v>
       </c>
       <c r="E514" t="s">
         <v>721</v>
@@ -46705,7 +46705,7 @@
         <v>711</v>
       </c>
       <c r="D515" s="1">
-        <v>99.976853020191101</v>
+        <v>99.976852416992188</v>
       </c>
       <c r="E515" t="s">
         <v>721</v>
@@ -46722,7 +46722,7 @@
         <v>711</v>
       </c>
       <c r="D516" s="1">
-        <v>89.480235311185155</v>
+        <v>89.480232238769531</v>
       </c>
       <c r="E516" t="s">
         <v>721</v>
@@ -46739,7 +46739,7 @@
         <v>711</v>
       </c>
       <c r="D517" s="1">
-        <v>101.48295018093063</v>
+        <v>101.48295593261719</v>
       </c>
       <c r="E517" t="s">
         <v>721</v>
@@ -46756,7 +46756,7 @@
         <v>711</v>
       </c>
       <c r="D518" s="1">
-        <v>89.358653528061524</v>
+        <v>89.358657836914063</v>
       </c>
       <c r="E518" t="s">
         <v>721</v>
@@ -46773,7 +46773,7 @@
         <v>711</v>
       </c>
       <c r="D519" s="1">
-        <v>96.237698873505451</v>
+        <v>96.237693786621094</v>
       </c>
       <c r="E519" t="s">
         <v>721</v>
@@ -46790,7 +46790,7 @@
         <v>711</v>
       </c>
       <c r="D520" s="1">
-        <v>100.19758408389963</v>
+        <v>100.19758605957031</v>
       </c>
       <c r="E520" t="s">
         <v>721</v>
@@ -46807,7 +46807,7 @@
         <v>711</v>
       </c>
       <c r="D521" s="1">
-        <v>97.989936020908914</v>
+        <v>97.989936828613281</v>
       </c>
       <c r="E521" t="s">
         <v>721</v>
@@ -46824,7 +46824,7 @@
         <v>711</v>
       </c>
       <c r="D522" s="1">
-        <v>91.963761627226461</v>
+        <v>91.963760375976563</v>
       </c>
       <c r="E522" t="s">
         <v>721</v>
@@ -46841,7 +46841,7 @@
         <v>711</v>
       </c>
       <c r="D523" s="1">
-        <v>97.937054270912995</v>
+        <v>97.937057495117188</v>
       </c>
       <c r="E523" t="s">
         <v>721</v>
@@ -46858,7 +46858,7 @@
         <v>711</v>
       </c>
       <c r="D524" s="1">
-        <v>99.219803900357277</v>
+        <v>99.219802856445313</v>
       </c>
       <c r="E524" t="s">
         <v>721</v>
@@ -46875,7 +46875,7 @@
         <v>711</v>
       </c>
       <c r="D525" s="1">
-        <v>90.739389009432188</v>
+        <v>90.739387512207031</v>
       </c>
       <c r="E525" t="s">
         <v>721</v>
@@ -46892,7 +46892,7 @@
         <v>711</v>
       </c>
       <c r="D526" s="1">
-        <v>93.291157653744975</v>
+        <v>93.291152954101563</v>
       </c>
       <c r="E526" t="s">
         <v>721</v>
@@ -46909,7 +46909,7 @@
         <v>711</v>
       </c>
       <c r="D527" s="1">
-        <v>91.853063482724437</v>
+        <v>91.853065490722656</v>
       </c>
       <c r="E527" t="s">
         <v>721</v>
@@ -46926,7 +46926,7 @@
         <v>711</v>
       </c>
       <c r="D528" s="1">
-        <v>81.249554088776577</v>
+        <v>81.249557495117188</v>
       </c>
       <c r="E528" t="s">
         <v>721</v>
@@ -46943,7 +46943,7 @@
         <v>711</v>
       </c>
       <c r="D529" s="1">
-        <v>85.133852627221486</v>
+        <v>85.13385009765625</v>
       </c>
       <c r="E529" t="s">
         <v>721</v>
@@ -46960,7 +46960,7 @@
         <v>711</v>
       </c>
       <c r="D530" s="1">
-        <v>88.917038525118755</v>
+        <v>88.917037963867188</v>
       </c>
       <c r="E530" t="s">
         <v>721</v>
@@ -46977,7 +46977,7 @@
         <v>711</v>
       </c>
       <c r="D531" s="1">
-        <v>93.372529764395338</v>
+        <v>93.372528076171875</v>
       </c>
       <c r="E531" t="s">
         <v>721</v>
@@ -46994,7 +46994,7 @@
         <v>711</v>
       </c>
       <c r="D532" s="1">
-        <v>92.274986361471747</v>
+        <v>92.274986267089844</v>
       </c>
       <c r="E532" t="s">
         <v>721</v>
@@ -47011,7 +47011,7 @@
         <v>711</v>
       </c>
       <c r="D533" s="1">
-        <v>97.203061914964067</v>
+        <v>97.20306396484375</v>
       </c>
       <c r="E533" t="s">
         <v>721</v>
@@ -47028,7 +47028,7 @@
         <v>711</v>
       </c>
       <c r="D534" s="1">
-        <v>96.298565539946395</v>
+        <v>96.298561096191406</v>
       </c>
       <c r="E534" t="s">
         <v>721</v>
@@ -47045,7 +47045,7 @@
         <v>711</v>
       </c>
       <c r="D535" s="1">
-        <v>95.942676241873102</v>
+        <v>95.942680358886719</v>
       </c>
       <c r="E535" t="s">
         <v>721</v>
@@ -47062,7 +47062,7 @@
         <v>711</v>
       </c>
       <c r="D536" s="1">
-        <v>96.743823769833867</v>
+        <v>96.743820190429688</v>
       </c>
       <c r="E536" t="s">
         <v>721</v>
@@ -47079,7 +47079,7 @@
         <v>711</v>
       </c>
       <c r="D537" s="1">
-        <v>94.054451406386718</v>
+        <v>94.054450988769531</v>
       </c>
       <c r="E537" t="s">
         <v>721</v>
@@ -47096,7 +47096,7 @@
         <v>711</v>
       </c>
       <c r="D538" s="1">
-        <v>94.315180142741042</v>
+        <v>94.315177917480469</v>
       </c>
       <c r="E538" t="s">
         <v>721</v>
@@ -47113,7 +47113,7 @@
         <v>711</v>
       </c>
       <c r="D539" s="1">
-        <v>87.950156527060614</v>
+        <v>87.950157165527344</v>
       </c>
       <c r="E539" t="s">
         <v>721</v>
@@ -47130,7 +47130,7 @@
         <v>711</v>
       </c>
       <c r="D540" s="1">
-        <v>78.91046151810518</v>
+        <v>78.91046142578125</v>
       </c>
       <c r="E540" t="s">
         <v>721</v>
@@ -47147,7 +47147,7 @@
         <v>711</v>
       </c>
       <c r="D541" s="1">
-        <v>96.146990590836381</v>
+        <v>96.146995544433594</v>
       </c>
       <c r="E541" t="s">
         <v>721</v>
@@ -47164,7 +47164,7 @@
         <v>711</v>
       </c>
       <c r="D542" s="1">
-        <v>74.372716400037817</v>
+        <v>74.372718811035156</v>
       </c>
       <c r="E542" t="s">
         <v>721</v>
@@ -47181,7 +47181,7 @@
         <v>711</v>
       </c>
       <c r="D543" s="1">
-        <v>84.460659773015948</v>
+        <v>84.460655212402344</v>
       </c>
       <c r="E543" t="s">
         <v>721</v>
@@ -47198,7 +47198,7 @@
         <v>711</v>
       </c>
       <c r="D544" s="1">
-        <v>64.685077613227733</v>
+        <v>64.685081481933594</v>
       </c>
       <c r="E544" t="s">
         <v>721</v>
@@ -47215,7 +47215,7 @@
         <v>711</v>
       </c>
       <c r="D545" s="1">
-        <v>66.489255827583378</v>
+        <v>66.4892578125</v>
       </c>
       <c r="E545" t="s">
         <v>721</v>
@@ -47232,7 +47232,7 @@
         <v>711</v>
       </c>
       <c r="D546" s="1">
-        <v>78.5121049640412</v>
+        <v>78.512100219726563</v>
       </c>
       <c r="E546" t="s">
         <v>721</v>
@@ -47249,7 +47249,7 @@
         <v>711</v>
       </c>
       <c r="D547" s="1">
-        <v>83.186080410016388</v>
+        <v>83.186080932617188</v>
       </c>
       <c r="E547" t="s">
         <v>721</v>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7601" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7605" uniqueCount="162">
   <si>
     <t>Sección</t>
   </si>
@@ -49475,7 +49475,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D175"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -50701,13 +50701,13 @@
         <v>141</v>
       </c>
       <c r="B88" s="2">
-        <v>36161</v>
+        <v>44013</v>
       </c>
       <c r="C88" s="1">
-        <v>0.085178000000000004</v>
+        <v>-54.167818449999999</v>
       </c>
       <c r="D88" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="89">
@@ -50715,10 +50715,10 @@
         <v>141</v>
       </c>
       <c r="B89" s="2">
-        <v>36251</v>
+        <v>36161</v>
       </c>
       <c r="C89" s="1">
-        <v>2.4263170000000001</v>
+        <v>0.085178000000000004</v>
       </c>
       <c r="D89" t="s">
         <v>161</v>
@@ -50729,10 +50729,10 @@
         <v>141</v>
       </c>
       <c r="B90" s="2">
-        <v>36342</v>
+        <v>36251</v>
       </c>
       <c r="C90" s="1">
-        <v>-0.055085000000000002</v>
+        <v>2.4263170000000001</v>
       </c>
       <c r="D90" t="s">
         <v>161</v>
@@ -50743,10 +50743,10 @@
         <v>141</v>
       </c>
       <c r="B91" s="2">
-        <v>36434</v>
+        <v>36342</v>
       </c>
       <c r="C91" s="1">
-        <v>1.1448750000000001</v>
+        <v>-0.055085000000000002</v>
       </c>
       <c r="D91" t="s">
         <v>161</v>
@@ -50757,10 +50757,10 @@
         <v>141</v>
       </c>
       <c r="B92" s="2">
-        <v>36526</v>
+        <v>36434</v>
       </c>
       <c r="C92" s="1">
-        <v>2.4593780000000001</v>
+        <v>1.1448750000000001</v>
       </c>
       <c r="D92" t="s">
         <v>161</v>
@@ -50771,10 +50771,10 @@
         <v>141</v>
       </c>
       <c r="B93" s="2">
-        <v>36617</v>
+        <v>36526</v>
       </c>
       <c r="C93" s="1">
-        <v>0.68890300000000004</v>
+        <v>2.4593780000000001</v>
       </c>
       <c r="D93" t="s">
         <v>161</v>
@@ -50785,10 +50785,10 @@
         <v>141</v>
       </c>
       <c r="B94" s="2">
-        <v>36708</v>
+        <v>36617</v>
       </c>
       <c r="C94" s="1">
-        <v>1.610965</v>
+        <v>0.68890300000000004</v>
       </c>
       <c r="D94" t="s">
         <v>161</v>
@@ -50799,10 +50799,10 @@
         <v>141</v>
       </c>
       <c r="B95" s="2">
-        <v>36800</v>
+        <v>36708</v>
       </c>
       <c r="C95" s="1">
-        <v>-0.21528900000000001</v>
+        <v>1.610965</v>
       </c>
       <c r="D95" t="s">
         <v>161</v>
@@ -50813,10 +50813,10 @@
         <v>141</v>
       </c>
       <c r="B96" s="2">
-        <v>36892</v>
+        <v>36800</v>
       </c>
       <c r="C96" s="1">
-        <v>3.646906</v>
+        <v>-0.21528900000000001</v>
       </c>
       <c r="D96" t="s">
         <v>161</v>
@@ -50827,10 +50827,10 @@
         <v>141</v>
       </c>
       <c r="B97" s="2">
-        <v>36982</v>
+        <v>36892</v>
       </c>
       <c r="C97" s="1">
-        <v>-0.0020049999999999998</v>
+        <v>3.646906</v>
       </c>
       <c r="D97" t="s">
         <v>161</v>
@@ -50841,10 +50841,10 @@
         <v>141</v>
       </c>
       <c r="B98" s="2">
-        <v>37073</v>
+        <v>36982</v>
       </c>
       <c r="C98" s="1">
-        <v>-0.016670000000000001</v>
+        <v>-0.0020049999999999998</v>
       </c>
       <c r="D98" t="s">
         <v>161</v>
@@ -50855,10 +50855,10 @@
         <v>141</v>
       </c>
       <c r="B99" s="2">
-        <v>37165</v>
+        <v>37073</v>
       </c>
       <c r="C99" s="1">
-        <v>3.703484</v>
+        <v>-0.016670000000000001</v>
       </c>
       <c r="D99" t="s">
         <v>161</v>
@@ -50869,10 +50869,10 @@
         <v>141</v>
       </c>
       <c r="B100" s="2">
-        <v>37257</v>
+        <v>37165</v>
       </c>
       <c r="C100" s="1">
-        <v>0.096403000000000003</v>
+        <v>3.703484</v>
       </c>
       <c r="D100" t="s">
         <v>161</v>
@@ -50883,10 +50883,10 @@
         <v>141</v>
       </c>
       <c r="B101" s="2">
-        <v>37347</v>
+        <v>37257</v>
       </c>
       <c r="C101" s="1">
-        <v>2.1334029999999999</v>
+        <v>0.096403000000000003</v>
       </c>
       <c r="D101" t="s">
         <v>161</v>
@@ -50897,10 +50897,10 @@
         <v>141</v>
       </c>
       <c r="B102" s="2">
-        <v>37438</v>
+        <v>37347</v>
       </c>
       <c r="C102" s="1">
-        <v>0.015565000000000001</v>
+        <v>2.1334029999999999</v>
       </c>
       <c r="D102" t="s">
         <v>161</v>
@@ -50911,10 +50911,10 @@
         <v>141</v>
       </c>
       <c r="B103" s="2">
-        <v>37530</v>
+        <v>37438</v>
       </c>
       <c r="C103" s="1">
-        <v>40.522950999999999</v>
+        <v>0.015565000000000001</v>
       </c>
       <c r="D103" t="s">
         <v>161</v>
@@ -50925,10 +50925,10 @@
         <v>141</v>
       </c>
       <c r="B104" s="2">
-        <v>37622</v>
+        <v>37530</v>
       </c>
       <c r="C104" s="1">
-        <v>26.038550999999998</v>
+        <v>40.522950999999999</v>
       </c>
       <c r="D104" t="s">
         <v>161</v>
@@ -50939,10 +50939,10 @@
         <v>141</v>
       </c>
       <c r="B105" s="2">
-        <v>37712</v>
+        <v>37622</v>
       </c>
       <c r="C105" s="1">
-        <v>1.0063409999999999</v>
+        <v>26.038550999999998</v>
       </c>
       <c r="D105" t="s">
         <v>161</v>
@@ -50953,10 +50953,10 @@
         <v>141</v>
       </c>
       <c r="B106" s="2">
-        <v>37803</v>
+        <v>37712</v>
       </c>
       <c r="C106" s="1">
-        <v>-8.3727400000000003</v>
+        <v>1.0063409999999999</v>
       </c>
       <c r="D106" t="s">
         <v>161</v>
@@ -50967,10 +50967,10 @@
         <v>141</v>
       </c>
       <c r="B107" s="2">
-        <v>37895</v>
+        <v>37803</v>
       </c>
       <c r="C107" s="1">
-        <v>3.8328820000000001</v>
+        <v>-8.3727400000000003</v>
       </c>
       <c r="D107" t="s">
         <v>161</v>
@@ -50981,10 +50981,10 @@
         <v>141</v>
       </c>
       <c r="B108" s="2">
-        <v>37987</v>
+        <v>37895</v>
       </c>
       <c r="C108" s="1">
-        <v>14.207307</v>
+        <v>3.8328820000000001</v>
       </c>
       <c r="D108" t="s">
         <v>161</v>
@@ -50995,10 +50995,10 @@
         <v>141</v>
       </c>
       <c r="B109" s="2">
-        <v>38078</v>
+        <v>37987</v>
       </c>
       <c r="C109" s="1">
-        <v>8.1121639999999999</v>
+        <v>14.207307</v>
       </c>
       <c r="D109" t="s">
         <v>161</v>
@@ -51009,10 +51009,10 @@
         <v>141</v>
       </c>
       <c r="B110" s="2">
-        <v>38169</v>
+        <v>38078</v>
       </c>
       <c r="C110" s="1">
-        <v>8.5864180000000001</v>
+        <v>8.1121639999999999</v>
       </c>
       <c r="D110" t="s">
         <v>161</v>
@@ -51023,10 +51023,10 @@
         <v>141</v>
       </c>
       <c r="B111" s="2">
-        <v>38261</v>
+        <v>38169</v>
       </c>
       <c r="C111" s="1">
-        <v>20.507785999999999</v>
+        <v>8.5864180000000001</v>
       </c>
       <c r="D111" t="s">
         <v>161</v>
@@ -51037,10 +51037,10 @@
         <v>141</v>
       </c>
       <c r="B112" s="2">
-        <v>38353</v>
+        <v>38261</v>
       </c>
       <c r="C112" s="1">
-        <v>8.5765539999999998</v>
+        <v>20.507785999999999</v>
       </c>
       <c r="D112" t="s">
         <v>161</v>
@@ -51051,10 +51051,10 @@
         <v>141</v>
       </c>
       <c r="B113" s="2">
-        <v>38443</v>
+        <v>38353</v>
       </c>
       <c r="C113" s="1">
-        <v>12.003787000000001</v>
+        <v>8.5765539999999998</v>
       </c>
       <c r="D113" t="s">
         <v>161</v>
@@ -51065,10 +51065,10 @@
         <v>141</v>
       </c>
       <c r="B114" s="2">
-        <v>38534</v>
+        <v>38443</v>
       </c>
       <c r="C114" s="1">
-        <v>5.5447480000000002</v>
+        <v>12.003787000000001</v>
       </c>
       <c r="D114" t="s">
         <v>161</v>
@@ -51079,10 +51079,10 @@
         <v>141</v>
       </c>
       <c r="B115" s="2">
-        <v>38626</v>
+        <v>38534</v>
       </c>
       <c r="C115" s="1">
-        <v>14.886189999999999</v>
+        <v>5.5447480000000002</v>
       </c>
       <c r="D115" t="s">
         <v>161</v>
@@ -51093,10 +51093,10 @@
         <v>141</v>
       </c>
       <c r="B116" s="2">
-        <v>38718</v>
+        <v>38626</v>
       </c>
       <c r="C116" s="1">
-        <v>12.169886</v>
+        <v>14.886189999999999</v>
       </c>
       <c r="D116" t="s">
         <v>161</v>
@@ -51107,10 +51107,10 @@
         <v>141</v>
       </c>
       <c r="B117" s="2">
-        <v>38808</v>
+        <v>38718</v>
       </c>
       <c r="C117" s="1">
-        <v>3.3880659999999998</v>
+        <v>12.169886</v>
       </c>
       <c r="D117" t="s">
         <v>161</v>
@@ -51121,10 +51121,10 @@
         <v>141</v>
       </c>
       <c r="B118" s="2">
-        <v>38899</v>
+        <v>38808</v>
       </c>
       <c r="C118" s="1">
-        <v>6.2881629999999999</v>
+        <v>3.3880659999999998</v>
       </c>
       <c r="D118" t="s">
         <v>161</v>
@@ -51135,10 +51135,10 @@
         <v>141</v>
       </c>
       <c r="B119" s="2">
-        <v>38991</v>
+        <v>38899</v>
       </c>
       <c r="C119" s="1">
-        <v>19.850546000000001</v>
+        <v>6.2881629999999999</v>
       </c>
       <c r="D119" t="s">
         <v>161</v>
@@ -51149,10 +51149,10 @@
         <v>141</v>
       </c>
       <c r="B120" s="2">
-        <v>39083</v>
+        <v>38991</v>
       </c>
       <c r="C120" s="1">
-        <v>9.9051449999999992</v>
+        <v>19.850546000000001</v>
       </c>
       <c r="D120" t="s">
         <v>161</v>
@@ -51163,10 +51163,10 @@
         <v>141</v>
       </c>
       <c r="B121" s="2">
-        <v>39173</v>
+        <v>39083</v>
       </c>
       <c r="C121" s="1">
-        <v>10.993547</v>
+        <v>9.9051449999999992</v>
       </c>
       <c r="D121" t="s">
         <v>161</v>
@@ -51177,10 +51177,10 @@
         <v>141</v>
       </c>
       <c r="B122" s="2">
-        <v>39264</v>
+        <v>39173</v>
       </c>
       <c r="C122" s="1">
-        <v>7.2939809999999996</v>
+        <v>10.993547</v>
       </c>
       <c r="D122" t="s">
         <v>161</v>
@@ -51191,10 +51191,10 @@
         <v>141</v>
       </c>
       <c r="B123" s="2">
-        <v>39356</v>
+        <v>39264</v>
       </c>
       <c r="C123" s="1">
-        <v>29.258872</v>
+        <v>7.2939809999999996</v>
       </c>
       <c r="D123" t="s">
         <v>161</v>
@@ -51205,10 +51205,10 @@
         <v>141</v>
       </c>
       <c r="B124" s="2">
-        <v>39448</v>
+        <v>39356</v>
       </c>
       <c r="C124" s="1">
-        <v>13.913712</v>
+        <v>29.258872</v>
       </c>
       <c r="D124" t="s">
         <v>161</v>
@@ -51219,10 +51219,10 @@
         <v>141</v>
       </c>
       <c r="B125" s="2">
-        <v>39539</v>
+        <v>39448</v>
       </c>
       <c r="C125" s="1">
-        <v>41.470576999999999</v>
+        <v>13.913712</v>
       </c>
       <c r="D125" t="s">
         <v>161</v>
@@ -51233,10 +51233,10 @@
         <v>141</v>
       </c>
       <c r="B126" s="2">
-        <v>39630</v>
+        <v>39539</v>
       </c>
       <c r="C126" s="1">
-        <v>27.689485999999999</v>
+        <v>41.470576999999999</v>
       </c>
       <c r="D126" t="s">
         <v>161</v>
@@ -51247,10 +51247,10 @@
         <v>141</v>
       </c>
       <c r="B127" s="2">
-        <v>39722</v>
+        <v>39630</v>
       </c>
       <c r="C127" s="1">
-        <v>90.961106000000001</v>
+        <v>27.689485999999999</v>
       </c>
       <c r="D127" t="s">
         <v>161</v>
@@ -51261,10 +51261,10 @@
         <v>141</v>
       </c>
       <c r="B128" s="2">
-        <v>39814</v>
+        <v>39722</v>
       </c>
       <c r="C128" s="1">
-        <v>11.297378</v>
+        <v>90.961106000000001</v>
       </c>
       <c r="D128" t="s">
         <v>161</v>
@@ -51275,10 +51275,10 @@
         <v>141</v>
       </c>
       <c r="B129" s="2">
-        <v>39904</v>
+        <v>39814</v>
       </c>
       <c r="C129" s="1">
-        <v>67.065901139999994</v>
+        <v>11.297378</v>
       </c>
       <c r="D129" t="s">
         <v>161</v>
@@ -51289,10 +51289,10 @@
         <v>141</v>
       </c>
       <c r="B130" s="2">
-        <v>39995</v>
+        <v>39904</v>
       </c>
       <c r="C130" s="1">
-        <v>72.423323999999994</v>
+        <v>67.065901139999994</v>
       </c>
       <c r="D130" t="s">
         <v>161</v>
@@ -51303,10 +51303,10 @@
         <v>141</v>
       </c>
       <c r="B131" s="2">
-        <v>40087</v>
+        <v>39995</v>
       </c>
       <c r="C131" s="1">
-        <v>-19.115928</v>
+        <v>72.423323999999994</v>
       </c>
       <c r="D131" t="s">
         <v>161</v>
@@ -51317,10 +51317,10 @@
         <v>141</v>
       </c>
       <c r="B132" s="2">
-        <v>40179</v>
+        <v>40087</v>
       </c>
       <c r="C132" s="1">
-        <v>109.03420199999999</v>
+        <v>-19.115928</v>
       </c>
       <c r="D132" t="s">
         <v>161</v>
@@ -51331,10 +51331,10 @@
         <v>141</v>
       </c>
       <c r="B133" s="2">
-        <v>40269</v>
+        <v>40179</v>
       </c>
       <c r="C133" s="1">
-        <v>-18.32159</v>
+        <v>109.03420199999999</v>
       </c>
       <c r="D133" t="s">
         <v>161</v>
@@ -51345,10 +51345,10 @@
         <v>141</v>
       </c>
       <c r="B134" s="2">
-        <v>40360</v>
+        <v>40269</v>
       </c>
       <c r="C134" s="1">
-        <v>-20.35279899</v>
+        <v>-18.32159</v>
       </c>
       <c r="D134" t="s">
         <v>161</v>
@@ -51359,10 +51359,10 @@
         <v>141</v>
       </c>
       <c r="B135" s="2">
-        <v>40452</v>
+        <v>40360</v>
       </c>
       <c r="C135" s="1">
-        <v>-0.70722399999999996</v>
+        <v>-20.35279899</v>
       </c>
       <c r="D135" t="s">
         <v>161</v>
@@ -51373,10 +51373,10 @@
         <v>141</v>
       </c>
       <c r="B136" s="2">
-        <v>40544</v>
+        <v>40452</v>
       </c>
       <c r="C136" s="1">
-        <v>14.306131000000001</v>
+        <v>-0.70722399999999996</v>
       </c>
       <c r="D136" t="s">
         <v>161</v>
@@ -51387,10 +51387,10 @@
         <v>141</v>
       </c>
       <c r="B137" s="2">
-        <v>40634</v>
+        <v>40544</v>
       </c>
       <c r="C137" s="1">
-        <v>-2.9951059999999998</v>
+        <v>14.306131000000001</v>
       </c>
       <c r="D137" t="s">
         <v>161</v>
@@ -51401,10 +51401,10 @@
         <v>141</v>
       </c>
       <c r="B138" s="2">
-        <v>40725</v>
+        <v>40634</v>
       </c>
       <c r="C138" s="1">
-        <v>50.8994</v>
+        <v>-2.9951059999999998</v>
       </c>
       <c r="D138" t="s">
         <v>161</v>
@@ -51415,10 +51415,10 @@
         <v>141</v>
       </c>
       <c r="B139" s="2">
-        <v>40817</v>
+        <v>40725</v>
       </c>
       <c r="C139" s="1">
-        <v>17.523471000000001</v>
+        <v>50.8994</v>
       </c>
       <c r="D139" t="s">
         <v>161</v>
@@ -51429,10 +51429,10 @@
         <v>141</v>
       </c>
       <c r="B140" s="2">
-        <v>40909</v>
+        <v>40817</v>
       </c>
       <c r="C140" s="1">
-        <v>115.773342</v>
+        <v>17.523471000000001</v>
       </c>
       <c r="D140" t="s">
         <v>161</v>
@@ -51443,10 +51443,10 @@
         <v>141</v>
       </c>
       <c r="B141" s="2">
-        <v>41000</v>
+        <v>40909</v>
       </c>
       <c r="C141" s="1">
-        <v>25.887343000000001</v>
+        <v>115.773342</v>
       </c>
       <c r="D141" t="s">
         <v>161</v>
@@ -51457,10 +51457,10 @@
         <v>141</v>
       </c>
       <c r="B142" s="2">
-        <v>41091</v>
+        <v>41000</v>
       </c>
       <c r="C142" s="1">
-        <v>-38.022193000000001</v>
+        <v>25.887343000000001</v>
       </c>
       <c r="D142" t="s">
         <v>161</v>
@@ -51471,10 +51471,10 @@
         <v>141</v>
       </c>
       <c r="B143" s="2">
-        <v>41183</v>
+        <v>41091</v>
       </c>
       <c r="C143" s="1">
-        <v>-36.179178</v>
+        <v>-38.022193000000001</v>
       </c>
       <c r="D143" t="s">
         <v>161</v>
@@ -51485,10 +51485,10 @@
         <v>141</v>
       </c>
       <c r="B144" s="2">
-        <v>41275</v>
+        <v>41183</v>
       </c>
       <c r="C144" s="1">
-        <v>-222.49303499999999</v>
+        <v>-36.179178</v>
       </c>
       <c r="D144" t="s">
         <v>161</v>
@@ -51499,10 +51499,10 @@
         <v>141</v>
       </c>
       <c r="B145" s="2">
-        <v>41365</v>
+        <v>41275</v>
       </c>
       <c r="C145" s="1">
-        <v>159.65548999999999</v>
+        <v>-222.49303499999999</v>
       </c>
       <c r="D145" t="s">
         <v>161</v>
@@ -51513,10 +51513,10 @@
         <v>141</v>
       </c>
       <c r="B146" s="2">
-        <v>41456</v>
+        <v>41365</v>
       </c>
       <c r="C146" s="1">
-        <v>-32.202761000000002</v>
+        <v>159.65548999999999</v>
       </c>
       <c r="D146" t="s">
         <v>161</v>
@@ -51527,10 +51527,10 @@
         <v>141</v>
       </c>
       <c r="B147" s="2">
-        <v>41548</v>
+        <v>41456</v>
       </c>
       <c r="C147" s="1">
-        <v>22.942178999999999</v>
+        <v>-32.202761000000002</v>
       </c>
       <c r="D147" t="s">
         <v>161</v>
@@ -51541,10 +51541,10 @@
         <v>141</v>
       </c>
       <c r="B148" s="2">
-        <v>41640</v>
+        <v>41548</v>
       </c>
       <c r="C148" s="1">
-        <v>6.0385369999999998</v>
+        <v>22.942178999999999</v>
       </c>
       <c r="D148" t="s">
         <v>161</v>
@@ -51555,10 +51555,10 @@
         <v>141</v>
       </c>
       <c r="B149" s="2">
-        <v>41730</v>
+        <v>41640</v>
       </c>
       <c r="C149" s="1">
-        <v>-53.260894999999998</v>
+        <v>6.0385369999999998</v>
       </c>
       <c r="D149" t="s">
         <v>161</v>
@@ -51569,10 +51569,10 @@
         <v>141</v>
       </c>
       <c r="B150" s="2">
-        <v>41821</v>
+        <v>41730</v>
       </c>
       <c r="C150" s="1">
-        <v>173.88125199999999</v>
+        <v>-53.260894999999998</v>
       </c>
       <c r="D150" t="s">
         <v>161</v>
@@ -51583,10 +51583,10 @@
         <v>141</v>
       </c>
       <c r="B151" s="2">
-        <v>41913</v>
+        <v>41821</v>
       </c>
       <c r="C151" s="1">
-        <v>126.494998</v>
+        <v>173.88125199999999</v>
       </c>
       <c r="D151" t="s">
         <v>161</v>
@@ -51597,10 +51597,10 @@
         <v>141</v>
       </c>
       <c r="B152" s="2">
-        <v>42005</v>
+        <v>41913</v>
       </c>
       <c r="C152" s="1">
-        <v>5.3817940000000002</v>
+        <v>126.494998</v>
       </c>
       <c r="D152" t="s">
         <v>161</v>
@@ -51611,10 +51611,10 @@
         <v>141</v>
       </c>
       <c r="B153" s="2">
-        <v>42095</v>
+        <v>42005</v>
       </c>
       <c r="C153" s="1">
-        <v>-0.731568</v>
+        <v>5.3817940000000002</v>
       </c>
       <c r="D153" t="s">
         <v>161</v>
@@ -51625,10 +51625,10 @@
         <v>141</v>
       </c>
       <c r="B154" s="2">
-        <v>42186</v>
+        <v>42095</v>
       </c>
       <c r="C154" s="1">
-        <v>100.491777</v>
+        <v>-0.731567999999999</v>
       </c>
       <c r="D154" t="s">
         <v>161</v>
@@ -51639,10 +51639,10 @@
         <v>141</v>
       </c>
       <c r="B155" s="2">
-        <v>42278</v>
+        <v>42186</v>
       </c>
       <c r="C155" s="1">
-        <v>233.44648799999999</v>
+        <v>100.491777</v>
       </c>
       <c r="D155" t="s">
         <v>161</v>
@@ -51653,10 +51653,10 @@
         <v>141</v>
       </c>
       <c r="B156" s="2">
-        <v>42370</v>
+        <v>42278</v>
       </c>
       <c r="C156" s="1">
-        <v>223.20143200000001</v>
+        <v>233.44648799999999</v>
       </c>
       <c r="D156" t="s">
         <v>161</v>
@@ -51667,10 +51667,10 @@
         <v>141</v>
       </c>
       <c r="B157" s="2">
-        <v>42461</v>
+        <v>42370</v>
       </c>
       <c r="C157" s="1">
-        <v>0</v>
+        <v>223.20143200000001</v>
       </c>
       <c r="D157" t="s">
         <v>161</v>
@@ -51681,10 +51681,10 @@
         <v>141</v>
       </c>
       <c r="B158" s="2">
-        <v>42552</v>
+        <v>42461</v>
       </c>
       <c r="C158" s="1">
-        <v>65.174270699999994</v>
+        <v>0</v>
       </c>
       <c r="D158" t="s">
         <v>161</v>
@@ -51695,10 +51695,10 @@
         <v>141</v>
       </c>
       <c r="B159" s="2">
-        <v>42644</v>
+        <v>42552</v>
       </c>
       <c r="C159" s="1">
-        <v>0</v>
+        <v>65.174270699999994</v>
       </c>
       <c r="D159" t="s">
         <v>161</v>
@@ -51709,10 +51709,10 @@
         <v>141</v>
       </c>
       <c r="B160" s="2">
-        <v>42736</v>
+        <v>42644</v>
       </c>
       <c r="C160" s="1">
-        <v>-13.76717335</v>
+        <v>0</v>
       </c>
       <c r="D160" t="s">
         <v>161</v>
@@ -51723,10 +51723,10 @@
         <v>141</v>
       </c>
       <c r="B161" s="2">
-        <v>42826</v>
+        <v>42736</v>
       </c>
       <c r="C161" s="1">
-        <v>5.0050787799999998</v>
+        <v>-13.76717335</v>
       </c>
       <c r="D161" t="s">
         <v>161</v>
@@ -51737,10 +51737,10 @@
         <v>141</v>
       </c>
       <c r="B162" s="2">
-        <v>42917</v>
+        <v>42826</v>
       </c>
       <c r="C162" s="1">
-        <v>88.355344869999996</v>
+        <v>5.0050787799999998</v>
       </c>
       <c r="D162" t="s">
         <v>161</v>
@@ -51751,10 +51751,10 @@
         <v>141</v>
       </c>
       <c r="B163" s="2">
-        <v>43009</v>
+        <v>42917</v>
       </c>
       <c r="C163" s="1">
-        <v>107.5738932</v>
+        <v>88.355344869999996</v>
       </c>
       <c r="D163" t="s">
         <v>161</v>
@@ -51765,10 +51765,10 @@
         <v>141</v>
       </c>
       <c r="B164" s="2">
-        <v>43101</v>
+        <v>43009</v>
       </c>
       <c r="C164" s="1">
-        <v>77.542954960000003</v>
+        <v>107.57389317000001</v>
       </c>
       <c r="D164" t="s">
         <v>161</v>
@@ -51779,10 +51779,10 @@
         <v>141</v>
       </c>
       <c r="B165" s="2">
-        <v>43191</v>
+        <v>43101</v>
       </c>
       <c r="C165" s="1">
-        <v>-35.6525386</v>
+        <v>77.542954960000003</v>
       </c>
       <c r="D165" t="s">
         <v>161</v>
@@ -51793,10 +51793,10 @@
         <v>141</v>
       </c>
       <c r="B166" s="2">
-        <v>43282</v>
+        <v>43191</v>
       </c>
       <c r="C166" s="1">
-        <v>18.023715979999999</v>
+        <v>-35.6525386</v>
       </c>
       <c r="D166" t="s">
         <v>161</v>
@@ -51807,10 +51807,10 @@
         <v>141</v>
       </c>
       <c r="B167" s="2">
-        <v>43374</v>
+        <v>43282</v>
       </c>
       <c r="C167" s="1">
-        <v>0</v>
+        <v>18.023715979999999</v>
       </c>
       <c r="D167" t="s">
         <v>161</v>
@@ -51821,10 +51821,10 @@
         <v>141</v>
       </c>
       <c r="B168" s="2">
-        <v>43466</v>
+        <v>43374</v>
       </c>
       <c r="C168" s="1">
-        <v>-39.486139909999999</v>
+        <v>0</v>
       </c>
       <c r="D168" t="s">
         <v>161</v>
@@ -51835,10 +51835,10 @@
         <v>141</v>
       </c>
       <c r="B169" s="2">
-        <v>43556</v>
+        <v>43466</v>
       </c>
       <c r="C169" s="1">
-        <v>189.61742240000001</v>
+        <v>-39.486139909999999</v>
       </c>
       <c r="D169" t="s">
         <v>161</v>
@@ -51849,10 +51849,10 @@
         <v>141</v>
       </c>
       <c r="B170" s="2">
-        <v>43647</v>
+        <v>43556</v>
       </c>
       <c r="C170" s="1">
-        <v>-4.3177836699999999</v>
+        <v>189.61742242</v>
       </c>
       <c r="D170" t="s">
         <v>161</v>
@@ -51863,10 +51863,10 @@
         <v>141</v>
       </c>
       <c r="B171" s="2">
-        <v>43739</v>
+        <v>43647</v>
       </c>
       <c r="C171" s="1">
-        <v>-52.151070779999998</v>
+        <v>-4.3177836699999999</v>
       </c>
       <c r="D171" t="s">
         <v>161</v>
@@ -51877,10 +51877,10 @@
         <v>141</v>
       </c>
       <c r="B172" s="2">
-        <v>43831</v>
+        <v>43739</v>
       </c>
       <c r="C172" s="1">
-        <v>215.52660900000001</v>
+        <v>-52.151070779999998</v>
       </c>
       <c r="D172" t="s">
         <v>161</v>
@@ -51891,12 +51891,40 @@
         <v>141</v>
       </c>
       <c r="B173" s="2">
+        <v>43831</v>
+      </c>
+      <c r="C173" s="1">
+        <v>252.37476329</v>
+      </c>
+      <c r="D173" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="s">
+        <v>141</v>
+      </c>
+      <c r="B174" s="2">
         <v>43922</v>
       </c>
-      <c r="C173" s="1">
-        <v>143.51093159999999</v>
-      </c>
-      <c r="D173" t="s">
+      <c r="C174" s="1">
+        <v>143.51093159000001</v>
+      </c>
+      <c r="D174" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="s">
+        <v>141</v>
+      </c>
+      <c r="B175" s="2">
+        <v>44013</v>
+      </c>
+      <c r="C175" s="1">
+        <v>-54.167818449999999</v>
+      </c>
+      <c r="D175" t="s">
         <v>161</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7657" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="163">
   <si>
     <t>Sección</t>
   </si>
@@ -49140,7 +49140,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -49746,6 +49746,17 @@
       </c>
       <c r="C55" s="1">
         <v>491734</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2">
+        <v>44013</v>
+      </c>
+      <c r="B56" t="s">
+        <v>142</v>
+      </c>
+      <c r="C56" s="1">
+        <v>539573</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7696" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7435" uniqueCount="166">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 01/18/2021</t>
+    <t xml:space="preserve"> 02/11/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -524,13 +524,10 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>cifras</t>
+    <t>Inversión extranjera directa, cifras preliminares</t>
   </si>
   <si>
-    <t>Preliminares</t>
-  </si>
-  <si>
-    <t>Revisadas</t>
+    <t>Inversión extranjera directa, cifras revisadas</t>
   </si>
 </sst>
 </file>
@@ -51450,7 +51447,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D88"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -51461,10 +51458,10 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>164</v>
       </c>
       <c r="D1" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
@@ -51477,8 +51474,8 @@
       <c r="C2" s="4">
         <v>0.085178000000000004</v>
       </c>
-      <c r="D2" t="s">
-        <v>165</v>
+      <c r="D2" s="4">
+        <v>0.085178000000000004</v>
       </c>
     </row>
     <row r="3">
@@ -51491,8 +51488,8 @@
       <c r="C3" s="4">
         <v>2.4263170000000001</v>
       </c>
-      <c r="D3" t="s">
-        <v>165</v>
+      <c r="D3" s="4">
+        <v>2.4263170000000001</v>
       </c>
     </row>
     <row r="4">
@@ -51505,8 +51502,8 @@
       <c r="C4" s="4">
         <v>-0.055085000000000002</v>
       </c>
-      <c r="D4" t="s">
-        <v>165</v>
+      <c r="D4" s="4">
+        <v>-0.055085000000000002</v>
       </c>
     </row>
     <row r="5">
@@ -51519,8 +51516,8 @@
       <c r="C5" s="4">
         <v>1.1448750000000001</v>
       </c>
-      <c r="D5" t="s">
-        <v>165</v>
+      <c r="D5" s="4">
+        <v>1.1448750000000001</v>
       </c>
     </row>
     <row r="6">
@@ -51533,8 +51530,8 @@
       <c r="C6" s="4">
         <v>2.4593780000000001</v>
       </c>
-      <c r="D6" t="s">
-        <v>165</v>
+      <c r="D6" s="4">
+        <v>2.4593780000000001</v>
       </c>
     </row>
     <row r="7">
@@ -51547,8 +51544,8 @@
       <c r="C7" s="4">
         <v>0.68890300000000004</v>
       </c>
-      <c r="D7" t="s">
-        <v>165</v>
+      <c r="D7" s="4">
+        <v>0.68890300000000004</v>
       </c>
     </row>
     <row r="8">
@@ -51561,8 +51558,8 @@
       <c r="C8" s="4">
         <v>1.610965</v>
       </c>
-      <c r="D8" t="s">
-        <v>165</v>
+      <c r="D8" s="4">
+        <v>1.610965</v>
       </c>
     </row>
     <row r="9">
@@ -51575,8 +51572,8 @@
       <c r="C9" s="4">
         <v>-0.21528900000000001</v>
       </c>
-      <c r="D9" t="s">
-        <v>165</v>
+      <c r="D9" s="4">
+        <v>-0.21528900000000001</v>
       </c>
     </row>
     <row r="10">
@@ -51589,8 +51586,8 @@
       <c r="C10" s="4">
         <v>3.646906</v>
       </c>
-      <c r="D10" t="s">
-        <v>165</v>
+      <c r="D10" s="4">
+        <v>3.646906</v>
       </c>
     </row>
     <row r="11">
@@ -51603,8 +51600,8 @@
       <c r="C11" s="4">
         <v>-0.0020049999999999998</v>
       </c>
-      <c r="D11" t="s">
-        <v>165</v>
+      <c r="D11" s="4">
+        <v>-0.0020049999999999998</v>
       </c>
     </row>
     <row r="12">
@@ -51617,8 +51614,8 @@
       <c r="C12" s="4">
         <v>-0.016670000000000001</v>
       </c>
-      <c r="D12" t="s">
-        <v>165</v>
+      <c r="D12" s="4">
+        <v>-0.016670000000000001</v>
       </c>
     </row>
     <row r="13">
@@ -51631,8 +51628,8 @@
       <c r="C13" s="4">
         <v>3.703484</v>
       </c>
-      <c r="D13" t="s">
-        <v>165</v>
+      <c r="D13" s="4">
+        <v>3.703484</v>
       </c>
     </row>
     <row r="14">
@@ -51645,8 +51642,8 @@
       <c r="C14" s="4">
         <v>0.096403000000000003</v>
       </c>
-      <c r="D14" t="s">
-        <v>165</v>
+      <c r="D14" s="4">
+        <v>0.096403000000000003</v>
       </c>
     </row>
     <row r="15">
@@ -51659,8 +51656,8 @@
       <c r="C15" s="4">
         <v>2.1334029999999999</v>
       </c>
-      <c r="D15" t="s">
-        <v>165</v>
+      <c r="D15" s="4">
+        <v>2.1334029999999999</v>
       </c>
     </row>
     <row r="16">
@@ -51673,8 +51670,8 @@
       <c r="C16" s="4">
         <v>0.015565000000000001</v>
       </c>
-      <c r="D16" t="s">
-        <v>165</v>
+      <c r="D16" s="4">
+        <v>0.015565000000000001</v>
       </c>
     </row>
     <row r="17">
@@ -51687,8 +51684,8 @@
       <c r="C17" s="4">
         <v>40.522950999999999</v>
       </c>
-      <c r="D17" t="s">
-        <v>165</v>
+      <c r="D17" s="4">
+        <v>40.522950999999999</v>
       </c>
     </row>
     <row r="18">
@@ -51701,8 +51698,8 @@
       <c r="C18" s="4">
         <v>26.038550999999998</v>
       </c>
-      <c r="D18" t="s">
-        <v>165</v>
+      <c r="D18" s="4">
+        <v>26.038550999999998</v>
       </c>
     </row>
     <row r="19">
@@ -51715,8 +51712,8 @@
       <c r="C19" s="4">
         <v>1.0063409999999999</v>
       </c>
-      <c r="D19" t="s">
-        <v>165</v>
+      <c r="D19" s="4">
+        <v>1.0063409999999999</v>
       </c>
     </row>
     <row r="20">
@@ -51729,8 +51726,8 @@
       <c r="C20" s="4">
         <v>-8.3727400000000003</v>
       </c>
-      <c r="D20" t="s">
-        <v>165</v>
+      <c r="D20" s="4">
+        <v>-8.3727400000000003</v>
       </c>
     </row>
     <row r="21">
@@ -51743,8 +51740,8 @@
       <c r="C21" s="4">
         <v>3.8328820000000001</v>
       </c>
-      <c r="D21" t="s">
-        <v>165</v>
+      <c r="D21" s="4">
+        <v>3.8328820000000001</v>
       </c>
     </row>
     <row r="22">
@@ -51757,8 +51754,8 @@
       <c r="C22" s="4">
         <v>14.207307</v>
       </c>
-      <c r="D22" t="s">
-        <v>165</v>
+      <c r="D22" s="4">
+        <v>14.207307</v>
       </c>
     </row>
     <row r="23">
@@ -51771,8 +51768,8 @@
       <c r="C23" s="4">
         <v>8.1121639999999999</v>
       </c>
-      <c r="D23" t="s">
-        <v>165</v>
+      <c r="D23" s="4">
+        <v>8.1121639999999999</v>
       </c>
     </row>
     <row r="24">
@@ -51785,8 +51782,8 @@
       <c r="C24" s="4">
         <v>8.5864180000000001</v>
       </c>
-      <c r="D24" t="s">
-        <v>165</v>
+      <c r="D24" s="4">
+        <v>8.5864180000000001</v>
       </c>
     </row>
     <row r="25">
@@ -51799,8 +51796,8 @@
       <c r="C25" s="4">
         <v>20.507785999999999</v>
       </c>
-      <c r="D25" t="s">
-        <v>165</v>
+      <c r="D25" s="4">
+        <v>20.507785999999999</v>
       </c>
     </row>
     <row r="26">
@@ -51813,8 +51810,8 @@
       <c r="C26" s="4">
         <v>8.5765539999999998</v>
       </c>
-      <c r="D26" t="s">
-        <v>165</v>
+      <c r="D26" s="4">
+        <v>8.5765539999999998</v>
       </c>
     </row>
     <row r="27">
@@ -51827,8 +51824,8 @@
       <c r="C27" s="4">
         <v>12.003787000000001</v>
       </c>
-      <c r="D27" t="s">
-        <v>165</v>
+      <c r="D27" s="4">
+        <v>12.003787000000001</v>
       </c>
     </row>
     <row r="28">
@@ -51841,8 +51838,8 @@
       <c r="C28" s="4">
         <v>5.5447480000000002</v>
       </c>
-      <c r="D28" t="s">
-        <v>165</v>
+      <c r="D28" s="4">
+        <v>5.5447480000000002</v>
       </c>
     </row>
     <row r="29">
@@ -51855,8 +51852,8 @@
       <c r="C29" s="4">
         <v>14.886189999999999</v>
       </c>
-      <c r="D29" t="s">
-        <v>165</v>
+      <c r="D29" s="4">
+        <v>14.886189999999999</v>
       </c>
     </row>
     <row r="30">
@@ -51869,8 +51866,8 @@
       <c r="C30" s="4">
         <v>12.169886</v>
       </c>
-      <c r="D30" t="s">
-        <v>165</v>
+      <c r="D30" s="4">
+        <v>12.169886</v>
       </c>
     </row>
     <row r="31">
@@ -51883,8 +51880,8 @@
       <c r="C31" s="4">
         <v>3.3880659999999998</v>
       </c>
-      <c r="D31" t="s">
-        <v>165</v>
+      <c r="D31" s="4">
+        <v>3.3880659999999998</v>
       </c>
     </row>
     <row r="32">
@@ -51897,8 +51894,8 @@
       <c r="C32" s="4">
         <v>6.2881629999999999</v>
       </c>
-      <c r="D32" t="s">
-        <v>165</v>
+      <c r="D32" s="4">
+        <v>6.2881629999999999</v>
       </c>
     </row>
     <row r="33">
@@ -51911,8 +51908,8 @@
       <c r="C33" s="4">
         <v>19.850546000000001</v>
       </c>
-      <c r="D33" t="s">
-        <v>165</v>
+      <c r="D33" s="4">
+        <v>19.850546000000001</v>
       </c>
     </row>
     <row r="34">
@@ -51925,8 +51922,8 @@
       <c r="C34" s="4">
         <v>9.9051449999999992</v>
       </c>
-      <c r="D34" t="s">
-        <v>165</v>
+      <c r="D34" s="4">
+        <v>9.9051449999999992</v>
       </c>
     </row>
     <row r="35">
@@ -51939,8 +51936,8 @@
       <c r="C35" s="4">
         <v>10.993547</v>
       </c>
-      <c r="D35" t="s">
-        <v>165</v>
+      <c r="D35" s="4">
+        <v>10.993547</v>
       </c>
     </row>
     <row r="36">
@@ -51953,8 +51950,8 @@
       <c r="C36" s="4">
         <v>7.2939809999999996</v>
       </c>
-      <c r="D36" t="s">
-        <v>165</v>
+      <c r="D36" s="4">
+        <v>7.2939809999999996</v>
       </c>
     </row>
     <row r="37">
@@ -51967,8 +51964,8 @@
       <c r="C37" s="4">
         <v>29.258872</v>
       </c>
-      <c r="D37" t="s">
-        <v>165</v>
+      <c r="D37" s="4">
+        <v>29.258872</v>
       </c>
     </row>
     <row r="38">
@@ -51981,8 +51978,8 @@
       <c r="C38" s="4">
         <v>13.913712</v>
       </c>
-      <c r="D38" t="s">
-        <v>165</v>
+      <c r="D38" s="4">
+        <v>13.913712</v>
       </c>
     </row>
     <row r="39">
@@ -51995,8 +51992,8 @@
       <c r="C39" s="4">
         <v>41.470576999999999</v>
       </c>
-      <c r="D39" t="s">
-        <v>165</v>
+      <c r="D39" s="4">
+        <v>41.470576999999999</v>
       </c>
     </row>
     <row r="40">
@@ -52009,8 +52006,8 @@
       <c r="C40" s="4">
         <v>27.689485999999999</v>
       </c>
-      <c r="D40" t="s">
-        <v>165</v>
+      <c r="D40" s="4">
+        <v>27.689485999999999</v>
       </c>
     </row>
     <row r="41">
@@ -52023,8 +52020,8 @@
       <c r="C41" s="4">
         <v>90.961106000000001</v>
       </c>
-      <c r="D41" t="s">
-        <v>165</v>
+      <c r="D41" s="4">
+        <v>90.961106000000001</v>
       </c>
     </row>
     <row r="42">
@@ -52037,8 +52034,8 @@
       <c r="C42" s="4">
         <v>11.297378</v>
       </c>
-      <c r="D42" t="s">
-        <v>165</v>
+      <c r="D42" s="4">
+        <v>11.297378</v>
       </c>
     </row>
     <row r="43">
@@ -52051,8 +52048,8 @@
       <c r="C43" s="4">
         <v>67.065901139999994</v>
       </c>
-      <c r="D43" t="s">
-        <v>165</v>
+      <c r="D43" s="4">
+        <v>67.065901139999994</v>
       </c>
     </row>
     <row r="44">
@@ -52065,8 +52062,8 @@
       <c r="C44" s="4">
         <v>72.423323999999994</v>
       </c>
-      <c r="D44" t="s">
-        <v>165</v>
+      <c r="D44" s="4">
+        <v>72.423323999999994</v>
       </c>
     </row>
     <row r="45">
@@ -52079,8 +52076,8 @@
       <c r="C45" s="4">
         <v>-19.115928</v>
       </c>
-      <c r="D45" t="s">
-        <v>165</v>
+      <c r="D45" s="4">
+        <v>-19.115928</v>
       </c>
     </row>
     <row r="46">
@@ -52093,8 +52090,8 @@
       <c r="C46" s="4">
         <v>109.03420199999999</v>
       </c>
-      <c r="D46" t="s">
-        <v>165</v>
+      <c r="D46" s="4">
+        <v>109.03420199999999</v>
       </c>
     </row>
     <row r="47">
@@ -52107,8 +52104,8 @@
       <c r="C47" s="4">
         <v>-18.32159</v>
       </c>
-      <c r="D47" t="s">
-        <v>165</v>
+      <c r="D47" s="4">
+        <v>-18.32159</v>
       </c>
     </row>
     <row r="48">
@@ -52121,8 +52118,8 @@
       <c r="C48" s="4">
         <v>-20.35279899</v>
       </c>
-      <c r="D48" t="s">
-        <v>165</v>
+      <c r="D48" s="4">
+        <v>-20.35279899</v>
       </c>
     </row>
     <row r="49">
@@ -52135,8 +52132,8 @@
       <c r="C49" s="4">
         <v>-0.70722399999999996</v>
       </c>
-      <c r="D49" t="s">
-        <v>165</v>
+      <c r="D49" s="4">
+        <v>-0.70722399999999996</v>
       </c>
     </row>
     <row r="50">
@@ -52149,8 +52146,8 @@
       <c r="C50" s="4">
         <v>14.306131000000001</v>
       </c>
-      <c r="D50" t="s">
-        <v>165</v>
+      <c r="D50" s="4">
+        <v>14.306131000000001</v>
       </c>
     </row>
     <row r="51">
@@ -52163,8 +52160,8 @@
       <c r="C51" s="4">
         <v>-2.9951059999999998</v>
       </c>
-      <c r="D51" t="s">
-        <v>165</v>
+      <c r="D51" s="4">
+        <v>-2.9951059999999998</v>
       </c>
     </row>
     <row r="52">
@@ -52177,8 +52174,8 @@
       <c r="C52" s="4">
         <v>50.8994</v>
       </c>
-      <c r="D52" t="s">
-        <v>165</v>
+      <c r="D52" s="4">
+        <v>50.8994</v>
       </c>
     </row>
     <row r="53">
@@ -52191,8 +52188,8 @@
       <c r="C53" s="4">
         <v>17.523471000000001</v>
       </c>
-      <c r="D53" t="s">
-        <v>165</v>
+      <c r="D53" s="4">
+        <v>17.523471000000001</v>
       </c>
     </row>
     <row r="54">
@@ -52205,8 +52202,8 @@
       <c r="C54" s="4">
         <v>115.773342</v>
       </c>
-      <c r="D54" t="s">
-        <v>165</v>
+      <c r="D54" s="4">
+        <v>115.773342</v>
       </c>
     </row>
     <row r="55">
@@ -52219,8 +52216,8 @@
       <c r="C55" s="4">
         <v>25.887343000000001</v>
       </c>
-      <c r="D55" t="s">
-        <v>165</v>
+      <c r="D55" s="4">
+        <v>25.887343000000001</v>
       </c>
     </row>
     <row r="56">
@@ -52233,8 +52230,8 @@
       <c r="C56" s="4">
         <v>-38.022193000000001</v>
       </c>
-      <c r="D56" t="s">
-        <v>165</v>
+      <c r="D56" s="4">
+        <v>-38.022193000000001</v>
       </c>
     </row>
     <row r="57">
@@ -52247,8 +52244,8 @@
       <c r="C57" s="4">
         <v>-36.179178</v>
       </c>
-      <c r="D57" t="s">
-        <v>165</v>
+      <c r="D57" s="4">
+        <v>-36.179178</v>
       </c>
     </row>
     <row r="58">
@@ -52261,8 +52258,8 @@
       <c r="C58" s="4">
         <v>-222.49303499999999</v>
       </c>
-      <c r="D58" t="s">
-        <v>165</v>
+      <c r="D58" s="4">
+        <v>-222.49303499999999</v>
       </c>
     </row>
     <row r="59">
@@ -52275,8 +52272,8 @@
       <c r="C59" s="4">
         <v>159.65548999999999</v>
       </c>
-      <c r="D59" t="s">
-        <v>165</v>
+      <c r="D59" s="4">
+        <v>159.65548999999999</v>
       </c>
     </row>
     <row r="60">
@@ -52289,8 +52286,8 @@
       <c r="C60" s="4">
         <v>-32.202761000000002</v>
       </c>
-      <c r="D60" t="s">
-        <v>165</v>
+      <c r="D60" s="4">
+        <v>-32.202761000000002</v>
       </c>
     </row>
     <row r="61">
@@ -52303,8 +52300,8 @@
       <c r="C61" s="4">
         <v>22.942178999999999</v>
       </c>
-      <c r="D61" t="s">
-        <v>165</v>
+      <c r="D61" s="4">
+        <v>22.942178999999999</v>
       </c>
     </row>
     <row r="62">
@@ -52317,8 +52314,8 @@
       <c r="C62" s="4">
         <v>6.0385369999999998</v>
       </c>
-      <c r="D62" t="s">
-        <v>165</v>
+      <c r="D62" s="4">
+        <v>6.0385369999999998</v>
       </c>
     </row>
     <row r="63">
@@ -52331,8 +52328,8 @@
       <c r="C63" s="4">
         <v>-53.260894999999998</v>
       </c>
-      <c r="D63" t="s">
-        <v>165</v>
+      <c r="D63" s="4">
+        <v>-53.260894999999998</v>
       </c>
     </row>
     <row r="64">
@@ -52345,8 +52342,8 @@
       <c r="C64" s="4">
         <v>173.88125199999999</v>
       </c>
-      <c r="D64" t="s">
-        <v>165</v>
+      <c r="D64" s="4">
+        <v>173.88125199999999</v>
       </c>
     </row>
     <row r="65">
@@ -52359,8 +52356,8 @@
       <c r="C65" s="4">
         <v>126.494998</v>
       </c>
-      <c r="D65" t="s">
-        <v>165</v>
+      <c r="D65" s="4">
+        <v>126.494998</v>
       </c>
     </row>
     <row r="66">
@@ -52373,8 +52370,8 @@
       <c r="C66" s="4">
         <v>5.3817940000000002</v>
       </c>
-      <c r="D66" t="s">
-        <v>165</v>
+      <c r="D66" s="4">
+        <v>5.3817940000000002</v>
       </c>
     </row>
     <row r="67">
@@ -52387,8 +52384,8 @@
       <c r="C67" s="4">
         <v>-0.731568</v>
       </c>
-      <c r="D67" t="s">
-        <v>165</v>
+      <c r="D67" s="4">
+        <v>-0.731567999999999</v>
       </c>
     </row>
     <row r="68">
@@ -52401,8 +52398,8 @@
       <c r="C68" s="4">
         <v>100.491777</v>
       </c>
-      <c r="D68" t="s">
-        <v>165</v>
+      <c r="D68" s="4">
+        <v>100.491777</v>
       </c>
     </row>
     <row r="69">
@@ -52415,8 +52412,8 @@
       <c r="C69" s="4">
         <v>233.44648799999999</v>
       </c>
-      <c r="D69" t="s">
-        <v>165</v>
+      <c r="D69" s="4">
+        <v>233.44648799999999</v>
       </c>
     </row>
     <row r="70">
@@ -52429,8 +52426,8 @@
       <c r="C70" s="4">
         <v>223.20143200000001</v>
       </c>
-      <c r="D70" t="s">
-        <v>165</v>
+      <c r="D70" s="4">
+        <v>223.20143200000001</v>
       </c>
     </row>
     <row r="71">
@@ -52440,12 +52437,8 @@
       <c r="B71" s="5">
         <v>42461</v>
       </c>
-      <c r="C71" s="4">
-        <v>0</v>
-      </c>
-      <c r="D71" t="s">
-        <v>165</v>
-      </c>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
     </row>
     <row r="72">
       <c r="A72" t="s">
@@ -52457,8 +52450,8 @@
       <c r="C72" s="4">
         <v>65.174270699999994</v>
       </c>
-      <c r="D72" t="s">
-        <v>165</v>
+      <c r="D72" s="4">
+        <v>65.174270699999994</v>
       </c>
     </row>
     <row r="73">
@@ -52468,12 +52461,8 @@
       <c r="B73" s="5">
         <v>42644</v>
       </c>
-      <c r="C73" s="4">
-        <v>0</v>
-      </c>
-      <c r="D73" t="s">
-        <v>165</v>
-      </c>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
     </row>
     <row r="74">
       <c r="A74" t="s">
@@ -52485,8 +52474,8 @@
       <c r="C74" s="4">
         <v>-13.76717335</v>
       </c>
-      <c r="D74" t="s">
-        <v>165</v>
+      <c r="D74" s="4">
+        <v>-13.76717335</v>
       </c>
     </row>
     <row r="75">
@@ -52499,8 +52488,8 @@
       <c r="C75" s="4">
         <v>3.1218970000000001</v>
       </c>
-      <c r="D75" t="s">
-        <v>165</v>
+      <c r="D75" s="4">
+        <v>5.0050787799999998</v>
       </c>
     </row>
     <row r="76">
@@ -52513,8 +52502,8 @@
       <c r="C76" s="4">
         <v>4.2828615399999999</v>
       </c>
-      <c r="D76" t="s">
-        <v>165</v>
+      <c r="D76" s="4">
+        <v>88.355344869999996</v>
       </c>
     </row>
     <row r="77">
@@ -52527,8 +52516,8 @@
       <c r="C77" s="4">
         <v>1.8573249199999999</v>
       </c>
-      <c r="D77" t="s">
-        <v>165</v>
+      <c r="D77" s="4">
+        <v>107.57389317000001</v>
       </c>
     </row>
     <row r="78">
@@ -52541,8 +52530,8 @@
       <c r="C78" s="4">
         <v>-2.6509466700000002</v>
       </c>
-      <c r="D78" t="s">
-        <v>165</v>
+      <c r="D78" s="4">
+        <v>77.542954960000003</v>
       </c>
     </row>
     <row r="79">
@@ -52555,8 +52544,8 @@
       <c r="C79" s="4">
         <v>-37.583677029999997</v>
       </c>
-      <c r="D79" t="s">
-        <v>165</v>
+      <c r="D79" s="4">
+        <v>-35.6525386</v>
       </c>
     </row>
     <row r="80">
@@ -52569,8 +52558,8 @@
       <c r="C80" s="4">
         <v>18.023716</v>
       </c>
-      <c r="D80" t="s">
-        <v>165</v>
+      <c r="D80" s="4">
+        <v>18.023715979999999</v>
       </c>
     </row>
     <row r="81">
@@ -52583,9 +52572,7 @@
       <c r="C81" s="4">
         <v>-41.016828799999999</v>
       </c>
-      <c r="D81" t="s">
-        <v>165</v>
-      </c>
+      <c r="D81" s="4"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
@@ -52597,8 +52584,8 @@
       <c r="C82" s="4">
         <v>-39.888763679999997</v>
       </c>
-      <c r="D82" t="s">
-        <v>165</v>
+      <c r="D82" s="4">
+        <v>-39.486139909999999</v>
       </c>
     </row>
     <row r="83">
@@ -52611,8 +52598,8 @@
       <c r="C83" s="4">
         <v>189.61742240000001</v>
       </c>
-      <c r="D83" t="s">
-        <v>165</v>
+      <c r="D83" s="4">
+        <v>189.61742242</v>
       </c>
     </row>
     <row r="84">
@@ -52625,8 +52612,8 @@
       <c r="C84" s="4">
         <v>-4.3177836699999999</v>
       </c>
-      <c r="D84" t="s">
-        <v>165</v>
+      <c r="D84" s="4">
+        <v>-4.3177836699999999</v>
       </c>
     </row>
     <row r="85">
@@ -52639,8 +52626,8 @@
       <c r="C85" s="4">
         <v>-52.151070779999998</v>
       </c>
-      <c r="D85" t="s">
-        <v>165</v>
+      <c r="D85" s="4">
+        <v>-52.151070779999998</v>
       </c>
     </row>
     <row r="86">
@@ -52653,8 +52640,8 @@
       <c r="C86" s="4">
         <v>190.96117269999999</v>
       </c>
-      <c r="D86" t="s">
-        <v>165</v>
+      <c r="D86" s="4">
+        <v>252.37476329</v>
       </c>
     </row>
     <row r="87">
@@ -52667,8 +52654,8 @@
       <c r="C87" s="4">
         <v>143.51093159999999</v>
       </c>
-      <c r="D87" t="s">
-        <v>165</v>
+      <c r="D87" s="4">
+        <v>143.51093159000001</v>
       </c>
     </row>
     <row r="88">
@@ -52681,1226 +52668,8 @@
       <c r="C88" s="4">
         <v>-54.167818449999999</v>
       </c>
-      <c r="D88" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>146</v>
-      </c>
-      <c r="B89" s="5">
-        <v>36161</v>
-      </c>
-      <c r="C89" s="4">
-        <v>0.085178000000000004</v>
-      </c>
-      <c r="D89" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>146</v>
-      </c>
-      <c r="B90" s="5">
-        <v>36251</v>
-      </c>
-      <c r="C90" s="4">
-        <v>2.4263170000000001</v>
-      </c>
-      <c r="D90" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>146</v>
-      </c>
-      <c r="B91" s="5">
-        <v>36342</v>
-      </c>
-      <c r="C91" s="4">
-        <v>-0.055085000000000002</v>
-      </c>
-      <c r="D91" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>146</v>
-      </c>
-      <c r="B92" s="5">
-        <v>36434</v>
-      </c>
-      <c r="C92" s="4">
-        <v>1.1448750000000001</v>
-      </c>
-      <c r="D92" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>146</v>
-      </c>
-      <c r="B93" s="5">
-        <v>36526</v>
-      </c>
-      <c r="C93" s="4">
-        <v>2.4593780000000001</v>
-      </c>
-      <c r="D93" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>146</v>
-      </c>
-      <c r="B94" s="5">
-        <v>36617</v>
-      </c>
-      <c r="C94" s="4">
-        <v>0.68890300000000004</v>
-      </c>
-      <c r="D94" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>146</v>
-      </c>
-      <c r="B95" s="5">
-        <v>36708</v>
-      </c>
-      <c r="C95" s="4">
-        <v>1.610965</v>
-      </c>
-      <c r="D95" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>146</v>
-      </c>
-      <c r="B96" s="5">
-        <v>36800</v>
-      </c>
-      <c r="C96" s="4">
-        <v>-0.21528900000000001</v>
-      </c>
-      <c r="D96" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>146</v>
-      </c>
-      <c r="B97" s="5">
-        <v>36892</v>
-      </c>
-      <c r="C97" s="4">
-        <v>3.646906</v>
-      </c>
-      <c r="D97" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="s">
-        <v>146</v>
-      </c>
-      <c r="B98" s="5">
-        <v>36982</v>
-      </c>
-      <c r="C98" s="4">
-        <v>-0.0020049999999999998</v>
-      </c>
-      <c r="D98" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="s">
-        <v>146</v>
-      </c>
-      <c r="B99" s="5">
-        <v>37073</v>
-      </c>
-      <c r="C99" s="4">
-        <v>-0.016670000000000001</v>
-      </c>
-      <c r="D99" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="s">
-        <v>146</v>
-      </c>
-      <c r="B100" s="5">
-        <v>37165</v>
-      </c>
-      <c r="C100" s="4">
-        <v>3.703484</v>
-      </c>
-      <c r="D100" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="s">
-        <v>146</v>
-      </c>
-      <c r="B101" s="5">
-        <v>37257</v>
-      </c>
-      <c r="C101" s="4">
-        <v>0.096403000000000003</v>
-      </c>
-      <c r="D101" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="s">
-        <v>146</v>
-      </c>
-      <c r="B102" s="5">
-        <v>37347</v>
-      </c>
-      <c r="C102" s="4">
-        <v>2.1334029999999999</v>
-      </c>
-      <c r="D102" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="s">
-        <v>146</v>
-      </c>
-      <c r="B103" s="5">
-        <v>37438</v>
-      </c>
-      <c r="C103" s="4">
-        <v>0.015565000000000001</v>
-      </c>
-      <c r="D103" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="s">
-        <v>146</v>
-      </c>
-      <c r="B104" s="5">
-        <v>37530</v>
-      </c>
-      <c r="C104" s="4">
-        <v>40.522950999999999</v>
-      </c>
-      <c r="D104" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="s">
-        <v>146</v>
-      </c>
-      <c r="B105" s="5">
-        <v>37622</v>
-      </c>
-      <c r="C105" s="4">
-        <v>26.038550999999998</v>
-      </c>
-      <c r="D105" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="s">
-        <v>146</v>
-      </c>
-      <c r="B106" s="5">
-        <v>37712</v>
-      </c>
-      <c r="C106" s="4">
-        <v>1.0063409999999999</v>
-      </c>
-      <c r="D106" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="s">
-        <v>146</v>
-      </c>
-      <c r="B107" s="5">
-        <v>37803</v>
-      </c>
-      <c r="C107" s="4">
-        <v>-8.3727400000000003</v>
-      </c>
-      <c r="D107" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="s">
-        <v>146</v>
-      </c>
-      <c r="B108" s="5">
-        <v>37895</v>
-      </c>
-      <c r="C108" s="4">
-        <v>3.8328820000000001</v>
-      </c>
-      <c r="D108" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="s">
-        <v>146</v>
-      </c>
-      <c r="B109" s="5">
-        <v>37987</v>
-      </c>
-      <c r="C109" s="4">
-        <v>14.207307</v>
-      </c>
-      <c r="D109" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="s">
-        <v>146</v>
-      </c>
-      <c r="B110" s="5">
-        <v>38078</v>
-      </c>
-      <c r="C110" s="4">
-        <v>8.1121639999999999</v>
-      </c>
-      <c r="D110" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="s">
-        <v>146</v>
-      </c>
-      <c r="B111" s="5">
-        <v>38169</v>
-      </c>
-      <c r="C111" s="4">
-        <v>8.5864180000000001</v>
-      </c>
-      <c r="D111" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="s">
-        <v>146</v>
-      </c>
-      <c r="B112" s="5">
-        <v>38261</v>
-      </c>
-      <c r="C112" s="4">
-        <v>20.507785999999999</v>
-      </c>
-      <c r="D112" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="s">
-        <v>146</v>
-      </c>
-      <c r="B113" s="5">
-        <v>38353</v>
-      </c>
-      <c r="C113" s="4">
-        <v>8.5765539999999998</v>
-      </c>
-      <c r="D113" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="s">
-        <v>146</v>
-      </c>
-      <c r="B114" s="5">
-        <v>38443</v>
-      </c>
-      <c r="C114" s="4">
-        <v>12.003787000000001</v>
-      </c>
-      <c r="D114" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="s">
-        <v>146</v>
-      </c>
-      <c r="B115" s="5">
-        <v>38534</v>
-      </c>
-      <c r="C115" s="4">
-        <v>5.5447480000000002</v>
-      </c>
-      <c r="D115" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="s">
-        <v>146</v>
-      </c>
-      <c r="B116" s="5">
-        <v>38626</v>
-      </c>
-      <c r="C116" s="4">
-        <v>14.886189999999999</v>
-      </c>
-      <c r="D116" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="s">
-        <v>146</v>
-      </c>
-      <c r="B117" s="5">
-        <v>38718</v>
-      </c>
-      <c r="C117" s="4">
-        <v>12.169886</v>
-      </c>
-      <c r="D117" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="s">
-        <v>146</v>
-      </c>
-      <c r="B118" s="5">
-        <v>38808</v>
-      </c>
-      <c r="C118" s="4">
-        <v>3.3880659999999998</v>
-      </c>
-      <c r="D118" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="s">
-        <v>146</v>
-      </c>
-      <c r="B119" s="5">
-        <v>38899</v>
-      </c>
-      <c r="C119" s="4">
-        <v>6.2881629999999999</v>
-      </c>
-      <c r="D119" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="s">
-        <v>146</v>
-      </c>
-      <c r="B120" s="5">
-        <v>38991</v>
-      </c>
-      <c r="C120" s="4">
-        <v>19.850546000000001</v>
-      </c>
-      <c r="D120" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="s">
-        <v>146</v>
-      </c>
-      <c r="B121" s="5">
-        <v>39083</v>
-      </c>
-      <c r="C121" s="4">
-        <v>9.9051449999999992</v>
-      </c>
-      <c r="D121" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="s">
-        <v>146</v>
-      </c>
-      <c r="B122" s="5">
-        <v>39173</v>
-      </c>
-      <c r="C122" s="4">
-        <v>10.993547</v>
-      </c>
-      <c r="D122" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="s">
-        <v>146</v>
-      </c>
-      <c r="B123" s="5">
-        <v>39264</v>
-      </c>
-      <c r="C123" s="4">
-        <v>7.2939809999999996</v>
-      </c>
-      <c r="D123" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="s">
-        <v>146</v>
-      </c>
-      <c r="B124" s="5">
-        <v>39356</v>
-      </c>
-      <c r="C124" s="4">
-        <v>29.258872</v>
-      </c>
-      <c r="D124" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="s">
-        <v>146</v>
-      </c>
-      <c r="B125" s="5">
-        <v>39448</v>
-      </c>
-      <c r="C125" s="4">
-        <v>13.913712</v>
-      </c>
-      <c r="D125" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="s">
-        <v>146</v>
-      </c>
-      <c r="B126" s="5">
-        <v>39539</v>
-      </c>
-      <c r="C126" s="4">
-        <v>41.470576999999999</v>
-      </c>
-      <c r="D126" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="s">
-        <v>146</v>
-      </c>
-      <c r="B127" s="5">
-        <v>39630</v>
-      </c>
-      <c r="C127" s="4">
-        <v>27.689485999999999</v>
-      </c>
-      <c r="D127" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="s">
-        <v>146</v>
-      </c>
-      <c r="B128" s="5">
-        <v>39722</v>
-      </c>
-      <c r="C128" s="4">
-        <v>90.961106000000001</v>
-      </c>
-      <c r="D128" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="s">
-        <v>146</v>
-      </c>
-      <c r="B129" s="5">
-        <v>39814</v>
-      </c>
-      <c r="C129" s="4">
-        <v>11.297378</v>
-      </c>
-      <c r="D129" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="s">
-        <v>146</v>
-      </c>
-      <c r="B130" s="5">
-        <v>39904</v>
-      </c>
-      <c r="C130" s="4">
-        <v>67.065901139999994</v>
-      </c>
-      <c r="D130" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="s">
-        <v>146</v>
-      </c>
-      <c r="B131" s="5">
-        <v>39995</v>
-      </c>
-      <c r="C131" s="4">
-        <v>72.423323999999994</v>
-      </c>
-      <c r="D131" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="s">
-        <v>146</v>
-      </c>
-      <c r="B132" s="5">
-        <v>40087</v>
-      </c>
-      <c r="C132" s="4">
-        <v>-19.115928</v>
-      </c>
-      <c r="D132" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="s">
-        <v>146</v>
-      </c>
-      <c r="B133" s="5">
-        <v>40179</v>
-      </c>
-      <c r="C133" s="4">
-        <v>109.03420199999999</v>
-      </c>
-      <c r="D133" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="s">
-        <v>146</v>
-      </c>
-      <c r="B134" s="5">
-        <v>40269</v>
-      </c>
-      <c r="C134" s="4">
-        <v>-18.32159</v>
-      </c>
-      <c r="D134" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="s">
-        <v>146</v>
-      </c>
-      <c r="B135" s="5">
-        <v>40360</v>
-      </c>
-      <c r="C135" s="4">
-        <v>-20.35279899</v>
-      </c>
-      <c r="D135" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="s">
-        <v>146</v>
-      </c>
-      <c r="B136" s="5">
-        <v>40452</v>
-      </c>
-      <c r="C136" s="4">
-        <v>-0.70722399999999996</v>
-      </c>
-      <c r="D136" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="s">
-        <v>146</v>
-      </c>
-      <c r="B137" s="5">
-        <v>40544</v>
-      </c>
-      <c r="C137" s="4">
-        <v>14.306131000000001</v>
-      </c>
-      <c r="D137" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="s">
-        <v>146</v>
-      </c>
-      <c r="B138" s="5">
-        <v>40634</v>
-      </c>
-      <c r="C138" s="4">
-        <v>-2.9951059999999998</v>
-      </c>
-      <c r="D138" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="s">
-        <v>146</v>
-      </c>
-      <c r="B139" s="5">
-        <v>40725</v>
-      </c>
-      <c r="C139" s="4">
-        <v>50.8994</v>
-      </c>
-      <c r="D139" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="s">
-        <v>146</v>
-      </c>
-      <c r="B140" s="5">
-        <v>40817</v>
-      </c>
-      <c r="C140" s="4">
-        <v>17.523471000000001</v>
-      </c>
-      <c r="D140" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="s">
-        <v>146</v>
-      </c>
-      <c r="B141" s="5">
-        <v>40909</v>
-      </c>
-      <c r="C141" s="4">
-        <v>115.773342</v>
-      </c>
-      <c r="D141" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="s">
-        <v>146</v>
-      </c>
-      <c r="B142" s="5">
-        <v>41000</v>
-      </c>
-      <c r="C142" s="4">
-        <v>25.887343000000001</v>
-      </c>
-      <c r="D142" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="s">
-        <v>146</v>
-      </c>
-      <c r="B143" s="5">
-        <v>41091</v>
-      </c>
-      <c r="C143" s="4">
-        <v>-38.022193000000001</v>
-      </c>
-      <c r="D143" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="s">
-        <v>146</v>
-      </c>
-      <c r="B144" s="5">
-        <v>41183</v>
-      </c>
-      <c r="C144" s="4">
-        <v>-36.179178</v>
-      </c>
-      <c r="D144" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="s">
-        <v>146</v>
-      </c>
-      <c r="B145" s="5">
-        <v>41275</v>
-      </c>
-      <c r="C145" s="4">
-        <v>-222.49303499999999</v>
-      </c>
-      <c r="D145" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="s">
-        <v>146</v>
-      </c>
-      <c r="B146" s="5">
-        <v>41365</v>
-      </c>
-      <c r="C146" s="4">
-        <v>159.65548999999999</v>
-      </c>
-      <c r="D146" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="s">
-        <v>146</v>
-      </c>
-      <c r="B147" s="5">
-        <v>41456</v>
-      </c>
-      <c r="C147" s="4">
-        <v>-32.202761000000002</v>
-      </c>
-      <c r="D147" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="s">
-        <v>146</v>
-      </c>
-      <c r="B148" s="5">
-        <v>41548</v>
-      </c>
-      <c r="C148" s="4">
-        <v>22.942178999999999</v>
-      </c>
-      <c r="D148" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="s">
-        <v>146</v>
-      </c>
-      <c r="B149" s="5">
-        <v>41640</v>
-      </c>
-      <c r="C149" s="4">
-        <v>6.0385369999999998</v>
-      </c>
-      <c r="D149" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="s">
-        <v>146</v>
-      </c>
-      <c r="B150" s="5">
-        <v>41730</v>
-      </c>
-      <c r="C150" s="4">
-        <v>-53.260894999999998</v>
-      </c>
-      <c r="D150" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="s">
-        <v>146</v>
-      </c>
-      <c r="B151" s="5">
-        <v>41821</v>
-      </c>
-      <c r="C151" s="4">
-        <v>173.88125199999999</v>
-      </c>
-      <c r="D151" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="s">
-        <v>146</v>
-      </c>
-      <c r="B152" s="5">
-        <v>41913</v>
-      </c>
-      <c r="C152" s="4">
-        <v>126.494998</v>
-      </c>
-      <c r="D152" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="s">
-        <v>146</v>
-      </c>
-      <c r="B153" s="5">
-        <v>42005</v>
-      </c>
-      <c r="C153" s="4">
-        <v>5.3817940000000002</v>
-      </c>
-      <c r="D153" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="s">
-        <v>146</v>
-      </c>
-      <c r="B154" s="5">
-        <v>42095</v>
-      </c>
-      <c r="C154" s="4">
-        <v>-0.731567999999999</v>
-      </c>
-      <c r="D154" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="s">
-        <v>146</v>
-      </c>
-      <c r="B155" s="5">
-        <v>42186</v>
-      </c>
-      <c r="C155" s="4">
-        <v>100.491777</v>
-      </c>
-      <c r="D155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="s">
-        <v>146</v>
-      </c>
-      <c r="B156" s="5">
-        <v>42278</v>
-      </c>
-      <c r="C156" s="4">
-        <v>233.44648799999999</v>
-      </c>
-      <c r="D156" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="s">
-        <v>146</v>
-      </c>
-      <c r="B157" s="5">
-        <v>42370</v>
-      </c>
-      <c r="C157" s="4">
-        <v>223.20143200000001</v>
-      </c>
-      <c r="D157" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="s">
-        <v>146</v>
-      </c>
-      <c r="B158" s="5">
-        <v>42461</v>
-      </c>
-      <c r="C158" s="4">
-        <v>0</v>
-      </c>
-      <c r="D158" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="s">
-        <v>146</v>
-      </c>
-      <c r="B159" s="5">
-        <v>42552</v>
-      </c>
-      <c r="C159" s="4">
-        <v>65.174270699999994</v>
-      </c>
-      <c r="D159" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="s">
-        <v>146</v>
-      </c>
-      <c r="B160" s="5">
-        <v>42644</v>
-      </c>
-      <c r="C160" s="4">
-        <v>0</v>
-      </c>
-      <c r="D160" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="s">
-        <v>146</v>
-      </c>
-      <c r="B161" s="5">
-        <v>42736</v>
-      </c>
-      <c r="C161" s="4">
-        <v>-13.76717335</v>
-      </c>
-      <c r="D161" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="s">
-        <v>146</v>
-      </c>
-      <c r="B162" s="5">
-        <v>42826</v>
-      </c>
-      <c r="C162" s="4">
-        <v>5.0050787799999998</v>
-      </c>
-      <c r="D162" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="s">
-        <v>146</v>
-      </c>
-      <c r="B163" s="5">
-        <v>42917</v>
-      </c>
-      <c r="C163" s="4">
-        <v>88.355344869999996</v>
-      </c>
-      <c r="D163" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="s">
-        <v>146</v>
-      </c>
-      <c r="B164" s="5">
-        <v>43009</v>
-      </c>
-      <c r="C164" s="4">
-        <v>107.57389317000001</v>
-      </c>
-      <c r="D164" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="s">
-        <v>146</v>
-      </c>
-      <c r="B165" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C165" s="4">
-        <v>77.542954960000003</v>
-      </c>
-      <c r="D165" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="s">
-        <v>146</v>
-      </c>
-      <c r="B166" s="5">
-        <v>43191</v>
-      </c>
-      <c r="C166" s="4">
-        <v>-35.6525386</v>
-      </c>
-      <c r="D166" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="s">
-        <v>146</v>
-      </c>
-      <c r="B167" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C167" s="4">
-        <v>18.023715979999999</v>
-      </c>
-      <c r="D167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="s">
-        <v>146</v>
-      </c>
-      <c r="B168" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C168" s="4">
-        <v>0</v>
-      </c>
-      <c r="D168" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="s">
-        <v>146</v>
-      </c>
-      <c r="B169" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C169" s="4">
-        <v>-39.486139909999999</v>
-      </c>
-      <c r="D169" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="s">
-        <v>146</v>
-      </c>
-      <c r="B170" s="5">
-        <v>43556</v>
-      </c>
-      <c r="C170" s="4">
-        <v>189.61742242</v>
-      </c>
-      <c r="D170" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="s">
-        <v>146</v>
-      </c>
-      <c r="B171" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C171" s="4">
-        <v>-4.3177836699999999</v>
-      </c>
-      <c r="D171" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" t="s">
-        <v>146</v>
-      </c>
-      <c r="B172" s="5">
-        <v>43739</v>
-      </c>
-      <c r="C172" s="4">
-        <v>-52.151070779999998</v>
-      </c>
-      <c r="D172" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" t="s">
-        <v>146</v>
-      </c>
-      <c r="B173" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C173" s="4">
-        <v>252.37476329</v>
-      </c>
-      <c r="D173" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="A174" t="s">
-        <v>146</v>
-      </c>
-      <c r="B174" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C174" s="4">
-        <v>143.51093159000001</v>
-      </c>
-      <c r="D174" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>146</v>
-      </c>
-      <c r="B175" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C175" s="4">
+      <c r="D88" s="4">
         <v>-54.167818449999999</v>
-      </c>
-      <c r="D175" t="s">
-        <v>166</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7501" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7588" uniqueCount="170">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/12/2021</t>
+    <t xml:space="preserve"> 02/14/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -538,6 +538,9 @@
   <si>
     <t>(sum) c</t>
   </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
 </sst>
 </file>
 
@@ -51726,8 +51729,8 @@
       <c r="D2" s="4">
         <v>0.085178000000000004</v>
       </c>
-      <c r="E2" s="4">
-        <v>0</v>
+      <c r="E2" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -51743,8 +51746,8 @@
       <c r="D3" s="4">
         <v>2.4263170000000001</v>
       </c>
-      <c r="E3" s="4">
-        <v>0</v>
+      <c r="E3" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -51760,8 +51763,8 @@
       <c r="D4" s="4">
         <v>-0.055085000000000002</v>
       </c>
-      <c r="E4" s="4">
-        <v>0</v>
+      <c r="E4" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5">
@@ -51777,8 +51780,8 @@
       <c r="D5" s="4">
         <v>1.1448750000000001</v>
       </c>
-      <c r="E5" s="4">
-        <v>0</v>
+      <c r="E5" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="6">
@@ -51794,8 +51797,8 @@
       <c r="D6" s="4">
         <v>2.4593780000000001</v>
       </c>
-      <c r="E6" s="4">
-        <v>0</v>
+      <c r="E6" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="7">
@@ -51811,8 +51814,8 @@
       <c r="D7" s="4">
         <v>0.68890300000000004</v>
       </c>
-      <c r="E7" s="4">
-        <v>0</v>
+      <c r="E7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="8">
@@ -51828,8 +51831,8 @@
       <c r="D8" s="4">
         <v>1.610965</v>
       </c>
-      <c r="E8" s="4">
-        <v>0</v>
+      <c r="E8" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="9">
@@ -51845,8 +51848,8 @@
       <c r="D9" s="4">
         <v>-0.21528900000000001</v>
       </c>
-      <c r="E9" s="4">
-        <v>0</v>
+      <c r="E9" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="10">
@@ -51862,8 +51865,8 @@
       <c r="D10" s="4">
         <v>3.646906</v>
       </c>
-      <c r="E10" s="4">
-        <v>0</v>
+      <c r="E10" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11">
@@ -51879,8 +51882,8 @@
       <c r="D11" s="4">
         <v>-0.0020049999999999998</v>
       </c>
-      <c r="E11" s="4">
-        <v>0</v>
+      <c r="E11" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="12">
@@ -51896,8 +51899,8 @@
       <c r="D12" s="4">
         <v>-0.016670000000000001</v>
       </c>
-      <c r="E12" s="4">
-        <v>0</v>
+      <c r="E12" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="13">
@@ -51913,8 +51916,8 @@
       <c r="D13" s="4">
         <v>3.703484</v>
       </c>
-      <c r="E13" s="4">
-        <v>0</v>
+      <c r="E13" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="14">
@@ -51930,8 +51933,8 @@
       <c r="D14" s="4">
         <v>0.096403000000000003</v>
       </c>
-      <c r="E14" s="4">
-        <v>0</v>
+      <c r="E14" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="15">
@@ -51947,8 +51950,8 @@
       <c r="D15" s="4">
         <v>2.1334029999999999</v>
       </c>
-      <c r="E15" s="4">
-        <v>0</v>
+      <c r="E15" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -51964,8 +51967,8 @@
       <c r="D16" s="4">
         <v>0.015565000000000001</v>
       </c>
-      <c r="E16" s="4">
-        <v>0</v>
+      <c r="E16" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="17">
@@ -51981,8 +51984,8 @@
       <c r="D17" s="4">
         <v>40.522950999999999</v>
       </c>
-      <c r="E17" s="4">
-        <v>0</v>
+      <c r="E17" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="18">
@@ -51998,8 +52001,8 @@
       <c r="D18" s="4">
         <v>26.038550999999998</v>
       </c>
-      <c r="E18" s="4">
-        <v>0</v>
+      <c r="E18" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="19">
@@ -52015,8 +52018,8 @@
       <c r="D19" s="4">
         <v>1.0063409999999999</v>
       </c>
-      <c r="E19" s="4">
-        <v>0</v>
+      <c r="E19" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="20">
@@ -52032,8 +52035,8 @@
       <c r="D20" s="4">
         <v>-8.3727400000000003</v>
       </c>
-      <c r="E20" s="4">
-        <v>0</v>
+      <c r="E20" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="21">
@@ -52049,8 +52052,8 @@
       <c r="D21" s="4">
         <v>3.8328820000000001</v>
       </c>
-      <c r="E21" s="4">
-        <v>0</v>
+      <c r="E21" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="22">
@@ -52066,8 +52069,8 @@
       <c r="D22" s="4">
         <v>14.207307</v>
       </c>
-      <c r="E22" s="4">
-        <v>0</v>
+      <c r="E22" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="23">
@@ -52083,8 +52086,8 @@
       <c r="D23" s="4">
         <v>8.1121639999999999</v>
       </c>
-      <c r="E23" s="4">
-        <v>0</v>
+      <c r="E23" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="24">
@@ -52100,8 +52103,8 @@
       <c r="D24" s="4">
         <v>8.5864180000000001</v>
       </c>
-      <c r="E24" s="4">
-        <v>0</v>
+      <c r="E24" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="25">
@@ -52117,8 +52120,8 @@
       <c r="D25" s="4">
         <v>20.507785999999999</v>
       </c>
-      <c r="E25" s="4">
-        <v>0</v>
+      <c r="E25" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="26">
@@ -52134,8 +52137,8 @@
       <c r="D26" s="4">
         <v>8.5765539999999998</v>
       </c>
-      <c r="E26" s="4">
-        <v>0</v>
+      <c r="E26" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="27">
@@ -52151,8 +52154,8 @@
       <c r="D27" s="4">
         <v>12.003787000000001</v>
       </c>
-      <c r="E27" s="4">
-        <v>0</v>
+      <c r="E27" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="28">
@@ -52168,8 +52171,8 @@
       <c r="D28" s="4">
         <v>5.5447480000000002</v>
       </c>
-      <c r="E28" s="4">
-        <v>0</v>
+      <c r="E28" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="29">
@@ -52185,8 +52188,8 @@
       <c r="D29" s="4">
         <v>14.886189999999999</v>
       </c>
-      <c r="E29" s="4">
-        <v>0</v>
+      <c r="E29" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="30">
@@ -52202,8 +52205,8 @@
       <c r="D30" s="4">
         <v>12.169886</v>
       </c>
-      <c r="E30" s="4">
-        <v>0</v>
+      <c r="E30" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="31">
@@ -52219,8 +52222,8 @@
       <c r="D31" s="4">
         <v>3.3880659999999998</v>
       </c>
-      <c r="E31" s="4">
-        <v>0</v>
+      <c r="E31" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="32">
@@ -52236,8 +52239,8 @@
       <c r="D32" s="4">
         <v>6.2881629999999999</v>
       </c>
-      <c r="E32" s="4">
-        <v>0</v>
+      <c r="E32" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="33">
@@ -52253,8 +52256,8 @@
       <c r="D33" s="4">
         <v>19.850546000000001</v>
       </c>
-      <c r="E33" s="4">
-        <v>0</v>
+      <c r="E33" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="34">
@@ -52270,8 +52273,8 @@
       <c r="D34" s="4">
         <v>9.9051449999999992</v>
       </c>
-      <c r="E34" s="4">
-        <v>0</v>
+      <c r="E34" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="35">
@@ -52287,8 +52290,8 @@
       <c r="D35" s="4">
         <v>10.993547</v>
       </c>
-      <c r="E35" s="4">
-        <v>0</v>
+      <c r="E35" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="36">
@@ -52304,8 +52307,8 @@
       <c r="D36" s="4">
         <v>7.2939809999999996</v>
       </c>
-      <c r="E36" s="4">
-        <v>0</v>
+      <c r="E36" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="37">
@@ -52321,8 +52324,8 @@
       <c r="D37" s="4">
         <v>29.258872</v>
       </c>
-      <c r="E37" s="4">
-        <v>0</v>
+      <c r="E37" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="38">
@@ -52338,8 +52341,8 @@
       <c r="D38" s="4">
         <v>13.913712</v>
       </c>
-      <c r="E38" s="4">
-        <v>0</v>
+      <c r="E38" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="39">
@@ -52355,8 +52358,8 @@
       <c r="D39" s="4">
         <v>41.470576999999999</v>
       </c>
-      <c r="E39" s="4">
-        <v>0</v>
+      <c r="E39" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="40">
@@ -52372,8 +52375,8 @@
       <c r="D40" s="4">
         <v>27.689485999999999</v>
       </c>
-      <c r="E40" s="4">
-        <v>0</v>
+      <c r="E40" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="41">
@@ -52389,8 +52392,8 @@
       <c r="D41" s="4">
         <v>90.961106000000001</v>
       </c>
-      <c r="E41" s="4">
-        <v>0</v>
+      <c r="E41" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="42">
@@ -52406,8 +52409,8 @@
       <c r="D42" s="4">
         <v>11.297378</v>
       </c>
-      <c r="E42" s="4">
-        <v>0</v>
+      <c r="E42" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="43">
@@ -52423,8 +52426,8 @@
       <c r="D43" s="4">
         <v>67.065901139999994</v>
       </c>
-      <c r="E43" s="4">
-        <v>0</v>
+      <c r="E43" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="44">
@@ -52440,8 +52443,8 @@
       <c r="D44" s="4">
         <v>72.423323999999994</v>
       </c>
-      <c r="E44" s="4">
-        <v>0</v>
+      <c r="E44" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="45">
@@ -52457,8 +52460,8 @@
       <c r="D45" s="4">
         <v>-19.115928</v>
       </c>
-      <c r="E45" s="4">
-        <v>0</v>
+      <c r="E45" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="46">
@@ -52474,8 +52477,8 @@
       <c r="D46" s="4">
         <v>109.03420199999999</v>
       </c>
-      <c r="E46" s="4">
-        <v>0</v>
+      <c r="E46" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="47">
@@ -52491,8 +52494,8 @@
       <c r="D47" s="4">
         <v>-18.32159</v>
       </c>
-      <c r="E47" s="4">
-        <v>0</v>
+      <c r="E47" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="48">
@@ -52508,8 +52511,8 @@
       <c r="D48" s="4">
         <v>-20.35279899</v>
       </c>
-      <c r="E48" s="4">
-        <v>0</v>
+      <c r="E48" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="49">
@@ -52525,8 +52528,8 @@
       <c r="D49" s="4">
         <v>-0.70722399999999996</v>
       </c>
-      <c r="E49" s="4">
-        <v>0</v>
+      <c r="E49" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="50">
@@ -52542,8 +52545,8 @@
       <c r="D50" s="4">
         <v>14.306131000000001</v>
       </c>
-      <c r="E50" s="4">
-        <v>0</v>
+      <c r="E50" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="51">
@@ -52559,8 +52562,8 @@
       <c r="D51" s="4">
         <v>-2.9951059999999998</v>
       </c>
-      <c r="E51" s="4">
-        <v>0</v>
+      <c r="E51" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="52">
@@ -52576,8 +52579,8 @@
       <c r="D52" s="4">
         <v>50.8994</v>
       </c>
-      <c r="E52" s="4">
-        <v>0</v>
+      <c r="E52" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="53">
@@ -52593,8 +52596,8 @@
       <c r="D53" s="4">
         <v>17.523471000000001</v>
       </c>
-      <c r="E53" s="4">
-        <v>0</v>
+      <c r="E53" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="54">
@@ -52610,8 +52613,8 @@
       <c r="D54" s="4">
         <v>115.773342</v>
       </c>
-      <c r="E54" s="4">
-        <v>0</v>
+      <c r="E54" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="55">
@@ -52627,8 +52630,8 @@
       <c r="D55" s="4">
         <v>25.887343000000001</v>
       </c>
-      <c r="E55" s="4">
-        <v>0</v>
+      <c r="E55" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="56">
@@ -52644,8 +52647,8 @@
       <c r="D56" s="4">
         <v>-38.022193000000001</v>
       </c>
-      <c r="E56" s="4">
-        <v>0</v>
+      <c r="E56" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="57">
@@ -52661,8 +52664,8 @@
       <c r="D57" s="4">
         <v>-36.179178</v>
       </c>
-      <c r="E57" s="4">
-        <v>0</v>
+      <c r="E57" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="58">
@@ -52678,8 +52681,8 @@
       <c r="D58" s="4">
         <v>-222.49303499999999</v>
       </c>
-      <c r="E58" s="4">
-        <v>0</v>
+      <c r="E58" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="59">
@@ -52695,8 +52698,8 @@
       <c r="D59" s="4">
         <v>159.65548999999999</v>
       </c>
-      <c r="E59" s="4">
-        <v>0</v>
+      <c r="E59" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="60">
@@ -52712,8 +52715,8 @@
       <c r="D60" s="4">
         <v>-32.202761000000002</v>
       </c>
-      <c r="E60" s="4">
-        <v>0</v>
+      <c r="E60" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="61">
@@ -52729,8 +52732,8 @@
       <c r="D61" s="4">
         <v>22.942178999999999</v>
       </c>
-      <c r="E61" s="4">
-        <v>0</v>
+      <c r="E61" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="62">
@@ -52746,8 +52749,8 @@
       <c r="D62" s="4">
         <v>6.0385369999999998</v>
       </c>
-      <c r="E62" s="4">
-        <v>0</v>
+      <c r="E62" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="63">
@@ -52763,8 +52766,8 @@
       <c r="D63" s="4">
         <v>-53.260894999999998</v>
       </c>
-      <c r="E63" s="4">
-        <v>0</v>
+      <c r="E63" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="64">
@@ -52780,8 +52783,8 @@
       <c r="D64" s="4">
         <v>173.88125199999999</v>
       </c>
-      <c r="E64" s="4">
-        <v>0</v>
+      <c r="E64" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="65">
@@ -52797,8 +52800,8 @@
       <c r="D65" s="4">
         <v>126.494998</v>
       </c>
-      <c r="E65" s="4">
-        <v>0</v>
+      <c r="E65" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="66">
@@ -52814,8 +52817,8 @@
       <c r="D66" s="4">
         <v>5.3817940000000002</v>
       </c>
-      <c r="E66" s="4">
-        <v>0</v>
+      <c r="E66" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="67">
@@ -52831,8 +52834,8 @@
       <c r="D67" s="4">
         <v>-0.731567999999999</v>
       </c>
-      <c r="E67" s="4">
-        <v>0</v>
+      <c r="E67" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="68">
@@ -52848,8 +52851,8 @@
       <c r="D68" s="4">
         <v>100.491777</v>
       </c>
-      <c r="E68" s="4">
-        <v>0</v>
+      <c r="E68" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="69">
@@ -52865,8 +52868,8 @@
       <c r="D69" s="4">
         <v>233.44648799999999</v>
       </c>
-      <c r="E69" s="4">
-        <v>0</v>
+      <c r="E69" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="70">
@@ -52882,8 +52885,8 @@
       <c r="D70" s="4">
         <v>223.20143200000001</v>
       </c>
-      <c r="E70" s="4">
-        <v>0</v>
+      <c r="E70" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="71">
@@ -52899,8 +52902,8 @@
       <c r="D71" s="4">
         <v>0</v>
       </c>
-      <c r="E71" s="4">
-        <v>1</v>
+      <c r="E71" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="72">
@@ -52916,8 +52919,8 @@
       <c r="D72" s="4">
         <v>65.174270699999994</v>
       </c>
-      <c r="E72" s="4">
-        <v>0</v>
+      <c r="E72" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="73">
@@ -52933,8 +52936,8 @@
       <c r="D73" s="4">
         <v>0</v>
       </c>
-      <c r="E73" s="4">
-        <v>1</v>
+      <c r="E73" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="74">
@@ -52950,8 +52953,8 @@
       <c r="D74" s="4">
         <v>-13.76717335</v>
       </c>
-      <c r="E74" s="4">
-        <v>0</v>
+      <c r="E74" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="75">
@@ -52967,8 +52970,8 @@
       <c r="D75" s="4">
         <v>5.0050787799999998</v>
       </c>
-      <c r="E75" s="4">
-        <v>0</v>
+      <c r="E75" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="76">
@@ -52984,8 +52987,8 @@
       <c r="D76" s="4">
         <v>88.355344869999996</v>
       </c>
-      <c r="E76" s="4">
-        <v>0</v>
+      <c r="E76" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="77">
@@ -53001,8 +53004,8 @@
       <c r="D77" s="4">
         <v>107.57389317000001</v>
       </c>
-      <c r="E77" s="4">
-        <v>0</v>
+      <c r="E77" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="78">
@@ -53018,8 +53021,8 @@
       <c r="D78" s="4">
         <v>77.542954960000003</v>
       </c>
-      <c r="E78" s="4">
-        <v>0</v>
+      <c r="E78" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="79">
@@ -53035,8 +53038,8 @@
       <c r="D79" s="4">
         <v>-35.6525386</v>
       </c>
-      <c r="E79" s="4">
-        <v>0</v>
+      <c r="E79" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="80">
@@ -53052,8 +53055,8 @@
       <c r="D80" s="4">
         <v>18.023715979999999</v>
       </c>
-      <c r="E80" s="4">
-        <v>0</v>
+      <c r="E80" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="81">
@@ -53069,8 +53072,8 @@
       <c r="D81" s="4">
         <v>0</v>
       </c>
-      <c r="E81" s="4">
-        <v>1</v>
+      <c r="E81" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="82">
@@ -53086,8 +53089,8 @@
       <c r="D82" s="4">
         <v>-39.486139909999999</v>
       </c>
-      <c r="E82" s="4">
-        <v>0</v>
+      <c r="E82" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="83">
@@ -53103,8 +53106,8 @@
       <c r="D83" s="4">
         <v>189.61742242</v>
       </c>
-      <c r="E83" s="4">
-        <v>0</v>
+      <c r="E83" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="84">
@@ -53120,8 +53123,8 @@
       <c r="D84" s="4">
         <v>-4.3177836699999999</v>
       </c>
-      <c r="E84" s="4">
-        <v>0</v>
+      <c r="E84" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="85">
@@ -53137,8 +53140,8 @@
       <c r="D85" s="4">
         <v>-52.151070779999998</v>
       </c>
-      <c r="E85" s="4">
-        <v>0</v>
+      <c r="E85" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="86">
@@ -53154,8 +53157,8 @@
       <c r="D86" s="4">
         <v>252.37476329</v>
       </c>
-      <c r="E86" s="4">
-        <v>0</v>
+      <c r="E86" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="87">
@@ -53171,8 +53174,8 @@
       <c r="D87" s="4">
         <v>143.51093159000001</v>
       </c>
-      <c r="E87" s="4">
-        <v>0</v>
+      <c r="E87" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="88">
@@ -53188,8 +53191,8 @@
       <c r="D88" s="4">
         <v>-54.167818449999999</v>
       </c>
-      <c r="E88" s="4">
-        <v>0</v>
+      <c r="E88" t="s">
+        <v>165</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2021</t>
+    <t xml:space="preserve"> 02/15/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7612" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7558" uniqueCount="169">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/18/2021</t>
+    <t xml:space="preserve"> 02/19/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -524,12 +524,6 @@
     <t>Miles de pesos</t>
   </si>
   <si>
-    <t>parcial</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
     <t>Inversión extranjera directa, cifras preliminares</t>
   </si>
   <si>
@@ -537,6 +531,9 @@
   </si>
   <si>
     <t>(sum) c</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
@@ -51039,7 +51036,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D56"/>
+  <dimension ref="A1:C56"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -51052,9 +51049,6 @@
       <c r="C1" t="s">
         <v>25</v>
       </c>
-      <c r="D1" t="s">
-        <v>164</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="5">
@@ -51066,9 +51060,6 @@
       <c r="C2" s="4">
         <v>58074</v>
       </c>
-      <c r="D2" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="5">
@@ -51080,9 +51071,6 @@
       <c r="C3" s="4">
         <v>71737</v>
       </c>
-      <c r="D3" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="5">
@@ -51094,9 +51082,6 @@
       <c r="C4" s="4">
         <v>67109</v>
       </c>
-      <c r="D4" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="5">
@@ -51108,9 +51093,6 @@
       <c r="C5" s="4">
         <v>82043</v>
       </c>
-      <c r="D5" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="5">
@@ -51122,9 +51104,6 @@
       <c r="C6" s="4">
         <v>49075</v>
       </c>
-      <c r="D6" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="5">
@@ -51136,9 +51115,6 @@
       <c r="C7" s="4">
         <v>52507</v>
       </c>
-      <c r="D7" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="5">
@@ -51150,9 +51126,6 @@
       <c r="C8" s="4">
         <v>57385</v>
       </c>
-      <c r="D8" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="5">
@@ -51164,9 +51137,6 @@
       <c r="C9" s="4">
         <v>45442</v>
       </c>
-      <c r="D9" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="5">
@@ -51178,9 +51148,6 @@
       <c r="C10" s="4">
         <v>39804</v>
       </c>
-      <c r="D10" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="5">
@@ -51192,9 +51159,6 @@
       <c r="C11" s="4">
         <v>46549</v>
       </c>
-      <c r="D11" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="5">
@@ -51206,9 +51170,6 @@
       <c r="C12" s="4">
         <v>52903</v>
       </c>
-      <c r="D12" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="5">
@@ -51220,9 +51181,6 @@
       <c r="C13" s="4">
         <v>54605</v>
       </c>
-      <c r="D13" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="5">
@@ -51234,9 +51192,6 @@
       <c r="C14" s="4">
         <v>79835</v>
       </c>
-      <c r="D14" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="5">
@@ -51248,9 +51203,6 @@
       <c r="C15" s="4">
         <v>82110</v>
       </c>
-      <c r="D15" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="5">
@@ -51262,9 +51214,6 @@
       <c r="C16" s="4">
         <v>79566</v>
       </c>
-      <c r="D16" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="5">
@@ -51276,9 +51225,6 @@
       <c r="C17" s="4">
         <v>72166</v>
       </c>
-      <c r="D17" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="5">
@@ -51290,9 +51236,6 @@
       <c r="C18" s="4">
         <v>72037</v>
       </c>
-      <c r="D18" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="5">
@@ -51304,9 +51247,6 @@
       <c r="C19" s="4">
         <v>82085</v>
       </c>
-      <c r="D19" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="5">
@@ -51318,9 +51258,6 @@
       <c r="C20" s="4">
         <v>80980</v>
       </c>
-      <c r="D20" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="5">
@@ -51332,9 +51269,6 @@
       <c r="C21" s="4">
         <v>77659</v>
       </c>
-      <c r="D21" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="5">
@@ -51346,9 +51280,6 @@
       <c r="C22" s="4">
         <v>79619</v>
       </c>
-      <c r="D22" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="5">
@@ -51360,9 +51291,6 @@
       <c r="C23" s="4">
         <v>91567</v>
       </c>
-      <c r="D23" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="5">
@@ -51374,9 +51302,6 @@
       <c r="C24" s="4">
         <v>91953</v>
       </c>
-      <c r="D24" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="5">
@@ -51388,9 +51313,6 @@
       <c r="C25" s="4">
         <v>91437</v>
       </c>
-      <c r="D25" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="5">
@@ -51402,9 +51324,6 @@
       <c r="C26" s="4">
         <v>74058</v>
       </c>
-      <c r="D26" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="5">
@@ -51416,9 +51335,6 @@
       <c r="C27" s="4">
         <v>88666</v>
       </c>
-      <c r="D27" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="5">
@@ -51430,9 +51346,6 @@
       <c r="C28" s="4">
         <v>91219</v>
       </c>
-      <c r="D28" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="5">
@@ -51444,9 +51357,6 @@
       <c r="C29" s="4">
         <v>85721</v>
       </c>
-      <c r="D29" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="5">
@@ -51458,9 +51368,6 @@
       <c r="C30" s="4">
         <v>360893</v>
       </c>
-      <c r="D30" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="5">
@@ -51472,9 +51379,6 @@
       <c r="C31" s="4">
         <v>373700</v>
       </c>
-      <c r="D31" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="5">
@@ -51486,9 +51390,6 @@
       <c r="C32" s="4">
         <v>452893</v>
       </c>
-      <c r="D32" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="5">
@@ -51500,9 +51401,6 @@
       <c r="C33" s="4">
         <v>498708</v>
       </c>
-      <c r="D33" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="5">
@@ -51514,9 +51412,6 @@
       <c r="C34" s="4">
         <v>459548</v>
       </c>
-      <c r="D34" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="5">
@@ -51528,9 +51423,6 @@
       <c r="C35" s="4">
         <v>513701</v>
       </c>
-      <c r="D35" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="5">
@@ -51542,9 +51434,6 @@
       <c r="C36" s="4">
         <v>491892</v>
       </c>
-      <c r="D36" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="5">
@@ -51556,9 +51445,6 @@
       <c r="C37" s="4">
         <v>482353</v>
       </c>
-      <c r="D37" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="5">
@@ -51570,9 +51456,6 @@
       <c r="C38" s="4">
         <v>351487</v>
       </c>
-      <c r="D38" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="5">
@@ -51584,9 +51467,6 @@
       <c r="C39" s="4">
         <v>426135</v>
       </c>
-      <c r="D39" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="5">
@@ -51598,9 +51478,6 @@
       <c r="C40" s="4">
         <v>503086</v>
       </c>
-      <c r="D40" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="5">
@@ -51612,9 +51489,6 @@
       <c r="C41" s="4">
         <v>479156</v>
       </c>
-      <c r="D41" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="5">
@@ -51626,9 +51500,6 @@
       <c r="C42" s="4">
         <v>500607</v>
       </c>
-      <c r="D42" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="5">
@@ -51640,9 +51511,6 @@
       <c r="C43" s="4">
         <v>533925</v>
       </c>
-      <c r="D43" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="5">
@@ -51654,9 +51522,6 @@
       <c r="C44" s="4">
         <v>451401</v>
       </c>
-      <c r="D44" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="5">
@@ -51668,9 +51533,6 @@
       <c r="C45" s="4">
         <v>507493</v>
       </c>
-      <c r="D45" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="5">
@@ -51682,9 +51544,6 @@
       <c r="C46" s="4">
         <v>448819</v>
       </c>
-      <c r="D46" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="5">
@@ -51696,9 +51555,6 @@
       <c r="C47" s="4">
         <v>552929</v>
       </c>
-      <c r="D47" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="5">
@@ -51710,9 +51566,6 @@
       <c r="C48" s="4">
         <v>513024</v>
       </c>
-      <c r="D48" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="5">
@@ -51724,9 +51577,6 @@
       <c r="C49" s="4">
         <v>498614</v>
       </c>
-      <c r="D49" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="5">
@@ -51738,9 +51588,6 @@
       <c r="C50" s="4">
         <v>515944</v>
       </c>
-      <c r="D50" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="5">
@@ -51752,9 +51599,6 @@
       <c r="C51" s="4">
         <v>616307</v>
       </c>
-      <c r="D51" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="5">
@@ -51766,9 +51610,6 @@
       <c r="C52" s="4">
         <v>633257</v>
       </c>
-      <c r="D52" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="5">
@@ -51780,9 +51621,6 @@
       <c r="C53" s="4">
         <v>516908</v>
       </c>
-      <c r="D53" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="5">
@@ -51794,9 +51632,6 @@
       <c r="C54" s="4">
         <v>498059</v>
       </c>
-      <c r="D54" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="5">
@@ -51808,9 +51643,6 @@
       <c r="C55" s="4">
         <v>491734</v>
       </c>
-      <c r="D55" t="s">
-        <v>165</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="5">
@@ -51821,9 +51653,6 @@
       </c>
       <c r="C56" s="4">
         <v>539573</v>
-      </c>
-      <c r="D56" t="s">
-        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -51832,7 +51661,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -51843,13 +51672,13 @@
         <v>35</v>
       </c>
       <c r="C1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E1" t="s">
         <v>166</v>
-      </c>
-      <c r="D1" t="s">
-        <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="2">
@@ -51866,7 +51695,7 @@
         <v>0.085178000000000004</v>
       </c>
       <c r="E2" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
@@ -51883,7 +51712,7 @@
         <v>2.4263170000000001</v>
       </c>
       <c r="E3" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
@@ -51900,7 +51729,7 @@
         <v>-0.055085000000000002</v>
       </c>
       <c r="E4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
@@ -51917,7 +51746,7 @@
         <v>1.1448750000000001</v>
       </c>
       <c r="E5" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
@@ -51934,7 +51763,7 @@
         <v>2.4593780000000001</v>
       </c>
       <c r="E6" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
@@ -51951,7 +51780,7 @@
         <v>0.68890300000000004</v>
       </c>
       <c r="E7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8">
@@ -51968,7 +51797,7 @@
         <v>1.610965</v>
       </c>
       <c r="E8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9">
@@ -51985,7 +51814,7 @@
         <v>-0.21528900000000001</v>
       </c>
       <c r="E9" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
@@ -52002,7 +51831,7 @@
         <v>3.646906</v>
       </c>
       <c r="E10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="11">
@@ -52019,7 +51848,7 @@
         <v>-0.0020049999999999998</v>
       </c>
       <c r="E11" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
@@ -52036,7 +51865,7 @@
         <v>-0.016670000000000001</v>
       </c>
       <c r="E12" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
@@ -52053,7 +51882,7 @@
         <v>3.703484</v>
       </c>
       <c r="E13" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
@@ -52070,7 +51899,7 @@
         <v>0.096403000000000003</v>
       </c>
       <c r="E14" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15">
@@ -52087,7 +51916,7 @@
         <v>2.1334029999999999</v>
       </c>
       <c r="E15" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
@@ -52104,7 +51933,7 @@
         <v>0.015565000000000001</v>
       </c>
       <c r="E16" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="17">
@@ -52121,7 +51950,7 @@
         <v>40.522950999999999</v>
       </c>
       <c r="E17" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -52138,7 +51967,7 @@
         <v>26.038550999999998</v>
       </c>
       <c r="E18" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
@@ -52155,7 +51984,7 @@
         <v>1.0063409999999999</v>
       </c>
       <c r="E19" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20">
@@ -52172,7 +52001,7 @@
         <v>-8.3727400000000003</v>
       </c>
       <c r="E20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
@@ -52189,7 +52018,7 @@
         <v>3.8328820000000001</v>
       </c>
       <c r="E21" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22">
@@ -52206,7 +52035,7 @@
         <v>14.207307</v>
       </c>
       <c r="E22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23">
@@ -52223,7 +52052,7 @@
         <v>8.1121639999999999</v>
       </c>
       <c r="E23" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="24">
@@ -52240,7 +52069,7 @@
         <v>8.5864180000000001</v>
       </c>
       <c r="E24" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="25">
@@ -52257,7 +52086,7 @@
         <v>20.507785999999999</v>
       </c>
       <c r="E25" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="26">
@@ -52274,7 +52103,7 @@
         <v>8.5765539999999998</v>
       </c>
       <c r="E26" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="27">
@@ -52291,7 +52120,7 @@
         <v>12.003787000000001</v>
       </c>
       <c r="E27" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="28">
@@ -52308,7 +52137,7 @@
         <v>5.5447480000000002</v>
       </c>
       <c r="E28" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="29">
@@ -52325,7 +52154,7 @@
         <v>14.886189999999999</v>
       </c>
       <c r="E29" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="30">
@@ -52342,7 +52171,7 @@
         <v>12.169886</v>
       </c>
       <c r="E30" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31">
@@ -52359,7 +52188,7 @@
         <v>3.3880659999999998</v>
       </c>
       <c r="E31" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32">
@@ -52376,7 +52205,7 @@
         <v>6.2881629999999999</v>
       </c>
       <c r="E32" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33">
@@ -52393,7 +52222,7 @@
         <v>19.850546000000001</v>
       </c>
       <c r="E33" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="34">
@@ -52410,7 +52239,7 @@
         <v>9.9051449999999992</v>
       </c>
       <c r="E34" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35">
@@ -52427,7 +52256,7 @@
         <v>10.993547</v>
       </c>
       <c r="E35" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36">
@@ -52444,7 +52273,7 @@
         <v>7.2939809999999996</v>
       </c>
       <c r="E36" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37">
@@ -52461,7 +52290,7 @@
         <v>29.258872</v>
       </c>
       <c r="E37" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38">
@@ -52478,7 +52307,7 @@
         <v>13.913712</v>
       </c>
       <c r="E38" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="39">
@@ -52495,7 +52324,7 @@
         <v>41.470576999999999</v>
       </c>
       <c r="E39" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="40">
@@ -52512,7 +52341,7 @@
         <v>27.689485999999999</v>
       </c>
       <c r="E40" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41">
@@ -52529,7 +52358,7 @@
         <v>90.961106000000001</v>
       </c>
       <c r="E41" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42">
@@ -52546,7 +52375,7 @@
         <v>11.297378</v>
       </c>
       <c r="E42" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43">
@@ -52563,7 +52392,7 @@
         <v>67.065901139999994</v>
       </c>
       <c r="E43" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44">
@@ -52580,7 +52409,7 @@
         <v>72.423323999999994</v>
       </c>
       <c r="E44" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45">
@@ -52597,7 +52426,7 @@
         <v>-19.115928</v>
       </c>
       <c r="E45" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="46">
@@ -52614,7 +52443,7 @@
         <v>109.03420199999999</v>
       </c>
       <c r="E46" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47">
@@ -52631,7 +52460,7 @@
         <v>-18.32159</v>
       </c>
       <c r="E47" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48">
@@ -52648,7 +52477,7 @@
         <v>-20.35279899</v>
       </c>
       <c r="E48" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49">
@@ -52665,7 +52494,7 @@
         <v>-0.70722399999999996</v>
       </c>
       <c r="E49" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="50">
@@ -52682,7 +52511,7 @@
         <v>14.306131000000001</v>
       </c>
       <c r="E50" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51">
@@ -52699,7 +52528,7 @@
         <v>-2.9951059999999998</v>
       </c>
       <c r="E51" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="52">
@@ -52716,7 +52545,7 @@
         <v>50.8994</v>
       </c>
       <c r="E52" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53">
@@ -52733,7 +52562,7 @@
         <v>17.523471000000001</v>
       </c>
       <c r="E53" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54">
@@ -52750,7 +52579,7 @@
         <v>115.773342</v>
       </c>
       <c r="E54" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55">
@@ -52767,7 +52596,7 @@
         <v>25.887343000000001</v>
       </c>
       <c r="E55" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56">
@@ -52784,7 +52613,7 @@
         <v>-38.022193000000001</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="57">
@@ -52801,7 +52630,7 @@
         <v>-36.179178</v>
       </c>
       <c r="E57" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58">
@@ -52818,7 +52647,7 @@
         <v>-222.49303499999999</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="59">
@@ -52835,7 +52664,7 @@
         <v>159.65548999999999</v>
       </c>
       <c r="E59" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="60">
@@ -52852,7 +52681,7 @@
         <v>-32.202761000000002</v>
       </c>
       <c r="E60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="61">
@@ -52869,7 +52698,7 @@
         <v>22.942178999999999</v>
       </c>
       <c r="E61" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="62">
@@ -52883,10 +52712,10 @@
         <v>6.0385369999999998</v>
       </c>
       <c r="D62" s="4">
-        <v>6.0385369999999998</v>
+        <v>6.0385370000000096</v>
       </c>
       <c r="E62" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="63">
@@ -52903,7 +52732,7 @@
         <v>-53.260894999999998</v>
       </c>
       <c r="E63" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="64">
@@ -52920,7 +52749,7 @@
         <v>173.88125199999999</v>
       </c>
       <c r="E64" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="65">
@@ -52937,7 +52766,7 @@
         <v>126.494998</v>
       </c>
       <c r="E65" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="66">
@@ -52954,7 +52783,7 @@
         <v>5.3817940000000002</v>
       </c>
       <c r="E66" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="67">
@@ -52971,7 +52800,7 @@
         <v>-0.731567999999999</v>
       </c>
       <c r="E67" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="68">
@@ -52988,7 +52817,7 @@
         <v>100.491777</v>
       </c>
       <c r="E68" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="69">
@@ -53005,7 +52834,7 @@
         <v>233.44648799999999</v>
       </c>
       <c r="E69" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="70">
@@ -53022,7 +52851,7 @@
         <v>223.20143200000001</v>
       </c>
       <c r="E70" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71">
@@ -53039,7 +52868,7 @@
         <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="72">
@@ -53056,7 +52885,7 @@
         <v>65.174270699999994</v>
       </c>
       <c r="E72" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="73">
@@ -53073,7 +52902,7 @@
         <v>0</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="74">
@@ -53090,7 +52919,7 @@
         <v>-13.76717335</v>
       </c>
       <c r="E74" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="75">
@@ -53107,7 +52936,7 @@
         <v>5.0050787799999998</v>
       </c>
       <c r="E75" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="76">
@@ -53124,7 +52953,7 @@
         <v>88.355344869999996</v>
       </c>
       <c r="E76" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="77">
@@ -53141,7 +52970,7 @@
         <v>107.57389317000001</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="78">
@@ -53158,7 +52987,7 @@
         <v>77.542954960000003</v>
       </c>
       <c r="E78" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="79">
@@ -53175,7 +53004,7 @@
         <v>-35.6525386</v>
       </c>
       <c r="E79" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="80">
@@ -53192,7 +53021,7 @@
         <v>18.023715979999999</v>
       </c>
       <c r="E80" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="81">
@@ -53209,7 +53038,7 @@
         <v>0</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82">
@@ -53226,7 +53055,7 @@
         <v>-39.486139909999999</v>
       </c>
       <c r="E82" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="83">
@@ -53243,7 +53072,7 @@
         <v>189.61742242</v>
       </c>
       <c r="E83" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84">
@@ -53260,7 +53089,7 @@
         <v>-4.3177836699999999</v>
       </c>
       <c r="E84" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="85">
@@ -53277,7 +53106,7 @@
         <v>-52.151070779999998</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86">
@@ -53291,10 +53120,10 @@
         <v>190.96117269999999</v>
       </c>
       <c r="D86" s="4">
-        <v>252.37476329</v>
+        <v>279.97923708000002</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="87">
@@ -53308,10 +53137,10 @@
         <v>143.51093159999999</v>
       </c>
       <c r="D87" s="4">
-        <v>143.51093159000001</v>
+        <v>142.05595803</v>
       </c>
       <c r="E87" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="88">
@@ -53328,7 +53157,24 @@
         <v>-54.167818449999999</v>
       </c>
       <c r="E88" t="s">
-        <v>165</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>146</v>
+      </c>
+      <c r="B89" s="5">
+        <v>44105</v>
+      </c>
+      <c r="C89" s="4">
+        <v>-37.694723949999997</v>
+      </c>
+      <c r="D89" s="4">
+        <v>-37.694723949999997</v>
+      </c>
+      <c r="E89" t="s">
+        <v>167</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/19/2021</t>
+    <t xml:space="preserve"> 03/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -530,7 +530,7 @@
     <t>Inversión extranjera directa, cifras revisadas</t>
   </si>
   <si>
-    <t>(sum) c</t>
+    <t>Nota</t>
   </si>
   <si>
     <t/>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/16/2021</t>
+    <t xml:space="preserve"> 03/22/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7591" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7592" uniqueCount="169">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/22/2021</t>
+    <t xml:space="preserve"> 04/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -51241,7 +51241,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -51858,6 +51858,17 @@
       </c>
       <c r="C56" s="4">
         <v>539573</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>44105</v>
+      </c>
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+      <c r="C57" s="4">
+        <v>492731</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 04/08/2021</t>
+    <t xml:space="preserve"> 04/12/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/13/2021</t>
+    <t xml:space="preserve"> 05/17/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7658" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7660" uniqueCount="169">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/18/2021</t>
+    <t xml:space="preserve"> 05/21/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -52287,7 +52287,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E90"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -53117,7 +53117,7 @@
         <v>-0.70722399999999996</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.70722399999999996</v>
+        <v>-0.70722399999999896</v>
       </c>
       <c r="E49" t="s">
         <v>167</v>
@@ -53797,9 +53797,26 @@
         <v>-37.694723949999997</v>
       </c>
       <c r="D89" s="4">
-        <v>-37.694723949999997</v>
+        <v>-37.468920939999997</v>
       </c>
       <c r="E89" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="s">
+        <v>146</v>
+      </c>
+      <c r="B90" s="5">
+        <v>44197</v>
+      </c>
+      <c r="C90" s="4">
+        <v>-10.327716329999999</v>
+      </c>
+      <c r="D90" s="4">
+        <v>-10.327716329999999</v>
+      </c>
+      <c r="E90" t="s">
         <v>167</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7700" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7701" uniqueCount="169">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/21/2021</t>
+    <t xml:space="preserve"> 06/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -51906,7 +51906,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C57"/>
+  <dimension ref="A1:C58"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -52534,6 +52534,17 @@
       </c>
       <c r="C57" s="4">
         <v>492731</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>44197</v>
+      </c>
+      <c r="B58" t="s">
+        <v>146</v>
+      </c>
+      <c r="C58" s="4">
+        <v>492719</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/30/2021</t>
+    <t xml:space="preserve"> 07/08/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -1468,10 +1468,10 @@
         <v>29291.091</v>
       </c>
       <c r="E17" s="4">
-        <v>1208080.7709999999</v>
+        <v>1208076.0220000001</v>
       </c>
       <c r="F17" s="4">
-        <v>0.02424597071912173</v>
+        <v>0.024246066031099488</v>
       </c>
     </row>
     <row r="18">
@@ -1485,13 +1485,13 @@
         <v>2019</v>
       </c>
       <c r="D18" s="4">
-        <v>31181.006000000001</v>
+        <v>31434.061000000002</v>
       </c>
       <c r="E18" s="4">
-        <v>1216771.2960000001</v>
+        <v>1217549.8500000001</v>
       </c>
       <c r="F18" s="4">
-        <v>0.025626020356088346</v>
+        <v>0.02581747351042752</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7743" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7745" uniqueCount="169">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2021</t>
+    <t xml:space="preserve"> 08/17/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -52827,7 +52827,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E91"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -53657,7 +53657,7 @@
         <v>-0.70722399999999996</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.70722399999999896</v>
+        <v>-0.70722399999999996</v>
       </c>
       <c r="E49" t="s">
         <v>167</v>
@@ -54354,9 +54354,26 @@
         <v>-10.327716329999999</v>
       </c>
       <c r="D90" s="4">
-        <v>-10.327716329999999</v>
+        <v>-3.05486111</v>
       </c>
       <c r="E90" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="s">
+        <v>146</v>
+      </c>
+      <c r="B91" s="5">
+        <v>44287</v>
+      </c>
+      <c r="C91" s="4">
+        <v>15.41964383</v>
+      </c>
+      <c r="D91" s="4">
+        <v>15.41964383</v>
+      </c>
+      <c r="E91" t="s">
         <v>167</v>
       </c>
     </row>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2021</t>
+    <t xml:space="preserve"> 08/24/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7802" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7803" uniqueCount="169">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/17/2021</t>
+    <t xml:space="preserve"> 09/30/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -52521,7 +52521,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C58"/>
+  <dimension ref="A1:C59"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -53160,6 +53160,17 @@
       </c>
       <c r="C58" s="4">
         <v>492719</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>44287</v>
+      </c>
+      <c r="B59" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="4">
+        <v>559267</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/30/2021</t>
+    <t xml:space="preserve"> 10/06/2021</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7869" uniqueCount="824">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7871" uniqueCount="825">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/19/2021</t>
+    <t xml:space="preserve"> 11/22/2021</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2472,6 +2472,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -55554,7 +55557,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E91"/>
+  <dimension ref="A1:E92"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -56384,7 +56387,7 @@
         <v>-0.70722399999999996</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.70722399999999996</v>
+        <v>-0.70722399999999896</v>
       </c>
       <c r="E49" t="s">
         <v>781</v>
@@ -56605,7 +56608,7 @@
         <v>6.0385369999999998</v>
       </c>
       <c r="D62" s="4">
-        <v>6.0385370000000096</v>
+        <v>6.0385369999999998</v>
       </c>
       <c r="E62" t="s">
         <v>794</v>
@@ -57081,7 +57084,7 @@
         <v>-10.327716329999999</v>
       </c>
       <c r="D90" s="4">
-        <v>-3.05486111</v>
+        <v>15.127276889999999</v>
       </c>
       <c r="E90" t="s">
         <v>822</v>
@@ -57104,6 +57107,23 @@
         <v>823</v>
       </c>
     </row>
+    <row r="92">
+      <c r="A92" t="s">
+        <v>729</v>
+      </c>
+      <c r="B92" s="5">
+        <v>44378</v>
+      </c>
+      <c r="C92" s="4">
+        <v>-25.711018939999999</v>
+      </c>
+      <c r="D92" s="4">
+        <v>-25.711018939999999</v>
+      </c>
+      <c r="E92" t="s">
+        <v>824</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7906" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7907" uniqueCount="825">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/17/2021</t>
+    <t xml:space="preserve"> 01/04/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -42515,7 +42515,7 @@
         <v>708</v>
       </c>
       <c r="D108" s="4">
-        <v>210.44448852539063</v>
+        <v>210.44449562413635</v>
       </c>
       <c r="E108" t="s">
         <v>718</v>
@@ -42532,7 +42532,7 @@
         <v>708</v>
       </c>
       <c r="D109" s="4">
-        <v>193.14677429199219</v>
+        <v>193.14677327241577</v>
       </c>
       <c r="E109" t="s">
         <v>718</v>
@@ -42549,7 +42549,7 @@
         <v>708</v>
       </c>
       <c r="D110" s="4">
-        <v>195.01239013671875</v>
+        <v>195.01238265276737</v>
       </c>
       <c r="E110" t="s">
         <v>718</v>
@@ -42566,7 +42566,7 @@
         <v>708</v>
       </c>
       <c r="D111" s="4">
-        <v>205.20359802246094</v>
+        <v>205.20359480750028</v>
       </c>
       <c r="E111" t="s">
         <v>718</v>
@@ -42583,7 +42583,7 @@
         <v>708</v>
       </c>
       <c r="D112" s="4">
-        <v>212.72299194335938</v>
+        <v>212.72298889262873</v>
       </c>
       <c r="E112" t="s">
         <v>718</v>
@@ -42600,7 +42600,7 @@
         <v>708</v>
       </c>
       <c r="D113" s="4">
-        <v>206.19374084472656</v>
+        <v>206.19373832304817</v>
       </c>
       <c r="E113" t="s">
         <v>718</v>
@@ -42617,7 +42617,7 @@
         <v>708</v>
       </c>
       <c r="D114" s="4">
-        <v>216.90818786621094</v>
+        <v>216.90818489031446</v>
       </c>
       <c r="E114" t="s">
         <v>718</v>
@@ -42634,7 +42634,7 @@
         <v>708</v>
       </c>
       <c r="D115" s="4">
-        <v>215.47245788574219</v>
+        <v>215.47245218384242</v>
       </c>
       <c r="E115" t="s">
         <v>718</v>
@@ -42651,7 +42651,7 @@
         <v>708</v>
       </c>
       <c r="D116" s="4">
-        <v>203.86572265625</v>
+        <v>203.86572882712872</v>
       </c>
       <c r="E116" t="s">
         <v>718</v>
@@ -42668,7 +42668,7 @@
         <v>708</v>
       </c>
       <c r="D117" s="4">
-        <v>214.71308898925781</v>
+        <v>214.71308906490398</v>
       </c>
       <c r="E117" t="s">
         <v>718</v>
@@ -42685,7 +42685,7 @@
         <v>708</v>
       </c>
       <c r="D118" s="4">
-        <v>205.28327941894531</v>
+        <v>205.28327722941748</v>
       </c>
       <c r="E118" t="s">
         <v>718</v>
@@ -42702,7 +42702,7 @@
         <v>708</v>
       </c>
       <c r="D119" s="4">
-        <v>197.01048278808594</v>
+        <v>197.01048049939865</v>
       </c>
       <c r="E119" t="s">
         <v>718</v>
@@ -42719,7 +42719,7 @@
         <v>708</v>
       </c>
       <c r="D120" s="4">
-        <v>213.33108520507813</v>
+        <v>213.33108715184187</v>
       </c>
       <c r="E120" t="s">
         <v>718</v>
@@ -42736,7 +42736,7 @@
         <v>708</v>
       </c>
       <c r="D121" s="4">
-        <v>196.59027099609375</v>
+        <v>196.59027389603131</v>
       </c>
       <c r="E121" t="s">
         <v>718</v>
@@ -42753,7 +42753,7 @@
         <v>708</v>
       </c>
       <c r="D122" s="4">
-        <v>208.03596496582031</v>
+        <v>208.03596515875245</v>
       </c>
       <c r="E122" t="s">
         <v>718</v>
@@ -42770,7 +42770,7 @@
         <v>708</v>
       </c>
       <c r="D123" s="4">
-        <v>201.78970336914063</v>
+        <v>201.78970917225951</v>
       </c>
       <c r="E123" t="s">
         <v>718</v>
@@ -42787,7 +42787,7 @@
         <v>708</v>
       </c>
       <c r="D124" s="4">
-        <v>206.77362060546875</v>
+        <v>206.77361853832443</v>
       </c>
       <c r="E124" t="s">
         <v>718</v>
@@ -42804,7 +42804,7 @@
         <v>708</v>
       </c>
       <c r="D125" s="4">
-        <v>203.33589172363281</v>
+        <v>203.33589377811916</v>
       </c>
       <c r="E125" t="s">
         <v>718</v>
@@ -42821,7 +42821,7 @@
         <v>708</v>
       </c>
       <c r="D126" s="4">
-        <v>212.20707702636719</v>
+        <v>212.20708446866485</v>
       </c>
       <c r="E126" t="s">
         <v>718</v>
@@ -42838,7 +42838,7 @@
         <v>708</v>
       </c>
       <c r="D127" s="4">
-        <v>205.81269836425781</v>
+        <v>205.81270182992466</v>
       </c>
       <c r="E127" t="s">
         <v>718</v>
@@ -42855,7 +42855,7 @@
         <v>708</v>
       </c>
       <c r="D128" s="4">
-        <v>202.65354919433594</v>
+        <v>202.6535416220843</v>
       </c>
       <c r="E128" t="s">
         <v>718</v>
@@ -42872,7 +42872,7 @@
         <v>708</v>
       </c>
       <c r="D129" s="4">
-        <v>212.80267333984375</v>
+        <v>212.80267486383002</v>
       </c>
       <c r="E129" t="s">
         <v>718</v>
@@ -42889,7 +42889,7 @@
         <v>708</v>
       </c>
       <c r="D130" s="4">
-        <v>202.26292419433594</v>
+        <v>202.26293103448276</v>
       </c>
       <c r="E130" t="s">
         <v>718</v>
@@ -42906,7 +42906,7 @@
         <v>708</v>
       </c>
       <c r="D131" s="4">
-        <v>201.47994995117188</v>
+        <v>201.47994994286958</v>
       </c>
       <c r="E131" t="s">
         <v>718</v>
@@ -42923,7 +42923,7 @@
         <v>708</v>
       </c>
       <c r="D132" s="4">
-        <v>207.3994140625</v>
+        <v>207.39942121091755</v>
       </c>
       <c r="E132" t="s">
         <v>718</v>
@@ -42940,7 +42940,7 @@
         <v>708</v>
       </c>
       <c r="D133" s="4">
-        <v>195.53636169433594</v>
+        <v>195.53636516570404</v>
       </c>
       <c r="E133" t="s">
         <v>718</v>
@@ -42957,7 +42957,7 @@
         <v>708</v>
       </c>
       <c r="D134" s="4">
-        <v>204.49661254882813</v>
+        <v>204.49661101008431</v>
       </c>
       <c r="E134" t="s">
         <v>718</v>
@@ -42974,7 +42974,7 @@
         <v>708</v>
       </c>
       <c r="D135" s="4">
-        <v>202.08470153808594</v>
+        <v>202.08469766426543</v>
       </c>
       <c r="E135" t="s">
         <v>718</v>
@@ -42991,7 +42991,7 @@
         <v>708</v>
       </c>
       <c r="D136" s="4">
-        <v>207.71205139160156</v>
+        <v>207.71205418100388</v>
       </c>
       <c r="E136" t="s">
         <v>718</v>
@@ -43008,7 +43008,7 @@
         <v>708</v>
       </c>
       <c r="D137" s="4">
-        <v>211.073974609375</v>
+        <v>211.07397023937889</v>
       </c>
       <c r="E137" t="s">
         <v>718</v>
@@ -43025,7 +43025,7 @@
         <v>708</v>
       </c>
       <c r="D138" s="4">
-        <v>216.92607116699219</v>
+        <v>216.9260700389105</v>
       </c>
       <c r="E138" t="s">
         <v>718</v>
@@ -43042,7 +43042,7 @@
         <v>708</v>
       </c>
       <c r="D139" s="4">
-        <v>210.49667358398438</v>
+        <v>210.49667178699437</v>
       </c>
       <c r="E139" t="s">
         <v>718</v>
@@ -43059,7 +43059,7 @@
         <v>708</v>
       </c>
       <c r="D140" s="4">
-        <v>209.13883972167969</v>
+        <v>209.13884007029878</v>
       </c>
       <c r="E140" t="s">
         <v>718</v>
@@ -43076,7 +43076,7 @@
         <v>708</v>
       </c>
       <c r="D141" s="4">
-        <v>214.17588806152344</v>
+        <v>214.1758917589176</v>
       </c>
       <c r="E141" t="s">
         <v>718</v>
@@ -43093,7 +43093,7 @@
         <v>708</v>
       </c>
       <c r="D142" s="4">
-        <v>202.91188049316406</v>
+        <v>202.91187739463601</v>
       </c>
       <c r="E142" t="s">
         <v>718</v>
@@ -43110,7 +43110,7 @@
         <v>708</v>
       </c>
       <c r="D143" s="4">
-        <v>207.02525329589844</v>
+        <v>207.02525820636058</v>
       </c>
       <c r="E143" t="s">
         <v>718</v>
@@ -43127,7 +43127,7 @@
         <v>708</v>
       </c>
       <c r="D144" s="4">
-        <v>204.80097961425781</v>
+        <v>204.80097234883013</v>
       </c>
       <c r="E144" t="s">
         <v>718</v>
@@ -43144,7 +43144,7 @@
         <v>708</v>
       </c>
       <c r="D145" s="4">
-        <v>201.21461486816406</v>
+        <v>201.2146155390484</v>
       </c>
       <c r="E145" t="s">
         <v>718</v>
@@ -43161,7 +43161,7 @@
         <v>708</v>
       </c>
       <c r="D146" s="4">
-        <v>205.66885375976563</v>
+        <v>205.66885585896992</v>
       </c>
       <c r="E146" t="s">
         <v>718</v>
@@ -43178,7 +43178,7 @@
         <v>708</v>
       </c>
       <c r="D147" s="4">
-        <v>210.03616333007813</v>
+        <v>210.03616188636252</v>
       </c>
       <c r="E147" t="s">
         <v>718</v>
@@ -43195,7 +43195,7 @@
         <v>708</v>
       </c>
       <c r="D148" s="4">
-        <v>212.29078674316406</v>
+        <v>212.29077943943744</v>
       </c>
       <c r="E148" t="s">
         <v>718</v>
@@ -43212,7 +43212,7 @@
         <v>708</v>
       </c>
       <c r="D149" s="4">
-        <v>214.2576904296875</v>
+        <v>214.25769758776229</v>
       </c>
       <c r="E149" t="s">
         <v>718</v>
@@ -43229,7 +43229,7 @@
         <v>708</v>
       </c>
       <c r="D150" s="4">
-        <v>209.6009521484375</v>
+        <v>209.60094824180166</v>
       </c>
       <c r="E150" t="s">
         <v>718</v>
@@ -43246,7 +43246,7 @@
         <v>708</v>
       </c>
       <c r="D151" s="4">
-        <v>214.63249206542969</v>
+        <v>214.63248859112537</v>
       </c>
       <c r="E151" t="s">
         <v>718</v>
@@ -43263,7 +43263,7 @@
         <v>708</v>
       </c>
       <c r="D152" s="4">
-        <v>207.92794799804688</v>
+        <v>207.92794528465467</v>
       </c>
       <c r="E152" t="s">
         <v>718</v>
@@ -43280,7 +43280,7 @@
         <v>708</v>
       </c>
       <c r="D153" s="4">
-        <v>207.85110473632813</v>
+        <v>207.85110302801266</v>
       </c>
       <c r="E153" t="s">
         <v>718</v>
@@ -43297,7 +43297,7 @@
         <v>708</v>
       </c>
       <c r="D154" s="4">
-        <v>205.06222534179688</v>
+        <v>205.06222513333958</v>
       </c>
       <c r="E154" t="s">
         <v>718</v>
@@ -43314,7 +43314,7 @@
         <v>708</v>
       </c>
       <c r="D155" s="4">
-        <v>206.03158569335938</v>
+        <v>206.03158044478164</v>
       </c>
       <c r="E155" t="s">
         <v>718</v>
@@ -43331,7 +43331,7 @@
         <v>708</v>
       </c>
       <c r="D156" s="4">
-        <v>207.12954711914063</v>
+        <v>207.12954333643989</v>
       </c>
       <c r="E156" t="s">
         <v>718</v>
@@ -43348,7 +43348,7 @@
         <v>708</v>
       </c>
       <c r="D157" s="4">
-        <v>195.08113098144531</v>
+        <v>195.08112882979219</v>
       </c>
       <c r="E157" t="s">
         <v>718</v>
@@ -43365,7 +43365,7 @@
         <v>708</v>
       </c>
       <c r="D158" s="4">
-        <v>213.62564086914063</v>
+        <v>213.62564827911362</v>
       </c>
       <c r="E158" t="s">
         <v>718</v>
@@ -43382,7 +43382,7 @@
         <v>708</v>
       </c>
       <c r="D159" s="4">
-        <v>193.60340881347656</v>
+        <v>193.60341151385927</v>
       </c>
       <c r="E159" t="s">
         <v>718</v>
@@ -43399,7 +43399,7 @@
         <v>708</v>
       </c>
       <c r="D160" s="4">
-        <v>209.59642028808594</v>
+        <v>209.59642074506939</v>
       </c>
       <c r="E160" t="s">
         <v>718</v>
@@ -43416,7 +43416,7 @@
         <v>708</v>
       </c>
       <c r="D161" s="4">
-        <v>208.98886108398438</v>
+        <v>208.98886742110591</v>
       </c>
       <c r="E161" t="s">
         <v>718</v>
@@ -43433,7 +43433,7 @@
         <v>708</v>
       </c>
       <c r="D162" s="4">
-        <v>207.84135437011719</v>
+        <v>207.8413494415318</v>
       </c>
       <c r="E162" t="s">
         <v>718</v>
@@ -43450,7 +43450,7 @@
         <v>708</v>
       </c>
       <c r="D163" s="4">
-        <v>212.33583068847656</v>
+        <v>212.33582858935856</v>
       </c>
       <c r="E163" t="s">
         <v>718</v>
@@ -43467,7 +43467,7 @@
         <v>708</v>
       </c>
       <c r="D164" s="4">
-        <v>200.47807312011719</v>
+        <v>200.47808046184377</v>
       </c>
       <c r="E164" t="s">
         <v>718</v>
@@ -43484,7 +43484,7 @@
         <v>708</v>
       </c>
       <c r="D165" s="4">
-        <v>205.54759216308594</v>
+        <v>205.54758917368704</v>
       </c>
       <c r="E165" t="s">
         <v>718</v>
@@ -43501,7 +43501,7 @@
         <v>708</v>
       </c>
       <c r="D166" s="4">
-        <v>203.64944458007813</v>
+        <v>203.64944059669685</v>
       </c>
       <c r="E166" t="s">
         <v>718</v>
@@ -43518,7 +43518,7 @@
         <v>708</v>
       </c>
       <c r="D167" s="4">
-        <v>197.26126098632813</v>
+        <v>197.26125481070437</v>
       </c>
       <c r="E167" t="s">
         <v>718</v>
@@ -43535,7 +43535,7 @@
         <v>708</v>
       </c>
       <c r="D168" s="4">
-        <v>206.70089721679688</v>
+        <v>206.70089165090516</v>
       </c>
       <c r="E168" t="s">
         <v>718</v>
@@ -43552,7 +43552,7 @@
         <v>708</v>
       </c>
       <c r="D169" s="4">
-        <v>188.75135803222656</v>
+        <v>188.75136512559155</v>
       </c>
       <c r="E169" t="s">
         <v>718</v>
@@ -43569,7 +43569,7 @@
         <v>708</v>
       </c>
       <c r="D170" s="4">
-        <v>201.14942932128906</v>
+        <v>201.14942528735631</v>
       </c>
       <c r="E170" t="s">
         <v>718</v>
@@ -43586,7 +43586,7 @@
         <v>708</v>
       </c>
       <c r="D171" s="4">
-        <v>199.16560363769531</v>
+        <v>199.16560856158171</v>
       </c>
       <c r="E171" t="s">
         <v>718</v>
@@ -43603,7 +43603,7 @@
         <v>708</v>
       </c>
       <c r="D172" s="4">
-        <v>209.64115905761719</v>
+        <v>209.64115478010612</v>
       </c>
       <c r="E172" t="s">
         <v>718</v>
@@ -43620,7 +43620,7 @@
         <v>708</v>
       </c>
       <c r="D173" s="4">
-        <v>207.80435180664063</v>
+        <v>207.80435654149406</v>
       </c>
       <c r="E173" t="s">
         <v>718</v>
@@ -43637,7 +43637,7 @@
         <v>708</v>
       </c>
       <c r="D174" s="4">
-        <v>210.64958190917969</v>
+        <v>210.64958020327001</v>
       </c>
       <c r="E174" t="s">
         <v>718</v>
@@ -43654,7 +43654,7 @@
         <v>708</v>
       </c>
       <c r="D175" s="4">
-        <v>212.57707214355469</v>
+        <v>212.5770761359164</v>
       </c>
       <c r="E175" t="s">
         <v>718</v>
@@ -43671,7 +43671,7 @@
         <v>708</v>
       </c>
       <c r="D176" s="4">
-        <v>202.82023620605469</v>
+        <v>202.82024248813917</v>
       </c>
       <c r="E176" t="s">
         <v>718</v>
@@ -43688,7 +43688,7 @@
         <v>708</v>
       </c>
       <c r="D177" s="4">
-        <v>212.34088134765625</v>
+        <v>212.34088457389427</v>
       </c>
       <c r="E177" t="s">
         <v>718</v>
@@ -43705,7 +43705,7 @@
         <v>708</v>
       </c>
       <c r="D178" s="4">
-        <v>201.97528076171875</v>
+        <v>201.97528752832528</v>
       </c>
       <c r="E178" t="s">
         <v>718</v>
@@ -43722,7 +43722,7 @@
         <v>708</v>
       </c>
       <c r="D179" s="4">
-        <v>189.8255615234375</v>
+        <v>189.82555641488355</v>
       </c>
       <c r="E179" t="s">
         <v>718</v>
@@ -43739,7 +43739,7 @@
         <v>708</v>
       </c>
       <c r="D180" s="4">
-        <v>204.87287902832031</v>
+        <v>204.87288135593221</v>
       </c>
       <c r="E180" t="s">
         <v>718</v>
@@ -43756,7 +43756,7 @@
         <v>708</v>
       </c>
       <c r="D181" s="4">
-        <v>190.02655029296875</v>
+        <v>190.02655650634406</v>
       </c>
       <c r="E181" t="s">
         <v>718</v>
@@ -43773,7 +43773,7 @@
         <v>708</v>
       </c>
       <c r="D182" s="4">
-        <v>202.2471923828125</v>
+        <v>202.24719101123594</v>
       </c>
       <c r="E182" t="s">
         <v>718</v>
@@ -43790,7 +43790,7 @@
         <v>708</v>
       </c>
       <c r="D183" s="4">
-        <v>197.46965026855469</v>
+        <v>197.46965293212514</v>
       </c>
       <c r="E183" t="s">
         <v>718</v>
@@ -43807,7 +43807,7 @@
         <v>708</v>
       </c>
       <c r="D184" s="4">
-        <v>208.10478210449219</v>
+        <v>208.10477526895437</v>
       </c>
       <c r="E184" t="s">
         <v>718</v>
@@ -43824,7 +43824,7 @@
         <v>708</v>
       </c>
       <c r="D185" s="4">
-        <v>202.41848754882813</v>
+        <v>202.41848412869791</v>
       </c>
       <c r="E185" t="s">
         <v>718</v>
@@ -43841,7 +43841,7 @@
         <v>708</v>
       </c>
       <c r="D186" s="4">
-        <v>210.33273315429688</v>
+        <v>210.3327345821572</v>
       </c>
       <c r="E186" t="s">
         <v>718</v>
@@ -43858,7 +43858,7 @@
         <v>708</v>
       </c>
       <c r="D187" s="4">
-        <v>213.82086181640625</v>
+        <v>213.82085973625621</v>
       </c>
       <c r="E187" t="s">
         <v>718</v>
@@ -43875,7 +43875,7 @@
         <v>708</v>
       </c>
       <c r="D188" s="4">
-        <v>202.46987915039063</v>
+        <v>202.46988211926248</v>
       </c>
       <c r="E188" t="s">
         <v>718</v>
@@ -43892,7 +43892,7 @@
         <v>708</v>
       </c>
       <c r="D189" s="4">
-        <v>213.36087036132813</v>
+        <v>213.36086376736785</v>
       </c>
       <c r="E189" t="s">
         <v>718</v>
@@ -43909,7 +43909,7 @@
         <v>708</v>
       </c>
       <c r="D190" s="4">
-        <v>203.39495849609375</v>
+        <v>203.39495507947478</v>
       </c>
       <c r="E190" t="s">
         <v>718</v>
@@ -43926,7 +43926,7 @@
         <v>708</v>
       </c>
       <c r="D191" s="4">
-        <v>193.65565490722656</v>
+        <v>193.65565521767667</v>
       </c>
       <c r="E191" t="s">
         <v>718</v>
@@ -43943,7 +43943,7 @@
         <v>708</v>
       </c>
       <c r="D192" s="4">
-        <v>212.04244995117188</v>
+        <v>212.04245180853368</v>
       </c>
       <c r="E192" t="s">
         <v>718</v>
@@ -43960,7 +43960,7 @@
         <v>708</v>
       </c>
       <c r="D193" s="4">
-        <v>197.7767333984375</v>
+        <v>197.77672861496202</v>
       </c>
       <c r="E193" t="s">
         <v>718</v>
@@ -43977,7 +43977,7 @@
         <v>708</v>
       </c>
       <c r="D194" s="4">
-        <v>206.94546508789063</v>
+        <v>206.9454592341084</v>
       </c>
       <c r="E194" t="s">
         <v>718</v>
@@ -43994,7 +43994,7 @@
         <v>708</v>
       </c>
       <c r="D195" s="4">
-        <v>174.03665161132813</v>
+        <v>174.03665310764117</v>
       </c>
       <c r="E195" t="s">
         <v>718</v>
@@ -44011,7 +44011,7 @@
         <v>708</v>
       </c>
       <c r="D196" s="4">
-        <v>183.173828125</v>
+        <v>183.17382595148007</v>
       </c>
       <c r="E196" t="s">
         <v>718</v>
@@ -44028,7 +44028,7 @@
         <v>708</v>
       </c>
       <c r="D197" s="4">
-        <v>212.10476684570313</v>
+        <v>212.10476319717736</v>
       </c>
       <c r="E197" t="s">
         <v>718</v>
@@ -44045,7 +44045,7 @@
         <v>708</v>
       </c>
       <c r="D198" s="4">
-        <v>223.88468933105469</v>
+        <v>223.88469457789981</v>
       </c>
       <c r="E198" t="s">
         <v>718</v>
@@ -44062,7 +44062,7 @@
         <v>708</v>
       </c>
       <c r="D199" s="4">
-        <v>216.23199462890625</v>
+        <v>216.23198814921219</v>
       </c>
       <c r="E199" t="s">
         <v>718</v>
@@ -44079,7 +44079,7 @@
         <v>708</v>
       </c>
       <c r="D200" s="4">
-        <v>205.82540893554688</v>
+        <v>205.82541358676522</v>
       </c>
       <c r="E200" t="s">
         <v>718</v>
@@ -44096,7 +44096,7 @@
         <v>708</v>
       </c>
       <c r="D201" s="4">
-        <v>212.73666381835938</v>
+        <v>212.73666092943202</v>
       </c>
       <c r="E201" t="s">
         <v>718</v>
@@ -44113,7 +44113,7 @@
         <v>708</v>
       </c>
       <c r="D202" s="4">
-        <v>202.33978271484375</v>
+        <v>202.33978053883268</v>
       </c>
       <c r="E202" t="s">
         <v>718</v>
@@ -44130,7 +44130,7 @@
         <v>708</v>
       </c>
       <c r="D203" s="4">
-        <v>202.83784484863281</v>
+        <v>202.83784938883664</v>
       </c>
       <c r="E203" t="s">
         <v>718</v>
@@ -44147,7 +44147,7 @@
         <v>708</v>
       </c>
       <c r="D204" s="4">
-        <v>201.75997924804688</v>
+        <v>201.75997959443947</v>
       </c>
       <c r="E204" t="s">
         <v>718</v>
@@ -44164,7 +44164,7 @@
         <v>708</v>
       </c>
       <c r="D205" s="4">
-        <v>194.55816650390625</v>
+        <v>194.5581712726032</v>
       </c>
       <c r="E205" t="s">
         <v>718</v>
@@ -44181,7 +44181,7 @@
         <v>708</v>
       </c>
       <c r="D206" s="4">
-        <v>208.26907348632813</v>
+        <v>208.26906598114823</v>
       </c>
       <c r="E206" t="s">
         <v>718</v>
@@ -44198,7 +44198,7 @@
         <v>708</v>
       </c>
       <c r="D207" s="4">
-        <v>202.36717224121094</v>
+        <v>202.36716840344783</v>
       </c>
       <c r="E207" t="s">
         <v>718</v>
@@ -44215,7 +44215,7 @@
         <v>708</v>
       </c>
       <c r="D208" s="4">
-        <v>205.17044067382813</v>
+        <v>205.17044734507667</v>
       </c>
       <c r="E208" t="s">
         <v>718</v>
@@ -44232,7 +44232,7 @@
         <v>708</v>
       </c>
       <c r="D209" s="4">
-        <v>208.36994934082031</v>
+        <v>208.36995187277674</v>
       </c>
       <c r="E209" t="s">
         <v>718</v>
@@ -44249,7 +44249,7 @@
         <v>708</v>
       </c>
       <c r="D210" s="4">
-        <v>213.51669311523438</v>
+        <v>213.51669610564386</v>
       </c>
       <c r="E210" t="s">
         <v>718</v>
@@ -44266,7 +44266,7 @@
         <v>708</v>
       </c>
       <c r="D211" s="4">
-        <v>211.24671936035156</v>
+        <v>211.24671582337487</v>
       </c>
       <c r="E211" t="s">
         <v>718</v>
@@ -44283,7 +44283,7 @@
         <v>708</v>
       </c>
       <c r="D212" s="4">
-        <v>206.55349731445313</v>
+        <v>206.55349053808052</v>
       </c>
       <c r="E212" t="s">
         <v>718</v>
@@ -44300,7 +44300,7 @@
         <v>708</v>
       </c>
       <c r="D213" s="4">
-        <v>209.15032958984375</v>
+        <v>209.15032679738562</v>
       </c>
       <c r="E213" t="s">
         <v>718</v>
@@ -47921,7 +47921,7 @@
         <v>711</v>
       </c>
       <c r="D426" s="4">
-        <v>609.2930908203125</v>
+        <v>609.29307220815872</v>
       </c>
       <c r="E426" t="s">
         <v>721</v>
@@ -47938,7 +47938,7 @@
         <v>711</v>
       </c>
       <c r="D427" s="4">
-        <v>564.809814453125</v>
+        <v>564.80979212904197</v>
       </c>
       <c r="E427" t="s">
         <v>721</v>
@@ -47955,7 +47955,7 @@
         <v>711</v>
       </c>
       <c r="D428" s="4">
-        <v>538.8126220703125</v>
+        <v>538.81263314004264</v>
       </c>
       <c r="E428" t="s">
         <v>721</v>
@@ -47972,7 +47972,7 @@
         <v>711</v>
       </c>
       <c r="D429" s="4">
-        <v>552.941650390625</v>
+        <v>552.94163605745939</v>
       </c>
       <c r="E429" t="s">
         <v>721</v>
@@ -47989,7 +47989,7 @@
         <v>711</v>
       </c>
       <c r="D430" s="4">
-        <v>519.41217041015625</v>
+        <v>519.41214899911324</v>
       </c>
       <c r="E430" t="s">
         <v>721</v>
@@ -48006,7 +48006,7 @@
         <v>711</v>
       </c>
       <c r="D431" s="4">
-        <v>543.68280029296875</v>
+        <v>543.68282487391434</v>
       </c>
       <c r="E431" t="s">
         <v>721</v>
@@ -48023,7 +48023,7 @@
         <v>711</v>
       </c>
       <c r="D432" s="4">
-        <v>522.71484375</v>
+        <v>522.71485767897525</v>
       </c>
       <c r="E432" t="s">
         <v>721</v>
@@ -48040,7 +48040,7 @@
         <v>711</v>
       </c>
       <c r="D433" s="4">
-        <v>507.28536987304688</v>
+        <v>507.28537418580765</v>
       </c>
       <c r="E433" t="s">
         <v>721</v>
@@ -48057,7 +48057,7 @@
         <v>711</v>
       </c>
       <c r="D434" s="4">
-        <v>531.93115234375</v>
+        <v>531.93113184033416</v>
       </c>
       <c r="E434" t="s">
         <v>721</v>
@@ -48074,7 +48074,7 @@
         <v>711</v>
       </c>
       <c r="D435" s="4">
-        <v>569.03717041015625</v>
+        <v>569.03719772756597</v>
       </c>
       <c r="E435" t="s">
         <v>721</v>
@@ -48091,7 +48091,7 @@
         <v>711</v>
       </c>
       <c r="D436" s="4">
-        <v>576.54119873046875</v>
+        <v>576.54116924575806</v>
       </c>
       <c r="E436" t="s">
         <v>721</v>
@@ -48108,7 +48108,7 @@
         <v>711</v>
       </c>
       <c r="D437" s="4">
-        <v>542.07843017578125</v>
+        <v>542.07842098986725</v>
       </c>
       <c r="E437" t="s">
         <v>721</v>
@@ -48125,7 +48125,7 @@
         <v>711</v>
       </c>
       <c r="D438" s="4">
-        <v>479.9921875</v>
+        <v>479.99219163880764</v>
       </c>
       <c r="E438" t="s">
         <v>721</v>
@@ -48142,7 +48142,7 @@
         <v>711</v>
       </c>
       <c r="D439" s="4">
-        <v>529.925048828125</v>
+        <v>529.92507518366938</v>
       </c>
       <c r="E439" t="s">
         <v>721</v>
@@ -48159,7 +48159,7 @@
         <v>711</v>
       </c>
       <c r="D440" s="4">
-        <v>551.8128662109375</v>
+        <v>551.81288697317257</v>
       </c>
       <c r="E440" t="s">
         <v>721</v>
@@ -48176,7 +48176,7 @@
         <v>711</v>
       </c>
       <c r="D441" s="4">
-        <v>564.44091796875</v>
+        <v>564.44089059579744</v>
       </c>
       <c r="E441" t="s">
         <v>721</v>
@@ -48193,7 +48193,7 @@
         <v>711</v>
       </c>
       <c r="D442" s="4">
-        <v>549.03033447265625</v>
+        <v>549.03032894984165</v>
       </c>
       <c r="E442" t="s">
         <v>721</v>
@@ -48210,7 +48210,7 @@
         <v>711</v>
       </c>
       <c r="D443" s="4">
-        <v>530.1689453125</v>
+        <v>530.16896597045638</v>
       </c>
       <c r="E443" t="s">
         <v>721</v>
@@ -48227,7 +48227,7 @@
         <v>711</v>
       </c>
       <c r="D444" s="4">
-        <v>530.2799072265625</v>
+        <v>530.27990044118371</v>
       </c>
       <c r="E444" t="s">
         <v>721</v>
@@ -48244,7 +48244,7 @@
         <v>711</v>
       </c>
       <c r="D445" s="4">
-        <v>503.82293701171875</v>
+        <v>503.82294738672795</v>
       </c>
       <c r="E445" t="s">
         <v>721</v>
@@ -48261,7 +48261,7 @@
         <v>711</v>
       </c>
       <c r="D446" s="4">
-        <v>512.2779541015625</v>
+        <v>512.27793370911741</v>
       </c>
       <c r="E446" t="s">
         <v>721</v>
@@ -48278,7 +48278,7 @@
         <v>711</v>
       </c>
       <c r="D447" s="4">
-        <v>511.83694458007813</v>
+        <v>511.836950419441</v>
       </c>
       <c r="E447" t="s">
         <v>721</v>
@@ -48295,7 +48295,7 @@
         <v>711</v>
       </c>
       <c r="D448" s="4">
-        <v>523.105712890625</v>
+        <v>523.10572484775571</v>
       </c>
       <c r="E448" t="s">
         <v>721</v>
@@ -48312,7 +48312,7 @@
         <v>711</v>
       </c>
       <c r="D449" s="4">
-        <v>488.8590087890625</v>
+        <v>488.85899475209959</v>
       </c>
       <c r="E449" t="s">
         <v>721</v>
@@ -48329,7 +48329,7 @@
         <v>711</v>
       </c>
       <c r="D450" s="4">
-        <v>520.83074951171875</v>
+        <v>520.83073779105416</v>
       </c>
       <c r="E450" t="s">
         <v>721</v>
@@ -48346,7 +48346,7 @@
         <v>711</v>
       </c>
       <c r="D451" s="4">
-        <v>567.560302734375</v>
+        <v>567.56030542007704</v>
       </c>
       <c r="E451" t="s">
         <v>721</v>
@@ -48363,7 +48363,7 @@
         <v>711</v>
       </c>
       <c r="D452" s="4">
-        <v>597.94305419921875</v>
+        <v>597.94304617877992</v>
       </c>
       <c r="E452" t="s">
         <v>721</v>
@@ -48380,7 +48380,7 @@
         <v>711</v>
       </c>
       <c r="D453" s="4">
-        <v>552.48907470703125</v>
+        <v>552.48907805560157</v>
       </c>
       <c r="E453" t="s">
         <v>721</v>
@@ -48397,7 +48397,7 @@
         <v>711</v>
       </c>
       <c r="D454" s="4">
-        <v>583.4637451171875</v>
+        <v>583.46374954351836</v>
       </c>
       <c r="E454" t="s">
         <v>721</v>
@@ -48414,7 +48414,7 @@
         <v>711</v>
       </c>
       <c r="D455" s="4">
-        <v>559.5169677734375</v>
+        <v>559.51698475105684</v>
       </c>
       <c r="E455" t="s">
         <v>721</v>
@@ -48431,7 +48431,7 @@
         <v>711</v>
       </c>
       <c r="D456" s="4">
-        <v>507.2760009765625</v>
+        <v>507.27599659380746</v>
       </c>
       <c r="E456" t="s">
         <v>721</v>
@@ -48448,7 +48448,7 @@
         <v>711</v>
       </c>
       <c r="D457" s="4">
-        <v>530.05743408203125</v>
+        <v>530.05745731445006</v>
       </c>
       <c r="E457" t="s">
         <v>721</v>
@@ -48465,7 +48465,7 @@
         <v>711</v>
       </c>
       <c r="D458" s="4">
-        <v>514.97369384765625</v>
+        <v>514.97371093805577</v>
       </c>
       <c r="E458" t="s">
         <v>721</v>
@@ -48482,7 +48482,7 @@
         <v>711</v>
       </c>
       <c r="D459" s="4">
-        <v>519.3089599609375</v>
+        <v>519.30895878180127</v>
       </c>
       <c r="E459" t="s">
         <v>721</v>
@@ -48499,7 +48499,7 @@
         <v>711</v>
       </c>
       <c r="D460" s="4">
-        <v>530.61566162109375</v>
+        <v>530.61567623592987</v>
       </c>
       <c r="E460" t="s">
         <v>721</v>
@@ -48516,7 +48516,7 @@
         <v>711</v>
       </c>
       <c r="D461" s="4">
-        <v>502.83831787109375</v>
+        <v>502.8383252923465</v>
       </c>
       <c r="E461" t="s">
         <v>721</v>
@@ -48533,7 +48533,7 @@
         <v>711</v>
       </c>
       <c r="D462" s="4">
-        <v>502.88027954101563</v>
+        <v>502.88027087553951</v>
       </c>
       <c r="E462" t="s">
         <v>721</v>
@@ -48550,7 +48550,7 @@
         <v>711</v>
       </c>
       <c r="D463" s="4">
-        <v>513.52728271484375</v>
+        <v>513.52730505452837</v>
       </c>
       <c r="E463" t="s">
         <v>721</v>
@@ -48567,7 +48567,7 @@
         <v>711</v>
       </c>
       <c r="D464" s="4">
-        <v>500.981201171875</v>
+        <v>500.98119794558971</v>
       </c>
       <c r="E464" t="s">
         <v>721</v>
@@ -48584,7 +48584,7 @@
         <v>711</v>
       </c>
       <c r="D465" s="4">
-        <v>452.93582153320313</v>
+        <v>452.93583482050497</v>
       </c>
       <c r="E465" t="s">
         <v>721</v>
@@ -48601,7 +48601,7 @@
         <v>711</v>
       </c>
       <c r="D466" s="4">
-        <v>525.814697265625</v>
+        <v>525.81467236844071</v>
       </c>
       <c r="E466" t="s">
         <v>721</v>
@@ -48618,7 +48618,7 @@
         <v>711</v>
       </c>
       <c r="D467" s="4">
-        <v>509.86163330078125</v>
+        <v>509.86164418531956</v>
       </c>
       <c r="E467" t="s">
         <v>721</v>
@@ -48635,7 +48635,7 @@
         <v>711</v>
       </c>
       <c r="D468" s="4">
-        <v>519.1943359375</v>
+        <v>519.19435211206962</v>
       </c>
       <c r="E468" t="s">
         <v>721</v>
@@ -48652,7 +48652,7 @@
         <v>711</v>
       </c>
       <c r="D469" s="4">
-        <v>520.65777587890625</v>
+        <v>520.65779175798207</v>
       </c>
       <c r="E469" t="s">
         <v>721</v>
@@ -48669,7 +48669,7 @@
         <v>711</v>
       </c>
       <c r="D470" s="4">
-        <v>507.34078979492188</v>
+        <v>507.34080244159611</v>
       </c>
       <c r="E470" t="s">
         <v>721</v>
@@ -48686,7 +48686,7 @@
         <v>711</v>
       </c>
       <c r="D471" s="4">
-        <v>536.0343017578125</v>
+        <v>536.03430618530388</v>
       </c>
       <c r="E471" t="s">
         <v>721</v>
@@ -48703,7 +48703,7 @@
         <v>711</v>
       </c>
       <c r="D472" s="4">
-        <v>530.80084228515625</v>
+        <v>530.80084959975136</v>
       </c>
       <c r="E472" t="s">
         <v>721</v>
@@ -48720,7 +48720,7 @@
         <v>711</v>
       </c>
       <c r="D473" s="4">
-        <v>477.31210327148438</v>
+        <v>477.31211094115594</v>
       </c>
       <c r="E473" t="s">
         <v>721</v>
@@ -48737,7 +48737,7 @@
         <v>711</v>
       </c>
       <c r="D474" s="4">
-        <v>522.31024169921875</v>
+        <v>522.31022186154769</v>
       </c>
       <c r="E474" t="s">
         <v>721</v>
@@ -48754,7 +48754,7 @@
         <v>711</v>
       </c>
       <c r="D475" s="4">
-        <v>502.84133911132813</v>
+        <v>502.84133449036341</v>
       </c>
       <c r="E475" t="s">
         <v>721</v>
@@ -48771,7 +48771,7 @@
         <v>711</v>
       </c>
       <c r="D476" s="4">
-        <v>495.54962158203125</v>
+        <v>495.54962385907464</v>
       </c>
       <c r="E476" t="s">
         <v>721</v>
@@ -48788,7 +48788,7 @@
         <v>711</v>
       </c>
       <c r="D477" s="4">
-        <v>502.78445434570313</v>
+        <v>502.78444650168194</v>
       </c>
       <c r="E477" t="s">
         <v>721</v>
@@ -48805,7 +48805,7 @@
         <v>711</v>
       </c>
       <c r="D478" s="4">
-        <v>514.52667236328125</v>
+        <v>514.5266922070881</v>
       </c>
       <c r="E478" t="s">
         <v>721</v>
@@ -48822,7 +48822,7 @@
         <v>711</v>
       </c>
       <c r="D479" s="4">
-        <v>528.9017333984375</v>
+        <v>528.90174586474166</v>
       </c>
       <c r="E479" t="s">
         <v>721</v>
@@ -48839,7 +48839,7 @@
         <v>711</v>
       </c>
       <c r="D480" s="4">
-        <v>530.89068603515625</v>
+        <v>530.89067828801308</v>
       </c>
       <c r="E480" t="s">
         <v>721</v>
@@ -48856,7 +48856,7 @@
         <v>711</v>
       </c>
       <c r="D481" s="4">
-        <v>513.74066162109375</v>
+        <v>513.74067988229547</v>
       </c>
       <c r="E481" t="s">
         <v>721</v>
@@ -48873,7 +48873,7 @@
         <v>711</v>
       </c>
       <c r="D482" s="4">
-        <v>503.59548950195313</v>
+        <v>503.59549852670085</v>
       </c>
       <c r="E482" t="s">
         <v>721</v>
@@ -48890,7 +48890,7 @@
         <v>711</v>
       </c>
       <c r="D483" s="4">
-        <v>521.79864501953125</v>
+        <v>521.79862266135171</v>
       </c>
       <c r="E483" t="s">
         <v>721</v>
@@ -48907,7 +48907,7 @@
         <v>711</v>
       </c>
       <c r="D484" s="4">
-        <v>490.92623901367188</v>
+        <v>490.92623445101037</v>
       </c>
       <c r="E484" t="s">
         <v>721</v>
@@ -48924,7 +48924,7 @@
         <v>711</v>
       </c>
       <c r="D485" s="4">
-        <v>453.61282348632813</v>
+        <v>453.61282628487828</v>
       </c>
       <c r="E485" t="s">
         <v>721</v>
@@ -48941,7 +48941,7 @@
         <v>711</v>
       </c>
       <c r="D486" s="4">
-        <v>490.96524047851563</v>
+        <v>490.96522695375717</v>
       </c>
       <c r="E486" t="s">
         <v>721</v>
@@ -48958,7 +48958,7 @@
         <v>711</v>
       </c>
       <c r="D487" s="4">
-        <v>473.41989135742188</v>
+        <v>473.4199059625555</v>
       </c>
       <c r="E487" t="s">
         <v>721</v>
@@ -48975,7 +48975,7 @@
         <v>711</v>
       </c>
       <c r="D488" s="4">
-        <v>478.4388427734375</v>
+        <v>478.43884582828423</v>
       </c>
       <c r="E488" t="s">
         <v>721</v>
@@ -48992,7 +48992,7 @@
         <v>711</v>
       </c>
       <c r="D489" s="4">
-        <v>503.0867919921875</v>
+        <v>503.08677691670181</v>
       </c>
       <c r="E489" t="s">
         <v>721</v>
@@ -49009,7 +49009,7 @@
         <v>711</v>
       </c>
       <c r="D490" s="4">
-        <v>467.41744995117188</v>
+        <v>467.41745972393232</v>
       </c>
       <c r="E490" t="s">
         <v>721</v>
@@ -49026,7 +49026,7 @@
         <v>711</v>
       </c>
       <c r="D491" s="4">
-        <v>442.54974365234375</v>
+        <v>442.54972878233798</v>
       </c>
       <c r="E491" t="s">
         <v>721</v>
@@ -49043,7 +49043,7 @@
         <v>711</v>
       </c>
       <c r="D492" s="4">
-        <v>464.92880249023438</v>
+        <v>464.92878920720813</v>
       </c>
       <c r="E492" t="s">
         <v>721</v>
@@ -49060,7 +49060,7 @@
         <v>711</v>
       </c>
       <c r="D493" s="4">
-        <v>466.7474365234375</v>
+        <v>466.74742970365554</v>
       </c>
       <c r="E493" t="s">
         <v>721</v>
@@ -49077,7 +49077,7 @@
         <v>711</v>
       </c>
       <c r="D494" s="4">
-        <v>447.38821411132813</v>
+        <v>447.38822859231408</v>
       </c>
       <c r="E494" t="s">
         <v>721</v>
@@ -49094,7 +49094,7 @@
         <v>711</v>
       </c>
       <c r="D495" s="4">
-        <v>439.34619140625</v>
+        <v>439.34618545530174</v>
       </c>
       <c r="E495" t="s">
         <v>721</v>
@@ -49111,7 +49111,7 @@
         <v>711</v>
       </c>
       <c r="D496" s="4">
-        <v>454.77377319335938</v>
+        <v>454.77377260741787</v>
       </c>
       <c r="E496" t="s">
         <v>721</v>
@@ -49128,7 +49128,7 @@
         <v>711</v>
       </c>
       <c r="D497" s="4">
-        <v>428.022216796875</v>
+        <v>428.02220956590907</v>
       </c>
       <c r="E497" t="s">
         <v>721</v>
@@ -49145,7 +49145,7 @@
         <v>711</v>
       </c>
       <c r="D498" s="4">
-        <v>416.26025390625</v>
+        <v>416.26025017837441</v>
       </c>
       <c r="E498" t="s">
         <v>721</v>
@@ -49162,7 +49162,7 @@
         <v>711</v>
       </c>
       <c r="D499" s="4">
-        <v>473.3602294921875</v>
+        <v>473.36022121207236</v>
       </c>
       <c r="E499" t="s">
         <v>721</v>
@@ -49179,7 +49179,7 @@
         <v>711</v>
       </c>
       <c r="D500" s="4">
-        <v>468.86538696289063</v>
+        <v>468.8653827123324</v>
       </c>
       <c r="E500" t="s">
         <v>721</v>
@@ -49196,7 +49196,7 @@
         <v>711</v>
       </c>
       <c r="D501" s="4">
-        <v>467.28692626953125</v>
+        <v>467.28692227553961</v>
       </c>
       <c r="E501" t="s">
         <v>721</v>
@@ -49213,7 +49213,7 @@
         <v>711</v>
       </c>
       <c r="D502" s="4">
-        <v>467.08712768554688</v>
+        <v>467.08712853580101</v>
       </c>
       <c r="E502" t="s">
         <v>721</v>
@@ -49230,7 +49230,7 @@
         <v>711</v>
       </c>
       <c r="D503" s="4">
-        <v>475.739990234375</v>
+        <v>475.73997974769765</v>
       </c>
       <c r="E503" t="s">
         <v>721</v>
@@ -49247,7 +49247,7 @@
         <v>711</v>
       </c>
       <c r="D504" s="4">
-        <v>451.85012817382813</v>
+        <v>451.85014233428222</v>
       </c>
       <c r="E504" t="s">
         <v>721</v>
@@ -49264,7 +49264,7 @@
         <v>711</v>
       </c>
       <c r="D505" s="4">
-        <v>445.81350708007813</v>
+        <v>445.81350794931075</v>
       </c>
       <c r="E505" t="s">
         <v>721</v>
@@ -49281,7 +49281,7 @@
         <v>711</v>
       </c>
       <c r="D506" s="4">
-        <v>461.10113525390625</v>
+        <v>461.10114213379535</v>
       </c>
       <c r="E506" t="s">
         <v>721</v>
@@ -49298,7 +49298,7 @@
         <v>711</v>
       </c>
       <c r="D507" s="4">
-        <v>435.61483764648438</v>
+        <v>435.61483492661444</v>
       </c>
       <c r="E507" t="s">
         <v>721</v>
@@ -49315,7 +49315,7 @@
         <v>711</v>
       </c>
       <c r="D508" s="4">
-        <v>426.3704833984375</v>
+        <v>426.37049557652074</v>
       </c>
       <c r="E508" t="s">
         <v>721</v>
@@ -49332,7 +49332,7 @@
         <v>711</v>
       </c>
       <c r="D509" s="4">
-        <v>400.97262573242188</v>
+        <v>400.97261331236984</v>
       </c>
       <c r="E509" t="s">
         <v>721</v>
@@ -49349,7 +49349,7 @@
         <v>711</v>
       </c>
       <c r="D510" s="4">
-        <v>439.81655883789063</v>
+        <v>439.81657286685783</v>
       </c>
       <c r="E510" t="s">
         <v>721</v>
@@ -49366,7 +49366,7 @@
         <v>711</v>
       </c>
       <c r="D511" s="4">
-        <v>373.43484497070313</v>
+        <v>373.43484842373277</v>
       </c>
       <c r="E511" t="s">
         <v>721</v>
@@ -49383,7 +49383,7 @@
         <v>711</v>
       </c>
       <c r="D512" s="4">
-        <v>411.48760986328125</v>
+        <v>411.48762354681588</v>
       </c>
       <c r="E512" t="s">
         <v>721</v>
@@ -49400,7 +49400,7 @@
         <v>711</v>
       </c>
       <c r="D513" s="4">
-        <v>377.42147827148438</v>
+        <v>377.42148213454129</v>
       </c>
       <c r="E513" t="s">
         <v>721</v>
@@ -49417,7 +49417,7 @@
         <v>711</v>
       </c>
       <c r="D514" s="4">
-        <v>357.38571166992188</v>
+        <v>357.38571728813798</v>
       </c>
       <c r="E514" t="s">
         <v>721</v>
@@ -49434,7 +49434,7 @@
         <v>711</v>
       </c>
       <c r="D515" s="4">
-        <v>376.98675537109375</v>
+        <v>376.98674826120271</v>
       </c>
       <c r="E515" t="s">
         <v>721</v>
@@ -49451,7 +49451,7 @@
         <v>711</v>
       </c>
       <c r="D516" s="4">
-        <v>370.70700073242188</v>
+        <v>370.70699692515007</v>
       </c>
       <c r="E516" t="s">
         <v>721</v>
@@ -49468,7 +49468,7 @@
         <v>711</v>
       </c>
       <c r="D517" s="4">
-        <v>392.7353515625</v>
+        <v>392.73534956422554</v>
       </c>
       <c r="E517" t="s">
         <v>721</v>
@@ -49485,7 +49485,7 @@
         <v>711</v>
       </c>
       <c r="D518" s="4">
-        <v>398.47030639648438</v>
+        <v>398.47029281907658</v>
       </c>
       <c r="E518" t="s">
         <v>721</v>
@@ -49502,7 +49502,7 @@
         <v>711</v>
       </c>
       <c r="D519" s="4">
-        <v>399.68612670898438</v>
+        <v>399.68611739197752</v>
       </c>
       <c r="E519" t="s">
         <v>721</v>
@@ -49519,7 +49519,7 @@
         <v>711</v>
       </c>
       <c r="D520" s="4">
-        <v>429.38497924804688</v>
+        <v>429.38497935796323</v>
       </c>
       <c r="E520" t="s">
         <v>721</v>
@@ -49536,7 +49536,7 @@
         <v>711</v>
       </c>
       <c r="D521" s="4">
-        <v>406.2196044921875</v>
+        <v>406.2195895955191</v>
       </c>
       <c r="E521" t="s">
         <v>721</v>
@@ -49553,7 +49553,7 @@
         <v>711</v>
       </c>
       <c r="D522" s="4">
-        <v>412.06967163085938</v>
+        <v>412.06966363812813</v>
       </c>
       <c r="E522" t="s">
         <v>721</v>
@@ -49570,7 +49570,7 @@
         <v>711</v>
       </c>
       <c r="D523" s="4">
-        <v>426.13565063476563</v>
+        <v>426.13566394378398</v>
       </c>
       <c r="E523" t="s">
         <v>721</v>
@@ -49587,7 +49587,7 @@
         <v>711</v>
       </c>
       <c r="D524" s="4">
-        <v>449.4974365234375</v>
+        <v>449.49743182860379</v>
       </c>
       <c r="E524" t="s">
         <v>721</v>
@@ -49604,7 +49604,7 @@
         <v>711</v>
       </c>
       <c r="D525" s="4">
-        <v>456.06597900390625</v>
+        <v>456.06598196877138</v>
       </c>
       <c r="E525" t="s">
         <v>721</v>
@@ -49621,7 +49621,7 @@
         <v>711</v>
       </c>
       <c r="D526" s="4">
-        <v>457.66073608398438</v>
+        <v>457.66073449646666</v>
       </c>
       <c r="E526" t="s">
         <v>721</v>
@@ -49638,7 +49638,7 @@
         <v>711</v>
       </c>
       <c r="D527" s="4">
-        <v>483.740478515625</v>
+        <v>483.74047295515902</v>
       </c>
       <c r="E527" t="s">
         <v>721</v>
@@ -49655,7 +49655,7 @@
         <v>711</v>
       </c>
       <c r="D528" s="4">
-        <v>470.44644165039063</v>
+        <v>470.44643930688363</v>
       </c>
       <c r="E528" t="s">
         <v>721</v>
@@ -49672,7 +49672,7 @@
         <v>711</v>
       </c>
       <c r="D529" s="4">
-        <v>488.83694458007813</v>
+        <v>488.83695868584846</v>
       </c>
       <c r="E529" t="s">
         <v>721</v>
@@ -49689,7 +49689,7 @@
         <v>711</v>
       </c>
       <c r="D530" s="4">
-        <v>470.03732299804688</v>
+        <v>470.03732495696164</v>
       </c>
       <c r="E530" t="s">
         <v>721</v>
@@ -49706,7 +49706,7 @@
         <v>711</v>
       </c>
       <c r="D531" s="4">
-        <v>478.72833251953125</v>
+        <v>478.72834073760504</v>
       </c>
       <c r="E531" t="s">
         <v>721</v>
@@ -49723,7 +49723,7 @@
         <v>712</v>
       </c>
       <c r="D532" s="4">
-        <v>128.22238159179688</v>
+        <v>128.22237326812646</v>
       </c>
       <c r="E532" t="s">
         <v>722</v>
@@ -49740,7 +49740,7 @@
         <v>712</v>
       </c>
       <c r="D533" s="4">
-        <v>109.0911865234375</v>
+        <v>109.09118886238835</v>
       </c>
       <c r="E533" t="s">
         <v>722</v>
@@ -49757,7 +49757,7 @@
         <v>712</v>
       </c>
       <c r="D534" s="4">
-        <v>105.07513427734375</v>
+        <v>105.07513539205117</v>
       </c>
       <c r="E534" t="s">
         <v>722</v>
@@ -49774,7 +49774,7 @@
         <v>712</v>
       </c>
       <c r="D535" s="4">
-        <v>113.46560668945313</v>
+        <v>113.46561143773117</v>
       </c>
       <c r="E535" t="s">
         <v>722</v>
@@ -49791,7 +49791,7 @@
         <v>712</v>
       </c>
       <c r="D536" s="4">
-        <v>110.49090576171875</v>
+        <v>110.49090480223479</v>
       </c>
       <c r="E536" t="s">
         <v>722</v>
@@ -49808,7 +49808,7 @@
         <v>712</v>
       </c>
       <c r="D537" s="4">
-        <v>112.10398864746094</v>
+        <v>112.10399412278751</v>
       </c>
       <c r="E537" t="s">
         <v>722</v>
@@ -49825,7 +49825,7 @@
         <v>712</v>
       </c>
       <c r="D538" s="4">
-        <v>113.38113403320313</v>
+        <v>113.38113099434555</v>
       </c>
       <c r="E538" t="s">
         <v>722</v>
@@ -49842,7 +49842,7 @@
         <v>712</v>
       </c>
       <c r="D539" s="4">
-        <v>109.30602264404297</v>
+        <v>109.30602353281404</v>
       </c>
       <c r="E539" t="s">
         <v>722</v>
@@ -49859,7 +49859,7 @@
         <v>712</v>
       </c>
       <c r="D540" s="4">
-        <v>108.44252777099609</v>
+        <v>108.44252787846922</v>
       </c>
       <c r="E540" t="s">
         <v>722</v>
@@ -49876,7 +49876,7 @@
         <v>712</v>
       </c>
       <c r="D541" s="4">
-        <v>122.17973327636719</v>
+        <v>122.17973451692224</v>
       </c>
       <c r="E541" t="s">
         <v>722</v>
@@ -49893,7 +49893,7 @@
         <v>712</v>
       </c>
       <c r="D542" s="4">
-        <v>118.35425567626953</v>
+        <v>118.35426068044946</v>
       </c>
       <c r="E542" t="s">
         <v>722</v>
@@ -49910,7 +49910,7 @@
         <v>712</v>
       </c>
       <c r="D543" s="4">
-        <v>106.79513549804688</v>
+        <v>106.79513018756906</v>
       </c>
       <c r="E543" t="s">
         <v>722</v>
@@ -49927,7 +49927,7 @@
         <v>712</v>
       </c>
       <c r="D544" s="4">
-        <v>102.39725494384766</v>
+        <v>102.39725606670206</v>
       </c>
       <c r="E544" t="s">
         <v>722</v>
@@ -49944,7 +49944,7 @@
         <v>712</v>
       </c>
       <c r="D545" s="4">
-        <v>104.17811584472656</v>
+        <v>104.17811567473254</v>
       </c>
       <c r="E545" t="s">
         <v>722</v>
@@ -49961,7 +49961,7 @@
         <v>712</v>
       </c>
       <c r="D546" s="4">
-        <v>114.79692840576172</v>
+        <v>114.79692652850154</v>
       </c>
       <c r="E546" t="s">
         <v>722</v>
@@ -49978,7 +49978,7 @@
         <v>712</v>
       </c>
       <c r="D547" s="4">
-        <v>113.89836120605469</v>
+        <v>113.89836315825711</v>
       </c>
       <c r="E547" t="s">
         <v>722</v>
@@ -49995,7 +49995,7 @@
         <v>712</v>
       </c>
       <c r="D548" s="4">
-        <v>113.52498626708984</v>
+        <v>113.52498780424534</v>
       </c>
       <c r="E548" t="s">
         <v>722</v>
@@ -50012,7 +50012,7 @@
         <v>712</v>
       </c>
       <c r="D549" s="4">
-        <v>107.80238342285156</v>
+        <v>107.80238054902401</v>
       </c>
       <c r="E549" t="s">
         <v>722</v>
@@ -50029,7 +50029,7 @@
         <v>712</v>
       </c>
       <c r="D550" s="4">
-        <v>112.52915191650391</v>
+        <v>112.52915162495746</v>
       </c>
       <c r="E550" t="s">
         <v>722</v>
@@ -50046,7 +50046,7 @@
         <v>712</v>
       </c>
       <c r="D551" s="4">
-        <v>103.69316101074219</v>
+        <v>103.69316204557845</v>
       </c>
       <c r="E551" t="s">
         <v>722</v>
@@ -50063,7 +50063,7 @@
         <v>712</v>
       </c>
       <c r="D552" s="4">
-        <v>103.81493377685547</v>
+        <v>103.81493756099597</v>
       </c>
       <c r="E552" t="s">
         <v>722</v>
@@ -50080,7 +50080,7 @@
         <v>712</v>
       </c>
       <c r="D553" s="4">
-        <v>108.92027282714844</v>
+        <v>108.92027214340258</v>
       </c>
       <c r="E553" t="s">
         <v>722</v>
@@ -50097,7 +50097,7 @@
         <v>712</v>
       </c>
       <c r="D554" s="4">
-        <v>105.80490112304688</v>
+        <v>105.80489714862473</v>
       </c>
       <c r="E554" t="s">
         <v>722</v>
@@ -50114,7 +50114,7 @@
         <v>712</v>
       </c>
       <c r="D555" s="4">
-        <v>98.495292663574219</v>
+        <v>98.495285791774563</v>
       </c>
       <c r="E555" t="s">
         <v>722</v>
@@ -50131,7 +50131,7 @@
         <v>712</v>
       </c>
       <c r="D556" s="4">
-        <v>108.01998901367188</v>
+        <v>108.0199935667198</v>
       </c>
       <c r="E556" t="s">
         <v>722</v>
@@ -50148,7 +50148,7 @@
         <v>712</v>
       </c>
       <c r="D557" s="4">
-        <v>110.97868347167969</v>
+        <v>110.97867913417871</v>
       </c>
       <c r="E557" t="s">
         <v>722</v>
@@ -50165,7 +50165,7 @@
         <v>712</v>
       </c>
       <c r="D558" s="4">
-        <v>122.27732849121094</v>
+        <v>122.27732652060685</v>
       </c>
       <c r="E558" t="s">
         <v>722</v>
@@ -50182,7 +50182,7 @@
         <v>712</v>
       </c>
       <c r="D559" s="4">
-        <v>111.64958953857422</v>
+        <v>111.64958830167498</v>
       </c>
       <c r="E559" t="s">
         <v>722</v>
@@ -50199,7 +50199,7 @@
         <v>712</v>
       </c>
       <c r="D560" s="4">
-        <v>121.19245147705078</v>
+        <v>121.19245395783497</v>
       </c>
       <c r="E560" t="s">
         <v>722</v>
@@ -50216,7 +50216,7 @@
         <v>712</v>
       </c>
       <c r="D561" s="4">
-        <v>118.09947204589844</v>
+        <v>118.09947138777159</v>
       </c>
       <c r="E561" t="s">
         <v>722</v>
@@ -50233,7 +50233,7 @@
         <v>712</v>
       </c>
       <c r="D562" s="4">
-        <v>110.04138946533203</v>
+        <v>110.0413883661664</v>
       </c>
       <c r="E562" t="s">
         <v>722</v>
@@ -50250,7 +50250,7 @@
         <v>712</v>
       </c>
       <c r="D563" s="4">
-        <v>111.57532501220703</v>
+        <v>111.57533062056858</v>
       </c>
       <c r="E563" t="s">
         <v>722</v>
@@ -50267,7 +50267,7 @@
         <v>712</v>
       </c>
       <c r="D564" s="4">
-        <v>107.70100402832031</v>
+        <v>107.70100457228233</v>
       </c>
       <c r="E564" t="s">
         <v>722</v>
@@ -50284,7 +50284,7 @@
         <v>712</v>
       </c>
       <c r="D565" s="4">
-        <v>111.22345733642578</v>
+        <v>111.22345934548727</v>
       </c>
       <c r="E565" t="s">
         <v>722</v>
@@ -50301,7 +50301,7 @@
         <v>712</v>
       </c>
       <c r="D566" s="4">
-        <v>107.66822814941406</v>
+        <v>107.66822304005689</v>
       </c>
       <c r="E566" t="s">
         <v>722</v>
@@ -50318,7 +50318,7 @@
         <v>712</v>
       </c>
       <c r="D567" s="4">
-        <v>104.10023498535156</v>
+        <v>104.10023412970196</v>
       </c>
       <c r="E567" t="s">
         <v>722</v>
@@ -50335,7 +50335,7 @@
         <v>712</v>
       </c>
       <c r="D568" s="4">
-        <v>102.99036407470703</v>
+        <v>102.99036845035357</v>
       </c>
       <c r="E568" t="s">
         <v>722</v>
@@ -50352,7 +50352,7 @@
         <v>712</v>
       </c>
       <c r="D569" s="4">
-        <v>103.32920074462891</v>
+        <v>103.32919925535055</v>
       </c>
       <c r="E569" t="s">
         <v>722</v>
@@ -50369,7 +50369,7 @@
         <v>712</v>
       </c>
       <c r="D570" s="4">
-        <v>103.03622436523438</v>
+        <v>103.03622978832557</v>
       </c>
       <c r="E570" t="s">
         <v>722</v>
@@ -50386,7 +50386,7 @@
         <v>712</v>
       </c>
       <c r="D571" s="4">
-        <v>95.132904052734375</v>
+        <v>95.132904326494327</v>
       </c>
       <c r="E571" t="s">
         <v>722</v>
@@ -50403,7 +50403,7 @@
         <v>712</v>
       </c>
       <c r="D572" s="4">
-        <v>111.6256103515625</v>
+        <v>111.62560663778872</v>
       </c>
       <c r="E572" t="s">
         <v>722</v>
@@ -50420,7 +50420,7 @@
         <v>712</v>
       </c>
       <c r="D573" s="4">
-        <v>109.24178314208984</v>
+        <v>109.24178197145747</v>
       </c>
       <c r="E573" t="s">
         <v>722</v>
@@ -50437,7 +50437,7 @@
         <v>712</v>
       </c>
       <c r="D574" s="4">
-        <v>108.82362365722656</v>
+        <v>108.82362852447766</v>
       </c>
       <c r="E574" t="s">
         <v>722</v>
@@ -50454,7 +50454,7 @@
         <v>712</v>
       </c>
       <c r="D575" s="4">
-        <v>111.75007629394531</v>
+        <v>111.75007754937559</v>
       </c>
       <c r="E575" t="s">
         <v>722</v>
@@ -50471,7 +50471,7 @@
         <v>712</v>
       </c>
       <c r="D576" s="4">
-        <v>105.49032592773438</v>
+        <v>105.49033061074898</v>
       </c>
       <c r="E576" t="s">
         <v>722</v>
@@ -50488,7 +50488,7 @@
         <v>712</v>
       </c>
       <c r="D577" s="4">
-        <v>111.41532135009766</v>
+        <v>111.41532180147088</v>
       </c>
       <c r="E577" t="s">
         <v>722</v>
@@ -50505,7 +50505,7 @@
         <v>712</v>
       </c>
       <c r="D578" s="4">
-        <v>108.84720611572266</v>
+        <v>108.84720332159212</v>
       </c>
       <c r="E578" t="s">
         <v>722</v>
@@ -50522,7 +50522,7 @@
         <v>712</v>
       </c>
       <c r="D579" s="4">
-        <v>98.34136962890625</v>
+        <v>98.341368582641309</v>
       </c>
       <c r="E579" t="s">
         <v>722</v>
@@ -50539,7 +50539,7 @@
         <v>712</v>
       </c>
       <c r="D580" s="4">
-        <v>108.18587493896484</v>
+        <v>108.18587773413698</v>
       </c>
       <c r="E580" t="s">
         <v>722</v>
@@ -50556,7 +50556,7 @@
         <v>712</v>
       </c>
       <c r="D581" s="4">
-        <v>98.0948486328125</v>
+        <v>98.0948551546592</v>
       </c>
       <c r="E581" t="s">
         <v>722</v>
@@ -50573,7 +50573,7 @@
         <v>712</v>
       </c>
       <c r="D582" s="4">
-        <v>105.86210632324219</v>
+        <v>105.86210965136574</v>
       </c>
       <c r="E582" t="s">
         <v>722</v>
@@ -50590,7 +50590,7 @@
         <v>712</v>
       </c>
       <c r="D583" s="4">
-        <v>97.340782165527344</v>
+        <v>97.340784098833083</v>
       </c>
       <c r="E583" t="s">
         <v>722</v>
@@ -50607,7 +50607,7 @@
         <v>712</v>
       </c>
       <c r="D584" s="4">
-        <v>107.84295654296875</v>
+        <v>107.84295306440565</v>
       </c>
       <c r="E584" t="s">
         <v>722</v>
@@ -50624,7 +50624,7 @@
         <v>712</v>
       </c>
       <c r="D585" s="4">
-        <v>110.53457641601563</v>
+        <v>110.53457684531794</v>
       </c>
       <c r="E585" t="s">
         <v>722</v>
@@ -50641,7 +50641,7 @@
         <v>712</v>
       </c>
       <c r="D586" s="4">
-        <v>110.34103393554688</v>
+        <v>110.34103498131076</v>
       </c>
       <c r="E586" t="s">
         <v>722</v>
@@ -50658,7 +50658,7 @@
         <v>712</v>
       </c>
       <c r="D587" s="4">
-        <v>109.08555603027344</v>
+        <v>109.08555294286762</v>
       </c>
       <c r="E587" t="s">
         <v>722</v>
@@ -50675,7 +50675,7 @@
         <v>712</v>
       </c>
       <c r="D588" s="4">
-        <v>100.95986175537109</v>
+        <v>100.95985887385827</v>
       </c>
       <c r="E588" t="s">
         <v>722</v>
@@ -50692,7 +50692,7 @@
         <v>712</v>
       </c>
       <c r="D589" s="4">
-        <v>107.25444793701172</v>
+        <v>107.25444892219127</v>
       </c>
       <c r="E589" t="s">
         <v>722</v>
@@ -50709,7 +50709,7 @@
         <v>712</v>
       </c>
       <c r="D590" s="4">
-        <v>99.976852416992188</v>
+        <v>99.976853020191101</v>
       </c>
       <c r="E590" t="s">
         <v>722</v>
@@ -50726,7 +50726,7 @@
         <v>712</v>
       </c>
       <c r="D591" s="4">
-        <v>89.480232238769531</v>
+        <v>89.480235311185155</v>
       </c>
       <c r="E591" t="s">
         <v>722</v>
@@ -50743,7 +50743,7 @@
         <v>712</v>
       </c>
       <c r="D592" s="4">
-        <v>101.48295593261719</v>
+        <v>101.48295018093063</v>
       </c>
       <c r="E592" t="s">
         <v>722</v>
@@ -50760,7 +50760,7 @@
         <v>712</v>
       </c>
       <c r="D593" s="4">
-        <v>89.358657836914063</v>
+        <v>89.358653528061524</v>
       </c>
       <c r="E593" t="s">
         <v>722</v>
@@ -50777,7 +50777,7 @@
         <v>712</v>
       </c>
       <c r="D594" s="4">
-        <v>96.237693786621094</v>
+        <v>96.237698873505451</v>
       </c>
       <c r="E594" t="s">
         <v>722</v>
@@ -50794,7 +50794,7 @@
         <v>712</v>
       </c>
       <c r="D595" s="4">
-        <v>100.19758605957031</v>
+        <v>100.19758408389963</v>
       </c>
       <c r="E595" t="s">
         <v>722</v>
@@ -50811,7 +50811,7 @@
         <v>712</v>
       </c>
       <c r="D596" s="4">
-        <v>97.989936828613281</v>
+        <v>97.989936020908914</v>
       </c>
       <c r="E596" t="s">
         <v>722</v>
@@ -50828,7 +50828,7 @@
         <v>712</v>
       </c>
       <c r="D597" s="4">
-        <v>91.963760375976563</v>
+        <v>91.963761627226461</v>
       </c>
       <c r="E597" t="s">
         <v>722</v>
@@ -50845,7 +50845,7 @@
         <v>712</v>
       </c>
       <c r="D598" s="4">
-        <v>97.937057495117188</v>
+        <v>97.937054270912995</v>
       </c>
       <c r="E598" t="s">
         <v>722</v>
@@ -50862,7 +50862,7 @@
         <v>712</v>
       </c>
       <c r="D599" s="4">
-        <v>99.219802856445313</v>
+        <v>99.219803900357277</v>
       </c>
       <c r="E599" t="s">
         <v>722</v>
@@ -50879,7 +50879,7 @@
         <v>712</v>
       </c>
       <c r="D600" s="4">
-        <v>90.739387512207031</v>
+        <v>90.739389009432188</v>
       </c>
       <c r="E600" t="s">
         <v>722</v>
@@ -50896,7 +50896,7 @@
         <v>712</v>
       </c>
       <c r="D601" s="4">
-        <v>93.291152954101563</v>
+        <v>93.291157653744975</v>
       </c>
       <c r="E601" t="s">
         <v>722</v>
@@ -50913,7 +50913,7 @@
         <v>712</v>
       </c>
       <c r="D602" s="4">
-        <v>91.853065490722656</v>
+        <v>91.853063482724437</v>
       </c>
       <c r="E602" t="s">
         <v>722</v>
@@ -50930,7 +50930,7 @@
         <v>712</v>
       </c>
       <c r="D603" s="4">
-        <v>81.249557495117188</v>
+        <v>81.249554088776577</v>
       </c>
       <c r="E603" t="s">
         <v>722</v>
@@ -50947,7 +50947,7 @@
         <v>712</v>
       </c>
       <c r="D604" s="4">
-        <v>85.280441284179688</v>
+        <v>85.28043684798476</v>
       </c>
       <c r="E604" t="s">
         <v>722</v>
@@ -50964,7 +50964,7 @@
         <v>712</v>
       </c>
       <c r="D605" s="4">
-        <v>89.951019287109375</v>
+        <v>89.951012824011386</v>
       </c>
       <c r="E605" t="s">
         <v>722</v>
@@ -50981,7 +50981,7 @@
         <v>712</v>
       </c>
       <c r="D606" s="4">
-        <v>94.826705932617188</v>
+        <v>94.826706615977344</v>
       </c>
       <c r="E606" t="s">
         <v>722</v>
@@ -50998,7 +50998,7 @@
         <v>712</v>
       </c>
       <c r="D607" s="4">
-        <v>92.274986267089844</v>
+        <v>92.274986361471747</v>
       </c>
       <c r="E607" t="s">
         <v>722</v>
@@ -51015,7 +51015,7 @@
         <v>712</v>
       </c>
       <c r="D608" s="4">
-        <v>97.20306396484375</v>
+        <v>97.203061914964067</v>
       </c>
       <c r="E608" t="s">
         <v>722</v>
@@ -51032,7 +51032,7 @@
         <v>712</v>
       </c>
       <c r="D609" s="4">
-        <v>96.298561096191406</v>
+        <v>96.298565539946395</v>
       </c>
       <c r="E609" t="s">
         <v>722</v>
@@ -51049,7 +51049,7 @@
         <v>712</v>
       </c>
       <c r="D610" s="4">
-        <v>95.038871765136719</v>
+        <v>95.038876058506546</v>
       </c>
       <c r="E610" t="s">
         <v>722</v>
@@ -51066,7 +51066,7 @@
         <v>712</v>
       </c>
       <c r="D611" s="4">
-        <v>95.324226379394531</v>
+        <v>95.324227551757915</v>
       </c>
       <c r="E611" t="s">
         <v>722</v>
@@ -51083,7 +51083,7 @@
         <v>712</v>
       </c>
       <c r="D612" s="4">
-        <v>93.359092712402344</v>
+        <v>93.359093892886847</v>
       </c>
       <c r="E612" t="s">
         <v>722</v>
@@ -51100,7 +51100,7 @@
         <v>712</v>
       </c>
       <c r="D613" s="4">
-        <v>92.943153381347656</v>
+        <v>92.943157449821811</v>
       </c>
       <c r="E613" t="s">
         <v>722</v>
@@ -51117,7 +51117,7 @@
         <v>712</v>
       </c>
       <c r="D614" s="4">
-        <v>86.721611022949219</v>
+        <v>86.721607794999827</v>
       </c>
       <c r="E614" t="s">
         <v>722</v>
@@ -51134,7 +51134,7 @@
         <v>712</v>
       </c>
       <c r="D615" s="4">
-        <v>77.650619506835938</v>
+        <v>77.650614155351064</v>
       </c>
       <c r="E615" t="s">
         <v>722</v>
@@ -51151,7 +51151,7 @@
         <v>712</v>
       </c>
       <c r="D616" s="4">
-        <v>93.259780883789063</v>
+        <v>93.259784456715153</v>
       </c>
       <c r="E616" t="s">
         <v>722</v>
@@ -51168,7 +51168,7 @@
         <v>712</v>
       </c>
       <c r="D617" s="4">
-        <v>73.856727600097656</v>
+        <v>73.856722672070077</v>
       </c>
       <c r="E617" t="s">
         <v>722</v>
@@ -51185,7 +51185,7 @@
         <v>712</v>
       </c>
       <c r="D618" s="4">
-        <v>85.155494689941406</v>
+        <v>85.155495224047726</v>
       </c>
       <c r="E618" t="s">
         <v>722</v>
@@ -51202,7 +51202,7 @@
         <v>712</v>
       </c>
       <c r="D619" s="4">
-        <v>65.685173034667969</v>
+        <v>65.685171561620962</v>
       </c>
       <c r="E619" t="s">
         <v>722</v>
@@ -51219,7 +51219,7 @@
         <v>712</v>
       </c>
       <c r="D620" s="4">
-        <v>65.463714599609375</v>
+        <v>65.463709176082247</v>
       </c>
       <c r="E620" t="s">
         <v>722</v>
@@ -51236,7 +51236,7 @@
         <v>712</v>
       </c>
       <c r="D621" s="4">
-        <v>79.960685729980469</v>
+        <v>79.960684968416317</v>
       </c>
       <c r="E621" t="s">
         <v>722</v>
@@ -51253,7 +51253,7 @@
         <v>712</v>
       </c>
       <c r="D622" s="4">
-        <v>82.995628356933594</v>
+        <v>82.995622784477661</v>
       </c>
       <c r="E622" t="s">
         <v>722</v>
@@ -51270,7 +51270,7 @@
         <v>712</v>
       </c>
       <c r="D623" s="4">
-        <v>84.921943664550781</v>
+        <v>84.921945452748318</v>
       </c>
       <c r="E623" t="s">
         <v>722</v>
@@ -51287,7 +51287,7 @@
         <v>712</v>
       </c>
       <c r="D624" s="4">
-        <v>82.015312194824219</v>
+        <v>82.015312821525896</v>
       </c>
       <c r="E624" t="s">
         <v>722</v>
@@ -51304,7 +51304,7 @@
         <v>712</v>
       </c>
       <c r="D625" s="4">
-        <v>85.02789306640625</v>
+        <v>85.027890033818267</v>
       </c>
       <c r="E625" t="s">
         <v>722</v>
@@ -51321,7 +51321,7 @@
         <v>712</v>
       </c>
       <c r="D626" s="4">
-        <v>86.881660461425781</v>
+        <v>86.881662489961471</v>
       </c>
       <c r="E626" t="s">
         <v>722</v>
@@ -51338,7 +51338,7 @@
         <v>712</v>
       </c>
       <c r="D627" s="4">
-        <v>82.396713256835938</v>
+        <v>82.396707933170944</v>
       </c>
       <c r="E627" t="s">
         <v>722</v>
@@ -51355,7 +51355,7 @@
         <v>712</v>
       </c>
       <c r="D628" s="4">
-        <v>83.139167785644531</v>
+        <v>83.139166927116278</v>
       </c>
       <c r="E628" t="s">
         <v>722</v>
@@ -51372,7 +51372,7 @@
         <v>712</v>
       </c>
       <c r="D629" s="4">
-        <v>82.908172607421875</v>
+        <v>82.9081754909392</v>
       </c>
       <c r="E629" t="s">
         <v>722</v>
@@ -51389,7 +51389,7 @@
         <v>712</v>
       </c>
       <c r="D630" s="4">
-        <v>93.616416931152344</v>
+        <v>93.616410287868177</v>
       </c>
       <c r="E630" t="s">
         <v>722</v>
@@ -51406,7 +51406,7 @@
         <v>712</v>
       </c>
       <c r="D631" s="4">
-        <v>92.292778015136719</v>
+        <v>92.29278137615816</v>
       </c>
       <c r="E631" t="s">
         <v>722</v>
@@ -51423,7 +51423,7 @@
         <v>712</v>
       </c>
       <c r="D632" s="4">
-        <v>93.898460388183594</v>
+        <v>93.898457628916418</v>
       </c>
       <c r="E632" t="s">
         <v>722</v>
@@ -51440,7 +51440,7 @@
         <v>712</v>
       </c>
       <c r="D633" s="4">
-        <v>100.79697418212891</v>
+        <v>100.79697906858074</v>
       </c>
       <c r="E633" t="s">
         <v>722</v>
@@ -51457,7 +51457,7 @@
         <v>712</v>
       </c>
       <c r="D634" s="4">
-        <v>100.44817352294922</v>
+        <v>100.4481694154701</v>
       </c>
       <c r="E634" t="s">
         <v>722</v>
@@ -51474,7 +51474,7 @@
         <v>712</v>
       </c>
       <c r="D635" s="4">
-        <v>103.26520538330078</v>
+        <v>103.26520209547226</v>
       </c>
       <c r="E635" t="s">
         <v>722</v>
@@ -51491,7 +51491,7 @@
         <v>712</v>
       </c>
       <c r="D636" s="4">
-        <v>97.087852478027344</v>
+        <v>97.087850153042453</v>
       </c>
       <c r="E636" t="s">
         <v>722</v>
@@ -51508,7 +51508,7 @@
         <v>712</v>
       </c>
       <c r="D637" s="4">
-        <v>100.12619018554688</v>
+        <v>100.12618891244027</v>
       </c>
       <c r="E637" t="s">
         <v>722</v>
@@ -55124,7 +55124,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -55774,6 +55774,17 @@
       </c>
       <c r="C59" s="4">
         <v>559267</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>44378</v>
+      </c>
+      <c r="B60" t="s">
+        <v>726</v>
+      </c>
+      <c r="C60" s="4">
+        <v>659227</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/08/2022</t>
+    <t xml:space="preserve"> 02/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7973" uniqueCount="825">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7975" uniqueCount="826">
   <si>
     <t>Base de datos</t>
   </si>
@@ -2505,6 +2505,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
 </sst>
 </file>
@@ -56201,7 +56204,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E92"/>
+  <dimension ref="A1:E93"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -57031,7 +57034,7 @@
         <v>-0.70722399999999996</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.70722399999999896</v>
+        <v>-0.70722399999999996</v>
       </c>
       <c r="E49" t="s">
         <v>781</v>
@@ -57252,7 +57255,7 @@
         <v>6.0385369999999998</v>
       </c>
       <c r="D62" s="4">
-        <v>6.0385369999999998</v>
+        <v>6.0385370000000096</v>
       </c>
       <c r="E62" t="s">
         <v>794</v>
@@ -57728,7 +57731,7 @@
         <v>-10.327716329999999</v>
       </c>
       <c r="D90" s="4">
-        <v>15.127276889999999</v>
+        <v>33.358592639999998</v>
       </c>
       <c r="E90" t="s">
         <v>822</v>
@@ -57768,6 +57771,23 @@
         <v>824</v>
       </c>
     </row>
+    <row r="93">
+      <c r="A93" t="s">
+        <v>729</v>
+      </c>
+      <c r="B93" s="5">
+        <v>44470</v>
+      </c>
+      <c r="C93" s="4">
+        <v>0</v>
+      </c>
+      <c r="D93" s="4">
+        <v>0</v>
+      </c>
+      <c r="E93" t="s">
+        <v>825</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/21/2022</t>
+    <t xml:space="preserve"> 03/04/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8008" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8009" uniqueCount="826">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/18/2022</t>
+    <t xml:space="preserve"> 03/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -55740,7 +55740,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -56401,6 +56401,17 @@
       </c>
       <c r="C60" s="4">
         <v>659227</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>44470</v>
+      </c>
+      <c r="B61" t="s">
+        <v>726</v>
+      </c>
+      <c r="C61" s="4">
+        <v>562171</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2022</t>
+    <t xml:space="preserve"> 05/24/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2022</t>
+    <t xml:space="preserve"> 05/26/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8075" uniqueCount="826">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8077" uniqueCount="827">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/26/2022</t>
+    <t xml:space="preserve"> 05/31/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2508,6 +2508,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -56830,7 +56833,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E93"/>
+  <dimension ref="A1:E94"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -57660,7 +57663,7 @@
         <v>-0.70722399999999996</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.70722399999999996</v>
+        <v>-0.70722399999999896</v>
       </c>
       <c r="E49" t="s">
         <v>781</v>
@@ -57881,7 +57884,7 @@
         <v>6.0385369999999998</v>
       </c>
       <c r="D62" s="4">
-        <v>6.0385370000000096</v>
+        <v>6.0385369999999998</v>
       </c>
       <c r="E62" t="s">
         <v>794</v>
@@ -57949,7 +57952,7 @@
         <v>5.3817940000000002</v>
       </c>
       <c r="D66" s="4">
-        <v>5.3817940000000002</v>
+        <v>50.337101830000002</v>
       </c>
       <c r="E66" t="s">
         <v>798</v>
@@ -57966,7 +57969,7 @@
         <v>-0.731568</v>
       </c>
       <c r="D67" s="4">
-        <v>-0.731567999999999</v>
+        <v>-0.731568</v>
       </c>
       <c r="E67" t="s">
         <v>799</v>
@@ -58017,7 +58020,7 @@
         <v>223.20143200000001</v>
       </c>
       <c r="D70" s="4">
-        <v>223.20143200000001</v>
+        <v>227.52738933000001</v>
       </c>
       <c r="E70" t="s">
         <v>802</v>
@@ -58085,7 +58088,7 @@
         <v>-13.76717335</v>
       </c>
       <c r="D74" s="4">
-        <v>-13.76717335</v>
+        <v>-8.2435011100000004</v>
       </c>
       <c r="E74" t="s">
         <v>806</v>
@@ -58153,7 +58156,7 @@
         <v>-2.6509466700000002</v>
       </c>
       <c r="D78" s="4">
-        <v>77.542954960000003</v>
+        <v>86.659006529999999</v>
       </c>
       <c r="E78" t="s">
         <v>810</v>
@@ -58357,7 +58360,7 @@
         <v>-10.327716329999999</v>
       </c>
       <c r="D90" s="4">
-        <v>33.358592639999998</v>
+        <v>42.262274669999996</v>
       </c>
       <c r="E90" t="s">
         <v>822</v>
@@ -58414,6 +58417,23 @@
         <v>825</v>
       </c>
     </row>
+    <row r="94">
+      <c r="A94" t="s">
+        <v>729</v>
+      </c>
+      <c r="B94" s="5">
+        <v>44562</v>
+      </c>
+      <c r="C94" s="4">
+        <v>86.435485040000003</v>
+      </c>
+      <c r="D94" s="4">
+        <v>86.435485040000003</v>
+      </c>
+      <c r="E94" t="s">
+        <v>826</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/12/2022</t>
+    <t xml:space="preserve"> 08/18/2022</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8177" uniqueCount="833">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8179" uniqueCount="834">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/18/2022</t>
+    <t xml:space="preserve"> 08/23/2022</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2526,6 +2526,9 @@
   </si>
   <si>
     <t>Cifra parcial u omitida por motivos de confidencialidad</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -57477,7 +57480,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E95"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -58307,7 +58310,7 @@
         <v>-0.70722399999999996</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.70722399999999896</v>
+        <v>-0.70722399999999996</v>
       </c>
       <c r="E49" t="s">
         <v>787</v>
@@ -58528,7 +58531,7 @@
         <v>6.0385369999999998</v>
       </c>
       <c r="D62" s="4">
-        <v>6.0385369999999998</v>
+        <v>6.0385370000000096</v>
       </c>
       <c r="E62" t="s">
         <v>800</v>
@@ -59078,6 +59081,23 @@
         <v>832</v>
       </c>
     </row>
+    <row r="95">
+      <c r="A95" t="s">
+        <v>735</v>
+      </c>
+      <c r="B95" s="5">
+        <v>44652</v>
+      </c>
+      <c r="C95" s="4">
+        <v>11.44118871</v>
+      </c>
+      <c r="D95" s="4">
+        <v>11.44118871</v>
+      </c>
+      <c r="E95" t="s">
+        <v>833</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8679" uniqueCount="871">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8680" uniqueCount="871">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/14/2022</t>
+    <t xml:space="preserve"> 01/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -58887,7 +58887,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C63"/>
+  <dimension ref="A1:C64"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -59581,6 +59581,17 @@
       </c>
       <c r="C63" s="4">
         <v>552534</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>44743</v>
+      </c>
+      <c r="B64" t="s">
+        <v>768</v>
+      </c>
+      <c r="C64" s="4">
+        <v>489607</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 02/14/2023</t>
+    <t xml:space="preserve"> 02/20/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/07/2023</t>
+    <t xml:space="preserve"> 03/14/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/14/2023</t>
+    <t xml:space="preserve"> 03/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8781" uniqueCount="872">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8782" uniqueCount="872">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 03/24/2023</t>
+    <t xml:space="preserve"> 03/31/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -59505,7 +59505,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C64"/>
+  <dimension ref="A1:C65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60210,6 +60210,17 @@
       </c>
       <c r="C64" s="4">
         <v>489607</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>44835</v>
+      </c>
+      <c r="B65" t="s">
+        <v>768</v>
+      </c>
+      <c r="C65" s="4">
+        <v>511302</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/15/2023</t>
+    <t xml:space="preserve"> 05/19/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/19/2023</t>
+    <t xml:space="preserve"> 05/22/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/22/2023</t>
+    <t xml:space="preserve"> 05/24/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/24/2023</t>
+    <t xml:space="preserve"> 05/30/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/30/2023</t>
+    <t xml:space="preserve"> 05/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 05/31/2023</t>
+    <t xml:space="preserve"> 06/05/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/05/2023</t>
+    <t xml:space="preserve"> 06/06/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/06/2023</t>
+    <t xml:space="preserve"> 06/28/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8857" uniqueCount="868">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8818" uniqueCount="848">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 06/28/2023</t>
+    <t xml:space="preserve"> 07/07/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2555,15 +2555,9 @@
     <t/>
   </si>
   <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
@@ -2580,60 +2574,6 @@
   </si>
   <si>
     <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>Cifra parcial u omitida por motivos de confidencialidad</t>
   </si>
 </sst>
 </file>
@@ -59972,7 +59912,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C66"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60688,6 +60628,17 @@
       </c>
       <c r="C65" s="4">
         <v>511302</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>44927</v>
+      </c>
+      <c r="B66" t="s">
+        <v>764</v>
+      </c>
+      <c r="C66" s="4">
+        <v>562232</v>
       </c>
     </row>
   </sheetData>
@@ -60696,7 +60647,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E77"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60724,10 +60675,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>0.085178000000000004</v>
+        <v>19.697277</v>
       </c>
       <c r="D2" s="4">
-        <v>0.085178000000000004</v>
+        <v>19.697277</v>
       </c>
       <c r="E2" t="s">
         <v>772</v>
@@ -60738,13 +60689,13 @@
         <v>767</v>
       </c>
       <c r="B3" s="5">
-        <v>36251</v>
+        <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>2.4263170000000001</v>
+        <v>8.685314</v>
       </c>
       <c r="D3" s="4">
-        <v>2.4263170000000001</v>
+        <v>8.685314</v>
       </c>
       <c r="E3" t="s">
         <v>773</v>
@@ -60755,13 +60706,13 @@
         <v>767</v>
       </c>
       <c r="B4" s="5">
-        <v>36342</v>
+        <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>-0.055085000000000002</v>
+        <v>16.755955</v>
       </c>
       <c r="D4" s="4">
-        <v>-0.055085000000000002</v>
+        <v>16.755955</v>
       </c>
       <c r="E4" t="s">
         <v>774</v>
@@ -60772,13 +60723,13 @@
         <v>767</v>
       </c>
       <c r="B5" s="5">
-        <v>36434</v>
+        <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>1.1448750000000001</v>
+        <v>-3.4110719999999999</v>
       </c>
       <c r="D5" s="4">
-        <v>1.1448750000000001</v>
+        <v>-3.4110719999999999</v>
       </c>
       <c r="E5" t="s">
         <v>775</v>
@@ -60789,13 +60740,13 @@
         <v>767</v>
       </c>
       <c r="B6" s="5">
-        <v>36526</v>
+        <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>2.4593780000000001</v>
+        <v>3.8653460000000002</v>
       </c>
       <c r="D6" s="4">
-        <v>2.4593780000000001</v>
+        <v>3.8653460000000002</v>
       </c>
       <c r="E6" t="s">
         <v>776</v>
@@ -60806,13 +60757,13 @@
         <v>767</v>
       </c>
       <c r="B7" s="5">
-        <v>36617</v>
+        <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>0.68890300000000004</v>
+        <v>4.4693800000000001</v>
       </c>
       <c r="D7" s="4">
-        <v>0.68890300000000004</v>
+        <v>4.4693800000000001</v>
       </c>
       <c r="E7" t="s">
         <v>777</v>
@@ -60823,13 +60774,13 @@
         <v>767</v>
       </c>
       <c r="B8" s="5">
-        <v>36708</v>
+        <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>1.610965</v>
+        <v>9.4570779999999992</v>
       </c>
       <c r="D8" s="4">
-        <v>1.610965</v>
+        <v>9.4570779999999992</v>
       </c>
       <c r="E8" t="s">
         <v>778</v>
@@ -60840,13 +60791,13 @@
         <v>767</v>
       </c>
       <c r="B9" s="5">
-        <v>36800</v>
+        <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>-0.21528900000000001</v>
+        <v>3.911575</v>
       </c>
       <c r="D9" s="4">
-        <v>-0.21528900000000001</v>
+        <v>1.835334</v>
       </c>
       <c r="E9" t="s">
         <v>779</v>
@@ -60857,13 +60808,13 @@
         <v>767</v>
       </c>
       <c r="B10" s="5">
-        <v>36892</v>
+        <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>3.646906</v>
+        <v>3.2128060000000001</v>
       </c>
       <c r="D10" s="4">
-        <v>3.646906</v>
+        <v>1.5749789999999999</v>
       </c>
       <c r="E10" t="s">
         <v>780</v>
@@ -60874,13 +60825,13 @@
         <v>767</v>
       </c>
       <c r="B11" s="5">
-        <v>36982</v>
+        <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>-0.0020049999999999998</v>
+        <v>-4.6218254099999996</v>
       </c>
       <c r="D11" s="4">
-        <v>-0.0020049999999999998</v>
+        <v>-4.70637741</v>
       </c>
       <c r="E11" t="s">
         <v>781</v>
@@ -60891,13 +60842,13 @@
         <v>767</v>
       </c>
       <c r="B12" s="5">
-        <v>37073</v>
+        <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>-0.016670000000000001</v>
+        <v>6.8510359999999997</v>
       </c>
       <c r="D12" s="4">
-        <v>-0.016670000000000001</v>
+        <v>4.2938850000000004</v>
       </c>
       <c r="E12" t="s">
         <v>782</v>
@@ -60908,13 +60859,13 @@
         <v>767</v>
       </c>
       <c r="B13" s="5">
-        <v>37165</v>
+        <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>3.703484</v>
+        <v>4.286435</v>
       </c>
       <c r="D13" s="4">
-        <v>3.703484</v>
+        <v>3.7718050000000001</v>
       </c>
       <c r="E13" t="s">
         <v>783</v>
@@ -60925,13 +60876,13 @@
         <v>767</v>
       </c>
       <c r="B14" s="5">
-        <v>37257</v>
+        <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>0.096403000000000003</v>
+        <v>0.91230699999999998</v>
       </c>
       <c r="D14" s="4">
-        <v>0.096403000000000003</v>
+        <v>1.4508099999999999</v>
       </c>
       <c r="E14" t="s">
         <v>784</v>
@@ -60942,13 +60893,13 @@
         <v>767</v>
       </c>
       <c r="B15" s="5">
-        <v>37347</v>
+        <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>2.1334029999999999</v>
+        <v>80.615251000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>2.1334029999999999</v>
+        <v>82.636268000000001</v>
       </c>
       <c r="E15" t="s">
         <v>785</v>
@@ -60959,13 +60910,13 @@
         <v>767</v>
       </c>
       <c r="B16" s="5">
-        <v>37438</v>
+        <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>0.015565000000000001</v>
+        <v>47.367077000000002</v>
       </c>
       <c r="D16" s="4">
-        <v>0.015565000000000001</v>
+        <v>46.846555000000002</v>
       </c>
       <c r="E16" t="s">
         <v>786</v>
@@ -60976,13 +60927,13 @@
         <v>767</v>
       </c>
       <c r="B17" s="5">
-        <v>37530</v>
+        <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>40.522950999999999</v>
+        <v>13.307249000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>40.522950999999999</v>
+        <v>14.086717</v>
       </c>
       <c r="E17" t="s">
         <v>787</v>
@@ -60993,13 +60944,13 @@
         <v>767</v>
       </c>
       <c r="B18" s="5">
-        <v>37622</v>
+        <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>26.038550999999998</v>
+        <v>33.444360000000003</v>
       </c>
       <c r="D18" s="4">
-        <v>26.038550999999998</v>
+        <v>34.313847000000003</v>
       </c>
       <c r="E18" t="s">
         <v>788</v>
@@ -61010,13 +60961,13 @@
         <v>767</v>
       </c>
       <c r="B19" s="5">
-        <v>37712</v>
+        <v>39630</v>
       </c>
       <c r="C19" s="4">
-        <v>1.0063409999999999</v>
+        <v>6.6062839999999996</v>
       </c>
       <c r="D19" s="4">
-        <v>1.0063409999999999</v>
+        <v>6.6217180000000004</v>
       </c>
       <c r="E19" t="s">
         <v>789</v>
@@ -61027,13 +60978,13 @@
         <v>767</v>
       </c>
       <c r="B20" s="5">
-        <v>37803</v>
+        <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>-8.3727400000000003</v>
+        <v>-10.522907999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>-8.3727400000000003</v>
+        <v>-9.2394449999999999</v>
       </c>
       <c r="E20" t="s">
         <v>790</v>
@@ -61044,13 +60995,13 @@
         <v>767</v>
       </c>
       <c r="B21" s="5">
-        <v>37895</v>
+        <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>3.8328820000000001</v>
+        <v>-1.8871340000000001</v>
       </c>
       <c r="D21" s="4">
-        <v>3.8328820000000001</v>
+        <v>-1.8871340000000001</v>
       </c>
       <c r="E21" t="s">
         <v>791</v>
@@ -61061,13 +61012,13 @@
         <v>767</v>
       </c>
       <c r="B22" s="5">
-        <v>37987</v>
+        <v>39904</v>
       </c>
       <c r="C22" s="4">
-        <v>14.207307</v>
+        <v>8.9885640000000002</v>
       </c>
       <c r="D22" s="4">
-        <v>14.207307</v>
+        <v>4.2414839999999998</v>
       </c>
       <c r="E22" t="s">
         <v>792</v>
@@ -61078,13 +61029,13 @@
         <v>767</v>
       </c>
       <c r="B23" s="5">
-        <v>38078</v>
+        <v>39995</v>
       </c>
       <c r="C23" s="4">
-        <v>8.1121639999999999</v>
+        <v>-1.872736</v>
       </c>
       <c r="D23" s="4">
-        <v>8.1121639999999999</v>
+        <v>-3.8628650000000002</v>
       </c>
       <c r="E23" t="s">
         <v>793</v>
@@ -61095,13 +61046,13 @@
         <v>767</v>
       </c>
       <c r="B24" s="5">
-        <v>38169</v>
+        <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>8.5864180000000001</v>
+        <v>6.0525779999999996</v>
       </c>
       <c r="D24" s="4">
-        <v>8.5864180000000001</v>
+        <v>3.8927339999999999</v>
       </c>
       <c r="E24" t="s">
         <v>794</v>
@@ -61112,13 +61063,13 @@
         <v>767</v>
       </c>
       <c r="B25" s="5">
-        <v>38261</v>
+        <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>20.507785999999999</v>
+        <v>24.402716999999999</v>
       </c>
       <c r="D25" s="4">
-        <v>20.507785999999999</v>
+        <v>31.533235000000001</v>
       </c>
       <c r="E25" t="s">
         <v>795</v>
@@ -61129,13 +61080,13 @@
         <v>767</v>
       </c>
       <c r="B26" s="5">
-        <v>38353</v>
+        <v>40269</v>
       </c>
       <c r="C26" s="4">
-        <v>8.5765539999999998</v>
+        <v>9.9979180000000003</v>
       </c>
       <c r="D26" s="4">
-        <v>8.5765539999999998</v>
+        <v>12.542241000000001</v>
       </c>
       <c r="E26" t="s">
         <v>796</v>
@@ -61146,13 +61097,13 @@
         <v>767</v>
       </c>
       <c r="B27" s="5">
-        <v>38443</v>
+        <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>12.003787000000001</v>
+        <v>36.652538</v>
       </c>
       <c r="D27" s="4">
-        <v>12.003787000000001</v>
+        <v>36.127035999999997</v>
       </c>
       <c r="E27" t="s">
         <v>797</v>
@@ -61163,13 +61114,13 @@
         <v>767</v>
       </c>
       <c r="B28" s="5">
-        <v>38534</v>
+        <v>40452</v>
       </c>
       <c r="C28" s="4">
-        <v>5.5447480000000002</v>
+        <v>25.258596000000001</v>
       </c>
       <c r="D28" s="4">
-        <v>5.5447480000000002</v>
+        <v>28.961224000000001</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
@@ -61180,13 +61131,13 @@
         <v>767</v>
       </c>
       <c r="B29" s="5">
-        <v>38626</v>
+        <v>40544</v>
       </c>
       <c r="C29" s="4">
-        <v>14.886189999999999</v>
+        <v>22.372497339999999</v>
       </c>
       <c r="D29" s="4">
-        <v>14.886189999999999</v>
+        <v>22.372497339999999</v>
       </c>
       <c r="E29" t="s">
         <v>799</v>
@@ -61197,13 +61148,13 @@
         <v>767</v>
       </c>
       <c r="B30" s="5">
-        <v>38718</v>
+        <v>40634</v>
       </c>
       <c r="C30" s="4">
-        <v>12.169886</v>
+        <v>32.237061330000003</v>
       </c>
       <c r="D30" s="4">
-        <v>12.169886</v>
+        <v>41.227150330000001</v>
       </c>
       <c r="E30" t="s">
         <v>800</v>
@@ -61214,13 +61165,13 @@
         <v>767</v>
       </c>
       <c r="B31" s="5">
-        <v>38808</v>
+        <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>3.3880659999999998</v>
+        <v>32.897590999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>3.3880659999999998</v>
+        <v>32.903970000000001</v>
       </c>
       <c r="E31" t="s">
         <v>801</v>
@@ -61231,13 +61182,13 @@
         <v>767</v>
       </c>
       <c r="B32" s="5">
-        <v>38899</v>
+        <v>40817</v>
       </c>
       <c r="C32" s="4">
-        <v>6.2881629999999999</v>
+        <v>13.270429999999999</v>
       </c>
       <c r="D32" s="4">
-        <v>6.2881629999999999</v>
+        <v>6.7731579999999996</v>
       </c>
       <c r="E32" t="s">
         <v>802</v>
@@ -61248,13 +61199,13 @@
         <v>767</v>
       </c>
       <c r="B33" s="5">
-        <v>38991</v>
+        <v>40909</v>
       </c>
       <c r="C33" s="4">
-        <v>19.850546000000001</v>
+        <v>35.042874779999998</v>
       </c>
       <c r="D33" s="4">
-        <v>19.850546000000001</v>
+        <v>35.042874779999998</v>
       </c>
       <c r="E33" t="s">
         <v>803</v>
@@ -61265,13 +61216,13 @@
         <v>767</v>
       </c>
       <c r="B34" s="5">
-        <v>39083</v>
+        <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>9.9051449999999992</v>
+        <v>16.29993953</v>
       </c>
       <c r="D34" s="4">
-        <v>9.9051449999999992</v>
+        <v>29.26769153</v>
       </c>
       <c r="E34" t="s">
         <v>804</v>
@@ -61282,13 +61233,13 @@
         <v>767</v>
       </c>
       <c r="B35" s="5">
-        <v>39173</v>
+        <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>10.993547</v>
+        <v>8.0578369999999993</v>
       </c>
       <c r="D35" s="4">
-        <v>10.993547</v>
+        <v>6.6389560000000003</v>
       </c>
       <c r="E35" t="s">
         <v>805</v>
@@ -61299,13 +61250,13 @@
         <v>767</v>
       </c>
       <c r="B36" s="5">
-        <v>39264</v>
+        <v>41183</v>
       </c>
       <c r="C36" s="4">
-        <v>7.2939809999999996</v>
+        <v>52.064036999999999</v>
       </c>
       <c r="D36" s="4">
-        <v>7.2939809999999996</v>
+        <v>50.927146999999998</v>
       </c>
       <c r="E36" t="s">
         <v>806</v>
@@ -61316,13 +61267,13 @@
         <v>767</v>
       </c>
       <c r="B37" s="5">
-        <v>39356</v>
+        <v>41275</v>
       </c>
       <c r="C37" s="4">
-        <v>29.258872</v>
+        <v>-15.53311704</v>
       </c>
       <c r="D37" s="4">
-        <v>29.258872</v>
+        <v>-15.53311704</v>
       </c>
       <c r="E37" t="s">
         <v>807</v>
@@ -61333,13 +61284,13 @@
         <v>767</v>
       </c>
       <c r="B38" s="5">
-        <v>39448</v>
+        <v>41365</v>
       </c>
       <c r="C38" s="4">
-        <v>13.913712</v>
+        <v>24.870716810000001</v>
       </c>
       <c r="D38" s="4">
-        <v>13.913712</v>
+        <v>32.649992810000001</v>
       </c>
       <c r="E38" t="s">
         <v>808</v>
@@ -61350,13 +61301,13 @@
         <v>767</v>
       </c>
       <c r="B39" s="5">
-        <v>39539</v>
+        <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>41.470576999999999</v>
+        <v>22.711006999999999</v>
       </c>
       <c r="D39" s="4">
-        <v>41.470576999999999</v>
+        <v>21.989349000000001</v>
       </c>
       <c r="E39" t="s">
         <v>809</v>
@@ -61367,13 +61318,13 @@
         <v>767</v>
       </c>
       <c r="B40" s="5">
-        <v>39630</v>
+        <v>41548</v>
       </c>
       <c r="C40" s="4">
-        <v>27.689485999999999</v>
+        <v>-1.772932</v>
       </c>
       <c r="D40" s="4">
-        <v>27.689485999999999</v>
+        <v>-3.9052720000000001</v>
       </c>
       <c r="E40" t="s">
         <v>810</v>
@@ -61384,13 +61335,13 @@
         <v>767</v>
       </c>
       <c r="B41" s="5">
-        <v>39722</v>
+        <v>41640</v>
       </c>
       <c r="C41" s="4">
-        <v>90.961106000000001</v>
+        <v>37.901347960000003</v>
       </c>
       <c r="D41" s="4">
-        <v>90.961106000000001</v>
+        <v>37.901347960000003</v>
       </c>
       <c r="E41" t="s">
         <v>811</v>
@@ -61401,13 +61352,13 @@
         <v>767</v>
       </c>
       <c r="B42" s="5">
-        <v>39814</v>
+        <v>41730</v>
       </c>
       <c r="C42" s="4">
-        <v>11.297378</v>
+        <v>15.806381979999999</v>
       </c>
       <c r="D42" s="4">
-        <v>11.297378</v>
+        <v>25.06360098</v>
       </c>
       <c r="E42" t="s">
         <v>812</v>
@@ -61418,13 +61369,13 @@
         <v>767</v>
       </c>
       <c r="B43" s="5">
-        <v>39904</v>
+        <v>41821</v>
       </c>
       <c r="C43" s="4">
-        <v>67.065901139999994</v>
+        <v>-6.3751188399999998</v>
       </c>
       <c r="D43" s="4">
-        <v>67.065901139999994</v>
+        <v>-8.8805898400000007</v>
       </c>
       <c r="E43" t="s">
         <v>813</v>
@@ -61435,13 +61386,13 @@
         <v>767</v>
       </c>
       <c r="B44" s="5">
-        <v>39995</v>
+        <v>41913</v>
       </c>
       <c r="C44" s="4">
-        <v>72.423323999999994</v>
+        <v>110.612478</v>
       </c>
       <c r="D44" s="4">
-        <v>72.423323999999994</v>
+        <v>108.87857200000001</v>
       </c>
       <c r="E44" t="s">
         <v>814</v>
@@ -61452,13 +61403,13 @@
         <v>767</v>
       </c>
       <c r="B45" s="5">
-        <v>40087</v>
+        <v>42005</v>
       </c>
       <c r="C45" s="4">
-        <v>-19.115928</v>
+        <v>-2.5519819300000002</v>
       </c>
       <c r="D45" s="4">
-        <v>-19.115928</v>
+        <v>-2.5519819300000002</v>
       </c>
       <c r="E45" t="s">
         <v>815</v>
@@ -61469,13 +61420,13 @@
         <v>767</v>
       </c>
       <c r="B46" s="5">
-        <v>40179</v>
+        <v>42095</v>
       </c>
       <c r="C46" s="4">
-        <v>109.03420199999999</v>
+        <v>14.82946922</v>
       </c>
       <c r="D46" s="4">
-        <v>109.03420199999999</v>
+        <v>16.800854220000002</v>
       </c>
       <c r="E46" t="s">
         <v>816</v>
@@ -61486,13 +61437,13 @@
         <v>767</v>
       </c>
       <c r="B47" s="5">
-        <v>40269</v>
+        <v>42186</v>
       </c>
       <c r="C47" s="4">
-        <v>-18.32159</v>
+        <v>9.5126407299999993</v>
       </c>
       <c r="D47" s="4">
-        <v>-18.32159</v>
+        <v>8.0196569100000001</v>
       </c>
       <c r="E47" t="s">
         <v>817</v>
@@ -61503,13 +61454,13 @@
         <v>767</v>
       </c>
       <c r="B48" s="5">
-        <v>40360</v>
+        <v>42278</v>
       </c>
       <c r="C48" s="4">
-        <v>-20.35279899</v>
+        <v>3.44481949</v>
       </c>
       <c r="D48" s="4">
-        <v>-20.35279899</v>
+        <v>1.64700139</v>
       </c>
       <c r="E48" t="s">
         <v>818</v>
@@ -61520,13 +61471,13 @@
         <v>767</v>
       </c>
       <c r="B49" s="5">
-        <v>40452</v>
+        <v>42370</v>
       </c>
       <c r="C49" s="4">
-        <v>-0.70722399999999996</v>
+        <v>633.82092590000002</v>
       </c>
       <c r="D49" s="4">
-        <v>-0.70722399999999996</v>
+        <v>635.64857497000003</v>
       </c>
       <c r="E49" t="s">
         <v>819</v>
@@ -61537,13 +61488,13 @@
         <v>767</v>
       </c>
       <c r="B50" s="5">
-        <v>40544</v>
+        <v>42461</v>
       </c>
       <c r="C50" s="4">
-        <v>14.306131000000001</v>
+        <v>-6.8160005300000002</v>
       </c>
       <c r="D50" s="4">
-        <v>14.306131000000001</v>
+        <v>-5.2256349100000001</v>
       </c>
       <c r="E50" t="s">
         <v>820</v>
@@ -61554,13 +61505,13 @@
         <v>767</v>
       </c>
       <c r="B51" s="5">
-        <v>40634</v>
+        <v>42552</v>
       </c>
       <c r="C51" s="4">
-        <v>-2.9951059999999998</v>
+        <v>-6.39338272</v>
       </c>
       <c r="D51" s="4">
-        <v>-2.9951059999999998</v>
+        <v>-7.6620603999999997</v>
       </c>
       <c r="E51" t="s">
         <v>821</v>
@@ -61571,13 +61522,13 @@
         <v>767</v>
       </c>
       <c r="B52" s="5">
-        <v>40725</v>
+        <v>42644</v>
       </c>
       <c r="C52" s="4">
-        <v>50.8994</v>
+        <v>42.724968099999998</v>
       </c>
       <c r="D52" s="4">
-        <v>50.8994</v>
+        <v>42.416818749999997</v>
       </c>
       <c r="E52" t="s">
         <v>822</v>
@@ -61588,13 +61539,13 @@
         <v>767</v>
       </c>
       <c r="B53" s="5">
-        <v>40817</v>
+        <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>17.523471000000001</v>
+        <v>16.953243950000001</v>
       </c>
       <c r="D53" s="4">
-        <v>17.523471000000001</v>
+        <v>22.669095070000001</v>
       </c>
       <c r="E53" t="s">
         <v>823</v>
@@ -61605,13 +61556,13 @@
         <v>767</v>
       </c>
       <c r="B54" s="5">
-        <v>40909</v>
+        <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>115.773342</v>
+        <v>-8.57437425</v>
       </c>
       <c r="D54" s="4">
-        <v>115.773342</v>
+        <v>-6.9356098599999996</v>
       </c>
       <c r="E54" t="s">
         <v>824</v>
@@ -61622,13 +61573,13 @@
         <v>767</v>
       </c>
       <c r="B55" s="5">
-        <v>41000</v>
+        <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>25.887343000000001</v>
+        <v>5.8728270800000004</v>
       </c>
       <c r="D55" s="4">
-        <v>25.887343000000001</v>
+        <v>9.4276712099999997</v>
       </c>
       <c r="E55" t="s">
         <v>825</v>
@@ -61639,13 +61590,13 @@
         <v>767</v>
       </c>
       <c r="B56" s="5">
-        <v>41091</v>
+        <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>-38.022193000000001</v>
+        <v>8.4671085799999997</v>
       </c>
       <c r="D56" s="4">
-        <v>-38.022193000000001</v>
+        <v>7.2644159899999998</v>
       </c>
       <c r="E56" t="s">
         <v>826</v>
@@ -61656,13 +61607,13 @@
         <v>767</v>
       </c>
       <c r="B57" s="5">
-        <v>41183</v>
+        <v>43101</v>
       </c>
       <c r="C57" s="4">
-        <v>-36.179178</v>
+        <v>5.28328826</v>
       </c>
       <c r="D57" s="4">
-        <v>-36.179178</v>
+        <v>17.392833159999999</v>
       </c>
       <c r="E57" t="s">
         <v>827</v>
@@ -61673,13 +61624,13 @@
         <v>767</v>
       </c>
       <c r="B58" s="5">
-        <v>41275</v>
+        <v>43191</v>
       </c>
       <c r="C58" s="4">
-        <v>-222.49303499999999</v>
+        <v>9.5934293099999994</v>
       </c>
       <c r="D58" s="4">
-        <v>-222.49303499999999</v>
+        <v>-5.9718007000000002</v>
       </c>
       <c r="E58" t="s">
         <v>828</v>
@@ -61690,13 +61641,13 @@
         <v>767</v>
       </c>
       <c r="B59" s="5">
-        <v>41365</v>
+        <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>159.65548999999999</v>
+        <v>-17.507021000000002</v>
       </c>
       <c r="D59" s="4">
-        <v>159.65548999999999</v>
+        <v>-1.8059836499999999</v>
       </c>
       <c r="E59" t="s">
         <v>829</v>
@@ -61707,13 +61658,13 @@
         <v>767</v>
       </c>
       <c r="B60" s="5">
-        <v>41456</v>
+        <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>-32.202761000000002</v>
+        <v>65.952395580000001</v>
       </c>
       <c r="D60" s="4">
-        <v>-32.202761000000002</v>
+        <v>48.429051080000001</v>
       </c>
       <c r="E60" t="s">
         <v>830</v>
@@ -61724,13 +61675,13 @@
         <v>767</v>
       </c>
       <c r="B61" s="5">
-        <v>41548</v>
+        <v>43466</v>
       </c>
       <c r="C61" s="4">
-        <v>22.942178999999999</v>
+        <v>42.413036089999999</v>
       </c>
       <c r="D61" s="4">
-        <v>22.942178999999999</v>
+        <v>83.229024559999999</v>
       </c>
       <c r="E61" t="s">
         <v>831</v>
@@ -61741,13 +61692,13 @@
         <v>767</v>
       </c>
       <c r="B62" s="5">
-        <v>41640</v>
+        <v>43556</v>
       </c>
       <c r="C62" s="4">
-        <v>6.0385369999999998</v>
+        <v>12.846561469999999</v>
       </c>
       <c r="D62" s="4">
-        <v>6.0385370000000096</v>
+        <v>3.7911248</v>
       </c>
       <c r="E62" t="s">
         <v>832</v>
@@ -61758,13 +61709,13 @@
         <v>767</v>
       </c>
       <c r="B63" s="5">
-        <v>41730</v>
+        <v>43647</v>
       </c>
       <c r="C63" s="4">
-        <v>-53.260894999999998</v>
+        <v>24.7655903</v>
       </c>
       <c r="D63" s="4">
-        <v>-53.260894999999998</v>
+        <v>33.784681630000001</v>
       </c>
       <c r="E63" t="s">
         <v>833</v>
@@ -61775,13 +61726,13 @@
         <v>767</v>
       </c>
       <c r="B64" s="5">
-        <v>41821</v>
+        <v>43739</v>
       </c>
       <c r="C64" s="4">
-        <v>173.88125199999999</v>
+        <v>10.828560209999999</v>
       </c>
       <c r="D64" s="4">
-        <v>173.88125199999999</v>
+        <v>10.39244543</v>
       </c>
       <c r="E64" t="s">
         <v>834</v>
@@ -61792,13 +61743,13 @@
         <v>767</v>
       </c>
       <c r="B65" s="5">
-        <v>41913</v>
+        <v>43831</v>
       </c>
       <c r="C65" s="4">
-        <v>126.494998</v>
+        <v>6.3420944700000002</v>
       </c>
       <c r="D65" s="4">
-        <v>126.494998</v>
+        <v>15.487086440000001</v>
       </c>
       <c r="E65" t="s">
         <v>835</v>
@@ -61809,13 +61760,13 @@
         <v>767</v>
       </c>
       <c r="B66" s="5">
-        <v>42005</v>
+        <v>43922</v>
       </c>
       <c r="C66" s="4">
-        <v>5.3817940000000002</v>
+        <v>31.201658720000001</v>
       </c>
       <c r="D66" s="4">
-        <v>50.337101830000002</v>
+        <v>28.521060089999999</v>
       </c>
       <c r="E66" t="s">
         <v>836</v>
@@ -61826,13 +61777,13 @@
         <v>767</v>
       </c>
       <c r="B67" s="5">
-        <v>42095</v>
+        <v>44013</v>
       </c>
       <c r="C67" s="4">
-        <v>-0.731568</v>
+        <v>2.6023395699999998</v>
       </c>
       <c r="D67" s="4">
-        <v>-0.731568</v>
+        <v>-6.53874756</v>
       </c>
       <c r="E67" t="s">
         <v>837</v>
@@ -61843,13 +61794,13 @@
         <v>767</v>
       </c>
       <c r="B68" s="5">
-        <v>42186</v>
+        <v>44105</v>
       </c>
       <c r="C68" s="4">
-        <v>100.491777</v>
+        <v>-10.06036557</v>
       </c>
       <c r="D68" s="4">
-        <v>100.491777</v>
+        <v>-10.14291075</v>
       </c>
       <c r="E68" t="s">
         <v>838</v>
@@ -61860,13 +61811,13 @@
         <v>767</v>
       </c>
       <c r="B69" s="5">
-        <v>42278</v>
+        <v>44197</v>
       </c>
       <c r="C69" s="4">
-        <v>233.44648799999999</v>
+        <v>15.34535429</v>
       </c>
       <c r="D69" s="4">
-        <v>233.44648799999999</v>
+        <v>19.63458696</v>
       </c>
       <c r="E69" t="s">
         <v>839</v>
@@ -61877,13 +61828,13 @@
         <v>767</v>
       </c>
       <c r="B70" s="5">
-        <v>42370</v>
+        <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>223.20143200000001</v>
+        <v>28.205150029999999</v>
       </c>
       <c r="D70" s="4">
-        <v>227.52738933000001</v>
+        <v>32.446409639999999</v>
       </c>
       <c r="E70" t="s">
         <v>840</v>
@@ -61894,13 +61845,13 @@
         <v>767</v>
       </c>
       <c r="B71" s="5">
-        <v>42461</v>
+        <v>44378</v>
       </c>
       <c r="C71" s="4">
-        <v>0</v>
+        <v>12.181039200000001</v>
       </c>
       <c r="D71" s="4">
-        <v>0</v>
+        <v>9.4914688199999997</v>
       </c>
       <c r="E71" t="s">
         <v>841</v>
@@ -61911,13 +61862,13 @@
         <v>767</v>
       </c>
       <c r="B72" s="5">
-        <v>42552</v>
+        <v>44470</v>
       </c>
       <c r="C72" s="4">
-        <v>65.174270699999994</v>
+        <v>32.961793989999997</v>
       </c>
       <c r="D72" s="4">
-        <v>65.174270699999994</v>
+        <v>36.920460460000001</v>
       </c>
       <c r="E72" t="s">
         <v>842</v>
@@ -61928,13 +61879,13 @@
         <v>767</v>
       </c>
       <c r="B73" s="5">
-        <v>42644</v>
+        <v>44562</v>
       </c>
       <c r="C73" s="4">
-        <v>0</v>
+        <v>40.89864163</v>
       </c>
       <c r="D73" s="4">
-        <v>0</v>
+        <v>140.46179181861501</v>
       </c>
       <c r="E73" t="s">
         <v>843</v>
@@ -61945,13 +61896,13 @@
         <v>767</v>
       </c>
       <c r="B74" s="5">
-        <v>42736</v>
+        <v>44652</v>
       </c>
       <c r="C74" s="4">
-        <v>-13.76717335</v>
+        <v>58.797323679999998</v>
       </c>
       <c r="D74" s="4">
-        <v>-8.2435011100000004</v>
+        <v>95.725100100000006</v>
       </c>
       <c r="E74" t="s">
         <v>844</v>
@@ -61962,13 +61913,13 @@
         <v>767</v>
       </c>
       <c r="B75" s="5">
-        <v>42826</v>
+        <v>44743</v>
       </c>
       <c r="C75" s="4">
-        <v>3.1218970000000001</v>
+        <v>7.9622104800000004</v>
       </c>
       <c r="D75" s="4">
-        <v>5.0050787799999998</v>
+        <v>7.9622104800000004</v>
       </c>
       <c r="E75" t="s">
         <v>845</v>
@@ -61979,13 +61930,13 @@
         <v>767</v>
       </c>
       <c r="B76" s="5">
-        <v>42917</v>
+        <v>44835</v>
       </c>
       <c r="C76" s="4">
-        <v>4.2828615399999999</v>
+        <v>-23.999614886656101</v>
       </c>
       <c r="D76" s="4">
-        <v>88.355344869999996</v>
+        <v>-27.227836633670002</v>
       </c>
       <c r="E76" t="s">
         <v>846</v>
@@ -61996,356 +61947,16 @@
         <v>767</v>
       </c>
       <c r="B77" s="5">
-        <v>43009</v>
+        <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>1.8573249199999999</v>
+        <v>42.370037162861699</v>
       </c>
       <c r="D77" s="4">
-        <v>107.57389317000001</v>
+        <v>42.370037162861699</v>
       </c>
       <c r="E77" t="s">
         <v>847</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="s">
-        <v>767</v>
-      </c>
-      <c r="B78" s="5">
-        <v>43101</v>
-      </c>
-      <c r="C78" s="4">
-        <v>-2.6509466700000002</v>
-      </c>
-      <c r="D78" s="4">
-        <v>86.659006529999999</v>
-      </c>
-      <c r="E78" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="s">
-        <v>767</v>
-      </c>
-      <c r="B79" s="5">
-        <v>43191</v>
-      </c>
-      <c r="C79" s="4">
-        <v>-37.583677029999997</v>
-      </c>
-      <c r="D79" s="4">
-        <v>-35.6525386</v>
-      </c>
-      <c r="E79" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="s">
-        <v>767</v>
-      </c>
-      <c r="B80" s="5">
-        <v>43282</v>
-      </c>
-      <c r="C80" s="4">
-        <v>18.023716</v>
-      </c>
-      <c r="D80" s="4">
-        <v>18.023715979999999</v>
-      </c>
-      <c r="E80" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="s">
-        <v>767</v>
-      </c>
-      <c r="B81" s="5">
-        <v>43374</v>
-      </c>
-      <c r="C81" s="4">
-        <v>-41.016828799999999</v>
-      </c>
-      <c r="D81" s="4">
-        <v>0</v>
-      </c>
-      <c r="E81" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="s">
-        <v>767</v>
-      </c>
-      <c r="B82" s="5">
-        <v>43466</v>
-      </c>
-      <c r="C82" s="4">
-        <v>-39.888763679999997</v>
-      </c>
-      <c r="D82" s="4">
-        <v>-39.486139909999999</v>
-      </c>
-      <c r="E82" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="s">
-        <v>767</v>
-      </c>
-      <c r="B83" s="5">
-        <v>43556</v>
-      </c>
-      <c r="C83" s="4">
-        <v>189.61742240000001</v>
-      </c>
-      <c r="D83" s="4">
-        <v>189.61742242</v>
-      </c>
-      <c r="E83" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="s">
-        <v>767</v>
-      </c>
-      <c r="B84" s="5">
-        <v>43647</v>
-      </c>
-      <c r="C84" s="4">
-        <v>-4.3177836699999999</v>
-      </c>
-      <c r="D84" s="4">
-        <v>-4.3177836699999999</v>
-      </c>
-      <c r="E84" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="s">
-        <v>767</v>
-      </c>
-      <c r="B85" s="5">
-        <v>43739</v>
-      </c>
-      <c r="C85" s="4">
-        <v>-52.151070779999998</v>
-      </c>
-      <c r="D85" s="4">
-        <v>-52.151070779999998</v>
-      </c>
-      <c r="E85" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="s">
-        <v>767</v>
-      </c>
-      <c r="B86" s="5">
-        <v>43831</v>
-      </c>
-      <c r="C86" s="4">
-        <v>190.96117269999999</v>
-      </c>
-      <c r="D86" s="4">
-        <v>279.97923708000002</v>
-      </c>
-      <c r="E86" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="s">
-        <v>767</v>
-      </c>
-      <c r="B87" s="5">
-        <v>43922</v>
-      </c>
-      <c r="C87" s="4">
-        <v>143.51093159999999</v>
-      </c>
-      <c r="D87" s="4">
-        <v>142.05595803</v>
-      </c>
-      <c r="E87" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="s">
-        <v>767</v>
-      </c>
-      <c r="B88" s="5">
-        <v>44013</v>
-      </c>
-      <c r="C88" s="4">
-        <v>-54.167818449999999</v>
-      </c>
-      <c r="D88" s="4">
-        <v>-54.167818449999999</v>
-      </c>
-      <c r="E88" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="s">
-        <v>767</v>
-      </c>
-      <c r="B89" s="5">
-        <v>44105</v>
-      </c>
-      <c r="C89" s="4">
-        <v>-37.694723949999997</v>
-      </c>
-      <c r="D89" s="4">
-        <v>-37.468920939999997</v>
-      </c>
-      <c r="E89" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="s">
-        <v>767</v>
-      </c>
-      <c r="B90" s="5">
-        <v>44197</v>
-      </c>
-      <c r="C90" s="4">
-        <v>-10.327716329999999</v>
-      </c>
-      <c r="D90" s="4">
-        <v>42.262274669999996</v>
-      </c>
-      <c r="E90" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="s">
-        <v>767</v>
-      </c>
-      <c r="B91" s="5">
-        <v>44287</v>
-      </c>
-      <c r="C91" s="4">
-        <v>15.41964383</v>
-      </c>
-      <c r="D91" s="4">
-        <v>15.41964383</v>
-      </c>
-      <c r="E91" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="s">
-        <v>767</v>
-      </c>
-      <c r="B92" s="5">
-        <v>44378</v>
-      </c>
-      <c r="C92" s="4">
-        <v>-25.711018939999999</v>
-      </c>
-      <c r="D92" s="4">
-        <v>-25.711018939999999</v>
-      </c>
-      <c r="E92" t="s">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="s">
-        <v>767</v>
-      </c>
-      <c r="B93" s="5">
-        <v>44470</v>
-      </c>
-      <c r="C93" s="4">
-        <v>0</v>
-      </c>
-      <c r="D93" s="4">
-        <v>0</v>
-      </c>
-      <c r="E93" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="s">
-        <v>767</v>
-      </c>
-      <c r="B94" s="5">
-        <v>44562</v>
-      </c>
-      <c r="C94" s="4">
-        <v>86.435485040000003</v>
-      </c>
-      <c r="D94" s="4">
-        <v>99.533469990426894</v>
-      </c>
-      <c r="E94" t="s">
-        <v>864</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="s">
-        <v>767</v>
-      </c>
-      <c r="B95" s="5">
-        <v>44652</v>
-      </c>
-      <c r="C95" s="4">
-        <v>11.44118871</v>
-      </c>
-      <c r="D95" s="4">
-        <v>11.441238820000001</v>
-      </c>
-      <c r="E95" t="s">
-        <v>865</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="s">
-        <v>767</v>
-      </c>
-      <c r="B96" s="5">
-        <v>44743</v>
-      </c>
-      <c r="C96" s="4">
-        <v>-19.43800645</v>
-      </c>
-      <c r="D96" s="4">
-        <v>-19.43800645</v>
-      </c>
-      <c r="E96" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="s">
-        <v>767</v>
-      </c>
-      <c r="B97" s="5">
-        <v>44835</v>
-      </c>
-      <c r="C97" s="4">
-        <v>0</v>
-      </c>
-      <c r="D97" s="4">
-        <v>0</v>
-      </c>
-      <c r="E97" t="s">
-        <v>867</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/07/2023</t>
+    <t xml:space="preserve"> 07/31/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 08/09/2023</t>
+    <t xml:space="preserve"> 08/29/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8836" uniqueCount="848">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8838" uniqueCount="849">
   <si>
     <t>Base de datos</t>
   </si>
@@ -2346,6 +2346,9 @@
   </si>
   <si>
     <t>Nota</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -60785,7 +60788,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E77"/>
+  <dimension ref="A1:E78"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60935,7 +60938,7 @@
         <v>3.911575</v>
       </c>
       <c r="D9" s="4">
-        <v>1.835334</v>
+        <v>2.5581700000000001</v>
       </c>
       <c r="E9" t="s">
         <v>779</v>
@@ -60952,7 +60955,7 @@
         <v>3.2128060000000001</v>
       </c>
       <c r="D10" s="4">
-        <v>1.5749789999999999</v>
+        <v>5.4658420000000003</v>
       </c>
       <c r="E10" t="s">
         <v>780</v>
@@ -60969,7 +60972,7 @@
         <v>-4.6218254099999996</v>
       </c>
       <c r="D11" s="4">
-        <v>-4.70637741</v>
+        <v>-3.0524354100000002</v>
       </c>
       <c r="E11" t="s">
         <v>781</v>
@@ -60986,7 +60989,7 @@
         <v>6.8510359999999997</v>
       </c>
       <c r="D12" s="4">
-        <v>4.2938850000000004</v>
+        <v>21.513366999999999</v>
       </c>
       <c r="E12" t="s">
         <v>782</v>
@@ -61003,7 +61006,7 @@
         <v>4.286435</v>
       </c>
       <c r="D13" s="4">
-        <v>3.7718050000000001</v>
+        <v>4.286435</v>
       </c>
       <c r="E13" t="s">
         <v>783</v>
@@ -61020,7 +61023,7 @@
         <v>0.91230699999999998</v>
       </c>
       <c r="D14" s="4">
-        <v>1.4508099999999999</v>
+        <v>-1.95966</v>
       </c>
       <c r="E14" t="s">
         <v>784</v>
@@ -61037,7 +61040,7 @@
         <v>80.615251000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>82.636268000000001</v>
+        <v>88.229100000000003</v>
       </c>
       <c r="E15" t="s">
         <v>785</v>
@@ -61054,7 +61057,7 @@
         <v>47.367077000000002</v>
       </c>
       <c r="D16" s="4">
-        <v>46.846555000000002</v>
+        <v>47.275050999999998</v>
       </c>
       <c r="E16" t="s">
         <v>786</v>
@@ -61071,7 +61074,7 @@
         <v>13.307249000000001</v>
       </c>
       <c r="D17" s="4">
-        <v>14.086717</v>
+        <v>15.297668</v>
       </c>
       <c r="E17" t="s">
         <v>787</v>
@@ -61088,7 +61091,7 @@
         <v>33.444360000000003</v>
       </c>
       <c r="D18" s="4">
-        <v>34.313847000000003</v>
+        <v>12.24431</v>
       </c>
       <c r="E18" t="s">
         <v>788</v>
@@ -61105,7 +61108,7 @@
         <v>6.6062839999999996</v>
       </c>
       <c r="D19" s="4">
-        <v>6.6217180000000004</v>
+        <v>6.3925720000000004</v>
       </c>
       <c r="E19" t="s">
         <v>789</v>
@@ -61122,7 +61125,7 @@
         <v>-10.522907999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>-9.2394449999999999</v>
+        <v>-9.0553670000000004</v>
       </c>
       <c r="E20" t="s">
         <v>790</v>
@@ -61173,7 +61176,7 @@
         <v>-1.872736</v>
       </c>
       <c r="D23" s="4">
-        <v>-3.8628650000000002</v>
+        <v>-4.0199889999999998</v>
       </c>
       <c r="E23" t="s">
         <v>793</v>
@@ -61190,7 +61193,7 @@
         <v>6.0525779999999996</v>
       </c>
       <c r="D24" s="4">
-        <v>3.8927339999999999</v>
+        <v>4.5063950000000004</v>
       </c>
       <c r="E24" t="s">
         <v>794</v>
@@ -61207,7 +61210,7 @@
         <v>24.402716999999999</v>
       </c>
       <c r="D25" s="4">
-        <v>31.533235000000001</v>
+        <v>24.402716999999999</v>
       </c>
       <c r="E25" t="s">
         <v>795</v>
@@ -61241,7 +61244,7 @@
         <v>36.652538</v>
       </c>
       <c r="D27" s="4">
-        <v>36.127035999999997</v>
+        <v>36.100918</v>
       </c>
       <c r="E27" t="s">
         <v>797</v>
@@ -61258,7 +61261,7 @@
         <v>25.258596000000001</v>
       </c>
       <c r="D28" s="4">
-        <v>28.961224000000001</v>
+        <v>29.539256999999999</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
@@ -61309,7 +61312,7 @@
         <v>32.897590999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>32.903970000000001</v>
+        <v>31.640650999999998</v>
       </c>
       <c r="E31" t="s">
         <v>801</v>
@@ -61326,7 +61329,7 @@
         <v>13.270429999999999</v>
       </c>
       <c r="D32" s="4">
-        <v>6.7731579999999996</v>
+        <v>6.5934350000000004</v>
       </c>
       <c r="E32" t="s">
         <v>802</v>
@@ -61360,7 +61363,7 @@
         <v>16.29993953</v>
       </c>
       <c r="D34" s="4">
-        <v>29.26769153</v>
+        <v>87.977531529999993</v>
       </c>
       <c r="E34" t="s">
         <v>804</v>
@@ -61377,7 +61380,7 @@
         <v>8.0578369999999993</v>
       </c>
       <c r="D35" s="4">
-        <v>6.6389560000000003</v>
+        <v>2.8780960000000002</v>
       </c>
       <c r="E35" t="s">
         <v>805</v>
@@ -61394,7 +61397,7 @@
         <v>52.064036999999999</v>
       </c>
       <c r="D36" s="4">
-        <v>50.927146999999998</v>
+        <v>37.529260999999998</v>
       </c>
       <c r="E36" t="s">
         <v>806</v>
@@ -61411,7 +61414,7 @@
         <v>-15.53311704</v>
       </c>
       <c r="D37" s="4">
-        <v>-15.53311704</v>
+        <v>-14.65440104</v>
       </c>
       <c r="E37" t="s">
         <v>807</v>
@@ -61428,7 +61431,7 @@
         <v>24.870716810000001</v>
       </c>
       <c r="D38" s="4">
-        <v>32.649992810000001</v>
+        <v>35.538534810000002</v>
       </c>
       <c r="E38" t="s">
         <v>808</v>
@@ -61445,7 +61448,7 @@
         <v>22.711006999999999</v>
       </c>
       <c r="D39" s="4">
-        <v>21.989349000000001</v>
+        <v>26.029837000000001</v>
       </c>
       <c r="E39" t="s">
         <v>809</v>
@@ -61462,7 +61465,7 @@
         <v>-1.772932</v>
       </c>
       <c r="D40" s="4">
-        <v>-3.9052720000000001</v>
+        <v>-2.1625909999999902</v>
       </c>
       <c r="E40" t="s">
         <v>810</v>
@@ -61496,7 +61499,7 @@
         <v>15.806381979999999</v>
       </c>
       <c r="D42" s="4">
-        <v>25.06360098</v>
+        <v>25.123450980000001</v>
       </c>
       <c r="E42" t="s">
         <v>812</v>
@@ -61513,7 +61516,7 @@
         <v>-6.3751188399999998</v>
       </c>
       <c r="D43" s="4">
-        <v>-8.8805898400000007</v>
+        <v>-8.8387378400000003</v>
       </c>
       <c r="E43" t="s">
         <v>813</v>
@@ -61530,7 +61533,7 @@
         <v>110.612478</v>
       </c>
       <c r="D44" s="4">
-        <v>108.87857200000001</v>
+        <v>111.10653499999999</v>
       </c>
       <c r="E44" t="s">
         <v>814</v>
@@ -61547,7 +61550,7 @@
         <v>-2.5519819300000002</v>
       </c>
       <c r="D45" s="4">
-        <v>-2.5519819300000002</v>
+        <v>-2.5838253</v>
       </c>
       <c r="E45" t="s">
         <v>815</v>
@@ -61598,7 +61601,7 @@
         <v>3.44481949</v>
       </c>
       <c r="D48" s="4">
-        <v>1.64700139</v>
+        <v>1.7676713900000001</v>
       </c>
       <c r="E48" t="s">
         <v>818</v>
@@ -61649,7 +61652,7 @@
         <v>-6.39338272</v>
       </c>
       <c r="D51" s="4">
-        <v>-7.6620603999999997</v>
+        <v>-8.2099744999999995</v>
       </c>
       <c r="E51" t="s">
         <v>821</v>
@@ -61683,7 +61686,7 @@
         <v>16.953243950000001</v>
       </c>
       <c r="D53" s="4">
-        <v>22.669095070000001</v>
+        <v>24.507030530000002</v>
       </c>
       <c r="E53" t="s">
         <v>823</v>
@@ -61700,7 +61703,7 @@
         <v>-8.57437425</v>
       </c>
       <c r="D54" s="4">
-        <v>-6.9356098599999996</v>
+        <v>-7.4430003500000002</v>
       </c>
       <c r="E54" t="s">
         <v>824</v>
@@ -61717,7 +61720,7 @@
         <v>5.8728270800000004</v>
       </c>
       <c r="D55" s="4">
-        <v>9.4276712099999997</v>
+        <v>9.1243651099999994</v>
       </c>
       <c r="E55" t="s">
         <v>825</v>
@@ -61734,7 +61737,7 @@
         <v>8.4671085799999997</v>
       </c>
       <c r="D56" s="4">
-        <v>7.2644159899999998</v>
+        <v>6.6327733999999996</v>
       </c>
       <c r="E56" t="s">
         <v>826</v>
@@ -61751,7 +61754,7 @@
         <v>5.28328826</v>
       </c>
       <c r="D57" s="4">
-        <v>17.392833159999999</v>
+        <v>18.6374733</v>
       </c>
       <c r="E57" t="s">
         <v>827</v>
@@ -61768,7 +61771,7 @@
         <v>9.5934293099999994</v>
       </c>
       <c r="D58" s="4">
-        <v>-5.9718007000000002</v>
+        <v>-5.8996441099999997</v>
       </c>
       <c r="E58" t="s">
         <v>828</v>
@@ -61802,7 +61805,7 @@
         <v>65.952395580000001</v>
       </c>
       <c r="D60" s="4">
-        <v>48.429051080000001</v>
+        <v>54.926574879999997</v>
       </c>
       <c r="E60" t="s">
         <v>830</v>
@@ -61819,7 +61822,7 @@
         <v>42.413036089999999</v>
       </c>
       <c r="D61" s="4">
-        <v>83.229024559999999</v>
+        <v>85.436375400000003</v>
       </c>
       <c r="E61" t="s">
         <v>831</v>
@@ -61836,7 +61839,7 @@
         <v>12.846561469999999</v>
       </c>
       <c r="D62" s="4">
-        <v>3.7911248</v>
+        <v>3.79781324</v>
       </c>
       <c r="E62" t="s">
         <v>832</v>
@@ -61853,7 +61856,7 @@
         <v>24.7655903</v>
       </c>
       <c r="D63" s="4">
-        <v>33.784681630000001</v>
+        <v>35.027452449999998</v>
       </c>
       <c r="E63" t="s">
         <v>833</v>
@@ -61870,7 +61873,7 @@
         <v>10.828560209999999</v>
       </c>
       <c r="D64" s="4">
-        <v>10.39244543</v>
+        <v>10.402314629999999</v>
       </c>
       <c r="E64" t="s">
         <v>834</v>
@@ -61887,7 +61890,7 @@
         <v>6.3420944700000002</v>
       </c>
       <c r="D65" s="4">
-        <v>15.487086440000001</v>
+        <v>25.919504499999999</v>
       </c>
       <c r="E65" t="s">
         <v>835</v>
@@ -61904,7 +61907,7 @@
         <v>31.201658720000001</v>
       </c>
       <c r="D66" s="4">
-        <v>28.521060089999999</v>
+        <v>32.245743310000002</v>
       </c>
       <c r="E66" t="s">
         <v>836</v>
@@ -61921,7 +61924,7 @@
         <v>2.6023395699999998</v>
       </c>
       <c r="D67" s="4">
-        <v>-6.53874756</v>
+        <v>-7.2640570699999998</v>
       </c>
       <c r="E67" t="s">
         <v>837</v>
@@ -61938,7 +61941,7 @@
         <v>-10.06036557</v>
       </c>
       <c r="D68" s="4">
-        <v>-10.14291075</v>
+        <v>-12.06584982</v>
       </c>
       <c r="E68" t="s">
         <v>838</v>
@@ -61955,7 +61958,7 @@
         <v>15.34535429</v>
       </c>
       <c r="D69" s="4">
-        <v>19.63458696</v>
+        <v>27.244763469999999</v>
       </c>
       <c r="E69" t="s">
         <v>839</v>
@@ -61972,7 +61975,7 @@
         <v>28.205150029999999</v>
       </c>
       <c r="D70" s="4">
-        <v>32.446409639999999</v>
+        <v>30.138765070000002</v>
       </c>
       <c r="E70" t="s">
         <v>840</v>
@@ -61989,7 +61992,7 @@
         <v>12.181039200000001</v>
       </c>
       <c r="D71" s="4">
-        <v>9.4914688199999997</v>
+        <v>4.0727325700000003</v>
       </c>
       <c r="E71" t="s">
         <v>841</v>
@@ -62006,7 +62009,7 @@
         <v>32.961793989999997</v>
       </c>
       <c r="D72" s="4">
-        <v>36.920460460000001</v>
+        <v>32.710357799999997</v>
       </c>
       <c r="E72" t="s">
         <v>842</v>
@@ -62023,7 +62026,7 @@
         <v>40.89864163</v>
       </c>
       <c r="D73" s="4">
-        <v>140.46179181861501</v>
+        <v>141.583799128615</v>
       </c>
       <c r="E73" t="s">
         <v>843</v>
@@ -62057,7 +62060,7 @@
         <v>7.9622104800000004</v>
       </c>
       <c r="D75" s="4">
-        <v>7.9622104800000004</v>
+        <v>9.2790671599999897</v>
       </c>
       <c r="E75" t="s">
         <v>845</v>
@@ -62074,7 +62077,7 @@
         <v>-23.999614886656101</v>
       </c>
       <c r="D76" s="4">
-        <v>-27.227836633670002</v>
+        <v>-27.701316229546599</v>
       </c>
       <c r="E76" t="s">
         <v>846</v>
@@ -62091,10 +62094,27 @@
         <v>42.370037162861699</v>
       </c>
       <c r="D77" s="4">
-        <v>42.370037162861699</v>
+        <v>3.0923031972803399</v>
       </c>
       <c r="E77" t="s">
         <v>847</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s">
+        <v>767</v>
+      </c>
+      <c r="B78" s="5">
+        <v>45017</v>
+      </c>
+      <c r="C78" s="4">
+        <v>2.7526252712622501</v>
+      </c>
+      <c r="D78" s="4">
+        <v>2.7526252712622501</v>
+      </c>
+      <c r="E78" t="s">
+        <v>848</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8847" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8848" uniqueCount="849">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/06/2023</t>
+    <t xml:space="preserve"> 10/02/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -60122,7 +60122,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C67"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -60849,6 +60849,17 @@
       </c>
       <c r="C66" s="4">
         <v>562232</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>45017</v>
+      </c>
+      <c r="B67" t="s">
+        <v>764</v>
+      </c>
+      <c r="C67" s="4">
+        <v>576590</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 10/02/2023</t>
+    <t xml:space="preserve"> 10/03/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -3203,13 +3203,13 @@
         <v>2003</v>
       </c>
       <c r="D2" s="4">
-        <v>25547.466</v>
+        <v>38620.747000000003</v>
       </c>
       <c r="E2" s="4">
-        <v>794957.32200000004</v>
+        <v>1212171.1969999999</v>
       </c>
       <c r="F2" s="4">
-        <v>0.03213690256443729</v>
+        <v>0.031860802414363919</v>
       </c>
     </row>
     <row r="3">
@@ -3223,13 +3223,13 @@
         <v>2004</v>
       </c>
       <c r="D3" s="4">
-        <v>26174.521000000001</v>
+        <v>39418.945</v>
       </c>
       <c r="E3" s="4">
-        <v>819238.31000000006</v>
+        <v>1246901.3899999999</v>
       </c>
       <c r="F3" s="4">
-        <v>0.031949825442123179</v>
+        <v>0.031613522381268661</v>
       </c>
     </row>
     <row r="4">
@@ -3243,13 +3243,13 @@
         <v>2005</v>
       </c>
       <c r="D4" s="4">
-        <v>27635.698</v>
+        <v>40963.519999999997</v>
       </c>
       <c r="E4" s="4">
-        <v>842128.81299999997</v>
+        <v>1274855.8219999999</v>
       </c>
       <c r="F4" s="4">
-        <v>0.032816473647957228</v>
+        <v>0.032131884479090531</v>
       </c>
     </row>
     <row r="5">
@@ -3263,13 +3263,13 @@
         <v>2006</v>
       </c>
       <c r="D5" s="4">
-        <v>28428.93</v>
+        <v>42281.923999999999</v>
       </c>
       <c r="E5" s="4">
-        <v>886009.72600000002</v>
+        <v>1340006.101</v>
       </c>
       <c r="F5" s="4">
-        <v>0.032086476215499239</v>
+        <v>0.031553530964110142</v>
       </c>
     </row>
     <row r="6">
@@ -3283,13 +3283,13 @@
         <v>2007</v>
       </c>
       <c r="D6" s="4">
-        <v>26598.732</v>
+        <v>39424.932000000001</v>
       </c>
       <c r="E6" s="4">
-        <v>913139.83400000003</v>
+        <v>1380125.9169999999</v>
       </c>
       <c r="F6" s="4">
-        <v>0.029128870529592951</v>
+        <v>0.028566184805585391</v>
       </c>
     </row>
     <row r="7">
@@ -3303,13 +3303,13 @@
         <v>2008</v>
       </c>
       <c r="D7" s="4">
-        <v>26020.077000000001</v>
+        <v>38453.224999999999</v>
       </c>
       <c r="E7" s="4">
-        <v>918573.45600000001</v>
+        <v>1408019.743</v>
       </c>
       <c r="F7" s="4">
-        <v>0.028326615394817158</v>
+        <v>0.027310146175982986</v>
       </c>
     </row>
     <row r="8">
@@ -3323,13 +3323,13 @@
         <v>2009</v>
       </c>
       <c r="D8" s="4">
-        <v>22916.684000000001</v>
+        <v>33990.713000000003</v>
       </c>
       <c r="E8" s="4">
-        <v>870319.09999999998</v>
+        <v>1315481.838</v>
       </c>
       <c r="F8" s="4">
-        <v>0.026331358234008655</v>
+        <v>0.025838983114869887</v>
       </c>
     </row>
     <row r="9">
@@ -3343,13 +3343,13 @@
         <v>2010</v>
       </c>
       <c r="D9" s="4">
-        <v>23354.525000000001</v>
+        <v>34659.368000000002</v>
       </c>
       <c r="E9" s="4">
-        <v>925371.83700000006</v>
+        <v>1393675.3570000001</v>
       </c>
       <c r="F9" s="4">
-        <v>0.025237989817924404</v>
+        <v>0.024869039856317127</v>
       </c>
     </row>
     <row r="10">
@@ -3363,13 +3363,13 @@
         <v>2011</v>
       </c>
       <c r="D10" s="4">
-        <v>23552.798999999999</v>
+        <v>34805.705000000002</v>
       </c>
       <c r="E10" s="4">
-        <v>953148.05599999998</v>
+        <v>1433185.382</v>
       </c>
       <c r="F10" s="4">
-        <v>0.024710535631622794</v>
+        <v>0.024285556800355365</v>
       </c>
     </row>
     <row r="11">
@@ -3383,13 +3383,13 @@
         <v>2012</v>
       </c>
       <c r="D11" s="4">
-        <v>24791.563999999998</v>
+        <v>37595.436000000002</v>
       </c>
       <c r="E11" s="4">
-        <v>995285.99899999995</v>
+        <v>1488616.797</v>
       </c>
       <c r="F11" s="4">
-        <v>0.0249089849801052</v>
+        <v>0.025255281329463596</v>
       </c>
     </row>
     <row r="12">
@@ -3403,13 +3403,13 @@
         <v>2013</v>
       </c>
       <c r="D12" s="4">
-        <v>23585.626</v>
+        <v>35585.722999999904</v>
       </c>
       <c r="E12" s="4">
-        <v>1018578.607</v>
+        <v>1514072.5970000001</v>
       </c>
       <c r="F12" s="4">
-        <v>0.023155430359436169</v>
+        <v>0.023503313560069603</v>
       </c>
     </row>
     <row r="13">
@@ -3423,13 +3423,13 @@
         <v>2014</v>
       </c>
       <c r="D13" s="4">
-        <v>24232.163</v>
+        <v>36741.228999999999</v>
       </c>
       <c r="E13" s="4">
-        <v>1067256.7620000001</v>
+        <v>1567647.173</v>
       </c>
       <c r="F13" s="4">
-        <v>0.022705092029203743</v>
+        <v>0.023437180019078182</v>
       </c>
     </row>
     <row r="14">
@@ -3443,13 +3443,13 @@
         <v>2015</v>
       </c>
       <c r="D14" s="4">
-        <v>26186.734</v>
+        <v>39114.461000000003</v>
       </c>
       <c r="E14" s="4">
-        <v>1104884.8700000001</v>
+        <v>1626750.8130000001</v>
       </c>
       <c r="F14" s="4">
-        <v>0.023700871204798014</v>
+        <v>0.024044531398061147</v>
       </c>
     </row>
     <row r="15">
@@ -3463,13 +3463,13 @@
         <v>2016</v>
       </c>
       <c r="D15" s="4">
-        <v>26894.062000000002</v>
+        <v>40920.142999999996</v>
       </c>
       <c r="E15" s="4">
-        <v>1149129.548</v>
+        <v>1676418.736</v>
       </c>
       <c r="F15" s="4">
-        <v>0.023403855593834233</v>
+        <v>0.024409261314769747</v>
       </c>
     </row>
     <row r="16">
@@ -3483,13 +3483,13 @@
         <v>2017</v>
       </c>
       <c r="D16" s="4">
-        <v>27849.447</v>
+        <v>42489.036999999997</v>
       </c>
       <c r="E16" s="4">
-        <v>1176616.034</v>
+        <v>1708140.0179999999</v>
       </c>
       <c r="F16" s="4">
-        <v>0.023669103764737579</v>
+        <v>0.024874446211821024</v>
       </c>
     </row>
     <row r="17">
@@ -3503,13 +3503,13 @@
         <v>2018</v>
       </c>
       <c r="D17" s="4">
-        <v>29291.091</v>
+        <v>44840.957000000002</v>
       </c>
       <c r="E17" s="4">
-        <v>1208076.0220000001</v>
+        <v>1754179.51</v>
       </c>
       <c r="F17" s="4">
-        <v>0.024246066031099488</v>
+        <v>0.025562353649883872</v>
       </c>
     </row>
     <row r="18">
@@ -3523,13 +3523,13 @@
         <v>2019</v>
       </c>
       <c r="D18" s="4">
-        <v>31438.578000000001</v>
+        <v>47570.218999999997</v>
       </c>
       <c r="E18" s="4">
-        <v>1216735.696</v>
+        <v>1767625.0630000001</v>
       </c>
       <c r="F18" s="4">
-        <v>0.025838461141029927</v>
+        <v>0.026911939639090755</v>
       </c>
     </row>
     <row r="19">
@@ -3543,13 +3543,13 @@
         <v>2020</v>
       </c>
       <c r="D19" s="4">
-        <v>29476.914000000001</v>
+        <v>44182.847000000002</v>
       </c>
       <c r="E19" s="4">
-        <v>1126205.8729999999</v>
+        <v>1611191.787</v>
       </c>
       <c r="F19" s="4">
-        <v>0.026173646139385744</v>
+        <v>0.027422462897646337</v>
       </c>
     </row>
     <row r="20">
@@ -3563,13 +3563,13 @@
         <v>2021</v>
       </c>
       <c r="D20" s="4">
-        <v>34728.108</v>
+        <v>52138.957000000002</v>
       </c>
       <c r="E20" s="4">
-        <v>1186918.9639999999</v>
+        <v>1694872.7209999999</v>
       </c>
       <c r="F20" s="4">
-        <v>0.029259038783038607</v>
+        <v>0.030762756609379639</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8866" uniqueCount="849">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8868" uniqueCount="850">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 11/08/2023</t>
+    <t xml:space="preserve"> 11/27/2023</t>
   </si>
   <si>
     <t>Sección</t>
@@ -2346,6 +2346,9 @@
   </si>
   <si>
     <t>Nota</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -61006,7 +61009,7 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -61156,7 +61159,7 @@
         <v>3.911575</v>
       </c>
       <c r="D9" s="4">
-        <v>2.5581700000000001</v>
+        <v>2.5579800000000001</v>
       </c>
       <c r="E9" t="s">
         <v>779</v>
@@ -61173,7 +61176,7 @@
         <v>3.2128060000000001</v>
       </c>
       <c r="D10" s="4">
-        <v>5.4658420000000003</v>
+        <v>6.3125229999999997</v>
       </c>
       <c r="E10" t="s">
         <v>780</v>
@@ -61190,7 +61193,7 @@
         <v>-4.6218254099999996</v>
       </c>
       <c r="D11" s="4">
-        <v>-3.0524354100000002</v>
+        <v>-3.0524294099999998</v>
       </c>
       <c r="E11" t="s">
         <v>781</v>
@@ -61258,7 +61261,7 @@
         <v>80.615251000000001</v>
       </c>
       <c r="D15" s="4">
-        <v>88.229100000000003</v>
+        <v>75.027418999999995</v>
       </c>
       <c r="E15" t="s">
         <v>785</v>
@@ -61275,7 +61278,7 @@
         <v>47.367077000000002</v>
       </c>
       <c r="D16" s="4">
-        <v>47.275050999999998</v>
+        <v>-8.7830759999999994</v>
       </c>
       <c r="E16" t="s">
         <v>786</v>
@@ -61326,7 +61329,7 @@
         <v>6.6062839999999996</v>
       </c>
       <c r="D19" s="4">
-        <v>6.3925720000000004</v>
+        <v>5.6135669999999998</v>
       </c>
       <c r="E19" t="s">
         <v>789</v>
@@ -61343,7 +61346,7 @@
         <v>-10.522907999999999</v>
       </c>
       <c r="D20" s="4">
-        <v>-9.0553670000000004</v>
+        <v>-8.7496939999999999</v>
       </c>
       <c r="E20" t="s">
         <v>790</v>
@@ -61445,7 +61448,7 @@
         <v>9.9979180000000003</v>
       </c>
       <c r="D26" s="4">
-        <v>12.542241000000001</v>
+        <v>12.205315000000001</v>
       </c>
       <c r="E26" t="s">
         <v>796</v>
@@ -61462,7 +61465,7 @@
         <v>36.652538</v>
       </c>
       <c r="D27" s="4">
-        <v>36.100918</v>
+        <v>35.741278000000001</v>
       </c>
       <c r="E27" t="s">
         <v>797</v>
@@ -61479,7 +61482,7 @@
         <v>25.258596000000001</v>
       </c>
       <c r="D28" s="4">
-        <v>29.539256999999999</v>
+        <v>26.695967</v>
       </c>
       <c r="E28" t="s">
         <v>798</v>
@@ -61496,7 +61499,7 @@
         <v>22.372497339999999</v>
       </c>
       <c r="D29" s="4">
-        <v>22.372497339999999</v>
+        <v>21.30886598</v>
       </c>
       <c r="E29" t="s">
         <v>799</v>
@@ -61513,7 +61516,7 @@
         <v>32.237061330000003</v>
       </c>
       <c r="D30" s="4">
-        <v>41.227150330000001</v>
+        <v>40.185705329999998</v>
       </c>
       <c r="E30" t="s">
         <v>800</v>
@@ -61530,7 +61533,7 @@
         <v>32.897590999999998</v>
       </c>
       <c r="D31" s="4">
-        <v>31.640650999999998</v>
+        <v>38.382210999999998</v>
       </c>
       <c r="E31" t="s">
         <v>801</v>
@@ -61547,7 +61550,7 @@
         <v>13.270429999999999</v>
       </c>
       <c r="D32" s="4">
-        <v>6.5934350000000004</v>
+        <v>3.336697</v>
       </c>
       <c r="E32" t="s">
         <v>802</v>
@@ -61564,7 +61567,7 @@
         <v>35.042874779999998</v>
       </c>
       <c r="D33" s="4">
-        <v>35.042874779999998</v>
+        <v>99.944263120000002</v>
       </c>
       <c r="E33" t="s">
         <v>803</v>
@@ -61615,7 +61618,7 @@
         <v>52.064036999999999</v>
       </c>
       <c r="D36" s="4">
-        <v>37.529260999999998</v>
+        <v>34.389336999999998</v>
       </c>
       <c r="E36" t="s">
         <v>806</v>
@@ -61632,7 +61635,7 @@
         <v>-15.53311704</v>
       </c>
       <c r="D37" s="4">
-        <v>-14.65440104</v>
+        <v>-16.922745039999999</v>
       </c>
       <c r="E37" t="s">
         <v>807</v>
@@ -61649,7 +61652,7 @@
         <v>24.870716810000001</v>
       </c>
       <c r="D38" s="4">
-        <v>35.538534810000002</v>
+        <v>35.401519810000003</v>
       </c>
       <c r="E38" t="s">
         <v>808</v>
@@ -61666,7 +61669,7 @@
         <v>22.711006999999999</v>
       </c>
       <c r="D39" s="4">
-        <v>26.029837000000001</v>
+        <v>22.124914</v>
       </c>
       <c r="E39" t="s">
         <v>809</v>
@@ -61683,7 +61686,7 @@
         <v>-1.772932</v>
       </c>
       <c r="D40" s="4">
-        <v>-2.1625909999999902</v>
+        <v>-6.06833799999999</v>
       </c>
       <c r="E40" t="s">
         <v>810</v>
@@ -61717,7 +61720,7 @@
         <v>15.806381979999999</v>
       </c>
       <c r="D42" s="4">
-        <v>25.123450980000001</v>
+        <v>26.881921980000001</v>
       </c>
       <c r="E42" t="s">
         <v>812</v>
@@ -61734,7 +61737,7 @@
         <v>-6.3751188399999998</v>
       </c>
       <c r="D43" s="4">
-        <v>-8.8387378400000003</v>
+        <v>-15.13520484</v>
       </c>
       <c r="E43" t="s">
         <v>813</v>
@@ -61751,7 +61754,7 @@
         <v>110.612478</v>
       </c>
       <c r="D44" s="4">
-        <v>111.10653499999999</v>
+        <v>112.10043400000001</v>
       </c>
       <c r="E44" t="s">
         <v>814</v>
@@ -61768,7 +61771,7 @@
         <v>-2.5519819300000002</v>
       </c>
       <c r="D45" s="4">
-        <v>-2.5838253</v>
+        <v>-2.5519819300000002</v>
       </c>
       <c r="E45" t="s">
         <v>815</v>
@@ -61802,7 +61805,7 @@
         <v>9.5126407299999993</v>
       </c>
       <c r="D47" s="4">
-        <v>8.0196569100000001</v>
+        <v>8.0219439099999992</v>
       </c>
       <c r="E47" t="s">
         <v>817</v>
@@ -61836,7 +61839,7 @@
         <v>633.82092590000002</v>
       </c>
       <c r="D49" s="4">
-        <v>635.64857497000003</v>
+        <v>639.74916997000003</v>
       </c>
       <c r="E49" t="s">
         <v>819</v>
@@ -61853,7 +61856,7 @@
         <v>-6.8160005300000002</v>
       </c>
       <c r="D50" s="4">
-        <v>-5.2256349100000001</v>
+        <v>-4.9676389099999998</v>
       </c>
       <c r="E50" t="s">
         <v>820</v>
@@ -61870,7 +61873,7 @@
         <v>-6.39338272</v>
       </c>
       <c r="D51" s="4">
-        <v>-8.2099744999999995</v>
+        <v>-6.4655725000000004</v>
       </c>
       <c r="E51" t="s">
         <v>821</v>
@@ -61887,7 +61890,7 @@
         <v>42.724968099999998</v>
       </c>
       <c r="D52" s="4">
-        <v>42.416818749999997</v>
+        <v>42.214708229999999</v>
       </c>
       <c r="E52" t="s">
         <v>822</v>
@@ -61904,7 +61907,7 @@
         <v>16.953243950000001</v>
       </c>
       <c r="D53" s="4">
-        <v>24.507030530000002</v>
+        <v>34.545318250000001</v>
       </c>
       <c r="E53" t="s">
         <v>823</v>
@@ -61921,7 +61924,7 @@
         <v>-8.57437425</v>
       </c>
       <c r="D54" s="4">
-        <v>-7.4430003500000002</v>
+        <v>31.942759479999999</v>
       </c>
       <c r="E54" t="s">
         <v>824</v>
@@ -61938,7 +61941,7 @@
         <v>5.8728270800000004</v>
       </c>
       <c r="D55" s="4">
-        <v>9.1243651099999994</v>
+        <v>9.2452170999999996</v>
       </c>
       <c r="E55" t="s">
         <v>825</v>
@@ -61955,7 +61958,7 @@
         <v>8.4671085799999997</v>
       </c>
       <c r="D56" s="4">
-        <v>6.6327733999999996</v>
+        <v>7.7086312899999996</v>
       </c>
       <c r="E56" t="s">
         <v>826</v>
@@ -61972,7 +61975,7 @@
         <v>5.28328826</v>
       </c>
       <c r="D57" s="4">
-        <v>18.6374733</v>
+        <v>20.48909519</v>
       </c>
       <c r="E57" t="s">
         <v>827</v>
@@ -61989,7 +61992,7 @@
         <v>9.5934293099999994</v>
       </c>
       <c r="D58" s="4">
-        <v>-5.8996441099999997</v>
+        <v>-18.437247289999998</v>
       </c>
       <c r="E58" t="s">
         <v>828</v>
@@ -62006,7 +62009,7 @@
         <v>-17.507021000000002</v>
       </c>
       <c r="D59" s="4">
-        <v>-1.8059836499999999</v>
+        <v>18.51793632</v>
       </c>
       <c r="E59" t="s">
         <v>829</v>
@@ -62023,7 +62026,7 @@
         <v>65.952395580000001</v>
       </c>
       <c r="D60" s="4">
-        <v>54.926574879999997</v>
+        <v>56.773203889999998</v>
       </c>
       <c r="E60" t="s">
         <v>830</v>
@@ -62040,7 +62043,7 @@
         <v>42.413036089999999</v>
       </c>
       <c r="D61" s="4">
-        <v>85.436375400000003</v>
+        <v>82.63365392</v>
       </c>
       <c r="E61" t="s">
         <v>831</v>
@@ -62057,7 +62060,7 @@
         <v>12.846561469999999</v>
       </c>
       <c r="D62" s="4">
-        <v>3.79781324</v>
+        <v>18.315211349999998</v>
       </c>
       <c r="E62" t="s">
         <v>832</v>
@@ -62074,7 +62077,7 @@
         <v>24.7655903</v>
       </c>
       <c r="D63" s="4">
-        <v>35.027452449999998</v>
+        <v>40.441251049999998</v>
       </c>
       <c r="E63" t="s">
         <v>833</v>
@@ -62091,7 +62094,7 @@
         <v>10.828560209999999</v>
       </c>
       <c r="D64" s="4">
-        <v>10.402314629999999</v>
+        <v>6.0210952799999999</v>
       </c>
       <c r="E64" t="s">
         <v>834</v>
@@ -62108,7 +62111,7 @@
         <v>6.3420944700000002</v>
       </c>
       <c r="D65" s="4">
-        <v>25.919504499999999</v>
+        <v>33.40184215</v>
       </c>
       <c r="E65" t="s">
         <v>835</v>
@@ -62125,7 +62128,7 @@
         <v>31.201658720000001</v>
       </c>
       <c r="D66" s="4">
-        <v>32.245743310000002</v>
+        <v>34.35044096</v>
       </c>
       <c r="E66" t="s">
         <v>836</v>
@@ -62142,7 +62145,7 @@
         <v>2.6023395699999998</v>
       </c>
       <c r="D67" s="4">
-        <v>-7.2640570699999998</v>
+        <v>-10.40379871</v>
       </c>
       <c r="E67" t="s">
         <v>837</v>
@@ -62159,7 +62162,7 @@
         <v>-10.06036557</v>
       </c>
       <c r="D68" s="4">
-        <v>-12.06584982</v>
+        <v>7.3761239600000001</v>
       </c>
       <c r="E68" t="s">
         <v>838</v>
@@ -62176,7 +62179,7 @@
         <v>15.34535429</v>
       </c>
       <c r="D69" s="4">
-        <v>27.244763469999999</v>
+        <v>42.113532540000001</v>
       </c>
       <c r="E69" t="s">
         <v>839</v>
@@ -62193,7 +62196,7 @@
         <v>28.205150029999999</v>
       </c>
       <c r="D70" s="4">
-        <v>30.138765070000002</v>
+        <v>30.84208409</v>
       </c>
       <c r="E70" t="s">
         <v>840</v>
@@ -62210,7 +62213,7 @@
         <v>12.181039200000001</v>
       </c>
       <c r="D71" s="4">
-        <v>4.0727325700000003</v>
+        <v>2.91449654</v>
       </c>
       <c r="E71" t="s">
         <v>841</v>
@@ -62227,7 +62230,7 @@
         <v>32.961793989999997</v>
       </c>
       <c r="D72" s="4">
-        <v>32.710357799999997</v>
+        <v>37.546743790000001</v>
       </c>
       <c r="E72" t="s">
         <v>842</v>
@@ -62244,7 +62247,7 @@
         <v>40.89864163</v>
       </c>
       <c r="D73" s="4">
-        <v>141.583799128615</v>
+        <v>158.04958208861501</v>
       </c>
       <c r="E73" t="s">
         <v>843</v>
@@ -62261,7 +62264,7 @@
         <v>58.797323679999998</v>
       </c>
       <c r="D74" s="4">
-        <v>95.725100100000006</v>
+        <v>102.25690301</v>
       </c>
       <c r="E74" t="s">
         <v>844</v>
@@ -62278,7 +62281,7 @@
         <v>7.9622104800000004</v>
       </c>
       <c r="D75" s="4">
-        <v>9.2790671599999897</v>
+        <v>13.35132743</v>
       </c>
       <c r="E75" t="s">
         <v>845</v>
@@ -62295,7 +62298,7 @@
         <v>-23.999614886656101</v>
       </c>
       <c r="D76" s="4">
-        <v>-27.701316229546599</v>
+        <v>-26.651350720957499</v>
       </c>
       <c r="E76" t="s">
         <v>846</v>
@@ -62312,7 +62315,7 @@
         <v>42.370037162861699</v>
       </c>
       <c r="D77" s="4">
-        <v>3.0923031972803399</v>
+        <v>3.1716863335893599</v>
       </c>
       <c r="E77" t="s">
         <v>847</v>
@@ -62329,10 +62332,27 @@
         <v>2.7526252712622501</v>
       </c>
       <c r="D78" s="4">
-        <v>2.7526252712622501</v>
+        <v>-10.3897053651588</v>
       </c>
       <c r="E78" t="s">
         <v>848</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s">
+        <v>767</v>
+      </c>
+      <c r="B79" s="5">
+        <v>45108</v>
+      </c>
+      <c r="C79" s="4">
+        <v>-19.089636114835098</v>
+      </c>
+      <c r="D79" s="4">
+        <v>-19.089636114835098</v>
+      </c>
+      <c r="E79" t="s">
+        <v>849</v>
       </c>
     </row>
   </sheetData>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 12/07/2023</t>
+    <t xml:space="preserve"> 12/08/2023</t>
   </si>
   <si>
     <t>Sección</t>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 07/08/2024</t>
+    <t xml:space="preserve"> 07/19/2024</t>
   </si>
   <si>
     <t>Sección</t>
@@ -62313,10 +62313,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>19.697277</v>
+        <v>19.697277069091797</v>
       </c>
       <c r="D2" s="4">
-        <v>19.697277</v>
+        <v>19.697277069091797</v>
       </c>
       <c r="E2" t="s">
         <v>795</v>
@@ -62330,10 +62330,10 @@
         <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>8.685314</v>
+        <v>8.6853141784667969</v>
       </c>
       <c r="D3" s="4">
-        <v>8.685314</v>
+        <v>8.6853141784667969</v>
       </c>
       <c r="E3" t="s">
         <v>796</v>
@@ -62347,10 +62347,10 @@
         <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>16.755955</v>
+        <v>16.755954742431641</v>
       </c>
       <c r="D4" s="4">
-        <v>16.755955</v>
+        <v>16.755954742431641</v>
       </c>
       <c r="E4" t="s">
         <v>797</v>
@@ -62364,10 +62364,10 @@
         <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>-3.4110719999999999</v>
+        <v>-3.4110720157623291</v>
       </c>
       <c r="D5" s="4">
-        <v>-3.4110719999999999</v>
+        <v>-3.4110720157623291</v>
       </c>
       <c r="E5" t="s">
         <v>798</v>
@@ -62381,10 +62381,10 @@
         <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>3.8653460000000002</v>
+        <v>3.8653459548950195</v>
       </c>
       <c r="D6" s="4">
-        <v>3.8653460000000002</v>
+        <v>3.8653459548950195</v>
       </c>
       <c r="E6" t="s">
         <v>799</v>
@@ -62398,10 +62398,10 @@
         <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>4.4693800000000001</v>
+        <v>4.4693799018859863</v>
       </c>
       <c r="D7" s="4">
-        <v>4.4693800000000001</v>
+        <v>4.4693799018859863</v>
       </c>
       <c r="E7" t="s">
         <v>800</v>
@@ -62415,10 +62415,10 @@
         <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>9.4570779999999992</v>
+        <v>9.4570779800415039</v>
       </c>
       <c r="D8" s="4">
-        <v>9.4570779999999992</v>
+        <v>9.4570779800415039</v>
       </c>
       <c r="E8" t="s">
         <v>801</v>
@@ -62432,10 +62432,10 @@
         <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>3.911575</v>
+        <v>3.9115750789642334</v>
       </c>
       <c r="D9" s="4">
-        <v>3.911575</v>
+        <v>3.9115750789642334</v>
       </c>
       <c r="E9" t="s">
         <v>802</v>
@@ -62449,10 +62449,10 @@
         <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>3.2128060000000001</v>
+        <v>3.2128059864044189</v>
       </c>
       <c r="D10" s="4">
-        <v>6.3125229999999997</v>
+        <v>6.3125228881835938</v>
       </c>
       <c r="E10" t="s">
         <v>803</v>
@@ -62466,10 +62466,10 @@
         <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>-4.6218254099999996</v>
+        <v>-4.6218252182006836</v>
       </c>
       <c r="D11" s="4">
-        <v>-3.0524294099999998</v>
+        <v>-3.0524294376373291</v>
       </c>
       <c r="E11" t="s">
         <v>804</v>
@@ -62483,10 +62483,10 @@
         <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>6.8510359999999997</v>
+        <v>6.8510360717773438</v>
       </c>
       <c r="D12" s="4">
-        <v>21.513366999999999</v>
+        <v>21.51336669921875</v>
       </c>
       <c r="E12" t="s">
         <v>805</v>
@@ -62500,10 +62500,10 @@
         <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>4.286435</v>
+        <v>4.2864351272583008</v>
       </c>
       <c r="D13" s="4">
-        <v>4.286435</v>
+        <v>4.2864351272583008</v>
       </c>
       <c r="E13" t="s">
         <v>806</v>
@@ -62517,10 +62517,10 @@
         <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>0.91230699999999998</v>
+        <v>0.9123070240020752</v>
       </c>
       <c r="D14" s="4">
-        <v>-1.95966</v>
+        <v>-1.9596600532531738</v>
       </c>
       <c r="E14" t="s">
         <v>807</v>
@@ -62534,10 +62534,10 @@
         <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>80.615251000000001</v>
+        <v>80.615249633789063</v>
       </c>
       <c r="D15" s="4">
-        <v>75.027418999999995</v>
+        <v>75.027420043945313</v>
       </c>
       <c r="E15" t="s">
         <v>808</v>
@@ -62551,10 +62551,10 @@
         <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>47.367077000000002</v>
+        <v>47.367076873779297</v>
       </c>
       <c r="D16" s="4">
-        <v>-8.7830759999999994</v>
+        <v>-8.783076286315918</v>
       </c>
       <c r="E16" t="s">
         <v>809</v>
@@ -62568,10 +62568,10 @@
         <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>13.307249000000001</v>
+        <v>13.307249069213867</v>
       </c>
       <c r="D17" s="4">
-        <v>15.297668</v>
+        <v>15.29766845703125</v>
       </c>
       <c r="E17" t="s">
         <v>810</v>
@@ -62585,10 +62585,10 @@
         <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>33.444360000000003</v>
+        <v>33.444358825683594</v>
       </c>
       <c r="D18" s="4">
-        <v>12.24431</v>
+        <v>12.24431037902832</v>
       </c>
       <c r="E18" t="s">
         <v>811</v>
@@ -62602,10 +62602,10 @@
         <v>39630</v>
       </c>
       <c r="C19" s="4">
-        <v>6.6062839999999996</v>
+        <v>6.6062841415405273</v>
       </c>
       <c r="D19" s="4">
-        <v>5.6135669999999998</v>
+        <v>5.6135668754577637</v>
       </c>
       <c r="E19" t="s">
         <v>812</v>
@@ -62619,10 +62619,10 @@
         <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>-10.522907999999999</v>
+        <v>-10.522908210754395</v>
       </c>
       <c r="D20" s="4">
-        <v>-8.7496939999999999</v>
+        <v>-8.7496938705444336</v>
       </c>
       <c r="E20" t="s">
         <v>813</v>
@@ -62636,10 +62636,10 @@
         <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>-1.8871340000000001</v>
+        <v>-1.8871339559555054</v>
       </c>
       <c r="D21" s="4">
-        <v>-4.8786800000000001</v>
+        <v>-4.8786802291870117</v>
       </c>
       <c r="E21" t="s">
         <v>814</v>
@@ -62653,10 +62653,10 @@
         <v>39904</v>
       </c>
       <c r="C22" s="4">
-        <v>8.9885640000000002</v>
+        <v>8.9885635375976563</v>
       </c>
       <c r="D22" s="4">
-        <v>4.2414839999999998</v>
+        <v>4.2414841651916504</v>
       </c>
       <c r="E22" t="s">
         <v>815</v>
@@ -62670,10 +62670,10 @@
         <v>39995</v>
       </c>
       <c r="C23" s="4">
-        <v>-1.872736</v>
+        <v>-1.8727359771728516</v>
       </c>
       <c r="D23" s="4">
-        <v>-4.0199889999999998</v>
+        <v>-4.019989013671875</v>
       </c>
       <c r="E23" t="s">
         <v>816</v>
@@ -62687,10 +62687,10 @@
         <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>6.0525779999999996</v>
+        <v>6.0525779724121094</v>
       </c>
       <c r="D24" s="4">
-        <v>4.5063950000000004</v>
+        <v>4.5063948631286621</v>
       </c>
       <c r="E24" t="s">
         <v>817</v>
@@ -62704,10 +62704,10 @@
         <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>24.402716999999999</v>
+        <v>24.402717590332031</v>
       </c>
       <c r="D25" s="4">
-        <v>24.402716999999999</v>
+        <v>24.402717590332031</v>
       </c>
       <c r="E25" t="s">
         <v>818</v>
@@ -62721,10 +62721,10 @@
         <v>40269</v>
       </c>
       <c r="C26" s="4">
-        <v>9.9979180000000003</v>
+        <v>9.9979181289672852</v>
       </c>
       <c r="D26" s="4">
-        <v>12.205315000000001</v>
+        <v>12.205314636230469</v>
       </c>
       <c r="E26" t="s">
         <v>819</v>
@@ -62738,10 +62738,10 @@
         <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>36.652538</v>
+        <v>36.652538299560547</v>
       </c>
       <c r="D27" s="4">
-        <v>35.741278000000001</v>
+        <v>35.741279602050781</v>
       </c>
       <c r="E27" t="s">
         <v>820</v>
@@ -62755,10 +62755,10 @@
         <v>40452</v>
       </c>
       <c r="C28" s="4">
-        <v>25.258596000000001</v>
+        <v>25.258596420288086</v>
       </c>
       <c r="D28" s="4">
-        <v>26.695967</v>
+        <v>26.695966720581055</v>
       </c>
       <c r="E28" t="s">
         <v>821</v>
@@ -62772,10 +62772,10 @@
         <v>40544</v>
       </c>
       <c r="C29" s="4">
-        <v>22.372497339999999</v>
+        <v>22.37249755859375</v>
       </c>
       <c r="D29" s="4">
-        <v>22.372497339999999</v>
+        <v>22.37249755859375</v>
       </c>
       <c r="E29" t="s">
         <v>822</v>
@@ -62789,10 +62789,10 @@
         <v>40634</v>
       </c>
       <c r="C30" s="4">
-        <v>32.237061330000003</v>
+        <v>32.237060546875</v>
       </c>
       <c r="D30" s="4">
-        <v>40.185705329999998</v>
+        <v>40.185707092285156</v>
       </c>
       <c r="E30" t="s">
         <v>823</v>
@@ -62806,10 +62806,10 @@
         <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>32.897590999999998</v>
+        <v>32.897590637207031</v>
       </c>
       <c r="D31" s="4">
-        <v>38.382210999999998</v>
+        <v>38.382209777832031</v>
       </c>
       <c r="E31" t="s">
         <v>824</v>
@@ -62823,10 +62823,10 @@
         <v>40817</v>
       </c>
       <c r="C32" s="4">
-        <v>13.270429999999999</v>
+        <v>13.270429611206055</v>
       </c>
       <c r="D32" s="4">
-        <v>3.336697</v>
+        <v>3.3366971015930176</v>
       </c>
       <c r="E32" t="s">
         <v>825</v>
@@ -62840,10 +62840,10 @@
         <v>40909</v>
       </c>
       <c r="C33" s="4">
-        <v>35.042874779999998</v>
+        <v>35.042873382568359</v>
       </c>
       <c r="D33" s="4">
-        <v>99.944263120000002</v>
+        <v>99.944259643554688</v>
       </c>
       <c r="E33" t="s">
         <v>826</v>
@@ -62857,10 +62857,10 @@
         <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>16.29993953</v>
+        <v>16.29994010925293</v>
       </c>
       <c r="D34" s="4">
-        <v>87.977531529999993</v>
+        <v>87.977531433105469</v>
       </c>
       <c r="E34" t="s">
         <v>827</v>
@@ -62874,10 +62874,10 @@
         <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>8.0578369999999993</v>
+        <v>8.0578365325927734</v>
       </c>
       <c r="D35" s="4">
-        <v>2.87809599999999</v>
+        <v>2.8780961036682129</v>
       </c>
       <c r="E35" t="s">
         <v>828</v>
@@ -62891,10 +62891,10 @@
         <v>41183</v>
       </c>
       <c r="C36" s="4">
-        <v>52.064036999999999</v>
+        <v>52.064037322998047</v>
       </c>
       <c r="D36" s="4">
-        <v>34.389336999999998</v>
+        <v>34.389335632324219</v>
       </c>
       <c r="E36" t="s">
         <v>829</v>
@@ -62908,10 +62908,10 @@
         <v>41275</v>
       </c>
       <c r="C37" s="4">
-        <v>-15.53311704</v>
+        <v>-15.533117294311523</v>
       </c>
       <c r="D37" s="4">
-        <v>-15.53311704</v>
+        <v>-15.533117294311523</v>
       </c>
       <c r="E37" t="s">
         <v>830</v>
@@ -62925,10 +62925,10 @@
         <v>41365</v>
       </c>
       <c r="C38" s="4">
-        <v>24.870716810000001</v>
+        <v>24.870716094970703</v>
       </c>
       <c r="D38" s="4">
-        <v>35.401519810000003</v>
+        <v>35.401519775390625</v>
       </c>
       <c r="E38" t="s">
         <v>831</v>
@@ -62942,10 +62942,10 @@
         <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>22.711006999999999</v>
+        <v>22.711006164550781</v>
       </c>
       <c r="D39" s="4">
-        <v>22.124914</v>
+        <v>22.124914169311523</v>
       </c>
       <c r="E39" t="s">
         <v>832</v>
@@ -62959,10 +62959,10 @@
         <v>41548</v>
       </c>
       <c r="C40" s="4">
-        <v>-1.772932</v>
+        <v>-1.7729320526123047</v>
       </c>
       <c r="D40" s="4">
-        <v>-6.06833799999999</v>
+        <v>-6.0683379173278809</v>
       </c>
       <c r="E40" t="s">
         <v>833</v>
@@ -62976,10 +62976,10 @@
         <v>41640</v>
       </c>
       <c r="C41" s="4">
-        <v>37.901347960000003</v>
+        <v>37.901348114013672</v>
       </c>
       <c r="D41" s="4">
-        <v>43.594717090000003</v>
+        <v>43.594718933105469</v>
       </c>
       <c r="E41" t="s">
         <v>834</v>
@@ -62993,10 +62993,10 @@
         <v>41730</v>
       </c>
       <c r="C42" s="4">
-        <v>15.806381979999999</v>
+        <v>15.806382179260254</v>
       </c>
       <c r="D42" s="4">
-        <v>26.881921980000001</v>
+        <v>26.881921768188477</v>
       </c>
       <c r="E42" t="s">
         <v>835</v>
@@ -63010,10 +63010,10 @@
         <v>41821</v>
       </c>
       <c r="C43" s="4">
-        <v>-6.3751188399999998</v>
+        <v>-6.3751187324523926</v>
       </c>
       <c r="D43" s="4">
-        <v>-15.13520484</v>
+        <v>-15.135205268859863</v>
       </c>
       <c r="E43" t="s">
         <v>836</v>
@@ -63027,10 +63027,10 @@
         <v>41913</v>
       </c>
       <c r="C44" s="4">
-        <v>110.612478</v>
+        <v>110.61248016357422</v>
       </c>
       <c r="D44" s="4">
-        <v>112.10043400000001</v>
+        <v>112.10043334960938</v>
       </c>
       <c r="E44" t="s">
         <v>837</v>
@@ -63044,10 +63044,10 @@
         <v>42005</v>
       </c>
       <c r="C45" s="4">
-        <v>-2.5519819300000002</v>
+        <v>-2.5519819259643555</v>
       </c>
       <c r="D45" s="4">
-        <v>-2.5519819300000002</v>
+        <v>-2.5519819259643555</v>
       </c>
       <c r="E45" t="s">
         <v>838</v>
@@ -63061,10 +63061,10 @@
         <v>42095</v>
       </c>
       <c r="C46" s="4">
-        <v>14.82946922</v>
+        <v>14.829469680786133</v>
       </c>
       <c r="D46" s="4">
-        <v>16.800854220000002</v>
+        <v>16.800853729248047</v>
       </c>
       <c r="E46" t="s">
         <v>839</v>
@@ -63078,10 +63078,10 @@
         <v>42186</v>
       </c>
       <c r="C47" s="4">
-        <v>9.5126407299999993</v>
+        <v>9.5126409530639648</v>
       </c>
       <c r="D47" s="4">
-        <v>8.0219439099999992</v>
+        <v>8.0219440460205078</v>
       </c>
       <c r="E47" t="s">
         <v>840</v>
@@ -63095,10 +63095,10 @@
         <v>42278</v>
       </c>
       <c r="C48" s="4">
-        <v>3.44481949</v>
+        <v>3.444819450378418</v>
       </c>
       <c r="D48" s="4">
-        <v>1.7676713900000001</v>
+        <v>1.7676713466644287</v>
       </c>
       <c r="E48" t="s">
         <v>841</v>
@@ -63112,10 +63112,10 @@
         <v>42370</v>
       </c>
       <c r="C49" s="4">
-        <v>633.82092590000002</v>
+        <v>633.8209228515625</v>
       </c>
       <c r="D49" s="4">
-        <v>639.74916997000003</v>
+        <v>639.7491455078125</v>
       </c>
       <c r="E49" t="s">
         <v>842</v>
@@ -63129,10 +63129,10 @@
         <v>42461</v>
       </c>
       <c r="C50" s="4">
-        <v>-6.8160005300000002</v>
+        <v>-6.8160004615783691</v>
       </c>
       <c r="D50" s="4">
-        <v>-4.9676389099999998</v>
+        <v>-4.9676389694213867</v>
       </c>
       <c r="E50" t="s">
         <v>843</v>
@@ -63146,10 +63146,10 @@
         <v>42552</v>
       </c>
       <c r="C51" s="4">
-        <v>-6.39338272</v>
+        <v>-6.3933825492858887</v>
       </c>
       <c r="D51" s="4">
-        <v>-6.4655725000000004</v>
+        <v>-6.4655723571777344</v>
       </c>
       <c r="E51" t="s">
         <v>844</v>
@@ -63163,10 +63163,10 @@
         <v>42644</v>
       </c>
       <c r="C52" s="4">
-        <v>42.724968099999998</v>
+        <v>42.724967956542969</v>
       </c>
       <c r="D52" s="4">
-        <v>42.214708229999999</v>
+        <v>42.214706420898438</v>
       </c>
       <c r="E52" t="s">
         <v>845</v>
@@ -63180,10 +63180,10 @@
         <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>16.953243950000001</v>
+        <v>16.953243255615234</v>
       </c>
       <c r="D53" s="4">
-        <v>34.545318250000001</v>
+        <v>34.545318603515625</v>
       </c>
       <c r="E53" t="s">
         <v>846</v>
@@ -63197,10 +63197,10 @@
         <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>-8.57437425</v>
+        <v>-8.5743741989135742</v>
       </c>
       <c r="D54" s="4">
-        <v>31.942759479999999</v>
+        <v>31.942758560180664</v>
       </c>
       <c r="E54" t="s">
         <v>847</v>
@@ -63214,10 +63214,10 @@
         <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>5.8728270800000004</v>
+        <v>5.8728270530700684</v>
       </c>
       <c r="D55" s="4">
-        <v>9.2452170999999996</v>
+        <v>9.2452173233032227</v>
       </c>
       <c r="E55" t="s">
         <v>848</v>
@@ -63231,10 +63231,10 @@
         <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>8.4671085799999997</v>
+        <v>8.4671087265014648</v>
       </c>
       <c r="D56" s="4">
-        <v>7.7086312900000102</v>
+        <v>7.7086315155029297</v>
       </c>
       <c r="E56" t="s">
         <v>849</v>
@@ -63248,10 +63248,10 @@
         <v>43101</v>
       </c>
       <c r="C57" s="4">
-        <v>5.28328826</v>
+        <v>5.2832884788513184</v>
       </c>
       <c r="D57" s="4">
-        <v>20.48909519</v>
+        <v>20.489095687866211</v>
       </c>
       <c r="E57" t="s">
         <v>850</v>
@@ -63265,10 +63265,10 @@
         <v>43191</v>
       </c>
       <c r="C58" s="4">
-        <v>9.5934293099999994</v>
+        <v>9.5934295654296875</v>
       </c>
       <c r="D58" s="4">
-        <v>-18.437247289999998</v>
+        <v>-18.437248229980469</v>
       </c>
       <c r="E58" t="s">
         <v>851</v>
@@ -63282,10 +63282,10 @@
         <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>-17.507021000000002</v>
+        <v>-17.507020950317383</v>
       </c>
       <c r="D59" s="4">
-        <v>18.51793632</v>
+        <v>18.517936706542969</v>
       </c>
       <c r="E59" t="s">
         <v>852</v>
@@ -63299,10 +63299,10 @@
         <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>65.952395580000001</v>
+        <v>65.952392578125</v>
       </c>
       <c r="D60" s="4">
-        <v>56.773203889999998</v>
+        <v>56.773204803466797</v>
       </c>
       <c r="E60" t="s">
         <v>853</v>
@@ -63316,10 +63316,10 @@
         <v>43466</v>
       </c>
       <c r="C61" s="4">
-        <v>42.413036089999999</v>
+        <v>42.413036346435547</v>
       </c>
       <c r="D61" s="4">
-        <v>82.63365392</v>
+        <v>82.633651733398438</v>
       </c>
       <c r="E61" t="s">
         <v>854</v>
@@ -63333,10 +63333,10 @@
         <v>43556</v>
       </c>
       <c r="C62" s="4">
-        <v>12.846561469999999</v>
+        <v>12.846561431884766</v>
       </c>
       <c r="D62" s="4">
-        <v>18.315211349999998</v>
+        <v>18.315212249755859</v>
       </c>
       <c r="E62" t="s">
         <v>855</v>
@@ -63350,10 +63350,10 @@
         <v>43647</v>
       </c>
       <c r="C63" s="4">
-        <v>24.7655903</v>
+        <v>24.765590667724609</v>
       </c>
       <c r="D63" s="4">
-        <v>40.441251049999998</v>
+        <v>40.441249847412109</v>
       </c>
       <c r="E63" t="s">
         <v>856</v>
@@ -63367,10 +63367,10 @@
         <v>43739</v>
       </c>
       <c r="C64" s="4">
-        <v>10.828560209999999</v>
+        <v>10.828559875488281</v>
       </c>
       <c r="D64" s="4">
-        <v>6.0210952799999999</v>
+        <v>6.0210952758789063</v>
       </c>
       <c r="E64" t="s">
         <v>857</v>
@@ -63384,10 +63384,10 @@
         <v>43831</v>
       </c>
       <c r="C65" s="4">
-        <v>6.3420944700000002</v>
+        <v>6.3420944213867188</v>
       </c>
       <c r="D65" s="4">
-        <v>33.40184215</v>
+        <v>33.401844024658203</v>
       </c>
       <c r="E65" t="s">
         <v>858</v>
@@ -63401,10 +63401,10 @@
         <v>43922</v>
       </c>
       <c r="C66" s="4">
-        <v>31.201658720000001</v>
+        <v>31.201658248901367</v>
       </c>
       <c r="D66" s="4">
-        <v>34.35044096</v>
+        <v>34.350440979003906</v>
       </c>
       <c r="E66" t="s">
         <v>859</v>
@@ -63418,10 +63418,10 @@
         <v>44013</v>
       </c>
       <c r="C67" s="4">
-        <v>2.6023395699999998</v>
+        <v>2.602339506149292</v>
       </c>
       <c r="D67" s="4">
-        <v>-10.40379871</v>
+        <v>-10.403799057006836</v>
       </c>
       <c r="E67" t="s">
         <v>860</v>
@@ -63435,10 +63435,10 @@
         <v>44105</v>
       </c>
       <c r="C68" s="4">
-        <v>-10.06036557</v>
+        <v>-10.060365676879883</v>
       </c>
       <c r="D68" s="4">
-        <v>7.3761239600000099</v>
+        <v>7.3761239051818848</v>
       </c>
       <c r="E68" t="s">
         <v>861</v>
@@ -63452,10 +63452,10 @@
         <v>44197</v>
       </c>
       <c r="C69" s="4">
-        <v>15.34535429</v>
+        <v>15.345354080200195</v>
       </c>
       <c r="D69" s="4">
-        <v>42.113532540000001</v>
+        <v>42.113533020019531</v>
       </c>
       <c r="E69" t="s">
         <v>862</v>
@@ -63469,10 +63469,10 @@
         <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>28.205150029999999</v>
+        <v>28.205150604248047</v>
       </c>
       <c r="D70" s="4">
-        <v>30.84208409</v>
+        <v>30.842084884643555</v>
       </c>
       <c r="E70" t="s">
         <v>863</v>
@@ -63486,10 +63486,10 @@
         <v>44378</v>
       </c>
       <c r="C71" s="4">
-        <v>12.181039200000001</v>
+        <v>12.181038856506348</v>
       </c>
       <c r="D71" s="4">
-        <v>2.91449654</v>
+        <v>2.9144964218139648</v>
       </c>
       <c r="E71" t="s">
         <v>864</v>
@@ -63503,10 +63503,10 @@
         <v>44470</v>
       </c>
       <c r="C72" s="4">
-        <v>32.961793989999997</v>
+        <v>32.961795806884766</v>
       </c>
       <c r="D72" s="4">
-        <v>37.546743790000001</v>
+        <v>37.546745300292969</v>
       </c>
       <c r="E72" t="s">
         <v>865</v>
@@ -63520,10 +63520,10 @@
         <v>44562</v>
       </c>
       <c r="C73" s="4">
-        <v>40.89864163</v>
+        <v>40.898643493652344</v>
       </c>
       <c r="D73" s="4">
-        <v>158.04958208861501</v>
+        <v>158.04957580566406</v>
       </c>
       <c r="E73" t="s">
         <v>866</v>
@@ -63537,10 +63537,10 @@
         <v>44652</v>
       </c>
       <c r="C74" s="4">
-        <v>58.797323679999998</v>
+        <v>58.797325134277344</v>
       </c>
       <c r="D74" s="4">
-        <v>102.25690301</v>
+        <v>102.25690460205078</v>
       </c>
       <c r="E74" t="s">
         <v>867</v>
@@ -63554,10 +63554,10 @@
         <v>44743</v>
       </c>
       <c r="C75" s="4">
-        <v>7.9622104800000004</v>
+        <v>7.9622106552124023</v>
       </c>
       <c r="D75" s="4">
-        <v>13.35132743</v>
+        <v>13.351327896118164</v>
       </c>
       <c r="E75" t="s">
         <v>868</v>
@@ -63571,10 +63571,10 @@
         <v>44835</v>
       </c>
       <c r="C76" s="4">
-        <v>-23.999614886656101</v>
+        <v>-23.999614715576172</v>
       </c>
       <c r="D76" s="4">
-        <v>-26.651350720957499</v>
+        <v>-26.651350021362305</v>
       </c>
       <c r="E76" t="s">
         <v>869</v>
@@ -63588,10 +63588,10 @@
         <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>42.370037162861699</v>
+        <v>42.370037078857422</v>
       </c>
       <c r="D77" s="4">
-        <v>1.67801965410123</v>
+        <v>1.678019642829895</v>
       </c>
       <c r="E77" t="s">
         <v>870</v>
@@ -63605,10 +63605,10 @@
         <v>45017</v>
       </c>
       <c r="C78" s="4">
-        <v>2.7526252712622501</v>
+        <v>2.7526252269744873</v>
       </c>
       <c r="D78" s="4">
-        <v>-11.4318540842545</v>
+        <v>-11.431854248046875</v>
       </c>
       <c r="E78" t="s">
         <v>871</v>
@@ -63622,10 +63622,10 @@
         <v>45108</v>
       </c>
       <c r="C79" s="4">
-        <v>-19.089636114835098</v>
+        <v>-19.089635848999023</v>
       </c>
       <c r="D79" s="4">
-        <v>-17.603534675453801</v>
+        <v>-17.603534698486328</v>
       </c>
       <c r="E79" t="s">
         <v>872</v>
@@ -63639,10 +63639,10 @@
         <v>45200</v>
       </c>
       <c r="C80" s="4">
-        <v>-67.334918825817596</v>
+        <v>-67.334915161132813</v>
       </c>
       <c r="D80" s="4">
-        <v>-67.334918825817596</v>
+        <v>-67.334915161132813</v>
       </c>
       <c r="E80" t="s">
         <v>873</v>
@@ -63656,10 +63656,10 @@
         <v>45292</v>
       </c>
       <c r="C81" s="4">
-        <v>27.419518552872699</v>
+        <v>27.419519424438477</v>
       </c>
       <c r="D81" s="4">
-        <v>27.419518552872699</v>
+        <v>27.419519424438477</v>
       </c>
       <c r="E81" t="s">
         <v>874</v>

--- a/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
+++ b/sej_datos/BD_INDUSTRIA_PLASTICOYHULE.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9065" uniqueCount="876">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9066" uniqueCount="876">
   <si>
     <t>Base de datos</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Industria del plástico y del hule</t>
   </si>
   <si>
-    <t xml:space="preserve"> 09/18/2024</t>
+    <t xml:space="preserve"> 09/30/2024</t>
   </si>
   <si>
     <t>Sección</t>
@@ -3290,7 +3290,7 @@
         <v>37622</v>
       </c>
       <c r="F2" s="4">
-        <v>0.031860802414363919</v>
+        <v>0.031860802322626114</v>
       </c>
     </row>
     <row r="3">
@@ -3310,7 +3310,7 @@
         <v>37987</v>
       </c>
       <c r="F3" s="4">
-        <v>0.031613522381268661</v>
+        <v>0.03161352127790451</v>
       </c>
     </row>
     <row r="4">
@@ -3330,7 +3330,7 @@
         <v>38353</v>
       </c>
       <c r="F4" s="4">
-        <v>0.032131884479090531</v>
+        <v>0.03213188424706459</v>
       </c>
     </row>
     <row r="5">
@@ -3350,7 +3350,7 @@
         <v>38718</v>
       </c>
       <c r="F5" s="4">
-        <v>0.031553530964110142</v>
+        <v>0.03155352920293808</v>
       </c>
     </row>
     <row r="6">
@@ -3370,7 +3370,7 @@
         <v>39083</v>
       </c>
       <c r="F6" s="4">
-        <v>0.028566184805585391</v>
+        <v>0.028566185384988785</v>
       </c>
     </row>
     <row r="7">
@@ -3390,7 +3390,7 @@
         <v>39448</v>
       </c>
       <c r="F7" s="4">
-        <v>0.027310146175982986</v>
+        <v>0.027310146018862724</v>
       </c>
     </row>
     <row r="8">
@@ -3410,7 +3410,7 @@
         <v>39814</v>
       </c>
       <c r="F8" s="4">
-        <v>0.025838983114869887</v>
+        <v>0.025838982313871384</v>
       </c>
     </row>
     <row r="9">
@@ -3430,7 +3430,7 @@
         <v>40179</v>
       </c>
       <c r="F9" s="4">
-        <v>0.024869039856317127</v>
+        <v>0.02486903965473175</v>
       </c>
     </row>
     <row r="10">
@@ -3450,7 +3450,7 @@
         <v>40544</v>
       </c>
       <c r="F10" s="4">
-        <v>0.024285556800355365</v>
+        <v>0.024285556748509407</v>
       </c>
     </row>
     <row r="11">
@@ -3470,7 +3470,7 @@
         <v>40909</v>
       </c>
       <c r="F11" s="4">
-        <v>0.025255281329463596</v>
+        <v>0.02525528147816658</v>
       </c>
     </row>
     <row r="12">
@@ -3490,7 +3490,7 @@
         <v>41275</v>
       </c>
       <c r="F12" s="4">
-        <v>0.023503313560069666</v>
+        <v>0.023503312841057777</v>
       </c>
     </row>
     <row r="13">
@@ -3510,7 +3510,7 @@
         <v>41640</v>
       </c>
       <c r="F13" s="4">
-        <v>0.023437180019078182</v>
+        <v>0.023437179625034332</v>
       </c>
     </row>
     <row r="14">
@@ -3530,7 +3530,7 @@
         <v>42005</v>
       </c>
       <c r="F14" s="4">
-        <v>0.024044531398061147</v>
+        <v>0.02404453232884407</v>
       </c>
     </row>
     <row r="15">
@@ -3550,7 +3550,7 @@
         <v>42370</v>
       </c>
       <c r="F15" s="4">
-        <v>0.024409261314769747</v>
+        <v>0.024409260600805283</v>
       </c>
     </row>
     <row r="16">
@@ -3570,7 +3570,7 @@
         <v>42736</v>
       </c>
       <c r="F16" s="4">
-        <v>0.024874446211821024</v>
+        <v>0.024874446913599968</v>
       </c>
     </row>
     <row r="17">
@@ -3590,7 +3590,7 @@
         <v>43101</v>
       </c>
       <c r="F17" s="4">
-        <v>0.025562353649883872</v>
+        <v>0.025562353432178497</v>
       </c>
     </row>
     <row r="18">
@@ -3610,7 +3610,7 @@
         <v>43466</v>
       </c>
       <c r="F18" s="4">
-        <v>0.026085168196459074</v>
+        <v>0.026085168123245239</v>
       </c>
     </row>
     <row r="19">
@@ -3630,7 +3630,7 @@
         <v>43831</v>
       </c>
       <c r="F19" s="4">
-        <v>0.026666266127049126</v>
+        <v>0.026666266843676567</v>
       </c>
     </row>
     <row r="20">
@@ -3650,7 +3650,7 @@
         <v>44197</v>
       </c>
       <c r="F20" s="4">
-        <v>0.028256596534153595</v>
+        <v>0.028256596997380257</v>
       </c>
     </row>
     <row r="21">
@@ -3670,7 +3670,7 @@
         <v>44562</v>
       </c>
       <c r="F21" s="4">
-        <v>0.030330696408857161</v>
+        <v>0.030330697074532509</v>
       </c>
     </row>
   </sheetData>
@@ -61687,7 +61687,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C71"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
@@ -62458,6 +62458,17 @@
       </c>
       <c r="C70" s="4">
         <v>434955</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="5">
+        <v>45383</v>
+      </c>
+      <c r="B71" t="s">
+        <v>787</v>
+      </c>
+      <c r="C71" s="4">
+        <v>473110</v>
       </c>
     </row>
   </sheetData>
@@ -62494,10 +62505,10 @@
         <v>36161</v>
       </c>
       <c r="C2" s="4">
-        <v>19.697277</v>
+        <v>19.697277069091797</v>
       </c>
       <c r="D2" s="4">
-        <v>19.697277</v>
+        <v>19.697277069091797</v>
       </c>
       <c r="E2" t="s">
         <v>795</v>
@@ -62511,10 +62522,10 @@
         <v>36526</v>
       </c>
       <c r="C3" s="4">
-        <v>8.685314</v>
+        <v>8.6853141784667969</v>
       </c>
       <c r="D3" s="4">
-        <v>8.685314</v>
+        <v>8.6853141784667969</v>
       </c>
       <c r="E3" t="s">
         <v>796</v>
@@ -62528,10 +62539,10 @@
         <v>36892</v>
       </c>
       <c r="C4" s="4">
-        <v>16.755955</v>
+        <v>16.755954742431641</v>
       </c>
       <c r="D4" s="4">
-        <v>16.755955</v>
+        <v>16.755954742431641</v>
       </c>
       <c r="E4" t="s">
         <v>797</v>
@@ -62545,10 +62556,10 @@
         <v>37257</v>
       </c>
       <c r="C5" s="4">
-        <v>-3.4110719999999999</v>
+        <v>-3.4110720157623291</v>
       </c>
       <c r="D5" s="4">
-        <v>-3.4110719999999999</v>
+        <v>-3.4110720157623291</v>
       </c>
       <c r="E5" t="s">
         <v>798</v>
@@ -62562,10 +62573,10 @@
         <v>37622</v>
       </c>
       <c r="C6" s="4">
-        <v>3.8653460000000002</v>
+        <v>3.8653459548950195</v>
       </c>
       <c r="D6" s="4">
-        <v>3.8653460000000002</v>
+        <v>3.8653459548950195</v>
       </c>
       <c r="E6" t="s">
         <v>799</v>
@@ -62579,10 +62590,10 @@
         <v>37987</v>
       </c>
       <c r="C7" s="4">
-        <v>4.4693800000000001</v>
+        <v>4.4693799018859863</v>
       </c>
       <c r="D7" s="4">
-        <v>4.4693800000000001</v>
+        <v>4.4693799018859863</v>
       </c>
       <c r="E7" t="s">
         <v>800</v>
@@ -62596,10 +62607,10 @@
         <v>38353</v>
       </c>
       <c r="C8" s="4">
-        <v>9.4570779999999992</v>
+        <v>9.4570779800415039</v>
       </c>
       <c r="D8" s="4">
-        <v>9.4570779999999992</v>
+        <v>9.4570779800415039</v>
       </c>
       <c r="E8" t="s">
         <v>801</v>
@@ -62613,10 +62624,10 @@
         <v>38718</v>
       </c>
       <c r="C9" s="4">
-        <v>3.911575</v>
+        <v>3.9115750789642334</v>
       </c>
       <c r="D9" s="4">
-        <v>3.911575</v>
+        <v>3.9115750789642334</v>
       </c>
       <c r="E9" t="s">
         <v>802</v>
@@ -62630,10 +62641,10 @@
         <v>38808</v>
       </c>
       <c r="C10" s="4">
-        <v>3.2128060000000001</v>
+        <v>3.2128059864044189</v>
       </c>
       <c r="D10" s="4">
-        <v>6.3125229999999997</v>
+        <v>6.3125228881835938</v>
       </c>
       <c r="E10" t="s">
         <v>803</v>
@@ -62647,10 +62658,10 @@
         <v>38899</v>
       </c>
       <c r="C11" s="4">
-        <v>-4.6218254099999996</v>
+        <v>-4.6218252182006836</v>
       </c>
       <c r="D11" s="4">
-        <v>-3.0524294099999998</v>
+        <v>-3.0524294376373291</v>
       </c>
       <c r="E11" t="s">
         <v>804</v>
@@ -62664,10 +62675,10 @@
         <v>38991</v>
       </c>
       <c r="C12" s="4">
-        <v>6.8510359999999997</v>
+        <v>6.8510360717773438</v>
       </c>
       <c r="D12" s="4">
-        <v>21.513366999999999</v>
+        <v>21.51336669921875</v>
       </c>
       <c r="E12" t="s">
         <v>805</v>
@@ -62681,10 +62692,10 @@
         <v>39083</v>
       </c>
       <c r="C13" s="4">
-        <v>4.286435</v>
+        <v>4.2864351272583008</v>
       </c>
       <c r="D13" s="4">
-        <v>4.286435</v>
+        <v>4.2864351272583008</v>
       </c>
       <c r="E13" t="s">
         <v>806</v>
@@ -62698,10 +62709,10 @@
         <v>39173</v>
       </c>
       <c r="C14" s="4">
-        <v>0.91230699999999998</v>
+        <v>0.9123070240020752</v>
       </c>
       <c r="D14" s="4">
-        <v>-1.95966</v>
+        <v>-1.9596600532531738</v>
       </c>
       <c r="E14" t="s">
         <v>807</v>
@@ -62715,10 +62726,10 @@
         <v>39264</v>
       </c>
       <c r="C15" s="4">
-        <v>80.615251000000001</v>
+        <v>80.615249633789063</v>
       </c>
       <c r="D15" s="4">
-        <v>75.027418999999995</v>
+        <v>75.027420043945313</v>
       </c>
       <c r="E15" t="s">
         <v>808</v>
@@ -62732,10 +62743,10 @@
         <v>39356</v>
       </c>
       <c r="C16" s="4">
-        <v>47.367077000000002</v>
+        <v>47.367076873779297</v>
       </c>
       <c r="D16" s="4">
-        <v>-8.7830759999999994</v>
+        <v>-8.783076286315918</v>
       </c>
       <c r="E16" t="s">
         <v>809</v>
@@ -62749,10 +62760,10 @@
         <v>39448</v>
       </c>
       <c r="C17" s="4">
-        <v>13.307249000000001</v>
+        <v>13.307249069213867</v>
       </c>
       <c r="D17" s="4">
-        <v>15.297668</v>
+        <v>15.29766845703125</v>
       </c>
       <c r="E17" t="s">
         <v>810</v>
@@ -62766,10 +62777,10 @@
         <v>39539</v>
       </c>
       <c r="C18" s="4">
-        <v>33.444360000000003</v>
+        <v>33.444358825683594</v>
       </c>
       <c r="D18" s="4">
-        <v>12.24431</v>
+        <v>12.24431037902832</v>
       </c>
       <c r="E18" t="s">
         <v>811</v>
@@ -62783,10 +62794,10 @@
         <v>39630</v>
       </c>
       <c r="C19" s="4">
-        <v>6.6062839999999996</v>
+        <v>6.6062841415405273</v>
       </c>
       <c r="D19" s="4">
-        <v>5.6135669999999998</v>
+        <v>5.6135668754577637</v>
       </c>
       <c r="E19" t="s">
         <v>812</v>
@@ -62800,10 +62811,10 @@
         <v>39722</v>
       </c>
       <c r="C20" s="4">
-        <v>-10.522907999999999</v>
+        <v>-10.522908210754395</v>
       </c>
       <c r="D20" s="4">
-        <v>-8.7496939999999999</v>
+        <v>-8.7496938705444336</v>
       </c>
       <c r="E20" t="s">
         <v>813</v>
@@ -62817,10 +62828,10 @@
         <v>39814</v>
       </c>
       <c r="C21" s="4">
-        <v>-1.8871340000000001</v>
+        <v>-1.8871339559555054</v>
       </c>
       <c r="D21" s="4">
-        <v>-1.8871340000000001</v>
+        <v>-1.8871339559555054</v>
       </c>
       <c r="E21" t="s">
         <v>814</v>
@@ -62834,10 +62845,10 @@
         <v>39904</v>
       </c>
       <c r="C22" s="4">
-        <v>8.9885640000000002</v>
+        <v>8.9885635375976563</v>
       </c>
       <c r="D22" s="4">
-        <v>4.2414839999999998</v>
+        <v>4.2414841651916504</v>
       </c>
       <c r="E22" t="s">
         <v>815</v>
@@ -62851,10 +62862,10 @@
         <v>39995</v>
       </c>
       <c r="C23" s="4">
-        <v>-1.872736</v>
+        <v>-1.8727359771728516</v>
       </c>
       <c r="D23" s="4">
-        <v>-4.0199889999999998</v>
+        <v>-4.019989013671875</v>
       </c>
       <c r="E23" t="s">
         <v>816</v>
@@ -62868,10 +62879,10 @@
         <v>40087</v>
       </c>
       <c r="C24" s="4">
-        <v>6.0525779999999996</v>
+        <v>6.0525779724121094</v>
       </c>
       <c r="D24" s="4">
-        <v>4.5063950000000004</v>
+        <v>4.5063948631286621</v>
       </c>
       <c r="E24" t="s">
         <v>817</v>
@@ -62885,10 +62896,10 @@
         <v>40179</v>
       </c>
       <c r="C25" s="4">
-        <v>24.402716999999999</v>
+        <v>24.402717590332031</v>
       </c>
       <c r="D25" s="4">
-        <v>24.402716999999999</v>
+        <v>24.402717590332031</v>
       </c>
       <c r="E25" t="s">
         <v>818</v>
@@ -62902,10 +62913,10 @@
         <v>40269</v>
       </c>
       <c r="C26" s="4">
-        <v>9.9979180000000003</v>
+        <v>9.9979181289672852</v>
       </c>
       <c r="D26" s="4">
-        <v>12.205315000000001</v>
+        <v>12.205314636230469</v>
       </c>
       <c r="E26" t="s">
         <v>819</v>
@@ -62919,10 +62930,10 @@
         <v>40360</v>
       </c>
       <c r="C27" s="4">
-        <v>36.652538</v>
+        <v>36.652538299560547</v>
       </c>
       <c r="D27" s="4">
-        <v>35.741278000000001</v>
+        <v>35.741279602050781</v>
       </c>
       <c r="E27" t="s">
         <v>820</v>
@@ -62936,10 +62947,10 @@
         <v>40452</v>
       </c>
       <c r="C28" s="4">
-        <v>25.258596000000001</v>
+        <v>25.258596420288086</v>
       </c>
       <c r="D28" s="4">
-        <v>26.695967</v>
+        <v>26.695966720581055</v>
       </c>
       <c r="E28" t="s">
         <v>821</v>
@@ -62953,10 +62964,10 @@
         <v>40544</v>
       </c>
       <c r="C29" s="4">
-        <v>22.372497339999999</v>
+        <v>22.37249755859375</v>
       </c>
       <c r="D29" s="4">
-        <v>22.372497339999999</v>
+        <v>22.37249755859375</v>
       </c>
       <c r="E29" t="s">
         <v>822</v>
@@ -62970,10 +62981,10 @@
         <v>40634</v>
       </c>
       <c r="C30" s="4">
-        <v>32.237061330000003</v>
+        <v>32.237060546875</v>
       </c>
       <c r="D30" s="4">
-        <v>40.185705329999998</v>
+        <v>40.185707092285156</v>
       </c>
       <c r="E30" t="s">
         <v>823</v>
@@ -62987,10 +62998,10 @@
         <v>40725</v>
       </c>
       <c r="C31" s="4">
-        <v>32.897590999999998</v>
+        <v>32.897590637207031</v>
       </c>
       <c r="D31" s="4">
-        <v>38.382210999999998</v>
+        <v>38.382209777832031</v>
       </c>
       <c r="E31" t="s">
         <v>824</v>
@@ -63004,10 +63015,10 @@
         <v>40817</v>
       </c>
       <c r="C32" s="4">
-        <v>13.270429999999999</v>
+        <v>13.270429611206055</v>
       </c>
       <c r="D32" s="4">
-        <v>3.336697</v>
+        <v>3.3366971015930176</v>
       </c>
       <c r="E32" t="s">
         <v>825</v>
@@ -63021,10 +63032,10 @@
         <v>40909</v>
       </c>
       <c r="C33" s="4">
-        <v>35.042874779999998</v>
+        <v>35.042873382568359</v>
       </c>
       <c r="D33" s="4">
-        <v>99.944263120000002</v>
+        <v>99.944259643554688</v>
       </c>
       <c r="E33" t="s">
         <v>826</v>
@@ -63038,10 +63049,10 @@
         <v>41000</v>
       </c>
       <c r="C34" s="4">
-        <v>16.29993953</v>
+        <v>16.29994010925293</v>
       </c>
       <c r="D34" s="4">
-        <v>87.977531529999993</v>
+        <v>87.977531433105469</v>
       </c>
       <c r="E34" t="s">
         <v>827</v>
@@ -63055,10 +63066,10 @@
         <v>41091</v>
       </c>
       <c r="C35" s="4">
-        <v>8.0578369999999993</v>
+        <v>8.0578365325927734</v>
       </c>
       <c r="D35" s="4">
-        <v>2.8780960000000002</v>
+        <v>2.8780961036682129</v>
       </c>
       <c r="E35" t="s">
         <v>828</v>
@@ -63072,10 +63083,10 @@
         <v>41183</v>
       </c>
       <c r="C36" s="4">
-        <v>52.064036999999999</v>
+        <v>52.064037322998047</v>
       </c>
       <c r="D36" s="4">
-        <v>34.389336999999998</v>
+        <v>34.389335632324219</v>
       </c>
       <c r="E36" t="s">
         <v>829</v>
@@ -63089,10 +63100,10 @@
         <v>41275</v>
       </c>
       <c r="C37" s="4">
-        <v>-15.53311704</v>
+        <v>-15.533117294311523</v>
       </c>
       <c r="D37" s="4">
-        <v>-16.922745039999999</v>
+        <v>-16.922744750976563</v>
       </c>
       <c r="E37" t="s">
         <v>830</v>
@@ -63106,10 +63117,10 @@
         <v>41365</v>
       </c>
       <c r="C38" s="4">
-        <v>24.870716810000001</v>
+        <v>24.870716094970703</v>
       </c>
       <c r="D38" s="4">
-        <v>35.401519810000003</v>
+        <v>35.401519775390625</v>
       </c>
       <c r="E38" t="s">
         <v>831</v>
@@ -63123,10 +63134,10 @@
         <v>41456</v>
       </c>
       <c r="C39" s="4">
-        <v>22.711006999999999</v>
+        <v>22.711006164550781</v>
       </c>
       <c r="D39" s="4">
-        <v>22.124914</v>
+        <v>22.124914169311523</v>
       </c>
       <c r="E39" t="s">
         <v>832</v>
@@ -63140,10 +63151,10 @@
         <v>41548</v>
       </c>
       <c r="C40" s="4">
-        <v>-1.772932</v>
+        <v>-1.7729320526123047</v>
       </c>
       <c r="D40" s="4">
-        <v>-6.06833799999999</v>
+        <v>-6.0683379173278809</v>
       </c>
       <c r="E40" t="s">
         <v>833</v>
@@ -63157,10 +63168,10 @@
         <v>41640</v>
       </c>
       <c r="C41" s="4">
-        <v>37.901347960000003</v>
+        <v>37.901348114013672</v>
       </c>
       <c r="D41" s="4">
-        <v>37.901347960000003</v>
+        <v>37.901348114013672</v>
       </c>
       <c r="E41" t="s">
         <v>834</v>
@@ -63174,10 +63185,10 @@
         <v>41730</v>
       </c>
       <c r="C42" s="4">
-        <v>15.806381979999999</v>
+        <v>15.806382179260254</v>
       </c>
       <c r="D42" s="4">
-        <v>26.881921980000001</v>
+        <v>26.881921768188477</v>
       </c>
       <c r="E42" t="s">
         <v>835</v>
@@ -63191,10 +63202,10 @@
         <v>41821</v>
       </c>
       <c r="C43" s="4">
-        <v>-6.3751188399999998</v>
+        <v>-6.3751187324523926</v>
       </c>
       <c r="D43" s="4">
-        <v>-15.13520484</v>
+        <v>-15.135205268859863</v>
       </c>
       <c r="E43" t="s">
         <v>836</v>
@@ -63208,10 +63219,10 @@
         <v>41913</v>
       </c>
       <c r="C44" s="4">
-        <v>110.612478</v>
+        <v>110.61248016357422</v>
       </c>
       <c r="D44" s="4">
-        <v>112.10043400000001</v>
+        <v>112.10043334960938</v>
       </c>
       <c r="E44" t="s">
         <v>837</v>
@@ -63225,10 +63236,10 @@
         <v>42005</v>
       </c>
       <c r="C45" s="4">
-        <v>-2.5519819300000002</v>
+        <v>-2.5519819259643555</v>
       </c>
       <c r="D45" s="4">
-        <v>-2.5838253</v>
+        <v>-2.5838253498077393</v>
       </c>
       <c r="E45" t="s">
         <v>838</v>
@@ -63242,10 +63253,10 @@
         <v>42095</v>
       </c>
       <c r="C46" s="4">
-        <v>14.82946922</v>
+        <v>14.829469680786133</v>
       </c>
       <c r="D46" s="4">
-        <v>16.800854220000002</v>
+        <v>16.800853729248047</v>
       </c>
       <c r="E46" t="s">
         <v>839</v>
@@ -63259,10 +63270,10 @@
         <v>42186</v>
       </c>
       <c r="C47" s="4">
-        <v>9.5126407299999993</v>
+        <v>9.5126409530639648</v>
       </c>
       <c r="D47" s="4">
-        <v>8.0219439099999992</v>
+        <v>8.0219440460205078</v>
       </c>
       <c r="E47" t="s">
         <v>840</v>
@@ -63276,10 +63287,10 @@
         <v>42278</v>
       </c>
       <c r="C48" s="4">
-        <v>3.44481949</v>
+        <v>3.444819450378418</v>
       </c>
       <c r="D48" s="4">
-        <v>1.7676713900000001</v>
+        <v>1.7676713466644287</v>
       </c>
       <c r="E48" t="s">
         <v>841</v>
@@ -63293,10 +63304,10 @@
         <v>42370</v>
       </c>
       <c r="C49" s="4">
-        <v>633.82092590000002</v>
+        <v>633.8209228515625</v>
       </c>
       <c r="D49" s="4">
-        <v>639.74916997000003</v>
+        <v>639.7491455078125</v>
       </c>
       <c r="E49" t="s">
         <v>842</v>
@@ -63310,10 +63321,10 @@
         <v>42461</v>
       </c>
       <c r="C50" s="4">
-        <v>-6.8160005300000002</v>
+        <v>-6.8160004615783691</v>
       </c>
       <c r="D50" s="4">
-        <v>-4.9676389099999998</v>
+        <v>-4.9676389694213867</v>
       </c>
       <c r="E50" t="s">
         <v>843</v>
@@ -63327,10 +63338,10 @@
         <v>42552</v>
       </c>
       <c r="C51" s="4">
-        <v>-6.39338272</v>
+        <v>-6.3933825492858887</v>
       </c>
       <c r="D51" s="4">
-        <v>-6.4655725000000004</v>
+        <v>-6.4655723571777344</v>
       </c>
       <c r="E51" t="s">
         <v>844</v>
@@ -63344,10 +63355,10 @@
         <v>42644</v>
       </c>
       <c r="C52" s="4">
-        <v>42.724968099999998</v>
+        <v>42.724967956542969</v>
       </c>
       <c r="D52" s="4">
-        <v>42.214708229999999</v>
+        <v>42.214706420898438</v>
       </c>
       <c r="E52" t="s">
         <v>845</v>
@@ -63361,10 +63372,10 @@
         <v>42736</v>
       </c>
       <c r="C53" s="4">
-        <v>16.953243950000001</v>
+        <v>16.953243255615234</v>
       </c>
       <c r="D53" s="4">
-        <v>34.545318250000001</v>
+        <v>34.545318603515625</v>
       </c>
       <c r="E53" t="s">
         <v>846</v>
@@ -63378,10 +63389,10 @@
         <v>42826</v>
       </c>
       <c r="C54" s="4">
-        <v>-8.57437425</v>
+        <v>-8.5743741989135742</v>
       </c>
       <c r="D54" s="4">
-        <v>31.942759479999999</v>
+        <v>31.942758560180664</v>
       </c>
       <c r="E54" t="s">
         <v>847</v>
@@ -63395,10 +63406,10 @@
         <v>42917</v>
       </c>
       <c r="C55" s="4">
-        <v>5.8728270800000004</v>
+        <v>5.8728270530700684</v>
       </c>
       <c r="D55" s="4">
-        <v>9.2452170999999996</v>
+        <v>9.2452173233032227</v>
       </c>
       <c r="E55" t="s">
         <v>848</v>
@@ -63412,10 +63423,10 @@
         <v>43009</v>
       </c>
       <c r="C56" s="4">
-        <v>8.4671085799999997</v>
+        <v>8.4671087265014648</v>
       </c>
       <c r="D56" s="4">
-        <v>7.7086312899999996</v>
+        <v>7.7086315155029297</v>
       </c>
       <c r="E56" t="s">
         <v>849</v>
@@ -63429,10 +63440,10 @@
         <v>43101</v>
       </c>
       <c r="C57" s="4">
-        <v>5.28328826</v>
+        <v>5.2832884788513184</v>
       </c>
       <c r="D57" s="4">
-        <v>20.48909519</v>
+        <v>20.489095687866211</v>
       </c>
       <c r="E57" t="s">
         <v>850</v>
@@ -63446,10 +63457,10 @@
         <v>43191</v>
       </c>
       <c r="C58" s="4">
-        <v>9.5934293099999994</v>
+        <v>9.5934295654296875</v>
       </c>
       <c r="D58" s="4">
-        <v>-18.437247289999998</v>
+        <v>-18.437248229980469</v>
       </c>
       <c r="E58" t="s">
         <v>851</v>
@@ -63463,10 +63474,10 @@
         <v>43282</v>
       </c>
       <c r="C59" s="4">
-        <v>-17.507021000000002</v>
+        <v>-17.507020950317383</v>
       </c>
       <c r="D59" s="4">
-        <v>18.51793632</v>
+        <v>18.517936706542969</v>
       </c>
       <c r="E59" t="s">
         <v>852</v>
@@ -63480,10 +63491,10 @@
         <v>43374</v>
       </c>
       <c r="C60" s="4">
-        <v>65.952395580000001</v>
+        <v>65.952392578125</v>
       </c>
       <c r="D60" s="4">
-        <v>56.773203889999998</v>
+        <v>56.773204803466797</v>
       </c>
       <c r="E60" t="s">
         <v>853</v>
@@ -63497,10 +63508,10 @@
         <v>43466</v>
       </c>
       <c r="C61" s="4">
-        <v>42.413036089999999</v>
+        <v>42.413036346435547</v>
       </c>
       <c r="D61" s="4">
-        <v>82.63365392</v>
+        <v>82.633651733398438</v>
       </c>
       <c r="E61" t="s">
         <v>854</v>
@@ -63514,10 +63525,10 @@
         <v>43556</v>
       </c>
       <c r="C62" s="4">
-        <v>12.846561469999999</v>
+        <v>12.846561431884766</v>
       </c>
       <c r="D62" s="4">
-        <v>18.495278299999999</v>
+        <v>18.495277404785156</v>
       </c>
       <c r="E62" t="s">
         <v>855</v>
@@ -63531,10 +63542,10 @@
         <v>43647</v>
       </c>
       <c r="C63" s="4">
-        <v>24.7655903</v>
+        <v>24.765590667724609</v>
       </c>
       <c r="D63" s="4">
-        <v>40.53206033</v>
+        <v>40.532058715820313</v>
       </c>
       <c r="E63" t="s">
         <v>856</v>
@@ -63548,10 +63559,10 @@
         <v>43739</v>
       </c>
       <c r="C64" s="4">
-        <v>10.828560209999999</v>
+        <v>10.828559875488281</v>
       </c>
       <c r="D64" s="4">
-        <v>6.0210952799999999</v>
+        <v>6.0210952758789063</v>
       </c>
       <c r="E64" t="s">
         <v>857</v>
@@ -63565,10 +63576,10 @@
         <v>43831</v>
       </c>
       <c r="C65" s="4">
-        <v>6.3420944700000002</v>
+        <v>6.3420944213867188</v>
       </c>
       <c r="D65" s="4">
-        <v>33.104613620000002</v>
+        <v>33.1046142578125</v>
       </c>
       <c r="E65" t="s">
         <v>858</v>
@@ -63582,10 +63593,10 @@
         <v>43922</v>
       </c>
       <c r="C66" s="4">
-        <v>31.201658720000001</v>
+        <v>31.201658248901367</v>
       </c>
       <c r="D66" s="4">
-        <v>34.35044096</v>
+        <v>34.350440979003906</v>
       </c>
       <c r="E66" t="s">
         <v>859</v>
@@ -63599,10 +63610,10 @@
         <v>44013</v>
       </c>
       <c r="C67" s="4">
-        <v>2.6023395699999998</v>
+        <v>2.602339506149292</v>
       </c>
       <c r="D67" s="4">
-        <v>-10.40379871</v>
+        <v>-10.403799057006836</v>
       </c>
       <c r="E67" t="s">
         <v>860</v>
@@ -63616,10 +63627,10 @@
         <v>44105</v>
       </c>
       <c r="C68" s="4">
-        <v>-10.06036557</v>
+        <v>-10.060365676879883</v>
       </c>
       <c r="D68" s="4">
-        <v>7.3761239600000001</v>
+        <v>7.3761239051818848</v>
       </c>
       <c r="E68" t="s">
         <v>861</v>
@@ -63633,10 +63644,10 @@
         <v>44197</v>
       </c>
       <c r="C69" s="4">
-        <v>15.34535429</v>
+        <v>15.345354080200195</v>
       </c>
       <c r="D69" s="4">
-        <v>42.113532540000001</v>
+        <v>42.113533020019531</v>
       </c>
       <c r="E69" t="s">
         <v>862</v>
@@ -63650,10 +63661,10 @@
         <v>44287</v>
       </c>
       <c r="C70" s="4">
-        <v>28.205150029999999</v>
+        <v>28.205150604248047</v>
       </c>
       <c r="D70" s="4">
-        <v>30.84208409</v>
+        <v>30.842084884643555</v>
       </c>
       <c r="E70" t="s">
         <v>863</v>
@@ -63667,10 +63678,10 @@
         <v>44378</v>
       </c>
       <c r="C71" s="4">
-        <v>12.181039200000001</v>
+        <v>12.181038856506348</v>
       </c>
       <c r="D71" s="4">
-        <v>2.9144965399999898</v>
+        <v>2.9144964218139648</v>
       </c>
       <c r="E71" t="s">
         <v>864</v>
@@ -63684,10 +63695,10 @@
         <v>44470</v>
       </c>
       <c r="C72" s="4">
-        <v>32.961793989999997</v>
+        <v>32.961795806884766</v>
       </c>
       <c r="D72" s="4">
-        <v>37.546743790000001</v>
+        <v>37.546745300292969</v>
       </c>
       <c r="E72" t="s">
         <v>865</v>
@@ -63701,10 +63712,10 @@
         <v>44562</v>
       </c>
       <c r="C73" s="4">
-        <v>40.89864163</v>
+        <v>40.898643493652344</v>
       </c>
       <c r="D73" s="4">
-        <v>158.04958208861501</v>
+        <v>158.04957580566406</v>
       </c>
       <c r="E73" t="s">
         <v>866</v>
@@ -63718,10 +63729,10 @@
         <v>44652</v>
       </c>
       <c r="C74" s="4">
-        <v>58.797323679999998</v>
+        <v>58.797325134277344</v>
       </c>
       <c r="D74" s="4">
-        <v>102.25690301</v>
+        <v>102.25690460205078</v>
       </c>
       <c r="E74" t="s">
         <v>867</v>
@@ -63735,10 +63746,10 @@
         <v>44743</v>
       </c>
       <c r="C75" s="4">
-        <v>7.9622104800000004</v>
+        <v>7.9622106552124023</v>
       </c>
       <c r="D75" s="4">
-        <v>13.35132743</v>
+        <v>13.351327896118164</v>
       </c>
       <c r="E75" t="s">
         <v>868</v>
@@ -63752,10 +63763,10 @@
         <v>44835</v>
       </c>
       <c r="C76" s="4">
-        <v>-23.999614886656101</v>
+        <v>-23.999614715576172</v>
       </c>
       <c r="D76" s="4">
-        <v>-26.651350720957499</v>
+        <v>-26.651350021362305</v>
       </c>
       <c r="E76" t="s">
         <v>869</v>
@@ -63769,10 +63780,10 @@
         <v>44927</v>
       </c>
       <c r="C77" s="4">
-        <v>42.370037162861699</v>
+        <v>42.370037078857422</v>
       </c>
       <c r="D77" s="4">
-        <v>1.67801965410122</v>
+        <v>1.678019642829895</v>
       </c>
       <c r="E77" t="s">
         <v>870</v>
@@ -63786,10 +63797,10 @@
         <v>45017</v>
       </c>
       <c r="C78" s="4">
-        <v>2.7526252712622501</v>
+        <v>2.7526252269744873</v>
       </c>
       <c r="D78" s="4">
-        <v>-11.4318540842545</v>
+        <v>-11.431854248046875</v>
       </c>
       <c r="E78" t="s">
         <v>871</v>
@@ -63803,10 +63814,10 @@
         <v>45108</v>
       </c>
       <c r="C79" s="4">
-        <v>-19.089636114835098</v>
+        <v>-19.089635848999023</v>
       </c>
       <c r="D79" s="4">
-        <v>-17.603534675453801</v>
+        <v>-17.603534698486328</v>
       </c>
       <c r="E79" t="s">
         <v>872</v>
@@ -63820,10 +63831,10 @@
         <v>45200</v>
       </c>
       <c r="C80" s="4">
-        <v>-67.334918825817596</v>
+        <v>-67.334915161132813</v>
       </c>
       <c r="D80" s="4">
-        <v>-67.334918825817596</v>
+        <v>-67.334915161132813</v>
       </c>
       <c r="E80" t="s">
         <v>873</v>
@@ -63837,10 +63848,10 @@
         <v>45292</v>
       </c>
       <c r="C81" s="4">
-        <v>27.419518552872699</v>
+        <v>27.419519424438477</v>
       </c>
       <c r="D81" s="4">
-        <v>28.627862467492701</v>
+        <v>28.627862930297852</v>
       </c>
       <c r="E81" t="s">
         <v>874</v>
@@ -63854,10 +63865,10 @@
         <v>45383</v>
       </c>
       <c r="C82" s="4">
-        <v>45.682552659431302</v>
+        <v>45.682552337646484</v>
       </c>
       <c r="D82" s="4">
-        <v>45.682552659431302</v>
+        <v>45.682552337646484</v>
       </c>
       <c r="E82" t="s">
         <v>875</v>
